--- a/stat.xlsx
+++ b/stat.xlsx
@@ -111,7 +111,7 @@
     <t>"place = neighbourhood", 20
 "type = multipolygon", 9
 "place = hamlet", 18
-"place = village", 212
+"place = village", 213
 "place = quarter", 24
 "place = suburb", 46</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Stort, uregulert gards- og boligområde</t>
   </si>
   <si>
-    <t>"place = neighbourhood", 19
+    <t>"place = neighbourhood", 20
 "place = hamlet", 168
 "place = village", 199
 "place = suburb", 19</t>
@@ -186,7 +186,7 @@
     <t>"place = neighbourhood", 63
 "place = hamlet", 786
 "place = village", 37
-"place = farm", 40</t>
+"place = farm", 41</t>
   </si>
   <si>
     <t>place=hamlet</t>
@@ -588,7 +588,7 @@
     <t>Bruksnavn, vanligvis (større) landbrukseiendom (jf. § 8 i lov om stadnamn,  og § 54 i matrikkelforskriften). Navn på én eiendom med ett bruksnummer under ett gardsnummer. Objektkoordinaten ligger normalt på våningshuset (hvis dette finnes).</t>
   </si>
   <si>
-    <t>"place = farm", 28706</t>
+    <t>"place = farm", 28709</t>
   </si>
   <si>
     <t>place=farm</t>
@@ -1464,7 +1464,7 @@
 "layer = -1", 38
 "width = 2", 53
 "width = 3", 23
-"waterway = river", 55
+"waterway = river", 56
 "waterway = stream", 266</t>
   </si>
   <si>
@@ -1670,7 +1670,7 @@
   </si>
   <si>
     <t>"type = multipolygon", 291
-"natural = water", 380
+"natural = water", 381
 "water = lake", 254</t>
   </si>
   <si>
@@ -1686,8 +1686,8 @@
     <t>Lite vann</t>
   </si>
   <si>
-    <t>"type = multipolygon", 1138
-"natural = water", 2480
+    <t>"type = multipolygon", 1139
+"natural = water", 2482
 "water = lake", 928</t>
   </si>
   <si>
@@ -1759,7 +1759,7 @@
     <t>To eller flere middels store vann</t>
   </si>
   <si>
-    <t>"natural = water", 2
+    <t>"natural = water", 3
 "water = lake", 2</t>
   </si>
   <si>
@@ -3673,8 +3673,8 @@
     <t>Arm av havet inn i fastlandet</t>
   </si>
   <si>
-    <t>"natural = bay", 137
-"bay = fjord", 135
+    <t>"natural = bay", 138
+"bay = fjord", 136
 "type = multipolygon", 13</t>
   </si>
   <si>
@@ -3772,7 +3772,7 @@
 "seamark:type = rock", 126
 "natural = shoal", 77
 "natural = coastline", 466
-"natural = rock", 344</t>
+"natural = rock", 346</t>
   </si>
   <si>
     <t>fixme=consider seamark:type=rock or natural=shoal</t>
@@ -3856,7 +3856,7 @@
     <t>Kil, bukt</t>
   </si>
   <si>
-    <t>"natural = bay", 1583</t>
+    <t>"natural = bay", 1590</t>
   </si>
   <si>
     <t>øyISjø</t>
@@ -3871,7 +3871,7 @@
     <t>Tørt landområde atskilt fra fastlandet</t>
   </si>
   <si>
-    <t>"place = islet", 127
+    <t>"place = islet", 128
 "type = multipolygon", 110
 "natural = wood", 8
 "natural = coastline", 130
@@ -3924,7 +3924,7 @@
   </si>
   <si>
     <t>"place = locality", 53
-"natural = cape", 875</t>
+"natural = cape", 883</t>
   </si>
   <si>
     <t>eidISjø</t>
@@ -4229,7 +4229,7 @@
     <t>Mindre fjell</t>
   </si>
   <si>
-    <t>"natural = peak", 14
+    <t>"natural = peak", 15
 "place = locality", 138
 "natural = hill", 224</t>
   </si>
@@ -4252,7 +4252,7 @@
     <t>Stort fjell</t>
   </si>
   <si>
-    <t>"natural = peak", 153
+    <t>"natural = peak", 155
 "place = locality", 167
 "man_made = survey_point", 18
 "natural = hill", 169</t>
@@ -4309,7 +4309,7 @@
     <t>Langstrakt høydedrag</t>
   </si>
   <si>
-    <t>"natural = peak", 415
+    <t>"natural = peak", 423
 "place = locality", 1757
 "natural = ridge", 286
 "natural = hill", 3119</t>
@@ -4350,7 +4350,7 @@
     <t>Liten, markant terrengform</t>
   </si>
   <si>
-    <t>"natural = peak", 121
+    <t>"natural = peak", 123
 "place = locality", 746
 "natural = hill", 1064</t>
   </si>
@@ -4416,7 +4416,7 @@
     <t>Mellomstor eller liten dal</t>
   </si>
   <si>
-    <t>"natural = valley", 1085
+    <t>"natural = valley", 1087
 "place = locality", 759</t>
   </si>
   <si>
@@ -4448,7 +4448,7 @@
     <t>Markant senkning i fjell el. berg</t>
   </si>
   <si>
-    <t>"natural = valley", 69
+    <t>"natural = valley", 70
 "place = locality", 55</t>
   </si>
   <si>
@@ -5370,7 +5370,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -5416,7 +5416,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -5458,7 +5458,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -5507,7 +5507,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="n">
-        <v>2117</v>
+        <v>2183</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -5555,7 +5555,7 @@
         <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>3526</v>
+        <v>3607</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -5597,7 +5597,7 @@
         <v>52</v>
       </c>
       <c r="F7" t="n">
-        <v>2852</v>
+        <v>2931</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -5639,7 +5639,7 @@
         <v>57</v>
       </c>
       <c r="F8" t="n">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -5723,7 +5723,7 @@
         <v>68</v>
       </c>
       <c r="F10" t="n">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -5765,7 +5765,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -5807,7 +5807,7 @@
         <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -5891,7 +5891,7 @@
         <v>92</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>19</v>
@@ -5933,7 +5933,7 @@
         <v>97</v>
       </c>
       <c r="F15" t="n">
-        <v>13109</v>
+        <v>13282</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -5978,7 +5978,7 @@
         <v>104</v>
       </c>
       <c r="F16" t="n">
-        <v>14616</v>
+        <v>14883</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -6020,7 +6020,7 @@
         <v>109</v>
       </c>
       <c r="F17" t="n">
-        <v>10578</v>
+        <v>10703</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -6151,7 +6151,7 @@
         <v>128</v>
       </c>
       <c r="F20" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>80</v>
@@ -6193,7 +6193,7 @@
         <v>134</v>
       </c>
       <c r="F21" t="n">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>513</v>
@@ -6278,7 +6278,7 @@
         <v>146</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>45</v>
@@ -6368,7 +6368,7 @@
         <v>159</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>12</v>
@@ -6409,7 +6409,7 @@
         <v>165</v>
       </c>
       <c r="F26" t="n">
-        <v>105969</v>
+        <v>107885</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -6454,7 +6454,7 @@
         <v>172</v>
       </c>
       <c r="F27" t="n">
-        <v>21357</v>
+        <v>21644</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -6502,7 +6502,7 @@
         <v>179</v>
       </c>
       <c r="F28" t="n">
-        <v>4754</v>
+        <v>4790</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -6544,7 +6544,7 @@
         <v>184</v>
       </c>
       <c r="F29" t="n">
-        <v>3557</v>
+        <v>3641</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>2651</v>
@@ -6586,7 +6586,7 @@
         <v>189</v>
       </c>
       <c r="F30" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>80</v>
@@ -6628,7 +6628,7 @@
         <v>195</v>
       </c>
       <c r="F31" t="n">
-        <v>32689</v>
+        <v>33415</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -6676,7 +6676,7 @@
         <v>201</v>
       </c>
       <c r="F32" t="n">
-        <v>2372</v>
+        <v>2498</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>97</v>
@@ -6721,7 +6721,7 @@
         <v>208</v>
       </c>
       <c r="F33" t="n">
-        <v>2181</v>
+        <v>2216</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>1732</v>
@@ -6805,7 +6805,7 @@
         <v>220</v>
       </c>
       <c r="F35" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>342</v>
@@ -6847,7 +6847,7 @@
         <v>226</v>
       </c>
       <c r="F36" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>55</v>
@@ -6889,7 +6889,7 @@
         <v>232</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>67</v>
@@ -6931,7 +6931,7 @@
         <v>238</v>
       </c>
       <c r="F38" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>251</v>
@@ -6973,7 +6973,7 @@
         <v>244</v>
       </c>
       <c r="F39" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>65</v>
@@ -7135,7 +7135,7 @@
         <v>267</v>
       </c>
       <c r="F43" t="n">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>367</v>
@@ -7177,7 +7177,7 @@
         <v>273</v>
       </c>
       <c r="F44" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>271</v>
@@ -7219,7 +7219,7 @@
         <v>279</v>
       </c>
       <c r="F45" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>198</v>
@@ -7261,7 +7261,7 @@
         <v>285</v>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>302</v>
@@ -7303,7 +7303,7 @@
         <v>291</v>
       </c>
       <c r="F47" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>99</v>
@@ -7345,7 +7345,7 @@
         <v>297</v>
       </c>
       <c r="F48" t="n">
-        <v>976</v>
+        <v>1002</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -7390,7 +7390,7 @@
         <v>304</v>
       </c>
       <c r="F49" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>152</v>
@@ -7474,7 +7474,7 @@
         <v>316</v>
       </c>
       <c r="F51" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>29</v>
@@ -7516,7 +7516,7 @@
         <v>324</v>
       </c>
       <c r="F52" t="n">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>463</v>
@@ -7558,7 +7558,7 @@
         <v>330</v>
       </c>
       <c r="F53" t="n">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>1042</v>
@@ -7600,7 +7600,7 @@
         <v>336</v>
       </c>
       <c r="F54" t="n">
-        <v>7485</v>
+        <v>7678</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>7211</v>
@@ -7642,7 +7642,7 @@
         <v>342</v>
       </c>
       <c r="F55" t="n">
-        <v>1340</v>
+        <v>1356</v>
       </c>
       <c r="G55" s="12" t="n">
         <v>1296</v>
@@ -7684,7 +7684,7 @@
         <v>348</v>
       </c>
       <c r="F56" t="n">
-        <v>4313</v>
+        <v>4457</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>4298</v>
@@ -7726,7 +7726,7 @@
         <v>354</v>
       </c>
       <c r="F57" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>255</v>
@@ -7768,7 +7768,7 @@
         <v>360</v>
       </c>
       <c r="F58" t="n">
-        <v>9816</v>
+        <v>10078</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>9498</v>
@@ -7810,7 +7810,7 @@
         <v>365</v>
       </c>
       <c r="F59" t="n">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>390</v>
@@ -7853,7 +7853,7 @@
         <v>370</v>
       </c>
       <c r="F60" t="n">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>923</v>
@@ -7933,7 +7933,7 @@
         <v>381</v>
       </c>
       <c r="F62" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>399</v>
@@ -8018,7 +8018,7 @@
         <v>392</v>
       </c>
       <c r="F64" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>199</v>
@@ -8103,7 +8103,7 @@
         <v>403</v>
       </c>
       <c r="F66" t="n">
-        <v>9365</v>
+        <v>9659</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>10146</v>
@@ -8145,7 +8145,7 @@
         <v>409</v>
       </c>
       <c r="F67" t="n">
-        <v>43961</v>
+        <v>45280</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -8224,7 +8224,7 @@
         <v>420</v>
       </c>
       <c r="F69" t="n">
-        <v>3528</v>
+        <v>3602</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>3394</v>
@@ -8266,7 +8266,7 @@
         <v>426</v>
       </c>
       <c r="F70" t="n">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>461</v>
@@ -8311,7 +8311,7 @@
         <v>433</v>
       </c>
       <c r="F71" t="n">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>1004</v>
@@ -8351,7 +8351,7 @@
         <v>437</v>
       </c>
       <c r="F72" t="n">
-        <v>2678</v>
+        <v>2717</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2461</v>
@@ -8397,7 +8397,7 @@
         <v>443</v>
       </c>
       <c r="F73" t="n">
-        <v>1903</v>
+        <v>1942</v>
       </c>
       <c r="G73" s="12" t="n">
         <v>1780</v>
@@ -8481,7 +8481,7 @@
         <v>454</v>
       </c>
       <c r="F75" t="n">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>654</v>
@@ -8598,7 +8598,7 @@
         <v>469</v>
       </c>
       <c r="F78" t="n">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>470</v>
@@ -8640,7 +8640,7 @@
         <v>474</v>
       </c>
       <c r="F79" t="n">
-        <v>13014</v>
+        <v>13675</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>14069</v>
@@ -8682,7 +8682,7 @@
         <v>479</v>
       </c>
       <c r="F80" t="n">
-        <v>60120</v>
+        <v>61807</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -8724,7 +8724,7 @@
         <v>485</v>
       </c>
       <c r="F81" t="n">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>1286</v>
@@ -8766,7 +8766,7 @@
         <v>491</v>
       </c>
       <c r="F82" t="n">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="G82" s="12" t="n">
         <v>884</v>
@@ -8809,7 +8809,7 @@
         <v>497</v>
       </c>
       <c r="F83" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>129</v>
@@ -8852,7 +8852,7 @@
         <v>502</v>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>166</v>
@@ -8895,7 +8895,7 @@
         <v>507</v>
       </c>
       <c r="F85" t="n">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>687</v>
@@ -8937,7 +8937,7 @@
         <v>514</v>
       </c>
       <c r="F86" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>506</v>
@@ -9065,7 +9065,7 @@
         <v>533</v>
       </c>
       <c r="F89" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>174</v>
@@ -9332,7 +9332,7 @@
         <v>572</v>
       </c>
       <c r="F96" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G96" s="12" t="n">
         <v>120</v>
@@ -9411,7 +9411,7 @@
         <v>584</v>
       </c>
       <c r="F98" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G98" s="12" t="n">
         <v>98</v>
@@ -9453,7 +9453,7 @@
         <v>590</v>
       </c>
       <c r="F99" t="n">
-        <v>2282</v>
+        <v>2326</v>
       </c>
       <c r="G99" s="12" t="n">
         <v>2333</v>
@@ -9540,7 +9540,7 @@
         <v>601</v>
       </c>
       <c r="F101" t="n">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="G101" s="12" t="n">
         <v>490</v>
@@ -9776,7 +9776,7 @@
         <v>626</v>
       </c>
       <c r="F108" t="n">
-        <v>8862</v>
+        <v>8885</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>10197</v>
@@ -9861,7 +9861,7 @@
         <v>637</v>
       </c>
       <c r="F110" t="n">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>1216</v>
@@ -10195,7 +10195,7 @@
         <v>681</v>
       </c>
       <c r="F119" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>341</v>
@@ -10243,7 +10243,7 @@
         <v>688</v>
       </c>
       <c r="F120" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>407</v>
@@ -10405,7 +10405,7 @@
         <v>708</v>
       </c>
       <c r="F124" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G124" s="12" t="n">
         <v>64</v>
@@ -10529,7 +10529,7 @@
         <v>725</v>
       </c>
       <c r="F127" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G127" s="12" t="n">
         <v>188</v>
@@ -10572,7 +10572,7 @@
         <v>731</v>
       </c>
       <c r="F128" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G128" s="12" t="n">
         <v>400</v>
@@ -10666,7 +10666,7 @@
         <v>746</v>
       </c>
       <c r="F130" t="n">
-        <v>6736</v>
+        <v>6927</v>
       </c>
       <c r="G130" s="12" t="n">
         <v>24621</v>
@@ -10708,7 +10708,7 @@
         <v>752</v>
       </c>
       <c r="F131" t="n">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="G131" s="12" t="n">
         <v>729</v>
@@ -10753,7 +10753,7 @@
         <v>759</v>
       </c>
       <c r="F132" t="n">
-        <v>4549</v>
+        <v>4584</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>4064</v>
@@ -10795,7 +10795,7 @@
         <v>765</v>
       </c>
       <c r="F133" t="n">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>673</v>
@@ -10840,7 +10840,7 @@
         <v>771</v>
       </c>
       <c r="F134" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>70</v>
@@ -10958,7 +10958,7 @@
         <v>785</v>
       </c>
       <c r="F137" t="n">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>788</v>
@@ -11046,7 +11046,7 @@
         <v>796</v>
       </c>
       <c r="F139" t="n">
-        <v>1092</v>
+        <v>1108</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>792</v>
@@ -11221,7 +11221,7 @@
         <v>818</v>
       </c>
       <c r="F144" t="n">
-        <v>1748</v>
+        <v>1785</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>1629</v>
@@ -11266,7 +11266,7 @@
         <v>825</v>
       </c>
       <c r="F145" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>653</v>
@@ -11308,7 +11308,7 @@
         <v>831</v>
       </c>
       <c r="F146" t="n">
-        <v>4642</v>
+        <v>4661</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>3733</v>
@@ -11350,7 +11350,7 @@
         <v>836</v>
       </c>
       <c r="F147" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>127</v>
@@ -11438,7 +11438,7 @@
         <v>849</v>
       </c>
       <c r="F149" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G149" s="12" t="n">
         <v>98</v>
@@ -11649,7 +11649,7 @@
         <v>879</v>
       </c>
       <c r="F154" t="n">
-        <v>6254</v>
+        <v>6307</v>
       </c>
       <c r="G154" s="12" t="n">
         <v>5340</v>
@@ -11695,7 +11695,7 @@
         <v>885</v>
       </c>
       <c r="F155" t="n">
-        <v>3150</v>
+        <v>3277</v>
       </c>
       <c r="G155" s="12" t="n">
         <v>2408</v>
@@ -11737,7 +11737,7 @@
         <v>891</v>
       </c>
       <c r="F156" t="n">
-        <v>8082</v>
+        <v>8352</v>
       </c>
       <c r="G156" s="12" t="n">
         <v>4914</v>
@@ -11779,7 +11779,7 @@
         <v>896</v>
       </c>
       <c r="F157" t="n">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G157" s="12" t="n">
         <v>314</v>
@@ -11824,7 +11824,7 @@
         <v>902</v>
       </c>
       <c r="F158" t="n">
-        <v>3295</v>
+        <v>3429</v>
       </c>
       <c r="G158" s="12" t="n">
         <v>3166</v>
@@ -11914,7 +11914,7 @@
         <v>913</v>
       </c>
       <c r="F160" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>491</v>
@@ -12016,7 +12016,7 @@
         <v>926</v>
       </c>
       <c r="F163" t="n">
-        <v>3411</v>
+        <v>3427</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>2950</v>
@@ -12059,7 +12059,7 @@
         <v>932</v>
       </c>
       <c r="F164" t="n">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="G164" s="12" t="n">
         <v>2354</v>
@@ -12138,7 +12138,7 @@
         <v>942</v>
       </c>
       <c r="F166" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>121</v>
@@ -12272,7 +12272,7 @@
         <v>958</v>
       </c>
       <c r="F170" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="G170" s="12" t="n">
         <v>273</v>
@@ -12314,7 +12314,7 @@
         <v>964</v>
       </c>
       <c r="F171" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>127</v>
@@ -12391,7 +12391,7 @@
         <v>974</v>
       </c>
       <c r="F173" t="n">
-        <v>7823</v>
+        <v>8307</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>7616</v>
@@ -12473,7 +12473,7 @@
         <v>984</v>
       </c>
       <c r="F175" t="n">
-        <v>52392</v>
+        <v>53639</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>50738</v>
@@ -12956,7 +12956,7 @@
         <v>1042</v>
       </c>
       <c r="F188" t="n">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>233</v>
@@ -13036,7 +13036,7 @@
         <v>1052</v>
       </c>
       <c r="F190" t="n">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>302</v>
@@ -13121,7 +13121,7 @@
         <v>1064</v>
       </c>
       <c r="F192" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>72</v>
@@ -13201,7 +13201,7 @@
         <v>1076</v>
       </c>
       <c r="F194" t="n">
-        <v>1736</v>
+        <v>1788</v>
       </c>
       <c r="G194" s="12" t="n">
         <v>1901</v>
@@ -13466,7 +13466,7 @@
         <v>1108</v>
       </c>
       <c r="F201" t="n">
-        <v>14021</v>
+        <v>14114</v>
       </c>
       <c r="G201" s="12" t="n">
         <v>13989</v>
@@ -13511,7 +13511,7 @@
         <v>1113</v>
       </c>
       <c r="F202" t="n">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="G202" s="12" t="n">
         <v>1206</v>
@@ -13559,7 +13559,7 @@
         <v>1117</v>
       </c>
       <c r="F203" t="n">
-        <v>13669</v>
+        <v>13788</v>
       </c>
       <c r="G203" s="12" t="n">
         <v>13694</v>
@@ -13668,7 +13668,7 @@
         <v>1129</v>
       </c>
       <c r="F206" t="n">
-        <v>4708</v>
+        <v>4746</v>
       </c>
       <c r="G206" s="12" t="n">
         <v>4494</v>
@@ -13710,7 +13710,7 @@
         <v>1134</v>
       </c>
       <c r="F207" t="n">
-        <v>26672</v>
+        <v>27282</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>26737</v>
@@ -13753,7 +13753,7 @@
         <v>1139</v>
       </c>
       <c r="F208" t="n">
-        <v>4004</v>
+        <v>4026</v>
       </c>
       <c r="G208" s="12" t="n">
         <v>4179</v>
@@ -13795,7 +13795,7 @@
         <v>1144</v>
       </c>
       <c r="F209" t="n">
-        <v>19915</v>
+        <v>19982</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>20058</v>
@@ -13837,7 +13837,7 @@
         <v>1149</v>
       </c>
       <c r="F210" t="n">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="G210" s="12" t="n">
         <v>495</v>
@@ -13879,7 +13879,7 @@
         <v>1154</v>
       </c>
       <c r="F211" t="n">
-        <v>23280</v>
+        <v>23910</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>24024</v>
@@ -13922,7 +13922,7 @@
         <v>1159</v>
       </c>
       <c r="F212" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G212" s="12" t="n">
         <v>240</v>
@@ -13964,7 +13964,7 @@
         <v>1163</v>
       </c>
       <c r="F213" t="n">
-        <v>2357</v>
+        <v>2402</v>
       </c>
       <c r="G213" s="12" t="n">
         <v>2328</v>
@@ -14009,7 +14009,7 @@
         <v>1168</v>
       </c>
       <c r="F214" t="n">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1405</v>
@@ -14052,7 +14052,7 @@
         <v>1173</v>
       </c>
       <c r="F215" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G215" s="12" t="n">
         <v>351</v>
@@ -14094,7 +14094,7 @@
         <v>1178</v>
       </c>
       <c r="F216" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G216" s="12" t="n">
         <v>318</v>
@@ -14137,7 +14137,7 @@
         <v>1184</v>
       </c>
       <c r="F217" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>109</v>
@@ -14696,7 +14696,7 @@
         <v>1242</v>
       </c>
       <c r="F236" t="n">
-        <v>8041</v>
+        <v>8230</v>
       </c>
       <c r="G236" s="12" t="n">
         <v>7739</v>
@@ -14739,7 +14739,7 @@
         <v>1247</v>
       </c>
       <c r="F237" t="n">
-        <v>4232</v>
+        <v>4319</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>4173</v>
@@ -14781,7 +14781,7 @@
         <v>1252</v>
       </c>
       <c r="F238" t="n">
-        <v>15402</v>
+        <v>15890</v>
       </c>
       <c r="G238" s="12" t="n">
         <v>15244</v>
@@ -14829,7 +14829,7 @@
         <v>1259</v>
       </c>
       <c r="F239" t="n">
-        <v>21612</v>
+        <v>22282</v>
       </c>
       <c r="G239" s="12" t="n">
         <v>22178</v>
@@ -14877,7 +14877,7 @@
         <v>1265</v>
       </c>
       <c r="F240" t="n">
-        <v>9435</v>
+        <v>9456</v>
       </c>
       <c r="G240" s="12" t="n">
         <v>8191</v>
@@ -14925,7 +14925,7 @@
         <v>1271</v>
       </c>
       <c r="F241" t="n">
-        <v>10088</v>
+        <v>10185</v>
       </c>
       <c r="G241" s="12" t="n">
         <v>9146</v>
@@ -14970,7 +14970,7 @@
         <v>1276</v>
       </c>
       <c r="F242" t="n">
-        <v>58181</v>
+        <v>59589</v>
       </c>
       <c r="G242" s="12" t="n">
         <v>57885</v>
@@ -15021,7 +15021,7 @@
         <v>1282</v>
       </c>
       <c r="F243" t="n">
-        <v>7101</v>
+        <v>7164</v>
       </c>
       <c r="G243" s="12" t="n">
         <v>6752</v>
@@ -15066,7 +15066,7 @@
         <v>1288</v>
       </c>
       <c r="F244" t="n">
-        <v>49079</v>
+        <v>50137</v>
       </c>
       <c r="G244" s="12" t="n">
         <v>48481</v>
@@ -15111,7 +15111,7 @@
         <v>1293</v>
       </c>
       <c r="F245" t="n">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="G245" s="12" t="n">
         <v>1648</v>
@@ -15159,7 +15159,7 @@
         <v>1299</v>
       </c>
       <c r="F246" t="n">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="G246" s="12" t="n">
         <v>1076</v>
@@ -15239,7 +15239,7 @@
         <v>1309</v>
       </c>
       <c r="F248" t="n">
-        <v>39949</v>
+        <v>40853</v>
       </c>
       <c r="G248" s="12" t="n">
         <v>38753</v>
@@ -15284,7 +15284,7 @@
         <v>1314</v>
       </c>
       <c r="F249" t="n">
-        <v>6948</v>
+        <v>6978</v>
       </c>
       <c r="G249" s="12" t="n">
         <v>6491</v>
@@ -15329,7 +15329,7 @@
         <v>1319</v>
       </c>
       <c r="F250" t="n">
-        <v>12160</v>
+        <v>12348</v>
       </c>
       <c r="G250" s="12" t="n">
         <v>11649</v>
@@ -15374,7 +15374,7 @@
         <v>1324</v>
       </c>
       <c r="F251" t="n">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="G251" s="12" t="n">
         <v>1747</v>
@@ -15416,7 +15416,7 @@
         <v>1330</v>
       </c>
       <c r="F252" t="n">
-        <v>3356</v>
+        <v>3394</v>
       </c>
       <c r="G252" s="12" t="n">
         <v>2948</v>
@@ -15464,7 +15464,7 @@
         <v>1336</v>
       </c>
       <c r="F253" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G253" s="12" t="n">
         <v>340</v>
@@ -15532,7 +15532,7 @@
         <v>1344</v>
       </c>
       <c r="F255" t="n">
-        <v>13219</v>
+        <v>13385</v>
       </c>
       <c r="G255" s="12" t="n">
         <v>11974</v>
@@ -15577,7 +15577,7 @@
         <v>1350</v>
       </c>
       <c r="F256" t="n">
-        <v>34297</v>
+        <v>34782</v>
       </c>
       <c r="G256" s="12" t="n">
         <v>32819</v>
@@ -15622,7 +15622,7 @@
         <v>1355</v>
       </c>
       <c r="F257" t="n">
-        <v>1564</v>
+        <v>1573</v>
       </c>
       <c r="G257" s="12" t="n">
         <v>1437</v>
@@ -15664,7 +15664,7 @@
         <v>1361</v>
       </c>
       <c r="F258" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>337</v>
@@ -15709,7 +15709,7 @@
         <v>1368</v>
       </c>
       <c r="F259" t="n">
-        <v>3114</v>
+        <v>3129</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>2726</v>
@@ -15752,7 +15752,7 @@
         <v>1374</v>
       </c>
       <c r="F260" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>279</v>
@@ -15792,7 +15792,7 @@
         <v>1379</v>
       </c>
       <c r="F261" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>513</v>
@@ -15835,7 +15835,7 @@
         <v>1383</v>
       </c>
       <c r="F262" t="n">
-        <v>2636</v>
+        <v>2650</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>2244</v>
@@ -15877,7 +15877,7 @@
         <v>1388</v>
       </c>
       <c r="F263" t="n">
-        <v>6875</v>
+        <v>6915</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>6057</v>
@@ -16031,7 +16031,7 @@
         <v>1407</v>
       </c>
       <c r="F267" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -82,12 +82,14 @@
     <t>Bymessig tettsted med handels- og servicefunksjoner og konsentrert bebyggelse, jf. kommunelovens § 3 punkt 5. Skriv vedtaksdato i merknadsfeltet om bystatus er gitt før eller etter 1996.</t>
   </si>
   <si>
-    <t>"source:population = SSB", 6
-"is_in:country = Norway", 4
-"is_in = Vestfold, Norway", 8
-"email = postmottak@kristiansand.kommune.no", 2
+    <t>"email = postmottak@kristiansand.kommune.no", 2
+"source:population = SSB", 6
+"ref:ssb_tettsted = 4011", 2
 "place = town", 53
-"place = city", 3</t>
+"ref:ssb_tettsted = 4091", 2
+"place = city", 3
+"ref:ssb_tettsted = 4002", 2
+"is_in = Vestfold, Norway", 2</t>
   </si>
   <si>
     <t>place=town</t>
@@ -108,12 +110,12 @@
     <t>Mindre, bymessig bebygd område med sentrumskarakter</t>
   </si>
   <si>
-    <t>"place = neighbourhood", 20
-"type = multipolygon", 9
+    <t>"type = multipolygon", 9
+"place = quarter", 24
 "place = hamlet", 18
-"place = village", 213
-"place = quarter", 24
-"place = suburb", 46</t>
+"place = neighbourhood", 20
+"place = suburb", 46
+"place = village", 213</t>
   </si>
   <si>
     <t>place=village</t>
@@ -133,9 +135,9 @@
   <si>
     <t>"place = quarter", 62
 "place = suburb", 97
-"place = hamlet", 55
+"place = hamlet", 53
 "place = neighbourhood", 187
-"place = village", 80</t>
+"place = village", 84</t>
   </si>
   <si>
     <t>place=quarter</t>
@@ -160,7 +162,7 @@
   </si>
   <si>
     <t>"place = neighbourhood", 20
-"place = hamlet", 168
+"place = hamlet", 167
 "place = village", 199
 "place = suburb", 19</t>
   </si>
@@ -204,7 +206,7 @@
     <t>Regulert boligområde</t>
   </si>
   <si>
-    <t>"place = neighbourhood", 808
+    <t>"place = neighbourhood", 809
 "place = quarter", 175
 "place = suburb", 49</t>
   </si>
@@ -225,10 +227,10 @@
 "type = multipolygon", 12
 "man_made = wastewater_plant", 2
 "place = locality", 26
-"landuse = industrial", 52
+"landuse = industrial", 53
 "place = farm", 2
 "natural = cape", 2
-"place = quarter", 19
+"place = quarter", 18
 "landuse = retail", 2
 "building = industrial", 4
 "place = suburb", 7
@@ -250,7 +252,7 @@
     <t>"place = neighbourhood", 14
 "place = village", 4
 "place = quarter", 21
-"place = suburb", 119</t>
+"place = suburb", 118</t>
   </si>
   <si>
     <t>place=suburb</t>
@@ -359,7 +361,7 @@
     <t>Navn på mindre eiendom for fast bosetting. Hovedsaklig eiendom hvor eier  kan bestemme skrivemåten (jf. § 8 i lov om stadnamn og § 54 i matrikkelforskriften). Kan også omfatte eget navn på bygg, eller våningshus/gardsbruk som ikke er eiendom. Gitt eget matrikkelnummer på større</t>
   </si>
   <si>
-    <t>"place = isolated_dwelling", 3684
+    <t>"place = isolated_dwelling", 3689
 "place = farm", 1056</t>
   </si>
   <si>
@@ -383,8 +385,8 @@
   <si>
     <t>"historic = shieling", 733
 "place = locality", 240
-"building = cabin", 3900
-"place = isolated_dwelling", 4965</t>
+"building = cabin", 3879
+"place = isolated_dwelling", 4972</t>
   </si>
   <si>
     <t>gammelBosettingsplass</t>
@@ -400,7 +402,7 @@
   </si>
   <si>
     <t>"historic = shieling", 1081
-"place = locality", 5858
+"place = locality", 5868
 "historic = ruins", 844</t>
   </si>
   <si>
@@ -442,7 +444,6 @@
   <si>
     <t>"leisure = park", 31
 "natural = wood", 3
-"landuse = cemetery", 2
 "type = multipolygon", 4</t>
   </si>
   <si>
@@ -482,10 +483,11 @@
   </si>
   <si>
     <t>"leisure = sports_centre", 8
-"type = multipolygon", 5
+"type = multipolygon", 7
 "place = locality", 18
+"leisure = track", 3
 "sport = soccer", 32
-"leisure = pitch", 83
+"leisure = pitch", 81
 "piste:type = ski_jump", 8
 "surface = grass", 5
 "sport = horse_racing", 5</t>
@@ -588,7 +590,7 @@
     <t>Bruksnavn, vanligvis (større) landbrukseiendom (jf. § 8 i lov om stadnamn,  og § 54 i matrikkelforskriften). Navn på én eiendom med ett bruksnummer under ett gardsnummer. Objektkoordinaten ligger normalt på våningshuset (hvis dette finnes).</t>
   </si>
   <si>
-    <t>"place = farm", 28709</t>
+    <t>"place = farm", 28727</t>
   </si>
   <si>
     <t>place=farm</t>
@@ -609,9 +611,9 @@
     <t>Enklere landbruksbebyggelse. Kan ha periodisk fast bosetting, vanligvis sommerstid</t>
   </si>
   <si>
-    <t>"historic = shieling", 6312
-"place = locality", 5176
-"building = cabin", 612
+    <t>"historic = shieling", 6316
+"place = locality", 5180
+"building = cabin", 610
 "place = isolated_dwelling", 1132</t>
   </si>
   <si>
@@ -633,10 +635,10 @@
     <t>Bu, naust, uthus, fjøs, gamme</t>
   </si>
   <si>
-    <t>"building = yes", 77
+    <t>"building = yes", 75
 "historic = shieling", 316
-"place = locality", 1639
-"building = farm_auxiliary", 532</t>
+"place = locality", 1642
+"building = farm_auxiliary", 534</t>
   </si>
   <si>
     <t>eiendom</t>
@@ -686,8 +688,8 @@
     <t>Gardsnavn; felles navn for et helt gardsnummer (jf. § 8 i lov om stadnamn),  og som ett eller flere bruksnummer er knyttet til. Punktet/koordinaten ligger normalt i tunet på et sentralt plassert bruk. Hvis to eller flere garder har forskjellige objekt for hvert gardsnummer. (Se også navnetype 108 Bruk.) gardsnummer, men samme navn, registreres det ett geografisk</t>
   </si>
   <si>
-    <t>"place = hamlet", 1932
-"place = farm", 8185</t>
+    <t>"place = hamlet", 1936
+"place = farm", 8189</t>
   </si>
   <si>
     <t>Used for main farm in this area. 60/40 hamlet/farm in test cases.</t>
@@ -705,7 +707,7 @@
     <t>Opprinnelig gardsnavn fra før garden ble oppdelt i gards- og bruksenheter. Navnegard brukes om to eller flere gardsnummer, og gardsnumrene oppgis i merknadsfeltet. Objektet representeres med ett punkt / én koordinat plassert i tunet til ett sentralt bruk. Dette er hovedpunktet for navneobjektet (navneenheten). Arealet for navnegarden vises med et punkt/koordinat på to eller flere bruk i utkanten av området som viser utbredelsen av navnet.</t>
   </si>
   <si>
-    <t>"place = hamlet", 450
+    <t>"place = hamlet", 452
 "place = farm", 113</t>
   </si>
   <si>
@@ -727,10 +729,10 @@
     <t>Offentlig og privat skole</t>
   </si>
   <si>
-    <t>"building = yes", 78
+    <t>"building = yes", 76
 "grades = 1-10", 25
-"amenity = school", 177
-"fee = no", 137
+"amenity = school", 178
+"fee = no", 138
 "grades = 11-14", 18
 "isced:level = 1;2", 29
 "place = locality", 51
@@ -738,13 +740,13 @@
 "isced:level = 3", 20
 "was:amenity = school", 8
 "disused:amenity = school", 8
-"operator:type = public", 121
+"operator:type = public", 122
 "fee = yes", 14
-"building = school", 13
-"isced:level = 2", 20
+"building = school", 14
+"isced:level = 2", 21
 "isced:level = 1", 82
 "grades = 1-4", 8
-"grades = 8-10", 20
+"grades = 8-10", 21
 "operator:type = private", 14
 "operator:type = public/government", 16</t>
   </si>
@@ -871,7 +873,6 @@
   </si>
   <si>
     <t>"government = administrative", 2
-"admin_level = 4", 2
 "building = yes", 2
 "opening_hours = Mo-Fr 08:00-15:45", 2
 "place = locality", 2
@@ -957,8 +958,8 @@
 "landuse = industrial", 19
 "email = kundesenter@hansaborg.no", 2
 "industrial = shipyard", 2
-"industrial = factory", 60
-"building = industrial", 46</t>
+"industrial = factory", 58
+"building = industrial", 44</t>
   </si>
   <si>
     <t>building=industrial; industrial=factory</t>
@@ -1075,7 +1076,7 @@
 "fee = yes", 2
 "historic = shieling", 6
 "dog = no", 2
-"tourism = chalet", 53
+"tourism = chalet", 54
 "capacity = 24", 2
 "ski = yes", 2
 "dnt:iid = 2019", 2
@@ -1228,7 +1229,7 @@
     <t>Kil, bukt i vann eller vassdrag</t>
   </si>
   <si>
-    <t>"natural = bay", 136
+    <t>"natural = bay", 140
 "natural = water", 7</t>
   </si>
   <si>
@@ -1268,8 +1269,8 @@
     <t>Liten øy i ferskvann</t>
   </si>
   <si>
-    <t>"place = islet", 78
-"natural = wood", 20
+    <t>"place = islet", 83
+"natural = wood", 26
 "leaf_type = needleleaved", 4</t>
   </si>
   <si>
@@ -1306,7 +1307,7 @@
     <t>Landområde stikkende ut i ferskvann</t>
   </si>
   <si>
-    <t>"natural = cape", 231</t>
+    <t>"natural = cape", 235</t>
   </si>
   <si>
     <t>eid</t>
@@ -1461,11 +1462,11 @@
   </si>
   <si>
     <t>"tunnel = culvert", 14
-"layer = -1", 38
+"layer = -1", 36
 "width = 2", 53
 "width = 3", 23
-"waterway = river", 56
-"waterway = stream", 266</t>
+"waterway = river", 57
+"waterway = stream", 267</t>
   </si>
   <si>
     <t>waterway=stream</t>
@@ -1550,9 +1551,10 @@
     <t>Dyp elvebunn under foss eller etter et stryk</t>
   </si>
   <si>
-    <t>"place = locality", 4
-"natural = water", 13
-"water = pool", 10
+    <t>"water = pond", 4
+"place = locality", 4
+"natural = water", 12
+"water = pool", 6
 "type = multipolygon", 3</t>
   </si>
   <si>
@@ -1669,8 +1671,8 @@
     <t>Middels stort vann</t>
   </si>
   <si>
-    <t>"type = multipolygon", 291
-"natural = water", 381
+    <t>"type = multipolygon", 303
+"natural = water", 384
 "water = lake", 254</t>
   </si>
   <si>
@@ -1686,8 +1688,8 @@
     <t>Lite vann</t>
   </si>
   <si>
-    <t>"type = multipolygon", 1139
-"natural = water", 2482
+    <t>"type = multipolygon", 1202
+"natural = water", 2496
 "water = lake", 928</t>
   </si>
   <si>
@@ -1775,10 +1777,10 @@
     <t>To eller flere små vann</t>
   </si>
   <si>
-    <t>"natural = water", 53
-"water = lake", 40
-"type = multipolygon", 22
-"place = locality", 6</t>
+    <t>"natural = water", 52
+"water = lake", 39
+"type = multipolygon", 26
+"place = locality", 5</t>
   </si>
   <si>
     <t>infrastruktur</t>
@@ -2162,25 +2164,29 @@
   </si>
   <si>
     <t>"man_made = tunnel", 3
-"bridge = yes", 62
+"bridge = yes", 65
 "old_ref = 202", 2
+"official_ref = 575", 3
 "historic = bridge", 2
 "place = locality", 2
 "highway = secondary", 11
 "int_ref = E 134", 2
 "old_ref = 459", 2
+"width = 3.0", 2
 "old_ref = 158", 2
 "highway = tertiary", 2
 "lit = yes", 4
-"highway = primary", 30
+"source:maxspeed = sign", 2
+"highway = primary", 33
 "old_ref = 408", 2
 "highway = trunk", 4
-"layer = 1", 61
-"surface = asphalt", 6
+"layer = 1", 64
+"surface = asphalt", 9
 "place = suburb", 2
 "layer = -1", 3
 "highway = track", 4
 "nvdb:id = 339480834", 2
+"lanes = 1", 3
 "int_ref = E 39", 2
 "highway = residential", 2
 "waterway = stream", 2
@@ -2217,24 +2223,24 @@
     <t>Vanlig tunnel, rasoverbygg og undergang på gangveg, veg og jernbane. Angi ett punkt i hver ende for lange og ett punkt midt på for korte tunneler.</t>
   </si>
   <si>
-    <t>"maxspeed:tilting = 100", 6
+    <t>"tunnel = yes", 10
+"layer = -1", 10
+"maxspeed:plus = 85", 6
+"electrified = contact_line", 7
+"frequency = 16.67", 7
+"maxspeed:tilting = 100", 6
 "voltage = 15000", 6
-"passenger_lines = 1", 6
-"electrified = contact_line", 7
-"layer = -1", 9
-"highway = trunk", 2
+"maxspeed:hgv = 80", 6
+"gauge = 1435", 7
 "bicycle = no", 2
-"maxspeed:hgv = 80", 6
-"maxheight = 4.5", 2
-"gauge = 1435", 7
 "lit = yes", 2
 "foot = no", 2
-"maxspeed:plus = 85", 6
-"tunnel = yes", 9
+"usage = main", 6
+"passenger_lines = 1", 6
+"highway = trunk", 2
+"maxheight = 4.5", 2
 "int_ref = E 39", 2
-"usage = main", 6
-"railway = rail", 6
-"frequency = 16.67", 7</t>
+"railway = rail", 6</t>
   </si>
   <si>
     <t>tunnel=yes; layer=-1</t>
@@ -2619,8 +2625,8 @@
   <si>
     <t>"trail_visibility = excellent", 2
 "sac_scale = hiking", 4
-"place = locality", 3
-"highway = path", 23</t>
+"place = locality", 4
+"highway = path", 24</t>
   </si>
   <si>
     <t>highway=path</t>
@@ -2803,20 +2809,16 @@
     <t>"capacity = 450", 6
 "deanery = Vest-Nedenes", 6
 "hearing_aids = yes", 15
-"parish = Kongsberg og Jondalen", 3
 "parish = Mandal", 4
-"religion = christian", 99
-"capacity = 170", 3
+"religion = christian", 100
 "capacity = 200", 10
 "toilets:wheelchair = yes", 10
 "diocese = Stavanger", 15
 "diocese = Agder og Telemark", 60
-"capacity = 430", 3
 "note = Prostikirke", 4
 "architect = J.H.Nissen", 4
 "note = Soknekirke/arbeidskirke", 12
-"parish = Farsund", 3
-"building = church", 95
+"building = church", 96
 "capacity = 350", 8
 "deanery = Lister", 4
 "parish = Bygland", 6
@@ -2826,27 +2828,21 @@
 "capacity = 250", 7
 "diocese = Tunsberg", 13
 "parish = Bykle", 4
-"capacity = 700", 3
 "deanery = Bodø Domprosti", 6
 "wheelchair = yes", 11
-"parish = Gildeskål", 3
 "parish = Holt", 4
 "deanery = Ytre Stavanger", 6
 "diocese = Sør-Hålogaland", 6
 "capacity = 300", 5
-"capacity = 650", 3
 "parish = Åmli", 4
 "toilets:wheelchair = no", 6
 "note = Soknekirke", 43
 "deanery = Aust-Nedenes", 20
-"denomination = lutheran", 99
-"amenity = place_of_worship", 99
+"denomination = lutheran", 100
+"amenity = place_of_worship", 100
 "toilets = no", 9
-"capacity = 150", 3
-"capacity = 400", 3
 "deanery = Mandal", 6
 "capacity = 500", 10
-"wheelchair = limited", 3
 "architect = J.W.Nordan", 4
 "deanery = Kongsberg", 7
 "deanery = Stavanger Domprosti", 7
@@ -3055,7 +3051,7 @@
   </si>
   <si>
     <t>"place = farm", 23
-"place = locality", 53
+"place = locality", 56
 "landuse = meadow", 2</t>
   </si>
   <si>
@@ -3226,7 +3222,8 @@
     <t>Steinområde, steinrøys</t>
   </si>
   <si>
-    <t>"natural = scree", 62</t>
+    <t>"place = locality", 2
+"natural = scree", 63</t>
   </si>
   <si>
     <t>natural=scree</t>
@@ -3355,7 +3352,7 @@
     <t>Alle typer fra stor barskog til vierkratt i Finnmark</t>
   </si>
   <si>
-    <t>"place = locality", 8
+    <t>"place = locality", 9
 "type = multipolygon", 6
 "natural = wood", 20
 "leaf_type = needleleaved", 3
@@ -3389,9 +3386,9 @@
     <t>Alle typer fra åpen gressmyr til våt moldjord dekket med kjerr</t>
   </si>
   <si>
-    <t>"wetland = bog", 218
-"type = multipolygon", 89
-"natural = wetland", 318
+    <t>"wetland = bog", 220
+"type = multipolygon", 91
+"natural = wetland", 319
 "place = locality", 517</t>
   </si>
   <si>
@@ -3596,12 +3593,12 @@
     <t>Alle typer på sjø og land. Angi type, f.eks. nasjonalpark, i merknadsfeltet</t>
   </si>
   <si>
-    <t>"leisure = nature_reserve", 5
+    <t>"leisure = nature_reserve", 6
 "type = multipolygon", 4
 "naturbase:iid = VV00001832", 4
 "attribution = Miljødirektoratet", 4
-"boundary = protected_area", 6
-"protect_class = 1", 4</t>
+"boundary = protected_area", 7
+"protect_class = 1", 5</t>
   </si>
   <si>
     <t>leisure=nature_reserve</t>
@@ -3673,8 +3670,8 @@
     <t>Arm av havet inn i fastlandet</t>
   </si>
   <si>
-    <t>"natural = bay", 138
-"bay = fjord", 136
+    <t>"natural = bay", 139
+"bay = fjord", 137
 "type = multipolygon", 13</t>
   </si>
   <si>
@@ -3768,10 +3765,10 @@
     <t>Bergrunn nær eller rett over vannflaten.</t>
   </si>
   <si>
-    <t>"place = islet", 576
+    <t>"place = islet", 578
 "seamark:type = rock", 126
 "natural = shoal", 77
-"natural = coastline", 466
+"natural = coastline", 468
 "natural = rock", 346</t>
   </si>
   <si>
@@ -3841,7 +3838,7 @@
     <t>Innsnevret område mellom øyer eller fastland</t>
   </si>
   <si>
-    <t>"natural = strait", 389</t>
+    <t>"natural = strait", 393</t>
   </si>
   <si>
     <t>vikISjø</t>
@@ -3856,7 +3853,7 @@
     <t>Kil, bukt</t>
   </si>
   <si>
-    <t>"natural = bay", 1590</t>
+    <t>"natural = bay", 1609</t>
   </si>
   <si>
     <t>øyISjø</t>
@@ -3890,9 +3887,9 @@
     <t>Liten øy / lite skjær</t>
   </si>
   <si>
-    <t>"place = islet", 1330
-"type = multipolygon", 103
-"natural = coastline", 1190</t>
+    <t>"place = islet", 1340
+"type = multipolygon", 106
+"natural = coastline", 1197</t>
   </si>
   <si>
     <t>halvøyISjø</t>
@@ -3924,7 +3921,7 @@
   </si>
   <si>
     <t>"place = locality", 53
-"natural = cape", 883</t>
+"natural = cape", 901</t>
   </si>
   <si>
     <t>eidISjø</t>
@@ -4309,7 +4306,7 @@
     <t>Langstrakt høydedrag</t>
   </si>
   <si>
-    <t>"natural = peak", 423
+    <t>"natural = peak", 424
 "place = locality", 1757
 "natural = ridge", 286
 "natural = hill", 3119</t>
@@ -4350,9 +4347,9 @@
     <t>Liten, markant terrengform</t>
   </si>
   <si>
-    <t>"natural = peak", 123
-"place = locality", 746
-"natural = hill", 1064</t>
+    <t>"natural = peak", 124
+"place = locality", 742
+"natural = hill", 1062</t>
   </si>
   <si>
     <t>topp</t>
@@ -4416,7 +4413,7 @@
     <t>Mellomstor eller liten dal</t>
   </si>
   <si>
-    <t>"natural = valley", 1087
+    <t>"natural = valley", 1098
 "place = locality", 759</t>
   </si>
   <si>
@@ -4432,8 +4429,8 @@
     <t>Innerste del av dal; rundaktig, bratt dal el. uthulning i fjellet</t>
   </si>
   <si>
-    <t>"natural = valley", 30
-"place = locality", 35</t>
+    <t>"natural = valley", 31
+"place = locality", 36</t>
   </si>
   <si>
     <t>skar</t>
@@ -4448,8 +4445,9 @@
     <t>Markant senkning i fjell el. berg</t>
   </si>
   <si>
-    <t>"natural = valley", 70
-"place = locality", 55</t>
+    <t>"natural = valley", 72
+"place = locality", 55
+"natural = saddle", 3</t>
   </si>
   <si>
     <t>juv</t>
@@ -4484,8 +4482,8 @@
   <si>
     <t>"natural = wetland", 3
 "wetland = bog", 2
-"natural = valley", 40
-"place = locality", 28</t>
+"natural = valley", 42
+"place = locality", 32</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -4547,8 +4545,8 @@
     <t>Skrånende terreng</t>
   </si>
   <si>
-    <t>"place = locality", 364
-"natural = slope", 351</t>
+    <t>"place = locality", 367
+"natural = slope", 352</t>
   </si>
   <si>
     <t>fjellside</t>
@@ -4663,7 +4661,7 @@
     <t>Alle typer små naturdetaljer, f.eks. sprekker, hulveier, sand-/stein- /grusflater. Skriv forklaring i merknadsfeltet.</t>
   </si>
   <si>
-    <t>"place = locality", 79</t>
+    <t>"place = locality", 81</t>
   </si>
   <si>
     <t>landskapsområde</t>
@@ -5458,7 +5456,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -5597,7 +5595,7 @@
         <v>52</v>
       </c>
       <c r="F7" t="n">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -5933,7 +5931,7 @@
         <v>97</v>
       </c>
       <c r="F15" t="n">
-        <v>13282</v>
+        <v>13288</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -5978,7 +5976,7 @@
         <v>104</v>
       </c>
       <c r="F16" t="n">
-        <v>14883</v>
+        <v>14890</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -6020,7 +6018,7 @@
         <v>109</v>
       </c>
       <c r="F17" t="n">
-        <v>10703</v>
+        <v>10713</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -6109,7 +6107,7 @@
         <v>122</v>
       </c>
       <c r="F19" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>131</v>
@@ -6409,7 +6407,7 @@
         <v>165</v>
       </c>
       <c r="F26" t="n">
-        <v>107885</v>
+        <v>107908</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -6454,7 +6452,7 @@
         <v>172</v>
       </c>
       <c r="F27" t="n">
-        <v>21644</v>
+        <v>21648</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -6502,7 +6500,7 @@
         <v>179</v>
       </c>
       <c r="F28" t="n">
-        <v>4790</v>
+        <v>4793</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -6628,7 +6626,7 @@
         <v>195</v>
       </c>
       <c r="F31" t="n">
-        <v>33415</v>
+        <v>33422</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -7345,7 +7343,7 @@
         <v>297</v>
       </c>
       <c r="F48" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -8145,7 +8143,7 @@
         <v>409</v>
       </c>
       <c r="F67" t="n">
-        <v>45280</v>
+        <v>45304</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -8682,7 +8680,7 @@
         <v>479</v>
       </c>
       <c r="F80" t="n">
-        <v>61807</v>
+        <v>61809</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -11397,6 +11395,9 @@
       <c r="E148" s="7" t="s">
         <v>843</v>
       </c>
+      <c r="F148" t="n">
+        <v>101</v>
+      </c>
       <c r="G148" s="12" t="n">
         <v>70</v>
       </c>
@@ -11409,7 +11410,7 @@
       <c r="J148" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="K148" s="5" t="n"/>
+      <c r="K148" s="1" t="s"/>
       <c r="L148" s="5" t="s">
         <v>847</v>
       </c>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1461,12 +1461,12 @@
     <t>Rennende vann i naturlig vannvei, vanligvis smalere enn 3 meter</t>
   </si>
   <si>
-    <t>"tunnel = culvert", 14
-"layer = -1", 36
+    <t>"tunnel = culvert", 16
+"layer = -1", 38
 "width = 2", 53
 "width = 3", 23
-"waterway = river", 57
-"waterway = stream", 267</t>
+"waterway = river", 58
+"waterway = stream", 266</t>
   </si>
   <si>
     <t>waterway=stream</t>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2077</v>
+        <v>2088</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3415</v>
+        <v>3436</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2821</v>
+        <v>2833</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12668</v>
+        <v>12676</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13517</v>
+        <v>13647</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10689</v>
+        <v>10713</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>80</v>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>513</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>45</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>103040</v>
+        <v>103803</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>21658</v>
+        <v>21956</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3977</v>
+        <v>4003</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3676</v>
+        <v>3703</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>2651</v>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>34229</v>
+        <v>34410</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2567</v>
+        <v>2601</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>97</v>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2110</v>
+        <v>2119</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>1732</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>251</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>367</v>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>271</v>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>198</v>
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>152</v>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>1042</v>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7413</v>
+        <v>7464</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>7211</v>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1286</v>
+        <v>1330</v>
       </c>
       <c r="G55" s="12" t="n">
         <v>1296</v>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4246</v>
+        <v>4283</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>4298</v>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>255</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9727</v>
+        <v>9789</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>9498</v>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>390</v>
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>923</v>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>399</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>199</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9623</v>
+        <v>9759</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>10146</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>43506</v>
+        <v>44105</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3489</v>
+        <v>3527</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>3394</v>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>461</v>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>1004</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2599</v>
+        <v>2627</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2461</v>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="G73" s="12" t="n">
         <v>1780</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>654</v>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>470</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>13254</v>
+        <v>13333</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>14069</v>
@@ -5505,7 +5505,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>59838</v>
+        <v>60336</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="G82" s="12" t="n">
         <v>884</v>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>129</v>
@@ -6051,7 +6051,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>174</v>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="G99" s="12" t="n">
         <v>2333</v>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8616</v>
+        <v>8625</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>10197</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>341</v>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G128" s="12" t="n">
         <v>400</v>
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5696</v>
+        <v>5699</v>
       </c>
       <c r="G130" s="12" t="n">
         <v>24621</v>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="G131" s="12" t="n">
         <v>729</v>
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4413</v>
+        <v>4445</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>4064</v>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>673</v>
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>788</v>
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>792</v>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>1629</v>
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>653</v>
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4767</v>
+        <v>4777</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>3733</v>
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G148" s="12" t="n">
         <v>70</v>
@@ -9479,7 +9479,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G149" s="12" t="n">
         <v>98</v>
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>97</v>
@@ -9714,7 +9714,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G153" s="12" t="n">
         <v>444</v>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6083</v>
+        <v>6096</v>
       </c>
       <c r="G154" s="12" t="n">
         <v>5340</v>
@@ -9839,7 +9839,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3080</v>
+        <v>3103</v>
       </c>
       <c r="G155" s="12" t="n">
         <v>2408</v>
@@ -9899,7 +9899,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8121</v>
+        <v>8191</v>
       </c>
       <c r="G156" s="12" t="n">
         <v>4914</v>
@@ -9959,7 +9959,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="G157" s="12" t="n">
         <v>314</v>
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3517</v>
+        <v>3646</v>
       </c>
       <c r="G158" s="12" t="n">
         <v>3166</v>
@@ -10156,7 +10156,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>491</v>
@@ -10298,7 +10298,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3332</v>
+        <v>3342</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>2950</v>
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2474</v>
+        <v>2488</v>
       </c>
       <c r="G164" s="12" t="n">
         <v>2354</v>
@@ -10656,7 +10656,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G170" s="12" t="n">
         <v>273</v>
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>7768</v>
+        <v>8056</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>7616</v>
@@ -10942,7 +10942,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>51262</v>
+        <v>51853</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>50738</v>
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>233</v>
@@ -11715,7 +11715,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>302</v>
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1955</v>
+        <v>1962</v>
       </c>
       <c r="G194" s="12" t="n">
         <v>1901</v>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>13543</v>
+        <v>13556</v>
       </c>
       <c r="G201" s="12" t="n">
         <v>13989</v>
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G202" s="12" t="n">
         <v>1206</v>
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>13222</v>
+        <v>13225</v>
       </c>
       <c r="G203" s="12" t="n">
         <v>13694</v>
@@ -12606,7 +12606,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4443</v>
+        <v>4447</v>
       </c>
       <c r="G206" s="12" t="n">
         <v>4494</v>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>25830</v>
+        <v>25874</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>26737</v>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>18851</v>
+        <v>18859</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>20058</v>
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>22705</v>
+        <v>22746</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>24024</v>
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="G213" s="12" t="n">
         <v>2328</v>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>7894</v>
+        <v>7978</v>
       </c>
       <c r="G236" s="12" t="n">
         <v>7739</v>
@@ -14117,7 +14117,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4257</v>
+        <v>4267</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>4173</v>
@@ -14175,7 +14175,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>15298</v>
+        <v>15359</v>
       </c>
       <c r="G238" s="12" t="n">
         <v>15244</v>
@@ -14245,7 +14245,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>21974</v>
+        <v>22123</v>
       </c>
       <c r="G239" s="12" t="n">
         <v>22178</v>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>9348</v>
+        <v>9354</v>
       </c>
       <c r="G240" s="12" t="n">
         <v>8191</v>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>9859</v>
+        <v>9886</v>
       </c>
       <c r="G241" s="12" t="n">
         <v>9146</v>
@@ -14450,7 +14450,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>57796</v>
+        <v>58218</v>
       </c>
       <c r="G242" s="12" t="n">
         <v>57885</v>
@@ -14526,7 +14526,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6810</v>
+        <v>6892</v>
       </c>
       <c r="G243" s="12" t="n">
         <v>6752</v>
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>47680</v>
+        <v>48027</v>
       </c>
       <c r="G244" s="12" t="n">
         <v>48481</v>
@@ -14656,7 +14656,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="G245" s="12" t="n">
         <v>1648</v>
@@ -14725,7 +14725,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="G246" s="12" t="n">
         <v>1076</v>
@@ -14835,7 +14835,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>39568</v>
+        <v>39965</v>
       </c>
       <c r="G248" s="12" t="n">
         <v>38753</v>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6595</v>
+        <v>6665</v>
       </c>
       <c r="G249" s="12" t="n">
         <v>6491</v>
@@ -14963,7 +14963,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>11196</v>
+        <v>11245</v>
       </c>
       <c r="G250" s="12" t="n">
         <v>11649</v>
@@ -15028,7 +15028,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="G251" s="12" t="n">
         <v>1747</v>
@@ -15086,7 +15086,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>3358</v>
+        <v>3366</v>
       </c>
       <c r="G252" s="12" t="n">
         <v>2948</v>
@@ -15254,7 +15254,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>12940</v>
+        <v>13005</v>
       </c>
       <c r="G255" s="12" t="n">
         <v>11974</v>
@@ -15318,7 +15318,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>33058</v>
+        <v>33767</v>
       </c>
       <c r="G256" s="12" t="n">
         <v>32819</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1510</v>
+        <v>1554</v>
       </c>
       <c r="G257" s="12" t="n">
         <v>1437</v>
@@ -15440,7 +15440,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>337</v>
@@ -15504,7 +15504,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3058</v>
+        <v>3063</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>2726</v>
@@ -15681,7 +15681,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>3332</v>
+        <v>3377</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>2244</v>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>6620</v>
+        <v>6642</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>6057</v>
@@ -15951,7 +15951,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -2225,7 +2225,7 @@
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 28715</t>
+          <t>"place = farm", 28710</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -2288,8 +2288,8 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6356
-"place = locality", 5237
+          <t>"historic = shieling", 6355
+"place = locality", 5236
 "building = cabin", 641
 "place = isolated_dwelling", 1135</t>
         </is>
@@ -4768,12 +4768,12 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"tunnel = culvert", 17
-"layer = -1", 29
+          <t>"tunnel = culvert", 15
+"layer = -1", 27
 "width = 2", 53
 "width = 3", 23
-"waterway = river", 59
-"waterway = stream", 251</t>
+"waterway = river", 58
+"waterway = stream", 252</t>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -707,20 +707,19 @@
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>"ref:ssb_tettsted = 2531", 2
-"ref:ssb_tettsted = 3531", 2
 "email = postmottak@kristiansand.kommune.no", 2
 "ref:ssb_tettsted = 2541", 2
 "ref:ssb_tettsted = 2603", 2
-"ref:ssb_tettsted = 3005", 6
+"ref:ssb_tettsted = 3005", 5
 "ref:ssb_tettsted = 3021", 2
-"place = city", 3
+"place = city", 2
 "source:population = SSB", 2
 "ref:ssb_tettsted = 4011", 2
 "ref:ssb_tettsted = 3102", 2
 "ref:ssb_tettsted = 2521", 2
 "ref:ssb_tettsted = 3501", 2
 "ref:ssb_tettsted = 2562", 2
-"place = town", 53
+"place = town", 50
 "ref:ssb_tettsted = 2501", 2
 "ref:ssb_tettsted = 3054", 2
 "ref:ssb_tettsted = 2551", 2
@@ -767,7 +766,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>906</v>
+        <v>805</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -789,12 +788,12 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 24
-"place = suburb", 46
+          <t>"place = quarter", 17
+"place = suburb", 40
 "place = hamlet", 17
-"place = neighbourhood", 20
+"place = neighbourhood", 19
 "type = multipolygon", 9
-"place = village", 213</t>
+"place = village", 189</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
@@ -830,7 +829,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1013</v>
+        <v>928</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -852,11 +851,12 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 62
-"place = suburb", 96
-"place = hamlet", 52
-"place = neighbourhood", 188
-"place = village", 84</t>
+          <t>"type = multipolygon", 6
+"place = quarter", 56
+"place = suburb", 90
+"place = hamlet", 47
+"place = neighbourhood", 168
+"place = village", 78</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2088</v>
+        <v>1859</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -925,10 +925,10 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 19
-"place = hamlet", 167
-"place = neighbourhood", 20
-"place = village", 194</t>
+          <t>"place = suburb", 16
+"place = hamlet", 152
+"place = neighbourhood", 19
+"place = village", 176</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3436</v>
+        <v>3074</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -996,10 +996,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 63
-"place = hamlet", 776
-"place = village", 37
-"place = farm", 41</t>
+          <t>"place = neighbourhood", 57
+"place = hamlet", 715
+"place = village", 35
+"place = farm", 36</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2833</v>
+        <v>2547</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1057,9 +1057,10 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 808
-"place = quarter", 175
-"place = suburb", 49</t>
+          <t>"place = neighbourhood", 717
+"landuse = residential", 29
+"place = quarter", 167
+"place = suburb", 47</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
@@ -1095,7 +1096,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1117,17 +1118,17 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 42
+          <t>"place = neighbourhood", 39
 "type = multipolygon", 12
 "man_made = wastewater_plant", 2
-"place = locality", 26
-"landuse = industrial", 53
+"place = locality", 25
+"landuse = industrial", 49
 "place = farm", 2
 "natural = cape", 2
-"place = quarter", 18
+"place = quarter", 17
 "landuse = retail", 2
 "building = industrial", 4
-"place = suburb", 7
+"place = suburb", 6
 "man_made = works", 2</t>
         </is>
       </c>
@@ -1164,7 +1165,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1188,8 +1189,8 @@
         <is>
           <t>"place = neighbourhood", 14
 "place = village", 4
-"place = quarter", 21
-"place = suburb", 118</t>
+"place = quarter", 15
+"place = suburb", 116</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1225,7 +1226,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1247,8 +1248,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 176
-"place = hamlet", 7
+          <t>"place = neighbourhood", 160
 "landuse = residential", 10
 "place = quarter", 9</t>
         </is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 46</t>
+          <t>"place = square", 44</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1366,7 +1366,8 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 6</t>
+          <t>"place = neighbourhood", 2
+"place = quarter", 6</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1462,7 +1463,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>19</v>
@@ -1520,7 +1521,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12676</v>
+        <v>10759</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -1542,8 +1543,8 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3485
-"place = farm", 1001</t>
+          <t>"place = isolated_dwelling", 3244
+"place = farm", 816</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1584,7 +1585,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13647</v>
+        <v>12047</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -1606,10 +1607,10 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 734
-"place = locality", 242
-"building = cabin", 3834
-"place = isolated_dwelling", 4985</t>
+          <t>"historic = shieling", 697
+"place = locality", 215
+"building = cabin", 3579
+"place = isolated_dwelling", 4628</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1645,7 +1646,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10713</v>
+        <v>9519</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -1667,9 +1668,9 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 1085
-"place = locality", 5924
-"historic = ruins", 842</t>
+          <t>"historic = shieling", 947
+"place = locality", 5458
+"historic = ruins", 800</t>
         </is>
       </c>
       <c r="L17" s="2" t="n"/>
@@ -1711,7 +1712,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>3</v>
@@ -1770,7 +1771,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>131</v>
@@ -1792,7 +1793,7 @@
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 31
+          <t>"leisure = park", 28
 "natural = wood", 3
 "type = multipolygon", 4</t>
         </is>
@@ -1830,7 +1831,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>80</v>
@@ -1890,7 +1891,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>513</v>
@@ -1912,14 +1913,21 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"leisure = sports_centre", 8
+          <t>"building = yes", 2
+"building:levels = 3", 2
+"leisure = sports_centre", 8
 "type = multipolygon", 7
-"place = locality", 19
+"place = locality", 18
 "leisure = track", 3
+"amenity = parking", 2
+"building = public", 2
 "sport = soccer", 32
-"leisure = pitch", 78
-"piste:type = ski_jump", 6
+"sport = swimming;basketball;volleyball;handball", 2
+"leisure = pitch", 74
+"landuse = recreation_ground", 2
+"piste:type = ski_jump", 3
 "surface = grass", 5
+"area = no", 2
 "sport = horse_racing", 5</t>
         </is>
       </c>
@@ -1956,7 +1964,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>24</v>
@@ -2015,7 +2023,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>45</v>
@@ -2075,7 +2083,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2099,8 +2107,8 @@
         <is>
           <t>"surface = sand", 12
 "layer = 2", 6
-"leisure = swimming_area", 20
-"place = locality", 24
+"leisure = swimming_area", 18
+"place = locality", 22
 "natural = beach", 12
 "description:no = Stranda har fått navnet sitt etter den rødfarget sanden, denne rødfargen stammer fra ned rustet tyskt materiell som ble ligende her etter 2. verdenskrig, som nettopp minner om kanelfarge.", 2</t>
         </is>
@@ -2148,7 +2156,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>12</v>
@@ -2203,7 +2211,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>103803</v>
+        <v>89071</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -2225,7 +2233,7 @@
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 28710</t>
+          <t>"place = farm", 24983</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -2266,7 +2274,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>21956</v>
+        <v>18875</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -2288,10 +2296,10 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6355
-"place = locality", 5236
-"building = cabin", 641
-"place = isolated_dwelling", 1135</t>
+          <t>"historic = shieling", 5807
+"place = locality", 4893
+"building = cabin", 436
+"place = isolated_dwelling", 929</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
@@ -2337,7 +2345,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4003</v>
+        <v>3455</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -2360,9 +2368,9 @@
       <c r="K28" s="1" t="inlineStr">
         <is>
           <t>"building = yes", 58
-"historic = shieling", 225
-"place = locality", 1325
-"building = farm_auxiliary", 471</t>
+"historic = shieling", 211
+"place = locality", 1237
+"building = farm_auxiliary", 446</t>
         </is>
       </c>
       <c r="M28" s="12" t="inlineStr">
@@ -2398,7 +2406,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3703</v>
+        <v>3403</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>2651</v>
@@ -2420,9 +2428,9 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 54
-"place = locality", 854
-"place = farm", 134</t>
+          <t>"historic = shieling", 50
+"place = locality", 806
+"place = farm", 100</t>
         </is>
       </c>
       <c r="M29" s="5" t="inlineStr">
@@ -2458,7 +2466,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>80</v>
@@ -2516,7 +2524,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>34410</v>
+        <v>32235</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -2538,8 +2546,8 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1947
-"place = farm", 8216</t>
+          <t>"place = hamlet", 1778
+"place = farm", 7587</t>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
@@ -2585,7 +2593,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2601</v>
+        <v>2323</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>97</v>
@@ -2607,8 +2615,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 453
-"place = farm", 120</t>
+          <t>"place = hamlet", 416
+"place = farm", 88</t>
         </is>
       </c>
       <c r="L32" s="5" t="inlineStr">
@@ -2649,7 +2657,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2119</v>
+        <v>1942</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>1732</v>
@@ -2671,24 +2679,24 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 76
-"grades = 1-10", 25
-"amenity = school", 178
+          <t>"building = yes", 71
+"grades = 8-10", 20
+"grades = 1-10", 24
+"amenity = school", 170
+"fee = no", 131
 "grades = 11-14", 18
-"isced:level = 1;2", 29
-"place = locality", 51
-"grades = 1-7", 74
+"isced:level = 1;2", 28
+"place = locality", 49
+"grades = 1-7", 69
 "isced:level = 3", 20
-"was:amenity = school", 8
+"was:amenity = school", 7
 "disused:amenity = school", 8
-"operator:type = public", 122
+"operator:type = public", 115
 "fee = yes", 14
 "building = school", 14
-"isced:level = 2", 21
-"isced:level = 1", 82
+"isced:level = 2", 20
+"isced:level = 1", 77
 "grades = 1-4", 8
-"grades = 8-10", 21
-"fee = no", 138
 "operator:type = private", 14
 "operator:type = public/government", 16</t>
         </is>
@@ -2726,7 +2734,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>88</v>
@@ -2748,8 +2756,8 @@
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>"amenity = hospital", 15
-"healthcare = hospital", 3</t>
+          <t>"amenity = hospital", 13
+"healthcare = hospital", 2</t>
         </is>
       </c>
       <c r="L34" s="5" t="inlineStr">
@@ -2785,7 +2793,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>342</v>
@@ -2807,10 +2815,10 @@
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 4
+          <t>"building = yes", 3
 "amenity = social_facility", 3
 "place = locality", 6
-"amenity = nursing_home", 81</t>
+"amenity = nursing_home", 80</t>
         </is>
       </c>
       <c r="L35" s="5" t="inlineStr">
@@ -2846,7 +2854,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>55</v>
@@ -2868,8 +2876,7 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
-"building = civic", 10</t>
+          <t>"building = civic", 8</t>
         </is>
       </c>
       <c r="L36" s="5" t="inlineStr">
@@ -2905,7 +2912,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>67</v>
@@ -2929,7 +2936,7 @@
         <is>
           <t>"place = neighbourhood", 4
 "natural = bay", 2
-"landuse = military", 9
+"landuse = military", 8
 "place = locality", 3</t>
         </is>
       </c>
@@ -2966,7 +2973,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>251</v>
@@ -3032,7 +3039,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>65</v>
@@ -3097,7 +3104,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>28</v>
@@ -3156,7 +3163,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>14</v>
@@ -3262,7 +3269,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>367</v>
@@ -3286,14 +3293,13 @@
         <is>
           <t>"place = neighbourhood", 10
 "type = multipolygon", 2
-"craft = sawmill", 2
 "industrial = brewery", 2
-"place = locality", 21
-"landuse = industrial", 19
+"place = locality", 20
+"landuse = industrial", 18
 "email = kundesenter@hansaborg.no", 2
 "industrial = shipyard", 2
-"industrial = factory", 57
-"building = industrial", 44</t>
+"industrial = factory", 52
+"building = industrial", 42</t>
         </is>
       </c>
       <c r="L43" s="5" t="inlineStr">
@@ -3329,7 +3335,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>271</v>
@@ -3353,8 +3359,8 @@
         <is>
           <t>"place = neighbourhood", 4
 "building = yes", 2
-"place = locality", 16
-"building = industrial", 60</t>
+"place = locality", 14
+"building = industrial", 55</t>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
@@ -3390,7 +3396,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>198</v>
@@ -3413,8 +3419,7 @@
       <c r="K45" s="1" t="inlineStr">
         <is>
           <t>"amenity = cafe", 4
-"place = neighbourhood", 4
-"building = yes", 2
+"place = neighbourhood", 3
 "place = locality", 6
 "place = isolated_dwelling", 2
 "place = farm", 2
@@ -3456,7 +3461,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>302</v>
@@ -3480,11 +3485,10 @@
         <is>
           <t>"tourism = chalet", 2
 "building = yes", 3
-"building = hotel", 15
-"place = locality", 11
-"place = isolated_dwelling", 2
+"building = hotel", 14
+"place = locality", 10
 "tourism = apartment", 2
-"tourism = hotel", 17</t>
+"tourism = hotel", 16</t>
         </is>
       </c>
       <c r="L46" s="5" t="inlineStr">
@@ -3520,7 +3524,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>99</v>
@@ -3542,11 +3546,11 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 2
-"building = yes", 4
-"building = hotel", 3
-"place = locality", 7
-"tourism = guest_house", 7</t>
+          <t>"building = yes", 4
+"place = hamlet", 2
+"place = locality", 6
+"tourism = guest_house", 7
+"building = hotel", 3</t>
         </is>
       </c>
       <c r="L47" s="5" t="inlineStr">
@@ -3582,7 +3586,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>982</v>
+        <v>861</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -3604,37 +3608,36 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>"building = house", 2
-"dnt:lock = yes", 13
+          <t>"dnt:lock = yes", 13
 "building = yes", 6
-"capacity = 4", 4
-"fee = yes", 2
+"capacity = 4", 2
+"fee = yes", 4
 "historic = shieling", 6
-"tourism = alpine_hut", 4
 "dog = no", 2
-"tourism = chalet", 53
-"capacity = 24", 2
+"tourism = chalet", 49
 "ski = yes", 2
 "dnt:iid = 2019", 2
 "dnt:iid = 251", 2
-"place = locality", 12
+"place = locality", 10
 "dnt:iid = 417", 2
 "dnt:iid = 416", 2
-"amenity = restaurant", 2
+"access = permit", 2
 "dnt:iid = 345", 2
-"amenity = cafe", 11
-"dnt:classification = ubetjent", 11
+"network = Den norske Turistforening", 2
+"amenity = cafe", 9
+"capacity = 6", 3
+"dnt:classification = ubetjent", 9
 "dnt:classification = servering", 5
 "capacity = 8", 2
 "building = cabin", 10
 "note:no = kystledhytte", 2
 "shelter_type = basic_hut", 3
-"tourism = wilderness_hut", 11
+"tourism = wilderness_hut", 9
 "capacity = 32", 2
-"capacity = 11", 2
 "dnt:iid = 1489", 2
-"network = Den Norske Turistforening", 10
+"network = Den Norske Turistforening", 8
 "hiking = yes", 5
+"tourism = alpine_hut", 3
 "amenity = shelter", 3</t>
         </is>
       </c>
@@ -3676,7 +3679,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>152</v>
@@ -3764,11 +3767,7 @@
           <t>På land, i sjø og i ferskvann</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
-        <is>
-          <t>"landuse = industrial", 2</t>
-        </is>
-      </c>
+      <c r="K50" s="1" t="inlineStr"/>
       <c r="L50" s="5" t="inlineStr">
         <is>
           <t>landuse=aquaculture</t>
@@ -3802,7 +3801,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>29</v>
@@ -3861,7 +3860,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>463</v>
@@ -3919,7 +3918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1086</v>
+        <v>928</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>1042</v>
@@ -3942,7 +3941,7 @@
       <c r="K53" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 2
-"natural = strait", 11</t>
+"natural = strait", 10</t>
         </is>
       </c>
       <c r="L53" s="5" t="inlineStr">
@@ -3978,7 +3977,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7464</v>
+        <v>6365</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>7211</v>
@@ -4000,8 +3999,8 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 140
-"natural = water", 6</t>
+          <t>"natural = bay", 134
+"natural = water", 5</t>
         </is>
       </c>
       <c r="L54" s="5" t="inlineStr">
@@ -4037,7 +4036,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1330</v>
+        <v>1132</v>
       </c>
       <c r="G55" s="12" t="n">
         <v>1296</v>
@@ -4059,10 +4058,10 @@
       </c>
       <c r="K55" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 6
-"place = locality", 2
+          <t>"place = locality", 2
 "natural = shoal", 2
-"place = island", 3</t>
+"place = island", 3
+"place = islet", 5</t>
         </is>
       </c>
       <c r="L55" s="5" t="inlineStr">
@@ -4098,7 +4097,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4283</v>
+        <v>3696</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>4298</v>
@@ -4120,8 +4119,8 @@
       </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 82
-"natural = wood", 25
+          <t>"place = islet", 78
+"natural = wood", 22
 "leaf_type = needleleaved", 4</t>
         </is>
       </c>
@@ -4158,7 +4157,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>255</v>
@@ -4216,7 +4215,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9789</v>
+        <v>8558</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>9498</v>
@@ -4238,7 +4237,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 234</t>
+          <t>"natural = cape", 217</t>
         </is>
       </c>
       <c r="L58" s="5" t="inlineStr">
@@ -4274,7 +4273,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>390</v>
@@ -4334,7 +4333,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1008</v>
+        <v>885</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>923</v>
@@ -4356,9 +4355,8 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 4
-"place = locality", 4
-"type = multipolygon", 2</t>
+          <t>"natural = beach", 3
+"place = locality", 4</t>
         </is>
       </c>
       <c r="L60" s="5" t="inlineStr">
@@ -4446,7 +4444,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>399</v>
@@ -4565,7 +4563,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>199</v>
@@ -4685,7 +4683,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9759</v>
+        <v>8780</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>10146</v>
@@ -4707,10 +4705,8 @@
       </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
-          <t>"width = 2", 10
-"width = 3", 6
-"waterway = river", 142
-"waterway = stream", 18</t>
+          <t>"waterway = river", 96
+"waterway = stream", 13</t>
         </is>
       </c>
       <c r="L66" s="5" t="inlineStr">
@@ -4746,7 +4742,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>44105</v>
+        <v>38901</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -4768,12 +4764,10 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"tunnel = culvert", 15
-"layer = -1", 27
-"width = 2", 53
-"width = 3", 23
-"waterway = river", 58
-"waterway = stream", 252</t>
+          <t>"tunnel = culvert", 13
+"layer = -1", 21
+"waterway = river", 31
+"waterway = stream", 182</t>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">
@@ -4860,7 +4854,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3527</v>
+        <v>3101</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>3394</v>
@@ -4883,7 +4877,7 @@
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>"waterway = waterfall", 2
-"natural = waterfall", 19</t>
+"natural = waterfall", 10</t>
         </is>
       </c>
       <c r="L69" s="5" t="inlineStr">
@@ -4919,7 +4913,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>461</v>
@@ -4941,8 +4935,7 @@
       </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
-          <t>"waterway = rapids", 4
-"place = suburb", 2</t>
+          <t>"waterway = rapids", 4</t>
         </is>
       </c>
       <c r="L70" s="5" t="inlineStr">
@@ -4983,7 +4976,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1035</v>
+        <v>878</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>1004</v>
@@ -5037,7 +5030,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2627</v>
+        <v>2307</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2461</v>
@@ -5061,9 +5054,9 @@
         <is>
           <t>"water = pond", 3
 "place = locality", 4
-"natural = water", 10
-"water = pool", 5
-"type = multipolygon", 3</t>
+"natural = water", 7
+"water = pool", 3
+"type = multipolygon", 2</t>
         </is>
       </c>
       <c r="L72" s="2" t="n"/>
@@ -5105,7 +5098,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1880</v>
+        <v>1669</v>
       </c>
       <c r="G73" s="12" t="n">
         <v>1780</v>
@@ -5128,9 +5121,9 @@
       <c r="K73" s="1" t="inlineStr">
         <is>
           <t>"natural = bay", 15
-"natural = water", 17
-"type = multipolygon", 14
-"water = river", 7</t>
+"natural = water", 14
+"type = multipolygon", 11
+"water = river", 6</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
@@ -5166,7 +5159,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>15</v>
@@ -5224,7 +5217,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>654</v>
@@ -5385,7 +5378,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>470</v>
@@ -5407,9 +5400,9 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 17
-"water = lake", 14
-"type = multipolygon", 17</t>
+          <t>"natural = water", 15
+"water = lake", 12
+"type = multipolygon", 15</t>
         </is>
       </c>
       <c r="L78" s="5" t="inlineStr">
@@ -5445,7 +5438,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>13333</v>
+        <v>12039</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>14069</v>
@@ -5467,9 +5460,9 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 301
-"natural = water", 374
-"water = lake", 244</t>
+          <t>"type = multipolygon", 249
+"natural = water", 282
+"water = lake", 194</t>
         </is>
       </c>
       <c r="L79" s="5" t="inlineStr">
@@ -5505,7 +5498,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>60336</v>
+        <v>51819</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -5527,9 +5520,9 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 1230
-"natural = water", 2480
-"water = lake", 919</t>
+          <t>"type = multipolygon", 1092
+"natural = water", 2010
+"water = lake", 764</t>
         </is>
       </c>
       <c r="L80" s="5" t="inlineStr">
@@ -5565,7 +5558,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1415</v>
+        <v>1206</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>1286</v>
@@ -5587,8 +5580,9 @@
       </c>
       <c r="K81" s="1" t="inlineStr">
         <is>
-          <t>"water = pond", 7
-"natural = water", 8</t>
+          <t>"water = pond", 5
+"natural = water", 6
+"type = multipolygon", 2</t>
         </is>
       </c>
       <c r="L81" s="5" t="inlineStr">
@@ -5624,7 +5618,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>950</v>
+        <v>828</v>
       </c>
       <c r="G82" s="12" t="n">
         <v>884</v>
@@ -5646,7 +5640,7 @@
       </c>
       <c r="K82" s="1" t="inlineStr">
         <is>
-          <t>"waterway = dam", 3
+          <t>"waterway = dam", 2
 "natural = water", 2</t>
         </is>
       </c>
@@ -5684,7 +5678,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>129</v>
@@ -5743,7 +5737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>166</v>
@@ -5765,8 +5759,7 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 3
-"water = lake", 2</t>
+          <t>"natural = water", 2</t>
         </is>
       </c>
       <c r="L84" s="5" t="inlineStr">
@@ -5803,7 +5796,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1209</v>
+        <v>1534</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>687</v>
@@ -5825,10 +5818,10 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 51
+          <t>"place = locality", 5
+"natural = water", 53
 "water = lake", 38
-"type = multipolygon", 26
-"place = locality", 5</t>
+"type = multipolygon", 27</t>
         </is>
       </c>
       <c r="L85" s="5" t="inlineStr">
@@ -5864,7 +5857,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>506</v>
@@ -5887,10 +5880,10 @@
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>"abandoned:railway = station", 2
-"railway:traffic_mode = passenger", 3
+"railway:traffic_mode = passenger", 2
 "train = yes", 4
 "place = locality", 2
-"railway = station", 4</t>
+"railway = station", 3</t>
         </is>
       </c>
       <c r="L86" s="5" t="inlineStr">
@@ -5931,7 +5924,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>215</v>
@@ -5956,8 +5949,7 @@
           <t>"railway = halt", 5
 "train = yes", 2
 "place = locality", 2
-"disused:railway = halt", 2
-"railway:traffic_mode = passenger", 7
+"railway:traffic_mode = passenger", 6
 "abandoned:railway = halt", 2</t>
         </is>
       </c>
@@ -6051,7 +6043,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>174</v>
@@ -6071,12 +6063,7 @@
           <t>Alle typer / alle størrelser til energiproduksjon (f.eks. el. og varme)</t>
         </is>
       </c>
-      <c r="K89" s="1" t="inlineStr">
-        <is>
-          <t>"plant:source = hydro", 2
-"power = plant", 2</t>
-        </is>
-      </c>
+      <c r="K89" s="1" t="inlineStr"/>
       <c r="L89" s="5" t="inlineStr">
         <is>
           <t>power=plant; landuse=industrial</t>
@@ -6421,7 +6408,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G96" s="12" t="n">
         <v>120</v>
@@ -6532,7 +6519,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G98" s="12" t="n">
         <v>98</v>
@@ -6586,7 +6573,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2222</v>
+        <v>2089</v>
       </c>
       <c r="G99" s="12" t="n">
         <v>2333</v>
@@ -6609,16 +6596,15 @@
       <c r="K99" s="1" t="inlineStr">
         <is>
           <t>"man_made = lighthouse", 3
-"seamark:kystverket:information = Lyktehus på søyle", 7
-"seamark:kystverket:information = 4-FL/SC", 3
+"seamark:kystverket:information = Lyktehus på søyle", 6
+"seamark:kystverket:information = 4-FL/SC", 2
 "seamark:kystverket:information = 4-FL/NB", 2
-"seamark:kystverket:information = FL/SC", 12
-"man_made = beacon", 6
-"seamark:type = light_minor", 32
-"source:seamark = Kystverket", 32
+"seamark:kystverket:information = FL/SC", 8
+"man_made = beacon", 2
+"seamark:type = light_minor", 21
+"source:seamark = Kystverket", 22
 "seamark:kystverket:information = Lyktehus", 2
-"seamark:kystverket:information = FL/NB", 4
-"note = Fyrlykt", 31</t>
+"note = Fyrlykt", 21</t>
         </is>
       </c>
       <c r="O99" s="5">
@@ -6654,7 +6640,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="G100" s="12" t="n">
         <v>202</v>
@@ -6718,7 +6704,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="G101" s="12" t="n">
         <v>490</v>
@@ -7044,7 +7030,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8625</v>
+        <v>7700</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>10197</v>
@@ -7068,27 +7054,22 @@
         <is>
           <t>"man_made = tunnel", 3
 "layer = -1", 3
-"lanes = 1", 3
 "int_ref = E 134", 2
-"bridge = yes", 65
+"bridge = yes", 62
 "historic = bridge", 2
 "old_ref = 202", 2
 "place = locality", 2
 "highway = secondary", 11
 "old_ref = 459", 2
-"width = 3.0", 2
 "old_ref = 158", 2
 "highway = tertiary", 2
 "surface = paved", 4
 "lit = yes", 4
-"source:maxspeed = sign", 2
-"highway = primary", 33
+"highway = primary", 30
 "old_ref = 408", 2
-"old_ref = 49", 3
 "highway = trunk", 4
-"layer = 1", 64
-"surface = asphalt", 9
-"place = suburb", 2
+"layer = 1", 61
+"surface = asphalt", 6
 "highway = track", 4
 "nvdb:id = 339480834", 2
 "int_ref = E 39", 2
@@ -7135,7 +7116,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>118</v>
@@ -7189,7 +7170,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>1216</v>
@@ -7259,7 +7240,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>11</v>
@@ -7663,7 +7644,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>341</v>
@@ -7731,7 +7712,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>407</v>
@@ -7753,10 +7734,10 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"man_made = quay", 15
-"place = locality", 18
+          <t>"place = locality", 18
 "place = isolated_dwelling", 2
-"natural = coastline", 4</t>
+"natural = coastline", 4
+"man_made = quay", 15</t>
         </is>
       </c>
       <c r="L120" s="5" t="inlineStr">
@@ -7960,7 +7941,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G124" s="12" t="n">
         <v>64</v>
@@ -8070,7 +8051,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G126" s="12" t="n">
         <v>65</v>
@@ -8136,7 +8117,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G127" s="12" t="n">
         <v>188</v>
@@ -8161,7 +8142,7 @@
           <t>"leisure = marina", 2
 "place = locality", 3
 "seamark:type = harbour", 3
-"landuse = harbour", 3</t>
+"landuse = harbour", 2</t>
         </is>
       </c>
       <c r="L127" s="5" t="inlineStr">
@@ -8198,7 +8179,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="G128" s="12" t="n">
         <v>400</v>
@@ -8220,9 +8201,9 @@
       </c>
       <c r="K128" s="1" t="inlineStr">
         <is>
-          <t>"mooring = yes", 4
-"place = locality", 94
-"historic = yes", 92</t>
+          <t>"mooring = yes", 3
+"place = locality", 75
+"historic = yes", 73</t>
         </is>
       </c>
       <c r="L128" s="5" t="inlineStr">
@@ -8334,7 +8315,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5699</v>
+        <v>4957</v>
       </c>
       <c r="G130" s="12" t="n">
         <v>24621</v>
@@ -8393,7 +8374,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>732</v>
+        <v>650</v>
       </c>
       <c r="G131" s="12" t="n">
         <v>729</v>
@@ -8460,7 +8441,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4445</v>
+        <v>3571</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>4064</v>
@@ -8483,9 +8464,9 @@
       <c r="K132" s="1" t="inlineStr">
         <is>
           <t>"trail_visibility = excellent", 2
-"sac_scale = hiking", 4
-"place = locality", 4
-"highway = path", 24</t>
+"sac_scale = hiking", 2
+"place = locality", 3
+"highway = path", 11</t>
         </is>
       </c>
       <c r="L132" s="9" t="inlineStr">
@@ -8521,7 +8502,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>749</v>
+        <v>635</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>673</v>
@@ -8586,7 +8567,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>70</v>
@@ -8748,7 +8729,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>916</v>
+        <v>737</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>788</v>
@@ -8770,7 +8751,7 @@
       </c>
       <c r="K137" s="1" t="inlineStr">
         <is>
-          <t>"ford = yes", 6
+          <t>"ford = yes", 5
 "place = locality", 5</t>
         </is>
       </c>
@@ -8817,7 +8798,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="G138" s="12" t="n">
         <v>261</v>
@@ -8871,7 +8852,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1097</v>
+        <v>872</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>792</v>
@@ -9112,7 +9093,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1684</v>
+        <v>1542</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>1629</v>
@@ -9136,57 +9117,51 @@
         <is>
           <t>"capacity = 450", 6
 "deanery = Vest-Nedenes", 6
-"diocese = Tunsberg", 13
-"hearing_aids = yes", 15
-"diocese = Agder og Telemark", 60
+"diocese = Tunsberg", 8
+"hearing_aids = yes", 13
+"diocese = Agder og Telemark", 54
 "parish = Kongsberg og Jondalen", 3
 "parish = Mandal", 4
-"religion = christian", 98
+"religion = christian", 85
 "capacity = 170", 3
-"capacity = 200", 10
-"deanery = Stavanger Domprosti", 6
-"capacity = 430", 3
-"note = Prostikirke", 4
-"architect = J.H.Nissen", 4
-"note = Soknekirke/arbeidskirke", 11
+"capacity = 200", 9
+"deanery = Stavanger Domprosti", 7
+"note = Prostikirke", 3
+"architect = J.H.Nissen", 3
+"note = Soknekirke/arbeidskirke", 12
 "parish = Bykle", 4
 "parish = Farsund", 3
-"building = church", 95
-"capacity = 300", 5
-"diocese = Stavanger", 14
-"capacity = 350", 8
+"building = church", 82
+"capacity = 300", 4
+"diocese = Stavanger", 15
+"capacity = 350", 7
 "deanery = Lister", 4
 "parish = Bygland", 6
-"toilets = yes", 44
+"toilets = yes", 39
 "parish = Evje og Hornnes", 4
-"architect = Linstow type / Anders Thorsen Syrtveit", 10
-"capacity = 250", 7
+"architect = Linstow type / Anders Thorsen Syrtveit", 8
+"capacity = 250", 5
 "toilets:wheelchair = yes", 10
 "capacity = 700", 3
-"deanery = Bodø Domprosti", 6
-"wheelchair = yes", 11
-"parish = Gildeskål", 3
-"parish = Holt", 4
+"deanery = Bodø Domprosti", 3
+"wheelchair = yes", 10
 "deanery = Ytre Stavanger", 6
-"diocese = Sør-Hålogaland", 6
+"diocese = Sør-Hålogaland", 3
 "capacity = 650", 3
-"parish = Åmli", 4
-"toilets:wheelchair = no", 6
-"note = Soknekirke", 43
-"deanery = Aust-Nedenes", 20
-"amenity = place_of_worship", 98
+"parish = Åmli", 3
+"toilets:wheelchair = no", 4
+"note = Soknekirke", 38
+"deanery = Aust-Nedenes", 16
+"amenity = place_of_worship", 85
 "wheelchair = limited", 3
-"toilets = no", 9
-"capacity = 150", 3
+"toilets = no", 5
 "capacity = 400", 3
 "deanery = Mandal", 6
-"capacity = 500", 10
-"architect = J.W.Nordan", 4
+"capacity = 500", 9
+"architect = J.W.Nordan", 3
 "deanery = Kongsberg", 7
-"deanery = Otredal", 22
-"denomination = lutheran", 98
-"parish = Valle og Hylestad", 4
-"deanery = Lier", 4</t>
+"deanery = Otredal", 20
+"denomination = lutheran", 85</t>
         </is>
       </c>
       <c r="L144" s="5" t="inlineStr">
@@ -9227,7 +9202,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>766</v>
+        <v>671</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>653</v>
@@ -9250,10 +9225,9 @@
       <c r="K145" s="1" t="inlineStr">
         <is>
           <t>"building = yes", 4
-"place = locality", 2
 "place = isolated_dwelling", 3
-"amenity = community_centre", 5
-"building = civic", 3</t>
+"place = farm", 2
+"amenity = community_centre", 3</t>
         </is>
       </c>
       <c r="L145" s="5" t="inlineStr">
@@ -9289,7 +9263,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4777</v>
+        <v>3488</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>3733</v>
@@ -9313,10 +9287,12 @@
         <is>
           <t>"resource = silver", 21
 "building = yes", 6
-"building = farm_auxiliary", 10
-"place = locality", 158
+"building = farm_auxiliary", 9
+"incline = up", 5
+"place = locality", 146
 "man_made = mineshaft", 17
-"historic = mine", 41</t>
+"historic = mine", 41
+"highway = steps", 5</t>
         </is>
       </c>
       <c r="M146" s="12" t="inlineStr">
@@ -9352,7 +9328,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>127</v>
@@ -9374,7 +9350,9 @@
       </c>
       <c r="K147" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 2</t>
+          <t>"type = multipolygon", 3
+"cemetery = grave", 4
+"landuse = cemetery", 4</t>
         </is>
       </c>
       <c r="L147" s="5" t="inlineStr">
@@ -9420,7 +9398,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G148" s="12" t="n">
         <v>70</v>
@@ -9479,7 +9457,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G149" s="12" t="n">
         <v>98</v>
@@ -9538,9 +9516,6 @@
           <t>offersted</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>18</v>
-      </c>
       <c r="G150" s="12" t="n">
         <v>21</v>
       </c>
@@ -9559,7 +9534,7 @@
           <t>Samisk, norsk eller kvensk offersted</t>
         </is>
       </c>
-      <c r="K150" s="1" t="inlineStr"/>
+      <c r="K150" s="5" t="n"/>
       <c r="L150" s="5" t="inlineStr">
         <is>
           <t>historic=heritage</t>
@@ -9598,7 +9573,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>193</v>
@@ -9622,9 +9597,9 @@
         <is>
           <t>"tourism = museum", 2
 "type = multipolygon", 2
-"place = locality", 3
+"place = locality", 2
 "historic = memorial", 4
-"tourism = attraction", 4</t>
+"tourism = attraction", 3</t>
         </is>
       </c>
       <c r="L151" s="5" t="inlineStr">
@@ -9659,9 +9634,6 @@
           <t>utsiktspunkt</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>115</v>
-      </c>
       <c r="G152" s="12" t="n">
         <v>97</v>
       </c>
@@ -9680,7 +9652,7 @@
           <t>Både i tårn og på bakken, f.eks. Kongens utsikt</t>
         </is>
       </c>
-      <c r="K152" s="1" t="inlineStr"/>
+      <c r="K152" s="5" t="n"/>
       <c r="L152" s="5" t="inlineStr">
         <is>
           <t>tourism=viewpoint</t>
@@ -9714,7 +9686,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="G153" s="12" t="n">
         <v>444</v>
@@ -9773,7 +9745,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6096</v>
+        <v>5358</v>
       </c>
       <c r="G154" s="12" t="n">
         <v>5340</v>
@@ -9795,8 +9767,8 @@
       </c>
       <c r="K154" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 23
-"place = locality", 56
+          <t>"place = farm", 14
+"place = locality", 53
 "landuse = meadow", 2</t>
         </is>
       </c>
@@ -9839,7 +9811,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3103</v>
+        <v>2511</v>
       </c>
       <c r="G155" s="12" t="n">
         <v>2408</v>
@@ -9861,9 +9833,8 @@
       </c>
       <c r="K155" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 4
-"place = locality", 10
-"landuse = meadow", 9</t>
+          <t>"place = locality", 10
+"landuse = meadow", 4</t>
         </is>
       </c>
       <c r="L155" s="5" t="inlineStr">
@@ -9899,7 +9870,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8191</v>
+        <v>6697</v>
       </c>
       <c r="G156" s="12" t="n">
         <v>4914</v>
@@ -9921,9 +9892,9 @@
       </c>
       <c r="K156" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 15
-"place = locality", 127
-"landuse = farmland", 47</t>
+          <t>"type = multipolygon", 14
+"place = locality", 130
+"landuse = farmland", 42</t>
         </is>
       </c>
       <c r="M156" s="12" t="inlineStr">
@@ -9959,7 +9930,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="G157" s="12" t="n">
         <v>314</v>
@@ -9981,7 +9952,7 @@
       </c>
       <c r="K157" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 8</t>
+          <t>"place = locality", 9</t>
         </is>
       </c>
       <c r="M157" s="5" t="inlineStr">
@@ -10022,7 +9993,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3646</v>
+        <v>3136</v>
       </c>
       <c r="G158" s="12" t="n">
         <v>3166</v>
@@ -10044,14 +10015,14 @@
       </c>
       <c r="K158" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 10
+          <t>"building = farm_auxiliary", 11
 "building = yes", 5
-"historic = shieling", 85
-"place = locality", 111
-"building = cabin", 5
-"place = isolated_dwelling", 5
-"landuse = meadow", 26
-"place = farm", 13</t>
+"historic = shieling", 61
+"place = locality", 86
+"building = cabin", 4
+"place = isolated_dwelling", 4
+"landuse = meadow", 8
+"place = farm", 10</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
@@ -10092,7 +10063,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>264</v>
@@ -10114,8 +10085,8 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 7
-"place = locality", 8</t>
+          <t>"historic = shieling", 5
+"place = locality", 5</t>
         </is>
       </c>
       <c r="L159" s="2" t="inlineStr">
@@ -10156,7 +10127,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>491</v>
@@ -10298,7 +10269,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3342</v>
+        <v>2908</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>2950</v>
@@ -10320,7 +10291,7 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 49
+          <t>"natural = stone", 36
 "natural = rock", 2</t>
         </is>
       </c>
@@ -10358,7 +10329,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2488</v>
+        <v>2260</v>
       </c>
       <c r="G164" s="12" t="n">
         <v>2354</v>
@@ -10380,8 +10351,7 @@
       </c>
       <c r="K164" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
-"natural = scree", 62</t>
+          <t>"natural = scree", 38</t>
         </is>
       </c>
       <c r="L164" s="5" t="inlineStr">
@@ -10468,7 +10438,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>121</v>
@@ -10558,7 +10528,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
@@ -10656,7 +10626,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="G170" s="12" t="n">
         <v>273</v>
@@ -10680,7 +10650,7 @@
         <is>
           <t>"resource = silver", 3
 "place = locality", 2
-"landuse = quarry", 3
+"landuse = quarry", 2
 "historic = mine", 7</t>
         </is>
       </c>
@@ -10717,7 +10687,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>127</v>
@@ -10822,7 +10792,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8056</v>
+        <v>6867</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>7616</v>
@@ -10844,11 +10814,10 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"leaf_type = needleleaved", 2
-"natural = wood", 19
-"place = farm", 11
-"place = locality", 9
-"type = multipolygon", 6</t>
+          <t>"place = locality", 4
+"natural = wood", 12
+"place = farm", 9
+"leaf_type = needleleaved", 2</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10884,7 +10853,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>6</v>
@@ -10942,7 +10911,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>51853</v>
+        <v>46408</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>50738</v>
@@ -10964,10 +10933,10 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"wetland = bog", 219
-"type = multipolygon", 90
-"natural = wetland", 315
-"place = locality", 517</t>
+          <t>"wetland = bog", 186
+"type = multipolygon", 66
+"natural = wetland", 274
+"place = locality", 516</t>
         </is>
       </c>
       <c r="L175" s="5" t="inlineStr">
@@ -11157,6 +11126,9 @@
           <t>sokn</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>12</v>
+      </c>
       <c r="G179" s="12" t="n">
         <v>12</v>
       </c>
@@ -11175,7 +11147,11 @@
           <t>Kirkesogn i Den norske kirke</t>
         </is>
       </c>
-      <c r="K179" s="5" t="n"/>
+      <c r="K179" s="1" t="inlineStr">
+        <is>
+          <t>"place = suburb", 2</t>
+        </is>
+      </c>
       <c r="L179" s="5" t="inlineStr">
         <is>
           <t>place=hamlet</t>
@@ -11605,7 +11581,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>233</v>
@@ -11627,7 +11603,7 @@
       </c>
       <c r="K188" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2</t>
+          <t>"place = locality", 3</t>
         </is>
       </c>
       <c r="L188" s="9" t="n"/>
@@ -11715,7 +11691,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>728</v>
+        <v>622</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>302</v>
@@ -11737,9 +11713,12 @@
       </c>
       <c r="K190" s="1" t="inlineStr">
         <is>
-          <t>"leisure = nature_reserve", 3
-"boundary = protected_area", 4
-"protect_class = 1", 2</t>
+          <t>"leisure = nature_reserve", 4
+"type = multipolygon", 3
+"naturbase:iid = VV00001832", 3
+"attribution = Miljødirektoratet", 3
+"boundary = protected_area", 3
+"protect_class = 1", 3</t>
         </is>
       </c>
       <c r="L190" s="5" t="inlineStr">
@@ -11836,7 +11815,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>72</v>
@@ -11946,7 +11925,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1962</v>
+        <v>1907</v>
       </c>
       <c r="G194" s="12" t="n">
         <v>1901</v>
@@ -11968,8 +11947,8 @@
       </c>
       <c r="K194" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 140
-"bay = fjord", 138
+          <t>"natural = bay", 129
+"bay = fjord", 127
 "type = multipolygon", 15</t>
         </is>
       </c>
@@ -12114,7 +12093,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>119</v>
@@ -12315,7 +12294,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>13556</v>
+        <v>12862</v>
       </c>
       <c r="G201" s="12" t="n">
         <v>13989</v>
@@ -12337,11 +12316,11 @@
       </c>
       <c r="K201" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 578
+          <t>"place = islet", 573
 "natural = shoal", 78
-"seamark:type = rock", 126
-"natural = coastline", 468
-"natural = rock", 346</t>
+"seamark:type = rock", 124
+"natural = coastline", 462
+"natural = rock", 88</t>
         </is>
       </c>
       <c r="L201" s="5" t="inlineStr">
@@ -12382,7 +12361,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1252</v>
+        <v>1162</v>
       </c>
       <c r="G202" s="12" t="n">
         <v>1206</v>
@@ -12404,8 +12383,7 @@
       </c>
       <c r="K202" s="1" t="inlineStr">
         <is>
-          <t>"natural = rock", 2
-"place = locality", 65
+          <t>"place = locality", 65
 "seamark:type = rock", 65</t>
         </is>
       </c>
@@ -12452,7 +12430,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>13225</v>
+        <v>12730</v>
       </c>
       <c r="G203" s="12" t="n">
         <v>13694</v>
@@ -12475,7 +12453,7 @@
       <c r="K203" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 140
-"natural = shoal", 347</t>
+"natural = shoal", 256</t>
         </is>
       </c>
       <c r="L203" s="5" t="inlineStr">
@@ -12606,7 +12584,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4447</v>
+        <v>4405</v>
       </c>
       <c r="G206" s="12" t="n">
         <v>4494</v>
@@ -12628,7 +12606,7 @@
       </c>
       <c r="K206" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 391</t>
+          <t>"natural = strait", 331</t>
         </is>
       </c>
       <c r="L206" s="5" t="inlineStr">
@@ -12664,7 +12642,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>25874</v>
+        <v>24886</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>26737</v>
@@ -12686,7 +12664,7 @@
       </c>
       <c r="K207" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1609</t>
+          <t>"natural = bay", 1359</t>
         </is>
       </c>
       <c r="L207" s="5" t="inlineStr">
@@ -12723,7 +12701,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3802</v>
+        <v>3688</v>
       </c>
       <c r="G208" s="12" t="n">
         <v>4179</v>
@@ -12746,10 +12724,10 @@
       <c r="K208" s="1" t="inlineStr">
         <is>
           <t>"place = islet", 126
-"type = multipolygon", 105
+"type = multipolygon", 104
 "natural = wood", 8
-"natural = coastline", 130
-"place = island", 128</t>
+"natural = coastline", 96
+"place = island", 87</t>
         </is>
       </c>
       <c r="L208" s="5" t="inlineStr">
@@ -12785,7 +12763,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>18859</v>
+        <v>18534</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>20058</v>
@@ -12807,9 +12785,9 @@
       </c>
       <c r="K209" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1339
-"type = multipolygon", 108
-"natural = coastline", 1196</t>
+          <t>"place = islet", 1160
+"type = multipolygon", 95
+"natural = coastline", 1040</t>
         </is>
       </c>
       <c r="L209" s="5" t="inlineStr">
@@ -12845,7 +12823,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="G210" s="12" t="n">
         <v>495</v>
@@ -12867,8 +12845,8 @@
       </c>
       <c r="K210" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9
-"natural = cape", 50</t>
+          <t>"place = locality", 4
+"natural = cape", 49</t>
         </is>
       </c>
       <c r="L210" s="5" t="inlineStr">
@@ -12904,7 +12882,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>22746</v>
+        <v>21851</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>24024</v>
@@ -12927,7 +12905,7 @@
       <c r="K211" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 53
-"natural = cape", 902</t>
+"natural = cape", 711</t>
         </is>
       </c>
       <c r="L211" s="5" t="inlineStr">
@@ -12964,7 +12942,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G212" s="12" t="n">
         <v>240</v>
@@ -13022,7 +13000,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2353</v>
+        <v>2170</v>
       </c>
       <c r="G213" s="12" t="n">
         <v>2328</v>
@@ -13046,10 +13024,10 @@
         <is>
           <t>"place = hamlet", 2
 "surface = sand", 13
-"type = multipolygon", 9
+"type = multipolygon", 8
 "layer = 2", 7
 "place = locality", 29
-"natural = beach", 43
+"natural = beach", 30
 "place = isolated_dwelling", 2</t>
         </is>
       </c>
@@ -13091,7 +13069,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1290</v>
+        <v>1363</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1405</v>
@@ -13113,7 +13091,7 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 22</t>
+          <t>"natural = bay", 20</t>
         </is>
       </c>
       <c r="L214" s="5" t="inlineStr">
@@ -13177,7 +13155,7 @@
 "place = archipelago", 2
 "natural = cape", 2
 "natural = coastline", 20
-"place = island", 6</t>
+"place = island", 4</t>
         </is>
       </c>
       <c r="L215" s="5" t="inlineStr">
@@ -13213,7 +13191,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="G216" s="12" t="n">
         <v>318</v>
@@ -13235,8 +13213,8 @@
       </c>
       <c r="K216" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 18
-"place = islet", 19</t>
+          <t>"natural = coastline", 17
+"place = islet", 17</t>
         </is>
       </c>
       <c r="L216" s="5" t="inlineStr">
@@ -13273,7 +13251,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>109</v>
@@ -14058,7 +14036,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>7978</v>
+        <v>6982</v>
       </c>
       <c r="G236" s="12" t="n">
         <v>7739</v>
@@ -14080,7 +14058,7 @@
       </c>
       <c r="K236" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 50</t>
+          <t>"place = locality", 49</t>
         </is>
       </c>
       <c r="L236" s="2" t="n"/>
@@ -14117,7 +14095,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4267</v>
+        <v>3649</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>4173</v>
@@ -14139,7 +14117,7 @@
       </c>
       <c r="K237" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3</t>
+          <t>"place = locality", 2</t>
         </is>
       </c>
       <c r="M237" s="12" t="inlineStr">
@@ -14175,7 +14153,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>15359</v>
+        <v>14106</v>
       </c>
       <c r="G238" s="12" t="n">
         <v>15244</v>
@@ -14197,9 +14175,9 @@
       </c>
       <c r="K238" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 15
-"place = locality", 138
-"natural = hill", 224</t>
+          <t>"natural = peak", 14
+"place = locality", 30
+"natural = hill", 116</t>
         </is>
       </c>
       <c r="L238" s="2" t="inlineStr">
@@ -14245,7 +14223,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>22123</v>
+        <v>20489</v>
       </c>
       <c r="G239" s="12" t="n">
         <v>22178</v>
@@ -14267,10 +14245,11 @@
       </c>
       <c r="K239" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 159
-"place = locality", 167
+          <t>"natural = cliff", 4
+"natural = peak", 78
+"place = locality", 120
 "man_made = survey_point", 18
-"natural = hill", 169</t>
+"natural = hill", 122</t>
         </is>
       </c>
       <c r="L239" s="5" t="inlineStr">
@@ -14316,7 +14295,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>9354</v>
+        <v>8419</v>
       </c>
       <c r="G240" s="12" t="n">
         <v>8191</v>
@@ -14338,9 +14317,8 @@
       </c>
       <c r="K240" s="1" t="inlineStr">
         <is>
-          <t>"natural = heath", 59
-"place = locality", 1472
-"natural = hill", 1459</t>
+          <t>"place = locality", 1466
+"natural = hill", 1453</t>
         </is>
       </c>
       <c r="L240" s="5" t="inlineStr">
@@ -14386,7 +14364,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>9886</v>
+        <v>8928</v>
       </c>
       <c r="G241" s="12" t="n">
         <v>9146</v>
@@ -14408,8 +14386,8 @@
       </c>
       <c r="K241" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 605
-"natural = hill", 905</t>
+          <t>"place = locality", 576
+"natural = hill", 875</t>
         </is>
       </c>
       <c r="L241" s="5" t="inlineStr">
@@ -14450,7 +14428,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>58218</v>
+        <v>51618</v>
       </c>
       <c r="G242" s="12" t="n">
         <v>57885</v>
@@ -14472,10 +14450,10 @@
       </c>
       <c r="K242" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 427
-"place = locality", 1739
-"natural = ridge", 289
-"natural = hill", 3096</t>
+          <t>"natural = peak", 286
+"place = locality", 1508
+"natural = ridge", 126
+"natural = hill", 2860</t>
         </is>
       </c>
       <c r="L242" s="5" t="inlineStr">
@@ -14526,7 +14504,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6892</v>
+        <v>6367</v>
       </c>
       <c r="G243" s="12" t="n">
         <v>6752</v>
@@ -14548,9 +14526,10 @@
       </c>
       <c r="K243" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 144
-"natural = ridge", 201
-"natural = hill", 64</t>
+          <t>"natural = peak", 4
+"place = locality", 84
+"natural = ridge", 119
+"natural = hill", 66</t>
         </is>
       </c>
       <c r="L243" s="5" t="inlineStr">
@@ -14591,7 +14570,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>48027</v>
+        <v>44244</v>
       </c>
       <c r="G244" s="12" t="n">
         <v>48481</v>
@@ -14613,9 +14592,10 @@
       </c>
       <c r="K244" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 125
-"place = locality", 740
-"natural = hill", 1058</t>
+          <t>"place = locality", 231
+"natural = peak", 105
+"natural = cape", 30
+"natural = hill", 410</t>
         </is>
       </c>
       <c r="L244" s="5" t="inlineStr">
@@ -14656,7 +14636,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1814</v>
+        <v>1658</v>
       </c>
       <c r="G245" s="12" t="n">
         <v>1648</v>
@@ -14678,8 +14658,8 @@
       </c>
       <c r="K245" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 23
-"natural = hill", 17</t>
+          <t>"natural = peak", 9
+"natural = hill", 2</t>
         </is>
       </c>
       <c r="L245" s="5" t="inlineStr">
@@ -14724,9 +14704,6 @@
           <t>fjellkant</t>
         </is>
       </c>
-      <c r="F246" t="n">
-        <v>1256</v>
-      </c>
       <c r="G246" s="12" t="n">
         <v>1076</v>
       </c>
@@ -14745,7 +14722,7 @@
           <t>Skulder, nese, bryn</t>
         </is>
       </c>
-      <c r="K246" s="1" t="inlineStr"/>
+      <c r="K246" s="5" t="n"/>
       <c r="M246" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -14835,7 +14812,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>39965</v>
+        <v>35919</v>
       </c>
       <c r="G248" s="12" t="n">
         <v>38753</v>
@@ -14857,8 +14834,8 @@
       </c>
       <c r="K248" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 743
-"natural = valley", 1082</t>
+          <t>"place = locality", 756
+"natural = valley", 968</t>
         </is>
       </c>
       <c r="L248" s="5" t="inlineStr">
@@ -14899,7 +14876,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6665</v>
+        <v>6083</v>
       </c>
       <c r="G249" s="12" t="n">
         <v>6491</v>
@@ -14922,7 +14899,7 @@
       <c r="K249" s="1" t="inlineStr">
         <is>
           <t>"natural = valley", 29
-"place = locality", 33</t>
+"place = locality", 34</t>
         </is>
       </c>
       <c r="L249" s="5" t="inlineStr">
@@ -14963,7 +14940,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>11245</v>
+        <v>10080</v>
       </c>
       <c r="G250" s="12" t="n">
         <v>11649</v>
@@ -14985,9 +14962,8 @@
       </c>
       <c r="K250" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 72
-"place = locality", 55
-"natural = saddle", 3</t>
+          <t>"natural = valley", 70
+"place = locality", 55</t>
         </is>
       </c>
       <c r="L250" s="2" t="inlineStr">
@@ -15028,7 +15004,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2027</v>
+        <v>1888</v>
       </c>
       <c r="G251" s="12" t="n">
         <v>1747</v>
@@ -15050,7 +15026,7 @@
       </c>
       <c r="K251" s="1" t="inlineStr">
         <is>
-          <t>"natural = gorge", 4</t>
+          <t>"natural = gorge", 2</t>
         </is>
       </c>
       <c r="L251" s="5" t="inlineStr">
@@ -15086,7 +15062,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>3366</v>
+        <v>2856</v>
       </c>
       <c r="G252" s="12" t="n">
         <v>2948</v>
@@ -15110,8 +15086,8 @@
         <is>
           <t>"natural = wetland", 3
 "wetland = bog", 2
-"natural = valley", 43
-"place = locality", 32</t>
+"natural = valley", 34
+"place = locality", 28</t>
         </is>
       </c>
       <c r="L252" s="5" t="inlineStr">
@@ -15157,7 +15133,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="G253" s="12" t="n">
         <v>340</v>
@@ -15179,8 +15155,8 @@
       </c>
       <c r="K253" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 27
-"place = locality", 27</t>
+          <t>"natural = valley", 26
+"place = locality", 26</t>
         </is>
       </c>
       <c r="L253" s="5" t="inlineStr">
@@ -15254,7 +15230,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>13005</v>
+        <v>11653</v>
       </c>
       <c r="G255" s="12" t="n">
         <v>11974</v>
@@ -15276,8 +15252,8 @@
       </c>
       <c r="K255" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 167
-"natural = slope", 157</t>
+          <t>"place = locality", 134
+"natural = slope", 124</t>
         </is>
       </c>
       <c r="L255" s="5" t="inlineStr">
@@ -15318,7 +15294,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>33767</v>
+        <v>30434</v>
       </c>
       <c r="G256" s="12" t="n">
         <v>32819</v>
@@ -15340,8 +15316,8 @@
       </c>
       <c r="K256" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 366
-"natural = slope", 351</t>
+          <t>"place = locality", 243
+"natural = slope", 230</t>
         </is>
       </c>
       <c r="L256" s="5" t="inlineStr">
@@ -15382,7 +15358,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1554</v>
+        <v>1434</v>
       </c>
       <c r="G257" s="12" t="n">
         <v>1437</v>
@@ -15440,7 +15416,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>337</v>
@@ -15462,7 +15438,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"natural = mountain_range", 6
+          <t>"natural = mountain_range", 5
 "note = Please refine boundary based on local knowledge", 5</t>
         </is>
       </c>
@@ -15504,7 +15480,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3063</v>
+        <v>2714</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>2726</v>
@@ -15526,7 +15502,7 @@
       </c>
       <c r="K259" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 86</t>
+          <t>"natural = cliff", 77</t>
         </is>
       </c>
       <c r="L259" s="5" t="inlineStr">
@@ -15563,7 +15539,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>279</v>
@@ -15622,7 +15598,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>513</v>
@@ -15681,7 +15657,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>3377</v>
+        <v>3098</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>2244</v>
@@ -15739,7 +15715,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>6642</v>
+        <v>5785</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>6057</v>
@@ -15761,7 +15737,7 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 80</t>
+          <t>"place = locality", 74</t>
         </is>
       </c>
       <c r="M263" s="12" t="inlineStr">
@@ -15951,7 +15927,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -707,10 +707,11 @@
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>"ref:ssb_tettsted = 2531", 2
+"ref:ssb_tettsted = 3531", 2
 "email = postmottak@kristiansand.kommune.no", 2
 "ref:ssb_tettsted = 2541", 2
 "ref:ssb_tettsted = 2603", 2
-"ref:ssb_tettsted = 3005", 5
+"ref:ssb_tettsted = 3005", 6
 "ref:ssb_tettsted = 3021", 2
 "place = city", 2
 "source:population = SSB", 2
@@ -719,7 +720,7 @@
 "ref:ssb_tettsted = 2521", 2
 "ref:ssb_tettsted = 3501", 2
 "ref:ssb_tettsted = 2562", 2
-"place = town", 50
+"place = town", 54
 "ref:ssb_tettsted = 2501", 2
 "ref:ssb_tettsted = 3054", 2
 "ref:ssb_tettsted = 2551", 2
@@ -766,7 +767,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -788,12 +789,12 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 17
-"place = suburb", 40
-"place = hamlet", 17
+          <t>"place = quarter", 24
+"place = suburb", 46
+"place = hamlet", 18
 "place = neighbourhood", 19
 "type = multipolygon", 9
-"place = village", 189</t>
+"place = village", 210</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
@@ -829,7 +830,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>928</v>
+        <v>1014</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -851,12 +852,11 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 6
-"place = quarter", 56
-"place = suburb", 90
-"place = hamlet", 47
-"place = neighbourhood", 168
-"place = village", 78</t>
+          <t>"place = quarter", 62
+"place = suburb", 96
+"place = hamlet", 52
+"place = neighbourhood", 183
+"place = village", 84</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1859</v>
+        <v>1985</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -925,10 +925,10 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 16
-"place = hamlet", 152
-"place = neighbourhood", 19
-"place = village", 176</t>
+          <t>"place = suburb", 19
+"place = hamlet", 163
+"place = neighbourhood", 20
+"place = village", 190</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3074</v>
+        <v>3336</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -996,10 +996,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 57
-"place = hamlet", 715
-"place = village", 35
-"place = farm", 36</t>
+          <t>"place = neighbourhood", 58
+"place = hamlet", 751
+"place = village", 37
+"place = farm", 39</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2547</v>
+        <v>2849</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1057,10 +1057,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 717
-"landuse = residential", 29
-"place = quarter", 167
-"place = suburb", 47</t>
+          <t>"place = neighbourhood", 801
+"place = quarter", 175
+"place = suburb", 49</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
@@ -1096,7 +1095,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1118,17 +1117,17 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 39
+          <t>"place = neighbourhood", 41
 "type = multipolygon", 12
 "man_made = wastewater_plant", 2
-"place = locality", 25
-"landuse = industrial", 49
+"place = locality", 26
+"landuse = industrial", 53
 "place = farm", 2
 "natural = cape", 2
-"place = quarter", 17
+"place = quarter", 18
 "landuse = retail", 2
 "building = industrial", 4
-"place = suburb", 6
+"place = suburb", 7
 "man_made = works", 2</t>
         </is>
       </c>
@@ -1165,7 +1164,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1189,8 +1188,8 @@
         <is>
           <t>"place = neighbourhood", 14
 "place = village", 4
-"place = quarter", 15
-"place = suburb", 116</t>
+"place = quarter", 21
+"place = suburb", 118</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1226,7 +1225,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>742</v>
+        <v>835</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1248,7 +1247,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 160
+          <t>"place = neighbourhood", 164
 "landuse = residential", 10
 "place = quarter", 9</t>
         </is>
@@ -1286,7 +1285,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1308,7 +1307,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 44</t>
+          <t>"place = square", 46</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
@@ -1344,7 +1343,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1521,7 +1520,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10759</v>
+        <v>12114</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -1543,8 +1542,8 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3244
-"place = farm", 816</t>
+          <t>"place = isolated_dwelling", 3373
+"place = farm", 921</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1585,7 +1584,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12047</v>
+        <v>13558</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -1607,10 +1606,10 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 697
-"place = locality", 215
-"building = cabin", 3579
-"place = isolated_dwelling", 4628</t>
+          <t>"historic = shieling", 710
+"place = locality", 229
+"building = cabin", 3703
+"place = isolated_dwelling", 4847</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1646,7 +1645,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9519</v>
+        <v>10440</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -1668,9 +1667,9 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 947
-"place = locality", 5458
-"historic = ruins", 800</t>
+          <t>"historic = shieling", 954
+"place = locality", 5631
+"historic = ruins", 837</t>
         </is>
       </c>
       <c r="L17" s="2" t="n"/>
@@ -1712,7 +1711,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>3</v>
@@ -1771,7 +1770,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>131</v>
@@ -1793,7 +1792,7 @@
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 28
+          <t>"leisure = park", 31
 "natural = wood", 3
 "type = multipolygon", 4</t>
         </is>
@@ -1831,7 +1830,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>80</v>
@@ -1891,7 +1890,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>630</v>
+        <v>727</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>513</v>
@@ -1913,21 +1912,14 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 2
-"building:levels = 3", 2
-"leisure = sports_centre", 8
+          <t>"leisure = sports_centre", 8
 "type = multipolygon", 7
-"place = locality", 18
+"place = locality", 19
 "leisure = track", 3
-"amenity = parking", 2
-"building = public", 2
 "sport = soccer", 32
-"sport = swimming;basketball;volleyball;handball", 2
-"leisure = pitch", 74
-"landuse = recreation_ground", 2
-"piste:type = ski_jump", 3
+"leisure = pitch", 78
+"piste:type = ski_jump", 6
 "surface = grass", 5
-"area = no", 2
 "sport = horse_racing", 5</t>
         </is>
       </c>
@@ -1964,7 +1956,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>24</v>
@@ -2023,7 +2015,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>45</v>
@@ -2083,7 +2075,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2107,8 +2099,8 @@
         <is>
           <t>"surface = sand", 12
 "layer = 2", 6
-"leisure = swimming_area", 18
-"place = locality", 22
+"leisure = swimming_area", 20
+"place = locality", 24
 "natural = beach", 12
 "description:no = Stranda har fått navnet sitt etter den rødfarget sanden, denne rødfargen stammer fra ned rustet tyskt materiell som ble ligende her etter 2. verdenskrig, som nettopp minner om kanelfarge.", 2</t>
         </is>
@@ -2156,7 +2148,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>12</v>
@@ -2211,7 +2203,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>89071</v>
+        <v>101927</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -2233,7 +2225,7 @@
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 24983</t>
+          <t>"place = farm", 28179</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -2274,7 +2266,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18875</v>
+        <v>22013</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -2296,10 +2288,10 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 5807
-"place = locality", 4893
-"building = cabin", 436
-"place = isolated_dwelling", 929</t>
+          <t>"historic = shieling", 6162
+"place = locality", 5097
+"building = cabin", 587
+"place = isolated_dwelling", 1085</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
@@ -2345,7 +2337,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3455</v>
+        <v>3918</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -2368,9 +2360,9 @@
       <c r="K28" s="1" t="inlineStr">
         <is>
           <t>"building = yes", 58
-"historic = shieling", 211
-"place = locality", 1237
-"building = farm_auxiliary", 446</t>
+"historic = shieling", 213
+"place = locality", 1269
+"building = farm_auxiliary", 464</t>
         </is>
       </c>
       <c r="M28" s="12" t="inlineStr">
@@ -2406,7 +2398,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3403</v>
+        <v>3754</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>2651</v>
@@ -2429,8 +2421,8 @@
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>"historic = shieling", 50
-"place = locality", 806
-"place = farm", 100</t>
+"place = locality", 849
+"place = farm", 113</t>
         </is>
       </c>
       <c r="M29" s="5" t="inlineStr">
@@ -2466,7 +2458,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>80</v>
@@ -2524,7 +2516,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>32235</v>
+        <v>35836</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -2546,8 +2538,8 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1778
-"place = farm", 7587</t>
+          <t>"place = hamlet", 1890
+"place = farm", 8032</t>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
@@ -2593,7 +2585,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2323</v>
+        <v>2652</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>97</v>
@@ -2615,8 +2607,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 416
-"place = farm", 88</t>
+          <t>"place = hamlet", 440
+"place = farm", 110</t>
         </is>
       </c>
       <c r="L32" s="5" t="inlineStr">
@@ -2657,7 +2649,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1942</v>
+        <v>2170</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>1732</v>
@@ -2679,24 +2671,24 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 71
-"grades = 8-10", 20
+          <t>"building = yes", 73
 "grades = 1-10", 24
-"amenity = school", 170
-"fee = no", 131
+"amenity = school", 176
 "grades = 11-14", 18
 "isced:level = 1;2", 28
-"place = locality", 49
-"grades = 1-7", 69
+"place = locality", 51
+"grades = 1-7", 74
 "isced:level = 3", 20
-"was:amenity = school", 7
+"was:amenity = school", 8
 "disused:amenity = school", 8
-"operator:type = public", 115
+"operator:type = public", 121
 "fee = yes", 14
 "building = school", 14
-"isced:level = 2", 20
-"isced:level = 1", 77
+"isced:level = 2", 21
+"isced:level = 1", 82
 "grades = 1-4", 8
+"grades = 8-10", 21
+"fee = no", 137
 "operator:type = private", 14
 "operator:type = public/government", 16</t>
         </is>
@@ -2734,7 +2726,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>88</v>
@@ -2756,8 +2748,8 @@
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>"amenity = hospital", 13
-"healthcare = hospital", 2</t>
+          <t>"amenity = hospital", 15
+"healthcare = hospital", 3</t>
         </is>
       </c>
       <c r="L34" s="5" t="inlineStr">
@@ -2793,7 +2785,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>342</v>
@@ -2815,7 +2807,7 @@
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 3
+          <t>"building = yes", 4
 "amenity = social_facility", 3
 "place = locality", 6
 "amenity = nursing_home", 80</t>
@@ -2854,7 +2846,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>55</v>
@@ -2876,7 +2868,8 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>"building = civic", 8</t>
+          <t>"place = locality", 2
+"building = civic", 10</t>
         </is>
       </c>
       <c r="L36" s="5" t="inlineStr">
@@ -2912,7 +2905,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>67</v>
@@ -2936,7 +2929,7 @@
         <is>
           <t>"place = neighbourhood", 4
 "natural = bay", 2
-"landuse = military", 8
+"landuse = military", 9
 "place = locality", 3</t>
         </is>
       </c>
@@ -2973,7 +2966,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>251</v>
@@ -3039,7 +3032,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>65</v>
@@ -3269,7 +3262,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>367</v>
@@ -3294,12 +3287,12 @@
           <t>"place = neighbourhood", 10
 "type = multipolygon", 2
 "industrial = brewery", 2
-"place = locality", 20
+"place = locality", 21
 "landuse = industrial", 18
 "email = kundesenter@hansaborg.no", 2
 "industrial = shipyard", 2
-"industrial = factory", 52
-"building = industrial", 42</t>
+"industrial = factory", 56
+"building = industrial", 44</t>
         </is>
       </c>
       <c r="L43" s="5" t="inlineStr">
@@ -3335,7 +3328,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>271</v>
@@ -3359,8 +3352,8 @@
         <is>
           <t>"place = neighbourhood", 4
 "building = yes", 2
-"place = locality", 14
-"building = industrial", 55</t>
+"place = locality", 16
+"building = industrial", 58</t>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
@@ -3396,7 +3389,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>198</v>
@@ -3419,7 +3412,8 @@
       <c r="K45" s="1" t="inlineStr">
         <is>
           <t>"amenity = cafe", 4
-"place = neighbourhood", 3
+"place = neighbourhood", 4
+"building = yes", 2
 "place = locality", 6
 "place = isolated_dwelling", 2
 "place = farm", 2
@@ -3461,7 +3455,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>302</v>
@@ -3485,8 +3479,8 @@
         <is>
           <t>"tourism = chalet", 2
 "building = yes", 3
-"building = hotel", 14
-"place = locality", 10
+"building = hotel", 15
+"place = locality", 11
 "tourism = apartment", 2
 "tourism = hotel", 16</t>
         </is>
@@ -3524,7 +3518,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>99</v>
@@ -3546,11 +3540,11 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 4
-"place = hamlet", 2
-"place = locality", 6
-"tourism = guest_house", 7
-"building = hotel", 3</t>
+          <t>"place = hamlet", 2
+"building = yes", 4
+"building = hotel", 3
+"place = locality", 7
+"tourism = guest_house", 7</t>
         </is>
       </c>
       <c r="L47" s="5" t="inlineStr">
@@ -3586,7 +3580,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -3608,13 +3602,16 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>"dnt:lock = yes", 13
+          <t>"building = house", 2
+"dnt:lock = yes", 15
 "building = yes", 6
 "capacity = 4", 2
 "fee = yes", 4
 "historic = shieling", 6
+"tourism = alpine_hut", 4
 "dog = no", 2
-"tourism = chalet", 49
+"tourism = chalet", 50
+"capacity = 24", 2
 "ski = yes", 2
 "dnt:iid = 2019", 2
 "dnt:iid = 251", 2
@@ -3624,20 +3621,20 @@
 "access = permit", 2
 "dnt:iid = 345", 2
 "network = Den norske Turistforening", 2
-"amenity = cafe", 9
+"amenity = cafe", 11
 "capacity = 6", 3
-"dnt:classification = ubetjent", 9
+"dnt:classification = ubetjent", 11
 "dnt:classification = servering", 5
 "capacity = 8", 2
 "building = cabin", 10
 "note:no = kystledhytte", 2
 "shelter_type = basic_hut", 3
-"tourism = wilderness_hut", 9
+"tourism = wilderness_hut", 11
 "capacity = 32", 2
+"capacity = 11", 2
 "dnt:iid = 1489", 2
-"network = Den Norske Turistforening", 8
+"network = Den Norske Turistforening", 10
 "hiking = yes", 5
-"tourism = alpine_hut", 3
 "amenity = shelter", 3</t>
         </is>
       </c>
@@ -3679,7 +3676,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>152</v>
@@ -3747,7 +3744,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>4</v>
@@ -3767,7 +3764,11 @@
           <t>På land, i sjø og i ferskvann</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr"/>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>"landuse = industrial", 2</t>
+        </is>
+      </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
           <t>landuse=aquaculture</t>
@@ -3801,7 +3802,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>29</v>
@@ -3860,7 +3861,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>463</v>
@@ -3918,7 +3919,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>928</v>
+        <v>1053</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>1042</v>
@@ -3941,7 +3942,7 @@
       <c r="K53" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 2
-"natural = strait", 10</t>
+"natural = strait", 11</t>
         </is>
       </c>
       <c r="L53" s="5" t="inlineStr">
@@ -3977,7 +3978,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6365</v>
+        <v>7334</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>7211</v>
@@ -3999,8 +4000,8 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 134
-"natural = water", 5</t>
+          <t>"natural = bay", 140
+"natural = water", 6</t>
         </is>
       </c>
       <c r="L54" s="5" t="inlineStr">
@@ -4036,7 +4037,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1132</v>
+        <v>1287</v>
       </c>
       <c r="G55" s="12" t="n">
         <v>1296</v>
@@ -4097,7 +4098,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3696</v>
+        <v>4255</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>4298</v>
@@ -4119,8 +4120,8 @@
       </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 78
-"natural = wood", 22
+          <t>"place = islet", 83
+"natural = wood", 26
 "leaf_type = needleleaved", 4</t>
         </is>
       </c>
@@ -4157,7 +4158,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>255</v>
@@ -4215,7 +4216,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8558</v>
+        <v>9604</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>9498</v>
@@ -4237,7 +4238,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 217</t>
+          <t>"natural = cape", 234</t>
         </is>
       </c>
       <c r="L58" s="5" t="inlineStr">
@@ -4273,7 +4274,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>390</v>
@@ -4333,7 +4334,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>885</v>
+        <v>993</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>923</v>
@@ -4355,8 +4356,9 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 3
-"place = locality", 4</t>
+          <t>"natural = beach", 4
+"place = locality", 4
+"type = multipolygon", 2</t>
         </is>
       </c>
       <c r="L60" s="5" t="inlineStr">
@@ -4444,7 +4446,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>399</v>
@@ -4563,7 +4565,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>199</v>
@@ -4683,7 +4685,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8780</v>
+        <v>9658</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>10146</v>
@@ -4705,8 +4707,10 @@
       </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 96
-"waterway = stream", 13</t>
+          <t>"width = 2", 10
+"width = 3", 6
+"waterway = river", 138
+"waterway = stream", 18</t>
         </is>
       </c>
       <c r="L66" s="5" t="inlineStr">
@@ -4742,7 +4746,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>38901</v>
+        <v>43901</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -4764,10 +4768,12 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"tunnel = culvert", 13
-"layer = -1", 21
-"waterway = river", 31
-"waterway = stream", 182</t>
+          <t>"tunnel = culvert", 16
+"layer = -1", 28
+"width = 2", 53
+"width = 3", 23
+"waterway = river", 59
+"waterway = stream", 247</t>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">
@@ -4854,7 +4860,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3101</v>
+        <v>3472</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>3394</v>
@@ -4877,7 +4883,7 @@
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>"waterway = waterfall", 2
-"natural = waterfall", 10</t>
+"natural = waterfall", 19</t>
         </is>
       </c>
       <c r="L69" s="5" t="inlineStr">
@@ -4913,7 +4919,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>461</v>
@@ -4935,7 +4941,8 @@
       </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
-          <t>"waterway = rapids", 4</t>
+          <t>"waterway = rapids", 4
+"place = suburb", 2</t>
         </is>
       </c>
       <c r="L70" s="5" t="inlineStr">
@@ -4976,7 +4983,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>878</v>
+        <v>1004</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>1004</v>
@@ -5030,7 +5037,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2307</v>
+        <v>2568</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2461</v>
@@ -5054,9 +5061,9 @@
         <is>
           <t>"water = pond", 3
 "place = locality", 4
-"natural = water", 7
-"water = pool", 3
-"type = multipolygon", 2</t>
+"natural = water", 10
+"water = pool", 5
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L72" s="2" t="n"/>
@@ -5098,7 +5105,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1669</v>
+        <v>1826</v>
       </c>
       <c r="G73" s="12" t="n">
         <v>1780</v>
@@ -5121,9 +5128,9 @@
       <c r="K73" s="1" t="inlineStr">
         <is>
           <t>"natural = bay", 15
-"natural = water", 14
-"type = multipolygon", 11
-"water = river", 6</t>
+"natural = water", 17
+"type = multipolygon", 14
+"water = river", 7</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
@@ -5159,7 +5166,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>15</v>
@@ -5217,7 +5224,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>654</v>
@@ -5378,7 +5385,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>470</v>
@@ -5400,9 +5407,9 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 15
-"water = lake", 12
-"type = multipolygon", 15</t>
+          <t>"natural = water", 17
+"water = lake", 14
+"type = multipolygon", 17</t>
         </is>
       </c>
       <c r="L78" s="5" t="inlineStr">
@@ -5438,7 +5445,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>12039</v>
+        <v>13168</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>14069</v>
@@ -5460,9 +5467,9 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 249
-"natural = water", 282
-"water = lake", 194</t>
+          <t>"type = multipolygon", 319
+"natural = water", 369
+"water = lake", 241</t>
         </is>
       </c>
       <c r="L79" s="5" t="inlineStr">
@@ -5498,7 +5505,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>51819</v>
+        <v>58397</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -5520,9 +5527,9 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 1092
-"natural = water", 2010
-"water = lake", 764</t>
+          <t>"type = multipolygon", 1277
+"natural = water", 2392
+"water = lake", 866</t>
         </is>
       </c>
       <c r="L80" s="5" t="inlineStr">
@@ -5558,7 +5565,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1206</v>
+        <v>1413</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>1286</v>
@@ -5580,8 +5587,8 @@
       </c>
       <c r="K81" s="1" t="inlineStr">
         <is>
-          <t>"water = pond", 5
-"natural = water", 6
+          <t>"water = pond", 7
+"natural = water", 8
 "type = multipolygon", 2</t>
         </is>
       </c>
@@ -5618,7 +5625,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>828</v>
+        <v>937</v>
       </c>
       <c r="G82" s="12" t="n">
         <v>884</v>
@@ -5640,7 +5647,7 @@
       </c>
       <c r="K82" s="1" t="inlineStr">
         <is>
-          <t>"waterway = dam", 2
+          <t>"waterway = dam", 3
 "natural = water", 2</t>
         </is>
       </c>
@@ -5678,7 +5685,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>129</v>
@@ -5737,7 +5744,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>166</v>
@@ -5759,7 +5766,8 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 2</t>
+          <t>"natural = water", 3
+"water = lake", 2</t>
         </is>
       </c>
       <c r="L84" s="5" t="inlineStr">
@@ -5796,7 +5804,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1534</v>
+        <v>1836</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>687</v>
@@ -5818,10 +5826,10 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5
-"natural = water", 53
-"water = lake", 38
-"type = multipolygon", 27</t>
+          <t>"natural = water", 73
+"water = lake", 44
+"type = multipolygon", 38
+"place = locality", 5</t>
         </is>
       </c>
       <c r="L85" s="5" t="inlineStr">
@@ -5857,7 +5865,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>506</v>
@@ -5880,10 +5888,10 @@
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>"abandoned:railway = station", 2
-"railway:traffic_mode = passenger", 2
+"railway:traffic_mode = passenger", 3
 "train = yes", 4
 "place = locality", 2
-"railway = station", 3</t>
+"railway = station", 4</t>
         </is>
       </c>
       <c r="L86" s="5" t="inlineStr">
@@ -5924,7 +5932,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>215</v>
@@ -5949,7 +5957,8 @@
           <t>"railway = halt", 5
 "train = yes", 2
 "place = locality", 2
-"railway:traffic_mode = passenger", 6
+"disused:railway = halt", 2
+"railway:traffic_mode = passenger", 7
 "abandoned:railway = halt", 2</t>
         </is>
       </c>
@@ -6043,7 +6052,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>174</v>
@@ -6408,7 +6417,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G96" s="12" t="n">
         <v>120</v>
@@ -6519,7 +6528,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G98" s="12" t="n">
         <v>98</v>
@@ -6573,7 +6582,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2089</v>
+        <v>2209</v>
       </c>
       <c r="G99" s="12" t="n">
         <v>2333</v>
@@ -6596,15 +6605,16 @@
       <c r="K99" s="1" t="inlineStr">
         <is>
           <t>"man_made = lighthouse", 3
-"seamark:kystverket:information = Lyktehus på søyle", 6
-"seamark:kystverket:information = 4-FL/SC", 2
+"seamark:kystverket:information = Lyktehus på søyle", 7
+"seamark:kystverket:information = 4-FL/SC", 3
 "seamark:kystverket:information = 4-FL/NB", 2
-"seamark:kystverket:information = FL/SC", 8
-"man_made = beacon", 2
-"seamark:type = light_minor", 21
-"source:seamark = Kystverket", 22
+"seamark:kystverket:information = FL/SC", 12
+"man_made = beacon", 6
+"seamark:type = light_minor", 32
+"source:seamark = Kystverket", 32
 "seamark:kystverket:information = Lyktehus", 2
-"note = Fyrlykt", 21</t>
+"seamark:kystverket:information = FL/NB", 4
+"note = Fyrlykt", 31</t>
         </is>
       </c>
       <c r="O99" s="5">
@@ -6640,7 +6650,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="G100" s="12" t="n">
         <v>202</v>
@@ -6704,7 +6714,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G101" s="12" t="n">
         <v>490</v>
@@ -7030,7 +7040,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7700</v>
+        <v>8652</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>10197</v>
@@ -7054,22 +7064,27 @@
         <is>
           <t>"man_made = tunnel", 3
 "layer = -1", 3
+"lanes = 1", 3
 "int_ref = E 134", 2
-"bridge = yes", 62
+"bridge = yes", 65
 "historic = bridge", 2
 "old_ref = 202", 2
 "place = locality", 2
 "highway = secondary", 11
 "old_ref = 459", 2
+"width = 3.0", 2
 "old_ref = 158", 2
 "highway = tertiary", 2
 "surface = paved", 4
 "lit = yes", 4
-"highway = primary", 30
+"source:maxspeed = sign", 2
+"highway = primary", 33
 "old_ref = 408", 2
+"old_ref = 49", 3
 "highway = trunk", 4
-"layer = 1", 61
-"surface = asphalt", 6
+"layer = 1", 64
+"surface = asphalt", 9
+"place = suburb", 2
 "highway = track", 4
 "nvdb:id = 339480834", 2
 "int_ref = E 39", 2
@@ -7116,7 +7131,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>118</v>
@@ -7170,7 +7185,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>1216</v>
@@ -7240,7 +7255,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>11</v>
@@ -7644,7 +7659,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>341</v>
@@ -7712,7 +7727,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>407</v>
@@ -7734,10 +7749,10 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 18
+          <t>"man_made = quay", 15
+"place = locality", 18
 "place = isolated_dwelling", 2
-"natural = coastline", 4
-"man_made = quay", 15</t>
+"natural = coastline", 4</t>
         </is>
       </c>
       <c r="L120" s="5" t="inlineStr">
@@ -7941,7 +7956,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G124" s="12" t="n">
         <v>64</v>
@@ -8051,7 +8066,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G126" s="12" t="n">
         <v>65</v>
@@ -8117,7 +8132,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G127" s="12" t="n">
         <v>188</v>
@@ -8142,7 +8157,7 @@
           <t>"leisure = marina", 2
 "place = locality", 3
 "seamark:type = harbour", 3
-"landuse = harbour", 2</t>
+"landuse = harbour", 3</t>
         </is>
       </c>
       <c r="L127" s="5" t="inlineStr">
@@ -8179,7 +8194,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="G128" s="12" t="n">
         <v>400</v>
@@ -8201,9 +8216,9 @@
       </c>
       <c r="K128" s="1" t="inlineStr">
         <is>
-          <t>"mooring = yes", 3
-"place = locality", 75
-"historic = yes", 73</t>
+          <t>"mooring = yes", 4
+"place = locality", 91
+"historic = yes", 89</t>
         </is>
       </c>
       <c r="L128" s="5" t="inlineStr">
@@ -8315,7 +8330,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4957</v>
+        <v>5663</v>
       </c>
       <c r="G130" s="12" t="n">
         <v>24621</v>
@@ -8374,7 +8389,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>650</v>
+        <v>791</v>
       </c>
       <c r="G131" s="12" t="n">
         <v>729</v>
@@ -8441,7 +8456,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3571</v>
+        <v>4393</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>4064</v>
@@ -8464,9 +8479,9 @@
       <c r="K132" s="1" t="inlineStr">
         <is>
           <t>"trail_visibility = excellent", 2
-"sac_scale = hiking", 2
-"place = locality", 3
-"highway = path", 11</t>
+"sac_scale = hiking", 4
+"place = locality", 4
+"highway = path", 24</t>
         </is>
       </c>
       <c r="L132" s="9" t="inlineStr">
@@ -8502,7 +8517,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>635</v>
+        <v>747</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>673</v>
@@ -8567,7 +8582,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>70</v>
@@ -8729,7 +8744,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>737</v>
+        <v>860</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>788</v>
@@ -8751,7 +8766,7 @@
       </c>
       <c r="K137" s="1" t="inlineStr">
         <is>
-          <t>"ford = yes", 5
+          <t>"ford = yes", 6
 "place = locality", 5</t>
         </is>
       </c>
@@ -8798,7 +8813,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="G138" s="12" t="n">
         <v>261</v>
@@ -8852,7 +8867,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>872</v>
+        <v>1049</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>792</v>
@@ -9093,7 +9108,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1542</v>
+        <v>1727</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>1629</v>
@@ -9117,51 +9132,57 @@
         <is>
           <t>"capacity = 450", 6
 "deanery = Vest-Nedenes", 6
-"diocese = Tunsberg", 8
-"hearing_aids = yes", 13
-"diocese = Agder og Telemark", 54
+"diocese = Tunsberg", 12
+"hearing_aids = yes", 15
+"diocese = Agder og Telemark", 59
 "parish = Kongsberg og Jondalen", 3
 "parish = Mandal", 4
-"religion = christian", 85
+"religion = christian", 98
 "capacity = 170", 3
-"capacity = 200", 9
+"capacity = 200", 10
 "deanery = Stavanger Domprosti", 7
-"note = Prostikirke", 3
-"architect = J.H.Nissen", 3
+"capacity = 430", 3
+"note = Prostikirke", 4
+"architect = J.H.Nissen", 4
 "note = Soknekirke/arbeidskirke", 12
 "parish = Bykle", 4
 "parish = Farsund", 3
-"building = church", 82
-"capacity = 300", 4
+"building = church", 95
+"capacity = 300", 5
 "diocese = Stavanger", 15
-"capacity = 350", 7
+"capacity = 350", 8
 "deanery = Lister", 4
 "parish = Bygland", 6
-"toilets = yes", 39
+"toilets = yes", 44
 "parish = Evje og Hornnes", 4
-"architect = Linstow type / Anders Thorsen Syrtveit", 8
-"capacity = 250", 5
+"architect = Linstow type / Anders Thorsen Syrtveit", 10
+"capacity = 250", 7
 "toilets:wheelchair = yes", 10
 "capacity = 700", 3
-"deanery = Bodø Domprosti", 3
-"wheelchair = yes", 10
+"deanery = Bodø Domprosti", 6
+"wheelchair = yes", 11
+"parish = Gildeskål", 3
+"parish = Holt", 4
 "deanery = Ytre Stavanger", 6
-"diocese = Sør-Hålogaland", 3
+"diocese = Sør-Hålogaland", 6
 "capacity = 650", 3
 "parish = Åmli", 3
-"toilets:wheelchair = no", 4
-"note = Soknekirke", 38
-"deanery = Aust-Nedenes", 16
-"amenity = place_of_worship", 85
+"toilets:wheelchair = no", 6
+"note = Soknekirke", 42
+"deanery = Aust-Nedenes", 19
+"amenity = place_of_worship", 98
 "wheelchair = limited", 3
-"toilets = no", 5
+"toilets = no", 9
+"capacity = 150", 3
 "capacity = 400", 3
 "deanery = Mandal", 6
-"capacity = 500", 9
-"architect = J.W.Nordan", 3
+"capacity = 500", 10
+"architect = J.W.Nordan", 4
 "deanery = Kongsberg", 7
-"deanery = Otredal", 20
-"denomination = lutheran", 85</t>
+"deanery = Otredal", 22
+"denomination = lutheran", 98
+"parish = Valle og Hylestad", 4
+"deanery = Lier", 4</t>
         </is>
       </c>
       <c r="L144" s="5" t="inlineStr">
@@ -9202,7 +9223,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>671</v>
+        <v>786</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>653</v>
@@ -9263,7 +9284,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3488</v>
+        <v>4605</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>3733</v>
@@ -9287,7 +9308,7 @@
         <is>
           <t>"resource = silver", 21
 "building = yes", 6
-"building = farm_auxiliary", 9
+"building = farm_auxiliary", 10
 "incline = up", 5
 "place = locality", 146
 "man_made = mineshaft", 17
@@ -9328,7 +9349,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>127</v>
@@ -9398,7 +9419,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G148" s="12" t="n">
         <v>70</v>
@@ -9457,7 +9478,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="G149" s="12" t="n">
         <v>98</v>
@@ -9573,7 +9594,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>193</v>
@@ -9686,7 +9707,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="G153" s="12" t="n">
         <v>444</v>
@@ -9745,7 +9766,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5358</v>
+        <v>5946</v>
       </c>
       <c r="G154" s="12" t="n">
         <v>5340</v>
@@ -9767,8 +9788,8 @@
       </c>
       <c r="K154" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 14
-"place = locality", 53
+          <t>"place = farm", 15
+"place = locality", 56
 "landuse = meadow", 2</t>
         </is>
       </c>
@@ -9811,7 +9832,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2511</v>
+        <v>3069</v>
       </c>
       <c r="G155" s="12" t="n">
         <v>2408</v>
@@ -9833,8 +9854,9 @@
       </c>
       <c r="K155" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 10
-"landuse = meadow", 4</t>
+          <t>"type = multipolygon", 4
+"place = locality", 10
+"landuse = meadow", 9</t>
         </is>
       </c>
       <c r="L155" s="5" t="inlineStr">
@@ -9870,7 +9892,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>6697</v>
+        <v>7495</v>
       </c>
       <c r="G156" s="12" t="n">
         <v>4914</v>
@@ -9892,9 +9914,9 @@
       </c>
       <c r="K156" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 14
+          <t>"type = multipolygon", 21
 "place = locality", 130
-"landuse = farmland", 42</t>
+"landuse = farmland", 49</t>
         </is>
       </c>
       <c r="M156" s="12" t="inlineStr">
@@ -9930,7 +9952,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="G157" s="12" t="n">
         <v>314</v>
@@ -9993,7 +10015,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3136</v>
+        <v>3602</v>
       </c>
       <c r="G158" s="12" t="n">
         <v>3166</v>
@@ -10017,11 +10039,11 @@
         <is>
           <t>"building = farm_auxiliary", 11
 "building = yes", 5
-"historic = shieling", 61
-"place = locality", 86
-"building = cabin", 4
-"place = isolated_dwelling", 4
-"landuse = meadow", 8
+"historic = shieling", 79
+"place = locality", 106
+"building = cabin", 5
+"place = isolated_dwelling", 5
+"landuse = meadow", 26
 "place = farm", 10</t>
         </is>
       </c>
@@ -10063,7 +10085,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>264</v>
@@ -10085,8 +10107,8 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 5
-"place = locality", 5</t>
+          <t>"historic = shieling", 7
+"place = locality", 8</t>
         </is>
       </c>
       <c r="L159" s="2" t="inlineStr">
@@ -10127,7 +10149,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>491</v>
@@ -10269,7 +10291,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2908</v>
+        <v>3254</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>2950</v>
@@ -10291,7 +10313,7 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 36
+          <t>"natural = stone", 49
 "natural = rock", 2</t>
         </is>
       </c>
@@ -10329,7 +10351,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2260</v>
+        <v>2487</v>
       </c>
       <c r="G164" s="12" t="n">
         <v>2354</v>
@@ -10351,7 +10373,8 @@
       </c>
       <c r="K164" s="1" t="inlineStr">
         <is>
-          <t>"natural = scree", 38</t>
+          <t>"place = locality", 2
+"natural = scree", 63</t>
         </is>
       </c>
       <c r="L164" s="5" t="inlineStr">
@@ -10438,7 +10461,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>121</v>
@@ -10626,7 +10649,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G170" s="12" t="n">
         <v>273</v>
@@ -10650,7 +10673,7 @@
         <is>
           <t>"resource = silver", 3
 "place = locality", 2
-"landuse = quarry", 2
+"landuse = quarry", 3
 "historic = mine", 7</t>
         </is>
       </c>
@@ -10687,7 +10710,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>127</v>
@@ -10792,7 +10815,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6867</v>
+        <v>7811</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>7616</v>
@@ -10814,10 +10837,11 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4
-"natural = wood", 12
-"place = farm", 9
-"leaf_type = needleleaved", 2</t>
+          <t>"place = locality", 9
+"type = multipolygon", 6
+"natural = wood", 20
+"place = farm", 11
+"leaf_type = needleleaved", 3</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10911,7 +10935,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>46408</v>
+        <v>51698</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>50738</v>
@@ -10933,10 +10957,10 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"wetland = bog", 186
-"type = multipolygon", 66
-"natural = wetland", 274
-"place = locality", 516</t>
+          <t>"wetland = bog", 220
+"type = multipolygon", 91
+"natural = wetland", 319
+"place = locality", 517</t>
         </is>
       </c>
       <c r="L175" s="5" t="inlineStr">
@@ -11127,7 +11151,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" s="12" t="n">
         <v>12</v>
@@ -11581,7 +11605,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>233</v>
@@ -11691,7 +11715,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>622</v>
+        <v>753</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>302</v>
@@ -11713,12 +11737,12 @@
       </c>
       <c r="K190" s="1" t="inlineStr">
         <is>
-          <t>"leisure = nature_reserve", 4
-"type = multipolygon", 3
-"naturbase:iid = VV00001832", 3
-"attribution = Miljødirektoratet", 3
-"boundary = protected_area", 3
-"protect_class = 1", 3</t>
+          <t>"leisure = nature_reserve", 6
+"type = multipolygon", 4
+"naturbase:iid = VV00001832", 4
+"attribution = Miljødirektoratet", 4
+"boundary = protected_area", 7
+"protect_class = 1", 5</t>
         </is>
       </c>
       <c r="L190" s="5" t="inlineStr">
@@ -11815,7 +11839,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>72</v>
@@ -11925,7 +11949,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1907</v>
+        <v>2011</v>
       </c>
       <c r="G194" s="12" t="n">
         <v>1901</v>
@@ -11947,8 +11971,8 @@
       </c>
       <c r="K194" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 129
-"bay = fjord", 127
+          <t>"natural = bay", 140
+"bay = fjord", 138
 "type = multipolygon", 15</t>
         </is>
       </c>
@@ -12093,7 +12117,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>119</v>
@@ -12156,7 +12180,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G198" s="12" t="n">
         <v>46</v>
@@ -12294,7 +12318,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>12862</v>
+        <v>13581</v>
       </c>
       <c r="G201" s="12" t="n">
         <v>13989</v>
@@ -12316,11 +12340,11 @@
       </c>
       <c r="K201" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 573
+          <t>"place = islet", 578
 "natural = shoal", 78
-"seamark:type = rock", 124
-"natural = coastline", 462
-"natural = rock", 88</t>
+"seamark:type = rock", 126
+"natural = coastline", 468
+"natural = rock", 346</t>
         </is>
       </c>
       <c r="L201" s="5" t="inlineStr">
@@ -12361,7 +12385,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1162</v>
+        <v>1258</v>
       </c>
       <c r="G202" s="12" t="n">
         <v>1206</v>
@@ -12383,7 +12407,8 @@
       </c>
       <c r="K202" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 65
+          <t>"natural = rock", 2
+"place = locality", 65
 "seamark:type = rock", 65</t>
         </is>
       </c>
@@ -12430,7 +12455,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>12730</v>
+        <v>13167</v>
       </c>
       <c r="G203" s="12" t="n">
         <v>13694</v>
@@ -12453,7 +12478,7 @@
       <c r="K203" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 140
-"natural = shoal", 256</t>
+"natural = shoal", 347</t>
         </is>
       </c>
       <c r="L203" s="5" t="inlineStr">
@@ -12584,7 +12609,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4405</v>
+        <v>4671</v>
       </c>
       <c r="G206" s="12" t="n">
         <v>4494</v>
@@ -12606,7 +12631,7 @@
       </c>
       <c r="K206" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 331</t>
+          <t>"natural = strait", 391</t>
         </is>
       </c>
       <c r="L206" s="5" t="inlineStr">
@@ -12642,7 +12667,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>24886</v>
+        <v>26442</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>26737</v>
@@ -12664,7 +12689,7 @@
       </c>
       <c r="K207" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1359</t>
+          <t>"natural = bay", 1608</t>
         </is>
       </c>
       <c r="L207" s="5" t="inlineStr">
@@ -12701,7 +12726,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3688</v>
+        <v>3911</v>
       </c>
       <c r="G208" s="12" t="n">
         <v>4179</v>
@@ -12724,10 +12749,10 @@
       <c r="K208" s="1" t="inlineStr">
         <is>
           <t>"place = islet", 126
-"type = multipolygon", 104
+"type = multipolygon", 108
 "natural = wood", 8
-"natural = coastline", 96
-"place = island", 87</t>
+"natural = coastline", 131
+"place = island", 131</t>
         </is>
       </c>
       <c r="L208" s="5" t="inlineStr">
@@ -12763,7 +12788,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>18534</v>
+        <v>19259</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>20058</v>
@@ -12785,9 +12810,9 @@
       </c>
       <c r="K209" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1160
-"type = multipolygon", 95
-"natural = coastline", 1040</t>
+          <t>"place = islet", 1339
+"type = multipolygon", 108
+"natural = coastline", 1196</t>
         </is>
       </c>
       <c r="L209" s="5" t="inlineStr">
@@ -12823,7 +12848,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="G210" s="12" t="n">
         <v>495</v>
@@ -12845,8 +12870,8 @@
       </c>
       <c r="K210" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4
-"natural = cape", 49</t>
+          <t>"place = locality", 9
+"natural = cape", 50</t>
         </is>
       </c>
       <c r="L210" s="5" t="inlineStr">
@@ -12882,7 +12907,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>21851</v>
+        <v>23167</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>24024</v>
@@ -12905,7 +12930,7 @@
       <c r="K211" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 53
-"natural = cape", 711</t>
+"natural = cape", 902</t>
         </is>
       </c>
       <c r="L211" s="5" t="inlineStr">
@@ -12942,7 +12967,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G212" s="12" t="n">
         <v>240</v>
@@ -13000,7 +13025,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2170</v>
+        <v>2306</v>
       </c>
       <c r="G213" s="12" t="n">
         <v>2328</v>
@@ -13024,10 +13049,10 @@
         <is>
           <t>"place = hamlet", 2
 "surface = sand", 13
-"type = multipolygon", 8
+"type = multipolygon", 9
 "layer = 2", 7
-"place = locality", 29
-"natural = beach", 30
+"place = locality", 30
+"natural = beach", 43
 "place = isolated_dwelling", 2</t>
         </is>
       </c>
@@ -13069,7 +13094,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1363</v>
+        <v>1418</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1405</v>
@@ -13091,7 +13116,7 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 20</t>
+          <t>"natural = bay", 22</t>
         </is>
       </c>
       <c r="L214" s="5" t="inlineStr">
@@ -13128,7 +13153,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="G215" s="12" t="n">
         <v>351</v>
@@ -13155,7 +13180,7 @@
 "place = archipelago", 2
 "natural = cape", 2
 "natural = coastline", 20
-"place = island", 4</t>
+"place = island", 6</t>
         </is>
       </c>
       <c r="L215" s="5" t="inlineStr">
@@ -13191,7 +13216,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="G216" s="12" t="n">
         <v>318</v>
@@ -13213,8 +13238,8 @@
       </c>
       <c r="K216" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 17
-"place = islet", 17</t>
+          <t>"natural = coastline", 18
+"place = islet", 19</t>
         </is>
       </c>
       <c r="L216" s="5" t="inlineStr">
@@ -13251,7 +13276,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>109</v>
@@ -14036,7 +14061,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>6982</v>
+        <v>7898</v>
       </c>
       <c r="G236" s="12" t="n">
         <v>7739</v>
@@ -14058,7 +14083,7 @@
       </c>
       <c r="K236" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 49</t>
+          <t>"place = locality", 50</t>
         </is>
       </c>
       <c r="L236" s="2" t="n"/>
@@ -14095,7 +14120,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>3649</v>
+        <v>4126</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>4173</v>
@@ -14153,7 +14178,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>14106</v>
+        <v>15313</v>
       </c>
       <c r="G238" s="12" t="n">
         <v>15244</v>
@@ -14176,8 +14201,8 @@
       <c r="K238" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 14
-"place = locality", 30
-"natural = hill", 116</t>
+"place = locality", 138
+"natural = hill", 224</t>
         </is>
       </c>
       <c r="L238" s="2" t="inlineStr">
@@ -14223,7 +14248,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>20489</v>
+        <v>21914</v>
       </c>
       <c r="G239" s="12" t="n">
         <v>22178</v>
@@ -14245,11 +14270,10 @@
       </c>
       <c r="K239" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 4
-"natural = peak", 78
-"place = locality", 120
+          <t>"natural = peak", 158
+"place = locality", 168
 "man_made = survey_point", 18
-"natural = hill", 122</t>
+"natural = hill", 170</t>
         </is>
       </c>
       <c r="L239" s="5" t="inlineStr">
@@ -14295,7 +14319,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>8419</v>
+        <v>8804</v>
       </c>
       <c r="G240" s="12" t="n">
         <v>8191</v>
@@ -14317,8 +14341,9 @@
       </c>
       <c r="K240" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1466
-"natural = hill", 1453</t>
+          <t>"natural = heath", 59
+"place = locality", 1484
+"natural = hill", 1471</t>
         </is>
       </c>
       <c r="L240" s="5" t="inlineStr">
@@ -14364,7 +14389,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>8928</v>
+        <v>9700</v>
       </c>
       <c r="G241" s="12" t="n">
         <v>9146</v>
@@ -14386,8 +14411,8 @@
       </c>
       <c r="K241" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 576
-"natural = hill", 875</t>
+          <t>"place = locality", 607
+"natural = hill", 908</t>
         </is>
       </c>
       <c r="L241" s="5" t="inlineStr">
@@ -14428,7 +14453,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>51618</v>
+        <v>57743</v>
       </c>
       <c r="G242" s="12" t="n">
         <v>57885</v>
@@ -14450,10 +14475,10 @@
       </c>
       <c r="K242" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 286
-"place = locality", 1508
-"natural = ridge", 126
-"natural = hill", 2860</t>
+          <t>"natural = peak", 383
+"place = locality", 1761
+"natural = ridge", 289
+"natural = hill", 3119</t>
         </is>
       </c>
       <c r="L242" s="5" t="inlineStr">
@@ -14504,7 +14529,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6367</v>
+        <v>6893</v>
       </c>
       <c r="G243" s="12" t="n">
         <v>6752</v>
@@ -14526,10 +14551,9 @@
       </c>
       <c r="K243" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 4
-"place = locality", 84
-"natural = ridge", 119
-"natural = hill", 66</t>
+          <t>"place = locality", 146
+"natural = ridge", 201
+"natural = hill", 67</t>
         </is>
       </c>
       <c r="L243" s="5" t="inlineStr">
@@ -14570,7 +14594,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>44244</v>
+        <v>48488</v>
       </c>
       <c r="G244" s="12" t="n">
         <v>48481</v>
@@ -14592,10 +14616,9 @@
       </c>
       <c r="K244" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 231
-"natural = peak", 105
-"natural = cape", 30
-"natural = hill", 410</t>
+          <t>"place = locality", 742
+"natural = peak", 122
+"natural = hill", 1063</t>
         </is>
       </c>
       <c r="L244" s="5" t="inlineStr">
@@ -14636,7 +14659,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1658</v>
+        <v>1813</v>
       </c>
       <c r="G245" s="12" t="n">
         <v>1648</v>
@@ -14658,8 +14681,8 @@
       </c>
       <c r="K245" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 9
-"natural = hill", 2</t>
+          <t>"natural = peak", 23
+"natural = hill", 17</t>
         </is>
       </c>
       <c r="L245" s="5" t="inlineStr">
@@ -14704,6 +14727,9 @@
           <t>fjellkant</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>1196</v>
+      </c>
       <c r="G246" s="12" t="n">
         <v>1076</v>
       </c>
@@ -14722,7 +14748,7 @@
           <t>Skulder, nese, bryn</t>
         </is>
       </c>
-      <c r="K246" s="5" t="n"/>
+      <c r="K246" s="1" t="inlineStr"/>
       <c r="M246" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -14812,7 +14838,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>35919</v>
+        <v>39269</v>
       </c>
       <c r="G248" s="12" t="n">
         <v>38753</v>
@@ -14834,8 +14860,8 @@
       </c>
       <c r="K248" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 756
-"natural = valley", 968</t>
+          <t>"place = locality", 759
+"natural = valley", 1096</t>
         </is>
       </c>
       <c r="L248" s="5" t="inlineStr">
@@ -14876,7 +14902,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6083</v>
+        <v>6642</v>
       </c>
       <c r="G249" s="12" t="n">
         <v>6491</v>
@@ -14898,8 +14924,8 @@
       </c>
       <c r="K249" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 29
-"place = locality", 34</t>
+          <t>"natural = valley", 31
+"place = locality", 36</t>
         </is>
       </c>
       <c r="L249" s="5" t="inlineStr">
@@ -14940,7 +14966,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10080</v>
+        <v>10959</v>
       </c>
       <c r="G250" s="12" t="n">
         <v>11649</v>
@@ -14962,8 +14988,9 @@
       </c>
       <c r="K250" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 70
-"place = locality", 55</t>
+          <t>"natural = valley", 72
+"place = locality", 55
+"natural = saddle", 3</t>
         </is>
       </c>
       <c r="L250" s="2" t="inlineStr">
@@ -15004,7 +15031,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1888</v>
+        <v>2003</v>
       </c>
       <c r="G251" s="12" t="n">
         <v>1747</v>
@@ -15026,7 +15053,7 @@
       </c>
       <c r="K251" s="1" t="inlineStr">
         <is>
-          <t>"natural = gorge", 2</t>
+          <t>"natural = gorge", 4</t>
         </is>
       </c>
       <c r="L251" s="5" t="inlineStr">
@@ -15062,7 +15089,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2856</v>
+        <v>3203</v>
       </c>
       <c r="G252" s="12" t="n">
         <v>2948</v>
@@ -15086,8 +15113,8 @@
         <is>
           <t>"natural = wetland", 3
 "wetland = bog", 2
-"natural = valley", 34
-"place = locality", 28</t>
+"natural = valley", 43
+"place = locality", 32</t>
         </is>
       </c>
       <c r="L252" s="5" t="inlineStr">
@@ -15133,7 +15160,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="G253" s="12" t="n">
         <v>340</v>
@@ -15230,7 +15257,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>11653</v>
+        <v>12675</v>
       </c>
       <c r="G255" s="12" t="n">
         <v>11974</v>
@@ -15252,8 +15279,8 @@
       </c>
       <c r="K255" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 134
-"natural = slope", 124</t>
+          <t>"place = locality", 168
+"natural = slope", 158</t>
         </is>
       </c>
       <c r="L255" s="5" t="inlineStr">
@@ -15294,7 +15321,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>30434</v>
+        <v>33214</v>
       </c>
       <c r="G256" s="12" t="n">
         <v>32819</v>
@@ -15316,8 +15343,8 @@
       </c>
       <c r="K256" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 243
-"natural = slope", 230</t>
+          <t>"place = locality", 365
+"natural = slope", 350</t>
         </is>
       </c>
       <c r="L256" s="5" t="inlineStr">
@@ -15358,7 +15385,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1434</v>
+        <v>1524</v>
       </c>
       <c r="G257" s="12" t="n">
         <v>1437</v>
@@ -15416,7 +15443,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>337</v>
@@ -15438,7 +15465,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"natural = mountain_range", 5
+          <t>"natural = mountain_range", 6
 "note = Please refine boundary based on local knowledge", 5</t>
         </is>
       </c>
@@ -15480,7 +15507,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2714</v>
+        <v>2939</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>2726</v>
@@ -15502,7 +15529,7 @@
       </c>
       <c r="K259" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 77</t>
+          <t>"natural = cliff", 87</t>
         </is>
       </c>
       <c r="L259" s="5" t="inlineStr">
@@ -15539,7 +15566,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>279</v>
@@ -15598,7 +15625,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>513</v>
@@ -15657,7 +15684,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>3098</v>
+        <v>3341</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>2244</v>
@@ -15715,7 +15742,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>5785</v>
+        <v>6627</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>6057</v>
@@ -15737,7 +15764,7 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 74</t>
+          <t>"place = locality", 81</t>
         </is>
       </c>
       <c r="M263" s="12" t="inlineStr">
@@ -15927,7 +15954,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -794,7 +794,7 @@
 "place = hamlet", 18
 "place = neighbourhood", 19
 "type = multipolygon", 9
-"place = village", 210</t>
+"place = village", 213</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -855,7 +855,7 @@
           <t>"place = quarter", 62
 "place = suburb", 96
 "place = hamlet", 52
-"place = neighbourhood", 183
+"place = neighbourhood", 184
 "place = village", 84</t>
         </is>
       </c>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1985</v>
+        <v>2021</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -926,7 +926,7 @@
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>"place = suburb", 19
-"place = hamlet", 163
+"place = hamlet", 166
 "place = neighbourhood", 20
 "place = village", 190</t>
         </is>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3336</v>
+        <v>3385</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -996,10 +996,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 58
-"place = hamlet", 751
+          <t>"place = neighbourhood", 61
+"place = hamlet", 759
 "place = village", 37
-"place = farm", 39</t>
+"place = farm", 40</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2849</v>
+        <v>2878</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 801
+          <t>"place = neighbourhood", 808
 "place = quarter", 175
 "place = suburb", 49</t>
         </is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 41
+          <t>"place = neighbourhood", 42
 "type = multipolygon", 12
 "man_made = wastewater_plant", 2
 "place = locality", 26
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>835</v>
+        <v>881</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 164
+          <t>"place = neighbourhood", 176
 "landuse = residential", 10
 "place = quarter", 9</t>
         </is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12114</v>
+        <v>12311</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3373
+          <t>"place = isolated_dwelling", 3446
 "place = farm", 921</t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13558</v>
+        <v>13822</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -1606,10 +1606,10 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 710
-"place = locality", 229
-"building = cabin", 3703
-"place = isolated_dwelling", 4847</t>
+          <t>"historic = shieling", 728
+"place = locality", 235
+"building = cabin", 3798
+"place = isolated_dwelling", 4938</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10440</v>
+        <v>10727</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -1667,8 +1667,8 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 954
-"place = locality", 5631
+          <t>"historic = shieling", 1070
+"place = locality", 5894
 "historic = ruins", 837</t>
         </is>
       </c>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>80</v>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>513</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>101927</v>
+        <v>103863</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 28179</t>
+          <t>"place = farm", 28506</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22013</v>
+        <v>22299</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -2288,10 +2288,10 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6162
-"place = locality", 5097
-"building = cabin", 587
-"place = isolated_dwelling", 1085</t>
+          <t>"historic = shieling", 6269
+"place = locality", 5197
+"building = cabin", 596
+"place = isolated_dwelling", 1090</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3918</v>
+        <v>3957</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -2360,8 +2360,8 @@
       <c r="K28" s="1" t="inlineStr">
         <is>
           <t>"building = yes", 58
-"historic = shieling", 213
-"place = locality", 1269
+"historic = shieling", 215
+"place = locality", 1294
 "building = farm_auxiliary", 464</t>
         </is>
       </c>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3754</v>
+        <v>3786</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>2651</v>
@@ -2420,9 +2420,9 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 50
-"place = locality", 849
-"place = farm", 113</t>
+          <t>"historic = shieling", 51
+"place = locality", 851
+"place = farm", 114</t>
         </is>
       </c>
       <c r="M29" s="5" t="inlineStr">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>80</v>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>35836</v>
+        <v>36163</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -2538,8 +2538,8 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1890
-"place = farm", 8032</t>
+          <t>"place = hamlet", 1908
+"place = farm", 8125</t>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2652</v>
+        <v>2703</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>97</v>
@@ -2607,8 +2607,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 440
-"place = farm", 110</t>
+          <t>"place = hamlet", 442
+"place = farm", 126</t>
         </is>
       </c>
       <c r="L32" s="5" t="inlineStr">
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2170</v>
+        <v>2206</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>1732</v>
@@ -2671,24 +2671,24 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 73
-"grades = 1-10", 24
-"amenity = school", 176
+          <t>"building = yes", 76
+"grades = 1-10", 25
+"amenity = school", 178
 "grades = 11-14", 18
-"isced:level = 1;2", 28
+"isced:level = 1;2", 29
 "place = locality", 51
 "grades = 1-7", 74
 "isced:level = 3", 20
 "was:amenity = school", 8
 "disused:amenity = school", 8
-"operator:type = public", 121
+"operator:type = public", 122
 "fee = yes", 14
 "building = school", 14
 "isced:level = 2", 21
 "isced:level = 1", 82
 "grades = 1-4", 8
 "grades = 8-10", 21
-"fee = no", 137
+"fee = no", 138
 "operator:type = private", 14
 "operator:type = public/government", 16</t>
         </is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>342</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>251</v>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>65</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>367</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>271</v>
@@ -3353,7 +3353,7 @@
           <t>"place = neighbourhood", 4
 "building = yes", 2
 "place = locality", 16
-"building = industrial", 58</t>
+"building = industrial", 60</t>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>198</v>
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>302</v>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>99</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>972</v>
+        <v>993</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -3610,7 +3610,7 @@
 "historic = shieling", 6
 "tourism = alpine_hut", 4
 "dog = no", 2
-"tourism = chalet", 50
+"tourism = chalet", 51
 "capacity = 24", 2
 "ski = yes", 2
 "dnt:iid = 2019", 2
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>152</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>463</v>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>1042</v>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7334</v>
+        <v>7492</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>7211</v>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1287</v>
+        <v>1328</v>
       </c>
       <c r="G55" s="12" t="n">
         <v>1296</v>
@@ -4059,10 +4059,10 @@
       </c>
       <c r="K55" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
+          <t>"place = islet", 6
+"place = locality", 2
 "natural = shoal", 2
-"place = island", 3
-"place = islet", 5</t>
+"place = island", 3</t>
         </is>
       </c>
       <c r="L55" s="5" t="inlineStr">
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4255</v>
+        <v>4327</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>4298</v>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>255</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9604</v>
+        <v>9818</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>9498</v>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 234</t>
+          <t>"natural = cape", 235</t>
         </is>
       </c>
       <c r="L58" s="5" t="inlineStr">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>390</v>
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>923</v>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>399</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>199</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9658</v>
+        <v>9842</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>10146</v>
@@ -4709,7 +4709,7 @@
         <is>
           <t>"width = 2", 10
 "width = 3", 6
-"waterway = river", 138
+"waterway = river", 142
 "waterway = stream", 18</t>
         </is>
       </c>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>43901</v>
+        <v>44566</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -4773,7 +4773,7 @@
 "width = 2", 53
 "width = 3", 23
 "waterway = river", 59
-"waterway = stream", 247</t>
+"waterway = stream", 251</t>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3472</v>
+        <v>3521</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>3394</v>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>461</v>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1004</v>
+        <v>1038</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>1004</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2568</v>
+        <v>2633</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2461</v>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1826</v>
+        <v>1868</v>
       </c>
       <c r="G73" s="12" t="n">
         <v>1780</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>654</v>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>470</v>
@@ -5407,9 +5407,9 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 17
-"water = lake", 14
-"type = multipolygon", 17</t>
+          <t>"natural = water", 18
+"water = lake", 15
+"type = multipolygon", 18</t>
         </is>
       </c>
       <c r="L78" s="5" t="inlineStr">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>13168</v>
+        <v>13366</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>14069</v>
@@ -5467,9 +5467,9 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 319
-"natural = water", 369
-"water = lake", 241</t>
+          <t>"type = multipolygon", 320
+"natural = water", 380
+"water = lake", 249</t>
         </is>
       </c>
       <c r="L79" s="5" t="inlineStr">
@@ -5505,7 +5505,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>58397</v>
+        <v>59450</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -5527,9 +5527,9 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 1277
-"natural = water", 2392
-"water = lake", 866</t>
+          <t>"type = multipolygon", 1280
+"natural = water", 2461
+"water = lake", 913</t>
         </is>
       </c>
       <c r="L80" s="5" t="inlineStr">
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1413</v>
+        <v>1434</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>1286</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="G82" s="12" t="n">
         <v>884</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>129</v>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>166</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1836</v>
+        <v>1871</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>687</v>
@@ -5826,8 +5826,8 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 73
-"water = lake", 44
+          <t>"natural = water", 76
+"water = lake", 46
 "type = multipolygon", 38
 "place = locality", 5</t>
         </is>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>506</v>
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>174</v>
@@ -6072,7 +6072,12 @@
           <t>Alle typer / alle størrelser til energiproduksjon (f.eks. el. og varme)</t>
         </is>
       </c>
-      <c r="K89" s="1" t="inlineStr"/>
+      <c r="K89" s="1" t="inlineStr">
+        <is>
+          <t>"plant:source = hydro", 2
+"power = plant", 2</t>
+        </is>
+      </c>
       <c r="L89" s="5" t="inlineStr">
         <is>
           <t>power=plant; landuse=industrial</t>
@@ -6417,7 +6422,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G96" s="12" t="n">
         <v>120</v>
@@ -6528,7 +6533,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G98" s="12" t="n">
         <v>98</v>
@@ -6582,7 +6587,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2209</v>
+        <v>2243</v>
       </c>
       <c r="G99" s="12" t="n">
         <v>2333</v>
@@ -6650,7 +6655,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G100" s="12" t="n">
         <v>202</v>
@@ -6714,7 +6719,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G101" s="12" t="n">
         <v>490</v>
@@ -7040,7 +7045,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8652</v>
+        <v>8762</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>10197</v>
@@ -7131,7 +7136,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>118</v>
@@ -7659,7 +7664,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>341</v>
@@ -7727,7 +7732,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>407</v>
@@ -8066,7 +8071,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G126" s="12" t="n">
         <v>65</v>
@@ -8132,7 +8137,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G127" s="12" t="n">
         <v>188</v>
@@ -8194,7 +8199,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G128" s="12" t="n">
         <v>400</v>
@@ -8330,7 +8335,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5663</v>
+        <v>5719</v>
       </c>
       <c r="G130" s="12" t="n">
         <v>24621</v>
@@ -8389,7 +8394,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="G131" s="12" t="n">
         <v>729</v>
@@ -8456,7 +8461,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4393</v>
+        <v>4471</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>4064</v>
@@ -8517,7 +8522,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>673</v>
@@ -8582,7 +8587,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>70</v>
@@ -8744,7 +8749,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>860</v>
+        <v>889</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>788</v>
@@ -8813,7 +8818,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="G138" s="12" t="n">
         <v>261</v>
@@ -8867,7 +8872,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1049</v>
+        <v>1097</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>792</v>
@@ -9108,7 +9113,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1727</v>
+        <v>1748</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>1629</v>
@@ -9132,12 +9137,12 @@
         <is>
           <t>"capacity = 450", 6
 "deanery = Vest-Nedenes", 6
-"diocese = Tunsberg", 12
+"diocese = Tunsberg", 13
 "hearing_aids = yes", 15
 "diocese = Agder og Telemark", 59
 "parish = Kongsberg og Jondalen", 3
 "parish = Mandal", 4
-"religion = christian", 98
+"religion = christian", 99
 "capacity = 170", 3
 "capacity = 200", 10
 "deanery = Stavanger Domprosti", 7
@@ -9153,7 +9158,7 @@
 "capacity = 350", 8
 "deanery = Lister", 4
 "parish = Bygland", 6
-"toilets = yes", 44
+"toilets = yes", 45
 "parish = Evje og Hornnes", 4
 "architect = Linstow type / Anders Thorsen Syrtveit", 10
 "capacity = 250", 7
@@ -9170,7 +9175,7 @@
 "toilets:wheelchair = no", 6
 "note = Soknekirke", 42
 "deanery = Aust-Nedenes", 19
-"amenity = place_of_worship", 98
+"amenity = place_of_worship", 99
 "wheelchair = limited", 3
 "toilets = no", 9
 "capacity = 150", 3
@@ -9180,7 +9185,7 @@
 "architect = J.W.Nordan", 4
 "deanery = Kongsberg", 7
 "deanery = Otredal", 22
-"denomination = lutheran", 98
+"denomination = lutheran", 99
 "parish = Valle og Hylestad", 4
 "deanery = Lier", 4</t>
         </is>
@@ -9223,7 +9228,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>653</v>
@@ -9246,9 +9251,11 @@
       <c r="K145" s="1" t="inlineStr">
         <is>
           <t>"building = yes", 4
+"place = locality", 2
 "place = isolated_dwelling", 3
 "place = farm", 2
-"amenity = community_centre", 3</t>
+"amenity = community_centre", 5
+"building = civic", 3</t>
         </is>
       </c>
       <c r="L145" s="5" t="inlineStr">
@@ -9284,7 +9291,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4605</v>
+        <v>4708</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>3733</v>
@@ -9309,11 +9316,9 @@
           <t>"resource = silver", 21
 "building = yes", 6
 "building = farm_auxiliary", 10
-"incline = up", 5
-"place = locality", 146
+"place = locality", 158
 "man_made = mineshaft", 17
-"historic = mine", 41
-"highway = steps", 5</t>
+"historic = mine", 41</t>
         </is>
       </c>
       <c r="M146" s="12" t="inlineStr">
@@ -9349,7 +9354,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>127</v>
@@ -9478,7 +9483,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G149" s="12" t="n">
         <v>98</v>
@@ -9594,7 +9599,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>193</v>
@@ -9618,9 +9623,9 @@
         <is>
           <t>"tourism = museum", 2
 "type = multipolygon", 2
-"place = locality", 2
+"place = locality", 3
 "historic = memorial", 4
-"tourism = attraction", 3</t>
+"tourism = attraction", 4</t>
         </is>
       </c>
       <c r="L151" s="5" t="inlineStr">
@@ -9655,6 +9660,9 @@
           <t>utsiktspunkt</t>
         </is>
       </c>
+      <c r="F152" t="n">
+        <v>114</v>
+      </c>
       <c r="G152" s="12" t="n">
         <v>97</v>
       </c>
@@ -9673,7 +9681,7 @@
           <t>Både i tårn og på bakken, f.eks. Kongens utsikt</t>
         </is>
       </c>
-      <c r="K152" s="5" t="n"/>
+      <c r="K152" s="1" t="inlineStr"/>
       <c r="L152" s="5" t="inlineStr">
         <is>
           <t>tourism=viewpoint</t>
@@ -9707,7 +9715,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="G153" s="12" t="n">
         <v>444</v>
@@ -9766,7 +9774,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5946</v>
+        <v>6070</v>
       </c>
       <c r="G154" s="12" t="n">
         <v>5340</v>
@@ -9832,7 +9840,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3069</v>
+        <v>3081</v>
       </c>
       <c r="G155" s="12" t="n">
         <v>2408</v>
@@ -9892,7 +9900,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>7495</v>
+        <v>7581</v>
       </c>
       <c r="G156" s="12" t="n">
         <v>4914</v>
@@ -9952,7 +9960,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G157" s="12" t="n">
         <v>314</v>
@@ -10015,7 +10023,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3602</v>
+        <v>3650</v>
       </c>
       <c r="G158" s="12" t="n">
         <v>3166</v>
@@ -10039,12 +10047,12 @@
         <is>
           <t>"building = farm_auxiliary", 11
 "building = yes", 5
-"historic = shieling", 79
-"place = locality", 106
+"historic = shieling", 83
+"place = locality", 110
 "building = cabin", 5
 "place = isolated_dwelling", 5
 "landuse = meadow", 26
-"place = farm", 10</t>
+"place = farm", 12</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
@@ -10085,7 +10093,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>264</v>
@@ -10149,7 +10157,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>491</v>
@@ -10291,7 +10299,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3254</v>
+        <v>3290</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>2950</v>
@@ -10351,7 +10359,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2487</v>
+        <v>2514</v>
       </c>
       <c r="G164" s="12" t="n">
         <v>2354</v>
@@ -10461,7 +10469,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>121</v>
@@ -10649,7 +10657,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G170" s="12" t="n">
         <v>273</v>
@@ -10710,7 +10718,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>127</v>
@@ -10815,7 +10823,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>7811</v>
+        <v>7931</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>7616</v>
@@ -10935,7 +10943,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>51698</v>
+        <v>52231</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>50738</v>
@@ -11715,7 +11723,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>302</v>
@@ -11839,7 +11847,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>72</v>
@@ -11949,7 +11957,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2011</v>
+        <v>2025</v>
       </c>
       <c r="G194" s="12" t="n">
         <v>1901</v>
@@ -12117,7 +12125,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>119</v>
@@ -12318,7 +12326,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>13581</v>
+        <v>13750</v>
       </c>
       <c r="G201" s="12" t="n">
         <v>13989</v>
@@ -12385,7 +12393,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="G202" s="12" t="n">
         <v>1206</v>
@@ -12455,7 +12463,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>13167</v>
+        <v>13343</v>
       </c>
       <c r="G203" s="12" t="n">
         <v>13694</v>
@@ -12609,7 +12617,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4671</v>
+        <v>4698</v>
       </c>
       <c r="G206" s="12" t="n">
         <v>4494</v>
@@ -12667,7 +12675,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>26442</v>
+        <v>26627</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>26737</v>
@@ -12726,7 +12734,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3911</v>
+        <v>3937</v>
       </c>
       <c r="G208" s="12" t="n">
         <v>4179</v>
@@ -12788,7 +12796,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>19259</v>
+        <v>19424</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>20058</v>
@@ -12848,7 +12856,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G210" s="12" t="n">
         <v>495</v>
@@ -12907,7 +12915,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>23167</v>
+        <v>23305</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>24024</v>
@@ -12967,7 +12975,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G212" s="12" t="n">
         <v>240</v>
@@ -13025,7 +13033,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2306</v>
+        <v>2347</v>
       </c>
       <c r="G213" s="12" t="n">
         <v>2328</v>
@@ -13094,7 +13102,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1405</v>
@@ -13153,7 +13161,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G215" s="12" t="n">
         <v>351</v>
@@ -13276,7 +13284,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>109</v>
@@ -14061,7 +14069,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>7898</v>
+        <v>7967</v>
       </c>
       <c r="G236" s="12" t="n">
         <v>7739</v>
@@ -14120,7 +14128,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4126</v>
+        <v>4204</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>4173</v>
@@ -14142,7 +14150,7 @@
       </c>
       <c r="K237" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2</t>
+          <t>"place = locality", 3</t>
         </is>
       </c>
       <c r="M237" s="12" t="inlineStr">
@@ -14178,7 +14186,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>15313</v>
+        <v>15535</v>
       </c>
       <c r="G238" s="12" t="n">
         <v>15244</v>
@@ -14200,7 +14208,7 @@
       </c>
       <c r="K238" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 14
+          <t>"natural = peak", 15
 "place = locality", 138
 "natural = hill", 224</t>
         </is>
@@ -14248,7 +14256,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>21914</v>
+        <v>22260</v>
       </c>
       <c r="G239" s="12" t="n">
         <v>22178</v>
@@ -14270,7 +14278,7 @@
       </c>
       <c r="K239" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 158
+          <t>"natural = peak", 159
 "place = locality", 168
 "man_made = survey_point", 18
 "natural = hill", 170</t>
@@ -14319,7 +14327,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>8804</v>
+        <v>8895</v>
       </c>
       <c r="G240" s="12" t="n">
         <v>8191</v>
@@ -14389,7 +14397,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>9700</v>
+        <v>9882</v>
       </c>
       <c r="G241" s="12" t="n">
         <v>9146</v>
@@ -14453,7 +14461,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>57743</v>
+        <v>58344</v>
       </c>
       <c r="G242" s="12" t="n">
         <v>57885</v>
@@ -14475,7 +14483,7 @@
       </c>
       <c r="K242" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 383
+          <t>"natural = peak", 427
 "place = locality", 1761
 "natural = ridge", 289
 "natural = hill", 3119</t>
@@ -14529,7 +14537,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6893</v>
+        <v>6955</v>
       </c>
       <c r="G243" s="12" t="n">
         <v>6752</v>
@@ -14552,7 +14560,7 @@
       <c r="K243" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 146
-"natural = ridge", 201
+"natural = ridge", 202
 "natural = hill", 67</t>
         </is>
       </c>
@@ -14594,7 +14602,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>48488</v>
+        <v>49102</v>
       </c>
       <c r="G244" s="12" t="n">
         <v>48481</v>
@@ -14617,7 +14625,7 @@
       <c r="K244" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 742
-"natural = peak", 122
+"natural = peak", 125
 "natural = hill", 1063</t>
         </is>
       </c>
@@ -14659,7 +14667,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1813</v>
+        <v>1831</v>
       </c>
       <c r="G245" s="12" t="n">
         <v>1648</v>
@@ -14728,7 +14736,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1196</v>
+        <v>1234</v>
       </c>
       <c r="G246" s="12" t="n">
         <v>1076</v>
@@ -14838,7 +14846,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>39269</v>
+        <v>39754</v>
       </c>
       <c r="G248" s="12" t="n">
         <v>38753</v>
@@ -14861,7 +14869,7 @@
       <c r="K248" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 759
-"natural = valley", 1096</t>
+"natural = valley", 1097</t>
         </is>
       </c>
       <c r="L248" s="5" t="inlineStr">
@@ -14902,7 +14910,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6642</v>
+        <v>6690</v>
       </c>
       <c r="G249" s="12" t="n">
         <v>6491</v>
@@ -14966,7 +14974,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10959</v>
+        <v>11170</v>
       </c>
       <c r="G250" s="12" t="n">
         <v>11649</v>
@@ -15031,7 +15039,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="G251" s="12" t="n">
         <v>1747</v>
@@ -15089,7 +15097,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>3203</v>
+        <v>3268</v>
       </c>
       <c r="G252" s="12" t="n">
         <v>2948</v>
@@ -15160,7 +15168,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="G253" s="12" t="n">
         <v>340</v>
@@ -15182,8 +15190,8 @@
       </c>
       <c r="K253" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 26
-"place = locality", 26</t>
+          <t>"natural = valley", 27
+"place = locality", 27</t>
         </is>
       </c>
       <c r="L253" s="5" t="inlineStr">
@@ -15257,7 +15265,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>12675</v>
+        <v>12825</v>
       </c>
       <c r="G255" s="12" t="n">
         <v>11974</v>
@@ -15321,7 +15329,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>33214</v>
+        <v>33636</v>
       </c>
       <c r="G256" s="12" t="n">
         <v>32819</v>
@@ -15343,8 +15351,8 @@
       </c>
       <c r="K256" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 365
-"natural = slope", 350</t>
+          <t>"place = locality", 366
+"natural = slope", 351</t>
         </is>
       </c>
       <c r="L256" s="5" t="inlineStr">
@@ -15385,7 +15393,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="G257" s="12" t="n">
         <v>1437</v>
@@ -15443,7 +15451,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>337</v>
@@ -15507,7 +15515,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2939</v>
+        <v>2969</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>2726</v>
@@ -15566,7 +15574,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>279</v>
@@ -15625,7 +15633,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>513</v>
@@ -15684,7 +15692,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>3341</v>
+        <v>3383</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>2244</v>
@@ -15742,7 +15750,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>6627</v>
+        <v>6691</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>6057</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -706,25 +706,18 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"ref:ssb_tettsted = 2531", 2
-"ref:ssb_tettsted = 3531", 2
-"email = postmottak@kristiansand.kommune.no", 2
+          <t>"email = postmottak@kristiansand.kommune.no", 2
 "ref:ssb_tettsted = 2541", 2
-"ref:ssb_tettsted = 2603", 2
-"ref:ssb_tettsted = 3005", 6
+"ref:ssb_tettsted = 3005", 5
 "ref:ssb_tettsted = 3021", 2
-"place = city", 3
+"ref:ssb_tettsted = 4002", 2
+"place = city", 2
 "source:population = SSB", 2
-"ref:ssb_tettsted = 4011", 2
-"ref:ssb_tettsted = 3102", 2
-"ref:ssb_tettsted = 2521", 2
 "ref:ssb_tettsted = 3501", 2
 "ref:ssb_tettsted = 2562", 2
-"place = town", 53
-"ref:ssb_tettsted = 2501", 2
+"place = town", 36
 "ref:ssb_tettsted = 3054", 2
 "ref:ssb_tettsted = 2551", 2
-"ref:ssb_tettsted = 4002", 2
 "ref:ssb_tettsted = 4091", 2</t>
         </is>
       </c>
@@ -767,7 +760,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>906</v>
+        <v>741</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -789,12 +782,11 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 24
-"place = suburb", 46
-"place = hamlet", 17
-"place = neighbourhood", 20
-"type = multipolygon", 9
-"place = village", 213</t>
+          <t>"place = quarter", 21
+"place = suburb", 27
+"place = hamlet", 13
+"place = neighbourhood", 18
+"place = village", 157</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
@@ -830,7 +822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1013</v>
+        <v>780</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -852,11 +844,11 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 62
-"place = suburb", 96
-"place = hamlet", 52
-"place = neighbourhood", 188
-"place = village", 84</t>
+          <t>"place = quarter", 41
+"place = suburb", 62
+"place = hamlet", 43
+"place = neighbourhood", 132
+"place = village", 53</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -903,7 +895,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2088</v>
+        <v>1583</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -925,10 +917,10 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 19
-"place = hamlet", 167
-"place = neighbourhood", 20
-"place = village", 194</t>
+          <t>"place = suburb", 14
+"place = hamlet", 128
+"place = neighbourhood", 16
+"place = village", 171</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
@@ -974,7 +966,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3436</v>
+        <v>2593</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -996,10 +988,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 63
-"place = hamlet", 776
-"place = village", 37
-"place = farm", 41</t>
+          <t>"place = neighbourhood", 58
+"place = hamlet", 623
+"place = village", 35
+"place = farm", 35</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -1035,7 +1027,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2833</v>
+        <v>2295</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1057,9 +1049,10 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 808
-"place = quarter", 175
-"place = suburb", 49</t>
+          <t>"place = neighbourhood", 638
+"landuse = residential", 28
+"place = quarter", 106
+"place = suburb", 42</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
@@ -1095,7 +1088,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1117,17 +1110,14 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 42
-"type = multipolygon", 12
-"man_made = wastewater_plant", 2
-"place = locality", 26
-"landuse = industrial", 53
-"place = farm", 2
-"natural = cape", 2
-"place = quarter", 18
+          <t>"place = neighbourhood", 35
+"type = multipolygon", 10
+"place = locality", 21
+"landuse = industrial", 28
+"place = quarter", 13
 "landuse = retail", 2
-"building = industrial", 4
-"place = suburb", 7
+"building = industrial", 3
+"place = suburb", 6
 "man_made = works", 2</t>
         </is>
       </c>
@@ -1164,7 +1154,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>392</v>
+        <v>258</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1186,10 +1176,14 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 14
+          <t>"place = district", 2
+"place = locality", 2
+"place = neighbourhood", 11
+"landuse = residential", 2
 "place = village", 4
-"place = quarter", 21
-"place = suburb", 118</t>
+"place = quarter", 18
+"place = suburb", 52
+"ref:ssb_tettsted = 4007", 2</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1225,7 +1219,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>826</v>
+        <v>712</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1247,8 +1241,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 176
-"place = hamlet", 7
+          <t>"place = neighbourhood", 134
 "landuse = residential", 10
 "place = quarter", 9</t>
         </is>
@@ -1286,7 +1279,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1308,7 +1301,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 46</t>
+          <t>"place = square", 30</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
@@ -1344,7 +1337,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1366,7 +1359,7 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 6</t>
+          <t>"place = quarter", 5</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1402,7 +1395,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>1</v>
@@ -1426,7 +1419,7 @@
         <is>
           <t>"historic = shieling", 2
 "place = locality", 2
-"place = farm", 3</t>
+"place = farm", 2</t>
         </is>
       </c>
       <c r="M13" s="12" t="inlineStr">
@@ -1461,9 +1454,6 @@
           <t>borettslag</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>26</v>
-      </c>
       <c r="G14" s="12" t="n">
         <v>19</v>
       </c>
@@ -1482,11 +1472,7 @@
           <t>Bofellesskap, vanligvis blokkbebyggelse</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>"place = isolated_dwelling", 2</t>
-        </is>
-      </c>
+      <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="inlineStr">
         <is>
           <t>place=neighbourhood</t>
@@ -1520,7 +1506,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12676</v>
+        <v>10061</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>11736</v>
@@ -1542,8 +1528,8 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3485
-"place = farm", 1001</t>
+          <t>"place = isolated_dwelling", 2738
+"place = farm", 857</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1584,7 +1570,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13647</v>
+        <v>11329</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>13094</v>
@@ -1606,10 +1592,10 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 734
-"place = locality", 242
-"building = cabin", 3834
-"place = isolated_dwelling", 4985</t>
+          <t>"historic = shieling", 629
+"place = locality", 215
+"building = cabin", 3449
+"place = isolated_dwelling", 4237</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1645,7 +1631,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10713</v>
+        <v>9395</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>6992</v>
@@ -1667,9 +1653,9 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 1085
-"place = locality", 5924
-"historic = ruins", 842</t>
+          <t>"historic = ruins", 805
+"historic = shieling", 989
+"place = locality", 5321</t>
         </is>
       </c>
       <c r="L17" s="2" t="n"/>
@@ -1770,7 +1756,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>131</v>
@@ -1792,9 +1778,7 @@
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 31
-"natural = wood", 3
-"type = multipolygon", 4</t>
+          <t>"leisure = park", 14</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
@@ -1830,7 +1814,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>80</v>
@@ -1852,9 +1836,8 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>"building = public", 2
-"amenity = sports_centre", 23
-"building = yes", 4</t>
+          <t>"amenity = sports_centre", 8
+"building = yes", 3</t>
         </is>
       </c>
       <c r="L20" s="5" t="inlineStr">
@@ -1890,7 +1873,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>700</v>
+        <v>596</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>513</v>
@@ -1912,15 +1895,23 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"leisure = sports_centre", 8
-"type = multipolygon", 7
-"place = locality", 19
-"leisure = track", 3
-"sport = soccer", 32
-"leisure = pitch", 78
+          <t>"building = yes", 2
+"abandoned:piste:type = ski_jump", 2
+"building:levels = 3", 2
+"leisure = sports_centre", 8
+"type = multipolygon", 5
+"place = locality", 14
+"leisure = track", 2
+"building = public", 2
+"sport = soccer", 24
+"sport = swimming;basketball;volleyball;handball", 2
+"leisure = pitch", 53
+"sport = horse_racing", 4
+"landuse = recreation_ground", 2
+"place = neighbourhood", 2
 "piste:type = ski_jump", 6
 "surface = grass", 5
-"sport = horse_racing", 5</t>
+"area = no", 2</t>
         </is>
       </c>
       <c r="L21" s="5" t="inlineStr">
@@ -1956,7 +1947,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>24</v>
@@ -2015,7 +2006,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>45</v>
@@ -2037,9 +2028,7 @@
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>"landuse = winter_sports", 2
-"place = locality", 4
-"piste:type = downhill", 2</t>
+          <t>"place = locality", 4</t>
         </is>
       </c>
       <c r="L23" s="5" t="inlineStr">
@@ -2075,7 +2064,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2097,12 +2086,11 @@
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>"surface = sand", 12
-"layer = 2", 6
-"leisure = swimming_area", 20
-"place = locality", 24
-"natural = beach", 12
-"description:no = Stranda har fått navnet sitt etter den rødfarget sanden, denne rødfargen stammer fra ned rustet tyskt materiell som ble ligende her etter 2. verdenskrig, som nettopp minner om kanelfarge.", 2</t>
+          <t>"surface = sand", 5
+"layer = 2", 3
+"leisure = swimming_area", 12
+"place = locality", 14
+"natural = beach", 5</t>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
@@ -2147,9 +2135,6 @@
           <t>fornøyelsespark</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>12</v>
-      </c>
       <c r="G25" s="12" t="n">
         <v>12</v>
       </c>
@@ -2168,7 +2153,7 @@
           <t>Bare store, regulerte anlegg</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr"/>
+      <c r="K25" s="5" t="n"/>
       <c r="L25" s="5" t="inlineStr">
         <is>
           <t>tourism=theme_park</t>
@@ -2203,7 +2188,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>103803</v>
+        <v>82528</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>117578</v>
@@ -2225,7 +2210,7 @@
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 28710</t>
+          <t>"place = farm", 21589</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -2266,7 +2251,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>21956</v>
+        <v>18463</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>18129</v>
@@ -2288,10 +2273,10 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6355
-"place = locality", 5236
-"building = cabin", 641
-"place = isolated_dwelling", 1135</t>
+          <t>"historic = shieling", 5249
+"place = locality", 4322
+"building = cabin", 457
+"place = isolated_dwelling", 950</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
@@ -2337,7 +2322,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4003</v>
+        <v>3366</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>3963</v>
@@ -2359,10 +2344,10 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 58
-"historic = shieling", 225
-"place = locality", 1325
-"building = farm_auxiliary", 471</t>
+          <t>"building = farm_auxiliary", 378
+"building = yes", 58
+"historic = shieling", 214
+"place = locality", 1201</t>
         </is>
       </c>
       <c r="M28" s="12" t="inlineStr">
@@ -2398,7 +2383,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3703</v>
+        <v>3091</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>2651</v>
@@ -2420,9 +2405,9 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 54
-"place = locality", 854
-"place = farm", 134</t>
+          <t>"historic = shieling", 53
+"place = locality", 659
+"place = farm", 104</t>
         </is>
       </c>
       <c r="M29" s="5" t="inlineStr">
@@ -2458,7 +2443,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>80</v>
@@ -2516,7 +2501,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>34410</v>
+        <v>31737</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>3119</v>
@@ -2538,8 +2523,8 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1947
-"place = farm", 8216</t>
+          <t>"place = hamlet", 1656
+"place = farm", 7315</t>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
@@ -2585,7 +2570,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2601</v>
+        <v>2352</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>97</v>
@@ -2607,8 +2592,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 453
-"place = farm", 120</t>
+          <t>"place = hamlet", 389
+"place = farm", 142</t>
         </is>
       </c>
       <c r="L32" s="5" t="inlineStr">
@@ -2649,7 +2634,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2119</v>
+        <v>1670</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>1732</v>
@@ -2671,26 +2656,23 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 76
-"grades = 1-10", 25
-"amenity = school", 178
-"grades = 11-14", 18
-"isced:level = 1;2", 29
-"place = locality", 51
-"grades = 1-7", 74
-"isced:level = 3", 20
-"was:amenity = school", 8
-"disused:amenity = school", 8
-"operator:type = public", 122
-"fee = yes", 14
-"building = school", 14
-"isced:level = 2", 21
-"isced:level = 1", 82
-"grades = 1-4", 8
-"grades = 8-10", 21
-"fee = no", 138
-"operator:type = private", 14
-"operator:type = public/government", 16</t>
+          <t>"building = yes", 65
+"grades = 1-10", 26
+"amenity = school", 158
+"fee = no", 125
+"grades = 11-13", 18
+"isced:level = 1;2", 36
+"place = locality", 35
+"grades = 1-7", 60
+"isced:level = 3", 18
+"isced:level = 1", 65
+"operator:type = public", 125
+"fee = yes", 11
+"building = school", 12
+"isced:level = 2", 17
+"grades = 8-10", 17
+"operator:type = private", 11
+"disused:amenity = school", 8</t>
         </is>
       </c>
       <c r="L33" s="5" t="inlineStr">
@@ -2726,7 +2708,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>88</v>
@@ -2748,8 +2730,8 @@
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>"amenity = hospital", 15
-"healthcare = hospital", 3</t>
+          <t>"amenity = hospital", 10
+"healthcare = hospital", 2</t>
         </is>
       </c>
       <c r="L34" s="5" t="inlineStr">
@@ -2785,7 +2767,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>342</v>
@@ -2808,9 +2790,14 @@
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>"building = yes", 4
-"amenity = social_facility", 3
-"place = locality", 6
-"amenity = nursing_home", 81</t>
+"place = locality", 4
+"healthcare = clinic", 2
+"healthcare = yes", 2
+"amenity = clinic", 2
+"building:levels = 4", 2
+"healthcare:speciality = psychiatry", 2
+"amenity = nursing_home", 51
+"building = apartments", 2</t>
         </is>
       </c>
       <c r="L35" s="5" t="inlineStr">
@@ -2846,7 +2833,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>55</v>
@@ -2869,7 +2856,7 @@
       <c r="K36" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 2
-"building = civic", 10</t>
+"building = civic", 5</t>
         </is>
       </c>
       <c r="L36" s="5" t="inlineStr">
@@ -2905,7 +2892,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>67</v>
@@ -2928,9 +2915,8 @@
       <c r="K37" s="1" t="inlineStr">
         <is>
           <t>"place = neighbourhood", 4
-"natural = bay", 2
-"landuse = military", 9
-"place = locality", 3</t>
+"landuse = military", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L37" s="5" t="inlineStr">
@@ -2966,7 +2952,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>251</v>
@@ -2994,7 +2980,7 @@
 "no-barnehage:nsrid = 1016062", 2
 "no-barnehage:nsrid = 1025321", 2
 "barrier = fence", 2
-"amenity = kindergarten", 6
+"amenity = kindergarten", 5
 "max_age = 5", 4
 "capacity = 56", 2</t>
         </is>
@@ -3032,7 +3018,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>65</v>
@@ -3058,8 +3044,8 @@
 "building = yes", 2
 "opening_hours = Mo-Fr 08:00-15:45", 2
 "place = locality", 2
-"amenity = townhall", 12
-"wheelchair = yes", 3
+"amenity = townhall", 5
+"wheelchair = yes", 2
 "office = government", 2
 "building = civic", 2</t>
         </is>
@@ -3097,7 +3083,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>28</v>
@@ -3119,8 +3105,7 @@
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>"amenity = school", 3
-"amenity = university", 4</t>
+          <t>"amenity = university", 2</t>
         </is>
       </c>
       <c r="L40" s="5" t="inlineStr">
@@ -3156,7 +3141,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>14</v>
@@ -3262,7 +3247,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>367</v>
@@ -3284,16 +3269,15 @@
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 10
+          <t>"place = neighbourhood", 8
 "type = multipolygon", 2
 "craft = sawmill", 2
 "industrial = brewery", 2
-"place = locality", 21
-"landuse = industrial", 19
+"place = locality", 15
+"landuse = industrial", 15
 "email = kundesenter@hansaborg.no", 2
-"industrial = shipyard", 2
-"industrial = factory", 57
-"building = industrial", 44</t>
+"industrial = factory", 44
+"building = industrial", 32</t>
         </is>
       </c>
       <c r="L43" s="5" t="inlineStr">
@@ -3329,7 +3313,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>271</v>
@@ -3353,8 +3337,8 @@
         <is>
           <t>"place = neighbourhood", 4
 "building = yes", 2
-"place = locality", 16
-"building = industrial", 60</t>
+"place = locality", 14
+"building = industrial", 51</t>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
@@ -3390,7 +3374,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>198</v>
@@ -3413,13 +3397,11 @@
       <c r="K45" s="1" t="inlineStr">
         <is>
           <t>"amenity = cafe", 4
-"place = neighbourhood", 4
+"place = neighbourhood", 3
 "building = yes", 2
 "place = locality", 6
-"place = isolated_dwelling", 2
-"place = farm", 2
-"place = quarter", 3
-"building = commercial", 21
+"place = quarter", 2
+"building = commercial", 11
 "building = civic", 2</t>
         </is>
       </c>
@@ -3456,7 +3438,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>302</v>
@@ -3478,13 +3460,11 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"tourism = chalet", 2
-"building = yes", 3
-"building = hotel", 15
-"place = locality", 11
-"place = isolated_dwelling", 2
+          <t>"building = yes", 3
+"building = hotel", 11
+"place = locality", 9
 "tourism = apartment", 2
-"tourism = hotel", 17</t>
+"tourism = hotel", 11</t>
         </is>
       </c>
       <c r="L46" s="5" t="inlineStr">
@@ -3520,7 +3500,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>99</v>
@@ -3543,10 +3523,9 @@
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>"place = hamlet", 2
-"building = yes", 4
-"building = hotel", 3
-"place = locality", 7
-"tourism = guest_house", 7</t>
+"building = yes", 2
+"place = locality", 5
+"tourism = guest_house", 3</t>
         </is>
       </c>
       <c r="L47" s="5" t="inlineStr">
@@ -3582,7 +3561,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>982</v>
+        <v>815</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>784</v>
@@ -3606,36 +3585,37 @@
         <is>
           <t>"building = house", 2
 "dnt:lock = yes", 13
-"building = yes", 6
-"capacity = 4", 4
-"fee = yes", 2
-"historic = shieling", 6
-"tourism = alpine_hut", 4
+"building = yes", 5
+"capacity = 4", 2
+"fee = yes", 4
+"historic = shieling", 5
+"tourism = alpine_hut", 3
 "dog = no", 2
-"tourism = chalet", 53
+"tourism = chalet", 47
 "capacity = 24", 2
 "ski = yes", 2
 "dnt:iid = 2019", 2
 "dnt:iid = 251", 2
-"place = locality", 12
-"dnt:iid = 417", 2
-"dnt:iid = 416", 2
+"place = locality", 10
 "amenity = restaurant", 2
+"access = permit", 2
 "dnt:iid = 345", 2
-"amenity = cafe", 11
+"network = Den norske Turistforening", 2
+"amenity = cafe", 9
+"capacity = 6", 3
 "dnt:classification = ubetjent", 11
-"dnt:classification = servering", 5
+"dnt:classification = servering", 3
 "capacity = 8", 2
-"building = cabin", 10
+"building = cabin", 8
 "note:no = kystledhytte", 2
-"shelter_type = basic_hut", 3
+"shelter_type = basic_hut", 2
 "tourism = wilderness_hut", 11
 "capacity = 32", 2
 "capacity = 11", 2
 "dnt:iid = 1489", 2
 "network = Den Norske Turistforening", 10
-"hiking = yes", 5
-"amenity = shelter", 3</t>
+"hiking = yes", 3
+"amenity = shelter", 2</t>
         </is>
       </c>
       <c r="L48" s="5" t="inlineStr">
@@ -3676,7 +3656,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>152</v>
@@ -3704,7 +3684,7 @@
 "email = roligheden@roligheden.no", 2
 "power_supply:voltage = 230", 2
 "barrier = fence", 2
-"tourism = camp_site", 16
+"tourism = camp_site", 13
 "washing_machine = yes", 2
 "stars = 4", 2
 "power_supply = cee_7_3", 2
@@ -3744,7 +3724,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>4</v>
@@ -3802,7 +3782,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>29</v>
@@ -3824,7 +3804,7 @@
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 4
+          <t>"amenity = cafe", 3
 "building = yes", 2</t>
         </is>
       </c>
@@ -3861,7 +3841,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>463</v>
@@ -3883,7 +3863,7 @@
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5</t>
+          <t>"place = locality", 3</t>
         </is>
       </c>
       <c r="M52" s="12" t="inlineStr">
@@ -3919,7 +3899,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1086</v>
+        <v>913</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>1042</v>
@@ -3942,7 +3922,7 @@
       <c r="K53" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 2
-"natural = strait", 11</t>
+"natural = strait", 8</t>
         </is>
       </c>
       <c r="L53" s="5" t="inlineStr">
@@ -3978,7 +3958,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7464</v>
+        <v>6321</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>7211</v>
@@ -4000,8 +3980,8 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 140
-"natural = water", 6</t>
+          <t>"natural = bay", 106
+"natural = water", 4</t>
         </is>
       </c>
       <c r="L54" s="5" t="inlineStr">
@@ -4037,7 +4017,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1330</v>
+        <v>1120</v>
       </c>
       <c r="G55" s="12" t="n">
         <v>1296</v>
@@ -4059,10 +4039,10 @@
       </c>
       <c r="K55" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 6
+          <t>"place = islet", 4
 "place = locality", 2
 "natural = shoal", 2
-"place = island", 3</t>
+"place = island", 2</t>
         </is>
       </c>
       <c r="L55" s="5" t="inlineStr">
@@ -4098,7 +4078,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4283</v>
+        <v>3482</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>4298</v>
@@ -4120,8 +4100,8 @@
       </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 82
-"natural = wood", 25
+          <t>"place = islet", 75
+"natural = wood", 23
 "leaf_type = needleleaved", 4</t>
         </is>
       </c>
@@ -4158,7 +4138,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>255</v>
@@ -4180,7 +4160,7 @@
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 26</t>
+          <t>"natural = cape", 19</t>
         </is>
       </c>
       <c r="L57" s="2" t="inlineStr">
@@ -4216,7 +4196,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9789</v>
+        <v>8152</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>9498</v>
@@ -4238,7 +4218,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 234</t>
+          <t>"natural = cape", 205</t>
         </is>
       </c>
       <c r="L58" s="5" t="inlineStr">
@@ -4274,7 +4254,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>390</v>
@@ -4334,7 +4314,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1008</v>
+        <v>768</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>923</v>
@@ -4446,7 +4426,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>399</v>
@@ -4466,11 +4446,7 @@
           <t>Fjell eller stein i vannflaten</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
-        <is>
-          <t>"natural = shoal", 2</t>
-        </is>
-      </c>
+      <c r="K62" s="1" t="inlineStr"/>
       <c r="L62" s="5" t="inlineStr">
         <is>
           <t>place=islet</t>
@@ -4565,7 +4541,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>199</v>
@@ -4685,7 +4661,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9759</v>
+        <v>7414</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>10146</v>
@@ -4746,7 +4722,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>44105</v>
+        <v>35827</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>44547</v>
@@ -4768,12 +4744,12 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"tunnel = culvert", 15
-"layer = -1", 27
-"width = 2", 53
+          <t>"tunnel = culvert", 13
+"layer = -1", 25
+"width = 2", 54
 "width = 3", 23
-"waterway = river", 58
-"waterway = stream", 252</t>
+"waterway = river", 57
+"waterway = stream", 250</t>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">
@@ -4860,7 +4836,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3527</v>
+        <v>2813</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>3394</v>
@@ -4883,7 +4859,7 @@
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>"waterway = waterfall", 2
-"natural = waterfall", 19</t>
+"natural = waterfall", 16</t>
         </is>
       </c>
       <c r="L69" s="5" t="inlineStr">
@@ -4919,7 +4895,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>463</v>
+        <v>276</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>461</v>
@@ -4983,7 +4959,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1035</v>
+        <v>744</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>1004</v>
@@ -5037,7 +5013,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2627</v>
+        <v>2156</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2461</v>
@@ -5060,7 +5036,7 @@
       <c r="K72" s="1" t="inlineStr">
         <is>
           <t>"water = pond", 3
-"place = locality", 4
+"place = locality", 2
 "natural = water", 10
 "water = pool", 5
 "type = multipolygon", 3</t>
@@ -5105,7 +5081,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1880</v>
+        <v>1430</v>
       </c>
       <c r="G73" s="12" t="n">
         <v>1780</v>
@@ -5128,7 +5104,7 @@
       <c r="K73" s="1" t="inlineStr">
         <is>
           <t>"natural = bay", 15
-"natural = water", 17
+"natural = water", 16
 "type = multipolygon", 14
 "water = river", 7</t>
         </is>
@@ -5166,7 +5142,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>15</v>
@@ -5186,11 +5162,7 @@
           <t>Kunstig fløtningsanlegg</t>
         </is>
       </c>
-      <c r="K74" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2</t>
-        </is>
-      </c>
+      <c r="K74" s="1" t="inlineStr"/>
       <c r="M74" s="5" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -5224,7 +5196,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>686</v>
+        <v>478</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>654</v>
@@ -5246,7 +5218,7 @@
       </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 12</t>
+          <t>"natural = cape", 6</t>
         </is>
       </c>
       <c r="L75" s="5" t="inlineStr">
@@ -5385,7 +5357,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>470</v>
@@ -5407,9 +5379,9 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 17
-"water = lake", 14
-"type = multipolygon", 17</t>
+          <t>"natural = water", 14
+"water = lake", 13
+"type = multipolygon", 14</t>
         </is>
       </c>
       <c r="L78" s="5" t="inlineStr">
@@ -5445,7 +5417,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>13333</v>
+        <v>10172</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>14069</v>
@@ -5467,9 +5439,9 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 301
-"natural = water", 374
-"water = lake", 244</t>
+          <t>"type = multipolygon", 296
+"natural = water", 354
+"water = lake", 239</t>
         </is>
       </c>
       <c r="L79" s="5" t="inlineStr">
@@ -5505,7 +5477,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>60336</v>
+        <v>49227</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>62457</v>
@@ -5527,9 +5499,9 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 1230
-"natural = water", 2480
-"water = lake", 919</t>
+          <t>"type = multipolygon", 1110
+"natural = water", 2168
+"water = lake", 862</t>
         </is>
       </c>
       <c r="L80" s="5" t="inlineStr">
@@ -5565,7 +5537,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1415</v>
+        <v>1189</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>1286</v>
@@ -5587,8 +5559,8 @@
       </c>
       <c r="K81" s="1" t="inlineStr">
         <is>
-          <t>"water = pond", 7
-"natural = water", 8</t>
+          <t>"water = pond", 5
+"natural = water", 6</t>
         </is>
       </c>
       <c r="L81" s="5" t="inlineStr">
@@ -5624,7 +5596,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>950</v>
+        <v>798</v>
       </c>
       <c r="G82" s="12" t="n">
         <v>884</v>
@@ -5684,7 +5656,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>129</v>
@@ -5743,7 +5715,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>166</v>
@@ -5803,7 +5775,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1209</v>
+        <v>2118</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>687</v>
@@ -5825,9 +5797,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 51
-"water = lake", 38
-"type = multipolygon", 26
+          <t>"natural = water", 92
+"water = lake", 49
+"type = multipolygon", 42
 "place = locality", 5</t>
         </is>
       </c>
@@ -5864,7 +5836,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>506</v>
@@ -5888,9 +5860,9 @@
         <is>
           <t>"abandoned:railway = station", 2
 "railway:traffic_mode = passenger", 3
-"train = yes", 4
 "place = locality", 2
-"railway = station", 4</t>
+"railway = station", 3
+"train = yes", 2</t>
         </is>
       </c>
       <c r="L86" s="5" t="inlineStr">
@@ -5931,7 +5903,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>215</v>
@@ -6051,7 +6023,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>174</v>
@@ -6421,7 +6393,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G96" s="12" t="n">
         <v>120</v>
@@ -6443,7 +6415,7 @@
       </c>
       <c r="K96" s="1" t="inlineStr">
         <is>
-          <t>"aeroway = aerodrome", 3
+          <t>"aeroway = aerodrome", 2
 "icao = ENGK", 2
 "type = multipolygon", 2</t>
         </is>
@@ -6532,7 +6504,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G98" s="12" t="n">
         <v>98</v>
@@ -6586,7 +6558,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2222</v>
+        <v>1757</v>
       </c>
       <c r="G99" s="12" t="n">
         <v>2333</v>
@@ -6654,7 +6626,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G100" s="12" t="n">
         <v>202</v>
@@ -6718,7 +6690,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="G101" s="12" t="n">
         <v>490</v>
@@ -7044,7 +7016,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8625</v>
+        <v>6825</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>10197</v>
@@ -7069,32 +7041,22 @@
           <t>"man_made = tunnel", 3
 "layer = -1", 3
 "lanes = 1", 3
-"int_ref = E 134", 2
-"bridge = yes", 65
+"bridge = yes", 50
+"old_ref = 49", 3
 "historic = bridge", 2
-"old_ref = 202", 2
 "place = locality", 2
-"highway = secondary", 11
-"old_ref = 459", 2
+"highway = secondary", 7
+"old_ref = 158", 2
+"place = suburb", 2
 "width = 3.0", 2
-"old_ref = 158", 2
-"highway = tertiary", 2
-"surface = paved", 4
-"lit = yes", 4
+"surface = paved", 2
 "source:maxspeed = sign", 2
-"highway = primary", 33
-"old_ref = 408", 2
-"old_ref = 49", 3
-"highway = trunk", 4
-"layer = 1", 64
-"surface = asphalt", 9
-"place = suburb", 2
-"highway = track", 4
-"nvdb:id = 339480834", 2
-"int_ref = E 39", 2
-"highway = residential", 2
-"waterway = stream", 2
-"man_made = bridge", 28</t>
+"highway = primary", 31
+"highway = trunk", 2
+"layer = 1", 49
+"surface = asphalt", 8
+"man_made = bridge", 25
+"highway = track", 2</t>
         </is>
       </c>
       <c r="L108" s="5" t="inlineStr">
@@ -7135,7 +7097,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>118</v>
@@ -7189,7 +7151,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>1216</v>
@@ -7211,15 +7173,15 @@
       </c>
       <c r="K110" s="1" t="inlineStr">
         <is>
-          <t>"tunnel = yes", 6
-"layer = -1", 6
+          <t>"tunnel = yes", 5
+"layer = -1", 5
 "maxspeed:plus = 85", 3
-"electrified = contact_line", 4
-"frequency = 16.67", 4
+"electrified = contact_line", 3
+"frequency = 16.67", 3
 "maxspeed:tilting = 100", 3
 "voltage = 15000", 3
 "maxspeed:hgv = 80", 3
-"gauge = 1435", 4
+"gauge = 1435", 3
 "surface = paved", 2
 "usage = main", 3
 "passenger_lines = 1", 3
@@ -7259,7 +7221,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>11</v>
@@ -7663,7 +7625,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>428</v>
+        <v>306</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>341</v>
@@ -7731,7 +7693,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>449</v>
+        <v>311</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>407</v>
@@ -7753,10 +7715,8 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"man_made = quay", 15
-"place = locality", 18
-"place = isolated_dwelling", 2
-"natural = coastline", 4</t>
+          <t>"man_made = quay", 9
+"place = locality", 10</t>
         </is>
       </c>
       <c r="L120" s="5" t="inlineStr">
@@ -7960,7 +7920,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G124" s="12" t="n">
         <v>64</v>
@@ -8070,7 +8030,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G126" s="12" t="n">
         <v>65</v>
@@ -8092,10 +8052,7 @@
       </c>
       <c r="K126" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 2
-"leisure = marina", 3
-"place = locality", 2
-"surface = sand", 2</t>
+          <t>"leisure = marina", 2</t>
         </is>
       </c>
       <c r="L126" s="5" t="inlineStr">
@@ -8136,7 +8093,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G127" s="12" t="n">
         <v>188</v>
@@ -8158,9 +8115,8 @@
       </c>
       <c r="K127" s="1" t="inlineStr">
         <is>
-          <t>"leisure = marina", 2
-"place = locality", 3
-"seamark:type = harbour", 3
+          <t>"place = locality", 2
+"seamark:type = harbour", 2
 "landuse = harbour", 3</t>
         </is>
       </c>
@@ -8198,7 +8154,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="G128" s="12" t="n">
         <v>400</v>
@@ -8220,9 +8176,9 @@
       </c>
       <c r="K128" s="1" t="inlineStr">
         <is>
-          <t>"mooring = yes", 4
-"place = locality", 94
-"historic = yes", 92</t>
+          <t>"mooring = yes", 3
+"place = locality", 76
+"historic = yes", 75</t>
         </is>
       </c>
       <c r="L128" s="5" t="inlineStr">
@@ -8334,7 +8290,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5699</v>
+        <v>4750</v>
       </c>
       <c r="G130" s="12" t="n">
         <v>24621</v>
@@ -8393,7 +8349,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>732</v>
+        <v>565</v>
       </c>
       <c r="G131" s="12" t="n">
         <v>729</v>
@@ -8415,11 +8371,10 @@
       </c>
       <c r="K131" s="1" t="inlineStr">
         <is>
-          <t>"tracktype = grade4", 3
+          <t>"tracktype = grade4", 2
 "tracktype = grade3", 2
-"place = locality", 2
-"highway = path", 3
-"highway = track", 8</t>
+"highway = path", 2
+"highway = track", 7</t>
         </is>
       </c>
       <c r="L131" s="9" t="inlineStr">
@@ -8460,7 +8415,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4445</v>
+        <v>3642</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>4064</v>
@@ -8484,7 +8439,7 @@
         <is>
           <t>"trail_visibility = excellent", 2
 "sac_scale = hiking", 4
-"place = locality", 4
+"place = locality", 3
 "highway = path", 24</t>
         </is>
       </c>
@@ -8521,7 +8476,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>749</v>
+        <v>562</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>673</v>
@@ -8543,9 +8498,8 @@
       </c>
       <c r="K133" s="1" t="inlineStr">
         <is>
-          <t>"junction = yes", 5
-"place = locality", 5
-"highway = service", 2</t>
+          <t>"junction = yes", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L133" s="2" t="inlineStr">
@@ -8586,7 +8540,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>70</v>
@@ -8748,7 +8702,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>916</v>
+        <v>740</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>788</v>
@@ -8817,7 +8771,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="G138" s="12" t="n">
         <v>261</v>
@@ -8871,7 +8825,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1097</v>
+        <v>971</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>792</v>
@@ -9112,7 +9066,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1684</v>
+        <v>1317</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>1629</v>
@@ -9137,55 +9091,51 @@
           <t>"capacity = 450", 6
 "deanery = Vest-Nedenes", 6
 "diocese = Tunsberg", 13
-"hearing_aids = yes", 15
-"diocese = Agder og Telemark", 60
+"hearing_aids = yes", 13
+"diocese = Agder og Telemark", 52
 "parish = Kongsberg og Jondalen", 3
-"parish = Mandal", 4
-"religion = christian", 98
+"religion = christian", 90
 "capacity = 170", 3
-"capacity = 200", 10
-"deanery = Stavanger Domprosti", 6
-"capacity = 430", 3
-"note = Prostikirke", 4
-"architect = J.H.Nissen", 4
+"capacity = 200", 9
+"deanery = Stavanger Domprosti", 7
+"note = Prostikirke", 3
+"architect = J.H.Nissen", 3
 "note = Soknekirke/arbeidskirke", 11
 "parish = Bykle", 4
 "parish = Farsund", 3
-"building = church", 95
+"deanery = Otredal", 20
+"building = church", 86
 "capacity = 300", 5
-"diocese = Stavanger", 14
-"capacity = 350", 8
+"diocese = Stavanger", 15
+"capacity = 350", 7
 "deanery = Lister", 4
 "parish = Bygland", 6
-"toilets = yes", 44
+"toilets = yes", 42
 "parish = Evje og Hornnes", 4
-"architect = Linstow type / Anders Thorsen Syrtveit", 10
-"capacity = 250", 7
+"architect = Linstow type / Anders Thorsen Syrtveit", 8
+"capacity = 250", 6
 "toilets:wheelchair = yes", 10
 "capacity = 700", 3
 "deanery = Bodø Domprosti", 6
-"wheelchair = yes", 11
+"wheelchair = yes", 10
 "parish = Gildeskål", 3
-"parish = Holt", 4
 "deanery = Ytre Stavanger", 6
 "diocese = Sør-Hålogaland", 6
 "capacity = 650", 3
 "parish = Åmli", 4
-"toilets:wheelchair = no", 6
-"note = Soknekirke", 43
-"deanery = Aust-Nedenes", 20
-"amenity = place_of_worship", 98
+"toilets:wheelchair = no", 4
+"note = Soknekirke", 38
+"deanery = Aust-Nedenes", 17
+"amenity = place_of_worship", 90
 "wheelchair = limited", 3
-"toilets = no", 9
+"toilets = no", 8
 "capacity = 150", 3
 "capacity = 400", 3
-"deanery = Mandal", 6
-"capacity = 500", 10
+"deanery = Mandal", 3
+"capacity = 500", 8
 "architect = J.W.Nordan", 4
 "deanery = Kongsberg", 7
-"deanery = Otredal", 22
-"denomination = lutheran", 98
-"parish = Valle og Hylestad", 4
+"denomination = lutheran", 90
 "deanery = Lier", 4</t>
         </is>
       </c>
@@ -9227,7 +9177,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>766</v>
+        <v>609</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>653</v>
@@ -9249,9 +9199,8 @@
       </c>
       <c r="K145" s="1" t="inlineStr">
         <is>
-          <t>"building = yes", 4
+          <t>"building = yes", 2
 "place = locality", 2
-"place = isolated_dwelling", 3
 "amenity = community_centre", 5
 "building = civic", 3</t>
         </is>
@@ -9289,7 +9238,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4777</v>
+        <v>3757</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>3733</v>
@@ -9314,9 +9263,11 @@
           <t>"resource = silver", 21
 "building = yes", 6
 "building = farm_auxiliary", 10
-"place = locality", 158
+"incline = up", 5
+"place = locality", 148
 "man_made = mineshaft", 17
-"historic = mine", 41</t>
+"historic = mine", 41
+"highway = steps", 5</t>
         </is>
       </c>
       <c r="M146" s="12" t="inlineStr">
@@ -9352,7 +9303,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>127</v>
@@ -9374,7 +9325,9 @@
       </c>
       <c r="K147" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 2</t>
+          <t>"type = multipolygon", 3
+"cemetery = grave", 4
+"landuse = cemetery", 4</t>
         </is>
       </c>
       <c r="L147" s="5" t="inlineStr">
@@ -9420,7 +9373,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G148" s="12" t="n">
         <v>70</v>
@@ -9479,7 +9432,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="G149" s="12" t="n">
         <v>98</v>
@@ -9499,12 +9452,7 @@
           <t>Alle typer museum, galleri og bibliotek</t>
         </is>
       </c>
-      <c r="K149" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2
-"place = isolated_dwelling", 2</t>
-        </is>
-      </c>
+      <c r="K149" s="1" t="inlineStr"/>
       <c r="L149" s="5" t="inlineStr">
         <is>
           <t>tourism=museum</t>
@@ -9538,9 +9486,6 @@
           <t>offersted</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>18</v>
-      </c>
       <c r="G150" s="12" t="n">
         <v>21</v>
       </c>
@@ -9559,7 +9504,7 @@
           <t>Samisk, norsk eller kvensk offersted</t>
         </is>
       </c>
-      <c r="K150" s="1" t="inlineStr"/>
+      <c r="K150" s="5" t="n"/>
       <c r="L150" s="5" t="inlineStr">
         <is>
           <t>historic=heritage</t>
@@ -9598,7 +9543,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>193</v>
@@ -9622,8 +9567,8 @@
         <is>
           <t>"tourism = museum", 2
 "type = multipolygon", 2
-"place = locality", 3
-"historic = memorial", 4
+"place = locality", 2
+"historic = memorial", 3
 "tourism = attraction", 4</t>
         </is>
       </c>
@@ -9660,7 +9605,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>97</v>
@@ -9714,7 +9659,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="G153" s="12" t="n">
         <v>444</v>
@@ -9773,7 +9718,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6096</v>
+        <v>5110</v>
       </c>
       <c r="G154" s="12" t="n">
         <v>5340</v>
@@ -9795,8 +9740,8 @@
       </c>
       <c r="K154" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 23
-"place = locality", 56
+          <t>"place = farm", 20
+"place = locality", 52
 "landuse = meadow", 2</t>
         </is>
       </c>
@@ -9839,7 +9784,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3103</v>
+        <v>2413</v>
       </c>
       <c r="G155" s="12" t="n">
         <v>2408</v>
@@ -9861,9 +9806,9 @@
       </c>
       <c r="K155" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 4
-"place = locality", 10
-"landuse = meadow", 9</t>
+          <t>"place = locality", 8
+"landuse = meadow", 9
+"type = multipolygon", 4</t>
         </is>
       </c>
       <c r="L155" s="5" t="inlineStr">
@@ -9899,7 +9844,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8191</v>
+        <v>6962</v>
       </c>
       <c r="G156" s="12" t="n">
         <v>4914</v>
@@ -9921,9 +9866,9 @@
       </c>
       <c r="K156" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 15
-"place = locality", 127
-"landuse = farmland", 47</t>
+          <t>"place = locality", 105
+"landuse = farmland", 38
+"type = multipolygon", 18</t>
         </is>
       </c>
       <c r="M156" s="12" t="inlineStr">
@@ -9959,7 +9904,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="G157" s="12" t="n">
         <v>314</v>
@@ -9981,7 +9926,7 @@
       </c>
       <c r="K157" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 8</t>
+          <t>"place = locality", 9</t>
         </is>
       </c>
       <c r="M157" s="5" t="inlineStr">
@@ -10022,7 +9967,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3646</v>
+        <v>3203</v>
       </c>
       <c r="G158" s="12" t="n">
         <v>3166</v>
@@ -10044,14 +9989,14 @@
       </c>
       <c r="K158" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 10
+          <t>"building = farm_auxiliary", 5
 "building = yes", 5
-"historic = shieling", 85
-"place = locality", 111
-"building = cabin", 5
-"place = isolated_dwelling", 5
+"historic = shieling", 73
+"place = locality", 99
+"building = cabin", 4
+"place = isolated_dwelling", 4
 "landuse = meadow", 26
-"place = farm", 13</t>
+"place = farm", 8</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
@@ -10092,7 +10037,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>264</v>
@@ -10114,8 +10059,8 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 7
-"place = locality", 8</t>
+          <t>"historic = shieling", 6
+"place = locality", 7</t>
         </is>
       </c>
       <c r="L159" s="2" t="inlineStr">
@@ -10156,7 +10101,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>473</v>
+        <v>354</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>491</v>
@@ -10298,7 +10243,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3342</v>
+        <v>2727</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>2950</v>
@@ -10320,7 +10265,7 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 49
+          <t>"natural = stone", 40
 "natural = rock", 2</t>
         </is>
       </c>
@@ -10358,7 +10303,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2488</v>
+        <v>2017</v>
       </c>
       <c r="G164" s="12" t="n">
         <v>2354</v>
@@ -10381,7 +10326,7 @@
       <c r="K164" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 2
-"natural = scree", 62</t>
+"natural = scree", 49</t>
         </is>
       </c>
       <c r="L164" s="5" t="inlineStr">
@@ -10468,7 +10413,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>121</v>
@@ -10488,11 +10433,7 @@
           <t>Sand-/grusområde over vannkontur/kystkontur; morenemateriale</t>
         </is>
       </c>
-      <c r="K166" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2</t>
-        </is>
-      </c>
+      <c r="K166" s="1" t="inlineStr"/>
       <c r="L166" s="5" t="inlineStr">
         <is>
           <t>natural=beach; surface=sand</t>
@@ -10558,7 +10499,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
@@ -10656,7 +10597,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="G170" s="12" t="n">
         <v>273</v>
@@ -10680,7 +10621,7 @@
         <is>
           <t>"resource = silver", 3
 "place = locality", 2
-"landuse = quarry", 3
+"landuse = quarry", 2
 "historic = mine", 7</t>
         </is>
       </c>
@@ -10717,7 +10658,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>127</v>
@@ -10822,7 +10763,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8056</v>
+        <v>6505</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>7616</v>
@@ -10844,11 +10785,11 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"leaf_type = needleleaved", 2
+          <t>"place = locality", 7
+"type = multipolygon", 6
 "natural = wood", 19
-"place = farm", 11
-"place = locality", 9
-"type = multipolygon", 6</t>
+"leaf_type = needleleaved", 2
+"place = farm", 6</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10884,7 +10825,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>6</v>
@@ -10904,11 +10845,7 @@
           <t>Mindre samling av trær; lund; skogkrull.</t>
         </is>
       </c>
-      <c r="K174" s="1" t="inlineStr">
-        <is>
-          <t>"place = isolated_dwelling", 4</t>
-        </is>
-      </c>
+      <c r="K174" s="1" t="inlineStr"/>
       <c r="M174" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -10942,7 +10879,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>51853</v>
+        <v>43474</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>50738</v>
@@ -10964,10 +10901,11 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"wetland = bog", 219
-"type = multipolygon", 90
-"natural = wetland", 315
-"place = locality", 517</t>
+          <t>"wetland = bog", 220
+"type = multipolygon", 91
+"natural = wetland", 318
+"place = locality", 276
+"landuse = farmland", 14</t>
         </is>
       </c>
       <c r="L175" s="5" t="inlineStr">
@@ -11157,6 +11095,9 @@
           <t>sokn</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
       <c r="G179" s="12" t="n">
         <v>12</v>
       </c>
@@ -11175,7 +11116,7 @@
           <t>Kirkesogn i Den norske kirke</t>
         </is>
       </c>
-      <c r="K179" s="5" t="n"/>
+      <c r="K179" s="1" t="inlineStr"/>
       <c r="L179" s="5" t="inlineStr">
         <is>
           <t>place=hamlet</t>
@@ -11605,7 +11546,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>233</v>
@@ -11715,7 +11656,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>302</v>
@@ -11737,9 +11678,12 @@
       </c>
       <c r="K190" s="1" t="inlineStr">
         <is>
-          <t>"leisure = nature_reserve", 3
-"boundary = protected_area", 4
-"protect_class = 1", 2</t>
+          <t>"leisure = nature_reserve", 5
+"type = multipolygon", 3
+"naturbase:iid = VV00001832", 3
+"attribution = Miljødirektoratet", 3
+"boundary = protected_area", 6
+"protect_class = 1", 4</t>
         </is>
       </c>
       <c r="L190" s="5" t="inlineStr">
@@ -11836,7 +11780,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>72</v>
@@ -11946,7 +11890,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1962</v>
+        <v>1619</v>
       </c>
       <c r="G194" s="12" t="n">
         <v>1901</v>
@@ -11968,9 +11912,9 @@
       </c>
       <c r="K194" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 140
-"bay = fjord", 138
-"type = multipolygon", 15</t>
+          <t>"natural = bay", 110
+"bay = fjord", 108
+"type = multipolygon", 14</t>
         </is>
       </c>
       <c r="L194" s="5" t="inlineStr">
@@ -12114,7 +12058,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>119</v>
@@ -12134,11 +12078,7 @@
           <t>Del av sjøen, vanligvis innaskjærs eller i kystnære farvann. Eks. Folda, Hustadvika</t>
         </is>
       </c>
-      <c r="K197" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2</t>
-        </is>
-      </c>
+      <c r="K197" s="1" t="inlineStr"/>
       <c r="M197" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -12176,9 +12116,6 @@
           <t>fiskeplassISjø</t>
         </is>
       </c>
-      <c r="F198" t="n">
-        <v>51</v>
-      </c>
       <c r="G198" s="12" t="n">
         <v>46</v>
       </c>
@@ -12197,7 +12134,7 @@
           <t>Fiskested, fiskemed</t>
         </is>
       </c>
-      <c r="K198" s="1" t="inlineStr"/>
+      <c r="K198" s="5" t="n"/>
       <c r="M198" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -12315,7 +12252,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>13556</v>
+        <v>10957</v>
       </c>
       <c r="G201" s="12" t="n">
         <v>13989</v>
@@ -12337,11 +12274,11 @@
       </c>
       <c r="K201" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 578
-"natural = shoal", 78
-"seamark:type = rock", 126
-"natural = coastline", 468
-"natural = rock", 346</t>
+          <t>"place = islet", 425
+"natural = shoal", 40
+"seamark:type = rock", 90
+"natural = coastline", 356
+"natural = rock", 345</t>
         </is>
       </c>
       <c r="L201" s="5" t="inlineStr">
@@ -12382,7 +12319,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1252</v>
+        <v>1012</v>
       </c>
       <c r="G202" s="12" t="n">
         <v>1206</v>
@@ -12405,8 +12342,8 @@
       <c r="K202" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 2
-"place = locality", 65
-"seamark:type = rock", 65</t>
+"place = locality", 33
+"seamark:type = rock", 33</t>
         </is>
       </c>
       <c r="L202" s="5" t="inlineStr">
@@ -12452,7 +12389,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>13225</v>
+        <v>11153</v>
       </c>
       <c r="G203" s="12" t="n">
         <v>13694</v>
@@ -12474,8 +12411,8 @@
       </c>
       <c r="K203" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 140
-"natural = shoal", 347</t>
+          <t>"place = locality", 117
+"natural = shoal", 324</t>
         </is>
       </c>
       <c r="L203" s="5" t="inlineStr">
@@ -12606,7 +12543,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4447</v>
+        <v>3614</v>
       </c>
       <c r="G206" s="12" t="n">
         <v>4494</v>
@@ -12628,7 +12565,7 @@
       </c>
       <c r="K206" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 391</t>
+          <t>"natural = strait", 323</t>
         </is>
       </c>
       <c r="L206" s="5" t="inlineStr">
@@ -12664,7 +12601,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>25874</v>
+        <v>20973</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>26737</v>
@@ -12686,7 +12623,7 @@
       </c>
       <c r="K207" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1609</t>
+          <t>"natural = bay", 1318</t>
         </is>
       </c>
       <c r="L207" s="5" t="inlineStr">
@@ -12723,7 +12660,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3802</v>
+        <v>3111</v>
       </c>
       <c r="G208" s="12" t="n">
         <v>4179</v>
@@ -12745,11 +12682,11 @@
       </c>
       <c r="K208" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 126
-"type = multipolygon", 105
+          <t>"place = islet", 100
+"type = multipolygon", 85
 "natural = wood", 8
-"natural = coastline", 130
-"place = island", 128</t>
+"natural = coastline", 112
+"place = island", 114</t>
         </is>
       </c>
       <c r="L208" s="5" t="inlineStr">
@@ -12785,7 +12722,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>18859</v>
+        <v>15879</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>20058</v>
@@ -12807,9 +12744,9 @@
       </c>
       <c r="K209" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1339
-"type = multipolygon", 108
-"natural = coastline", 1196</t>
+          <t>"place = islet", 1136
+"type = multipolygon", 84
+"natural = coastline", 1021</t>
         </is>
       </c>
       <c r="L209" s="5" t="inlineStr">
@@ -12845,7 +12782,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>523</v>
+        <v>413</v>
       </c>
       <c r="G210" s="12" t="n">
         <v>495</v>
@@ -12867,8 +12804,8 @@
       </c>
       <c r="K210" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9
-"natural = cape", 50</t>
+          <t>"place = locality", 8
+"natural = cape", 34</t>
         </is>
       </c>
       <c r="L210" s="5" t="inlineStr">
@@ -12904,7 +12841,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>22746</v>
+        <v>18428</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>24024</v>
@@ -12926,8 +12863,8 @@
       </c>
       <c r="K211" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 53
-"natural = cape", 902</t>
+          <t>"place = locality", 52
+"natural = cape", 736</t>
         </is>
       </c>
       <c r="L211" s="5" t="inlineStr">
@@ -12964,7 +12901,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="G212" s="12" t="n">
         <v>240</v>
@@ -12986,7 +12923,7 @@
       </c>
       <c r="K212" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3</t>
+          <t>"place = locality", 2</t>
         </is>
       </c>
       <c r="M212" s="5" t="inlineStr">
@@ -13022,7 +12959,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2353</v>
+        <v>1881</v>
       </c>
       <c r="G213" s="12" t="n">
         <v>2328</v>
@@ -13045,12 +12982,11 @@
       <c r="K213" s="1" t="inlineStr">
         <is>
           <t>"place = hamlet", 2
-"surface = sand", 13
-"type = multipolygon", 9
-"layer = 2", 7
-"place = locality", 29
-"natural = beach", 43
-"place = isolated_dwelling", 2</t>
+"surface = sand", 9
+"type = multipolygon", 8
+"layer = 2", 3
+"place = locality", 23
+"natural = beach", 38</t>
         </is>
       </c>
       <c r="L213" s="5" t="inlineStr">
@@ -13091,7 +13027,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1290</v>
+        <v>1140</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1405</v>
@@ -13113,7 +13049,7 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 22</t>
+          <t>"natural = bay", 18</t>
         </is>
       </c>
       <c r="L214" s="5" t="inlineStr">
@@ -13150,7 +13086,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="G215" s="12" t="n">
         <v>351</v>
@@ -13172,11 +13108,9 @@
       </c>
       <c r="K215" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 20
-"type = multipolygon", 3
+          <t>"place = islet", 11
 "place = archipelago", 2
-"natural = cape", 2
-"natural = coastline", 20
+"natural = coastline", 13
 "place = island", 6</t>
         </is>
       </c>
@@ -13213,7 +13147,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="G216" s="12" t="n">
         <v>318</v>
@@ -13235,8 +13169,8 @@
       </c>
       <c r="K216" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 18
-"place = islet", 19</t>
+          <t>"natural = coastline", 12
+"place = islet", 13</t>
         </is>
       </c>
       <c r="L216" s="5" t="inlineStr">
@@ -13273,7 +13207,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>109</v>
@@ -14058,7 +13992,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>7978</v>
+        <v>6581</v>
       </c>
       <c r="G236" s="12" t="n">
         <v>7739</v>
@@ -14080,7 +14014,7 @@
       </c>
       <c r="K236" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 50</t>
+          <t>"place = locality", 31</t>
         </is>
       </c>
       <c r="L236" s="2" t="n"/>
@@ -14117,7 +14051,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4267</v>
+        <v>3221</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>4173</v>
@@ -14175,7 +14109,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>15359</v>
+        <v>12407</v>
       </c>
       <c r="G238" s="12" t="n">
         <v>15244</v>
@@ -14197,9 +14131,9 @@
       </c>
       <c r="K238" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 15
-"place = locality", 138
-"natural = hill", 224</t>
+          <t>"natural = peak", 14
+"place = locality", 137
+"natural = hill", 223</t>
         </is>
       </c>
       <c r="L238" s="2" t="inlineStr">
@@ -14245,7 +14179,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>22123</v>
+        <v>17067</v>
       </c>
       <c r="G239" s="12" t="n">
         <v>22178</v>
@@ -14267,10 +14201,10 @@
       </c>
       <c r="K239" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 159
-"place = locality", 167
+          <t>"natural = peak", 158
+"place = locality", 150
 "man_made = survey_point", 18
-"natural = hill", 169</t>
+"natural = hill", 152</t>
         </is>
       </c>
       <c r="L239" s="5" t="inlineStr">
@@ -14316,7 +14250,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>9354</v>
+        <v>7909</v>
       </c>
       <c r="G240" s="12" t="n">
         <v>8191</v>
@@ -14339,8 +14273,8 @@
       <c r="K240" s="1" t="inlineStr">
         <is>
           <t>"natural = heath", 59
-"place = locality", 1472
-"natural = hill", 1459</t>
+"place = locality", 1140
+"natural = hill", 1132</t>
         </is>
       </c>
       <c r="L240" s="5" t="inlineStr">
@@ -14386,7 +14320,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>9886</v>
+        <v>7884</v>
       </c>
       <c r="G241" s="12" t="n">
         <v>9146</v>
@@ -14408,8 +14342,8 @@
       </c>
       <c r="K241" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 605
-"natural = hill", 905</t>
+          <t>"place = locality", 458
+"natural = hill", 758</t>
         </is>
       </c>
       <c r="L241" s="5" t="inlineStr">
@@ -14450,7 +14384,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>58218</v>
+        <v>48310</v>
       </c>
       <c r="G242" s="12" t="n">
         <v>57885</v>
@@ -14472,10 +14406,10 @@
       </c>
       <c r="K242" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 427
-"place = locality", 1739
+          <t>"natural = peak", 423
+"place = locality", 1584
 "natural = ridge", 289
-"natural = hill", 3096</t>
+"natural = hill", 2944</t>
         </is>
       </c>
       <c r="L242" s="5" t="inlineStr">
@@ -14526,7 +14460,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6892</v>
+        <v>5650</v>
       </c>
       <c r="G243" s="12" t="n">
         <v>6752</v>
@@ -14548,9 +14482,9 @@
       </c>
       <c r="K243" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 144
-"natural = ridge", 201
-"natural = hill", 64</t>
+          <t>"place = locality", 135
+"natural = ridge", 195
+"natural = hill", 63</t>
         </is>
       </c>
       <c r="L243" s="5" t="inlineStr">
@@ -14591,7 +14525,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>48027</v>
+        <v>39152</v>
       </c>
       <c r="G244" s="12" t="n">
         <v>48481</v>
@@ -14613,9 +14547,9 @@
       </c>
       <c r="K244" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 125
-"place = locality", 740
-"natural = hill", 1058</t>
+          <t>"natural = peak", 116
+"place = locality", 690
+"natural = hill", 1014</t>
         </is>
       </c>
       <c r="L244" s="5" t="inlineStr">
@@ -14656,7 +14590,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1814</v>
+        <v>1424</v>
       </c>
       <c r="G245" s="12" t="n">
         <v>1648</v>
@@ -14725,7 +14659,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1256</v>
+        <v>1024</v>
       </c>
       <c r="G246" s="12" t="n">
         <v>1076</v>
@@ -14835,7 +14769,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>39965</v>
+        <v>33576</v>
       </c>
       <c r="G248" s="12" t="n">
         <v>38753</v>
@@ -14857,8 +14791,8 @@
       </c>
       <c r="K248" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 743
-"natural = valley", 1082</t>
+          <t>"place = locality", 575
+"natural = valley", 913</t>
         </is>
       </c>
       <c r="L248" s="5" t="inlineStr">
@@ -14899,7 +14833,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6665</v>
+        <v>5507</v>
       </c>
       <c r="G249" s="12" t="n">
         <v>6491</v>
@@ -14921,8 +14855,8 @@
       </c>
       <c r="K249" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 29
-"place = locality", 33</t>
+          <t>"natural = valley", 24
+"place = locality", 29</t>
         </is>
       </c>
       <c r="L249" s="5" t="inlineStr">
@@ -14963,7 +14897,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>11245</v>
+        <v>9340</v>
       </c>
       <c r="G250" s="12" t="n">
         <v>11649</v>
@@ -14985,8 +14919,8 @@
       </c>
       <c r="K250" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 72
-"place = locality", 55
+          <t>"natural = valley", 54
+"place = locality", 37
 "natural = saddle", 3</t>
         </is>
       </c>
@@ -15028,7 +14962,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2027</v>
+        <v>1523</v>
       </c>
       <c r="G251" s="12" t="n">
         <v>1747</v>
@@ -15086,7 +15020,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>3366</v>
+        <v>2629</v>
       </c>
       <c r="G252" s="12" t="n">
         <v>2948</v>
@@ -15110,8 +15044,8 @@
         <is>
           <t>"natural = wetland", 3
 "wetland = bog", 2
-"natural = valley", 43
-"place = locality", 32</t>
+"natural = valley", 31
+"place = locality", 20</t>
         </is>
       </c>
       <c r="L252" s="5" t="inlineStr">
@@ -15157,7 +15091,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="G253" s="12" t="n">
         <v>340</v>
@@ -15179,8 +15113,8 @@
       </c>
       <c r="K253" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 27
-"place = locality", 27</t>
+          <t>"natural = valley", 14
+"place = locality", 14</t>
         </is>
       </c>
       <c r="L253" s="5" t="inlineStr">
@@ -15254,7 +15188,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>13005</v>
+        <v>10447</v>
       </c>
       <c r="G255" s="12" t="n">
         <v>11974</v>
@@ -15276,8 +15210,8 @@
       </c>
       <c r="K255" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 167
-"natural = slope", 157</t>
+          <t>"place = locality", 133
+"natural = slope", 123</t>
         </is>
       </c>
       <c r="L255" s="5" t="inlineStr">
@@ -15318,7 +15252,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>33767</v>
+        <v>28535</v>
       </c>
       <c r="G256" s="12" t="n">
         <v>32819</v>
@@ -15340,8 +15274,8 @@
       </c>
       <c r="K256" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 366
-"natural = slope", 351</t>
+          <t>"place = locality", 312
+"natural = slope", 297</t>
         </is>
       </c>
       <c r="L256" s="5" t="inlineStr">
@@ -15382,7 +15316,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1554</v>
+        <v>1110</v>
       </c>
       <c r="G257" s="12" t="n">
         <v>1437</v>
@@ -15404,7 +15338,7 @@
       </c>
       <c r="K257" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 24</t>
+          <t>"place = locality", 12</t>
         </is>
       </c>
       <c r="M257" s="12" t="inlineStr">
@@ -15440,7 +15374,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>337</v>
@@ -15504,7 +15438,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3063</v>
+        <v>2535</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>2726</v>
@@ -15526,7 +15460,7 @@
       </c>
       <c r="K259" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 86</t>
+          <t>"natural = cliff", 84</t>
         </is>
       </c>
       <c r="L259" s="5" t="inlineStr">
@@ -15563,7 +15497,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>279</v>
@@ -15583,12 +15517,7 @@
           <t>Høyereliggende, større område uten skog med lave terrengvariasjoner  innenfor området. Eks. Valdresflye, Hardangervidda, Finnmarksvidda, Laksefjordvidda</t>
         </is>
       </c>
-      <c r="K260" s="1" t="inlineStr">
-        <is>
-          <t>"natural = mountain_range", 2
-"note = Please refine boundary based on local knowledge", 2</t>
-        </is>
-      </c>
+      <c r="K260" s="1" t="inlineStr"/>
       <c r="L260" s="5" t="inlineStr">
         <is>
           <t>natural=plateau</t>
@@ -15622,7 +15551,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>513</v>
@@ -15644,7 +15573,7 @@
       </c>
       <c r="K261" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4</t>
+          <t>"place = locality", 3</t>
         </is>
       </c>
       <c r="L261" s="2" t="n"/>
@@ -15681,7 +15610,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>3377</v>
+        <v>2783</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>2244</v>
@@ -15703,7 +15632,7 @@
       </c>
       <c r="K262" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 10</t>
+          <t>"place = locality", 8</t>
         </is>
       </c>
       <c r="M262" s="12" t="inlineStr">
@@ -15739,7 +15668,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>6642</v>
+        <v>5363</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>6057</v>
@@ -15761,7 +15690,7 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 80</t>
+          <t>"place = locality", 55</t>
         </is>
       </c>
       <c r="M263" s="12" t="inlineStr">
@@ -15951,7 +15880,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>44</v>
@@ -15973,9 +15902,7 @@
       </c>
       <c r="K267" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2
-"place = locality", 16
-"place = farm", 2</t>
+          <t>"place = locality", 8</t>
         </is>
       </c>
       <c r="L267" s="5" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -792,12 +792,12 @@
 "source:population = SSB - befolkning i tettstedet", 39
 "place = city", 12
 "ref:ssb_tettsted = 2562", 2
-"ref:ssb_tettsted = 2531", 2
 "ref:ssb_tettsted = 2511", 2
 "ref:ssb_tettsted = 2603", 2
 "ref:ssb_tettsted = 2501", 2
+"ref:ssb_tettsted = 2521", 2
+"ref:ssb_tettsted = 2531", 2
 "ref:ssb_tettsted = 3005-3807", 2
-"ref:ssb_tettsted = 2521", 2
 "ref:ssb_tettsted = 3531", 2</t>
         </is>
       </c>
@@ -864,11 +864,11 @@
         <is>
           <t>"place = village", 171
 "source:population = SSB - befolkning i tettstedet", 111
+"place = town", 8
 "place = suburb", 38
-"place = neighbourhood", 13
 "place = hamlet", 13
-"place = town", 8
-"place = quarter", 23</t>
+"place = quarter", 23
+"place = neighbourhood", 13</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 72
-"place = quarter", 56
+          <t>"place = village", 68
 "source:population = SSB - befolkning i tettstedet", 36
+"place = neighbourhood", 136
+"place = suburb", 72
 "place = hamlet", 37
-"place = neighbourhood", 136
-"place = village", 68</t>
+"place = quarter", 56</t>
         </is>
       </c>
       <c r="L4" s="17" t="inlineStr">
@@ -1000,11 +1000,11 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 128
-"place = neighbourhood", 12
-"place = village", 188
+          <t>"place = village", 188
+"place = hamlet", 128
+"place = suburb", 16
 "source:population = SSB - befolkning i tettstedet", 25
-"place = suburb", 16</t>
+"place = neighbourhood", 12</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1073,9 +1073,9 @@
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>"place = hamlet", 615
-"place = village", 28
 "place = neighbourhood", 46
-"place = farm", 29</t>
+"place = farm", 29
+"place = village", 28</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1134,8 +1134,8 @@
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>"place = neighbourhood", 668
-"place = quarter", 169
-"place = suburb", 38</t>
+"place = suburb", 38
+"place = quarter", 169</t>
         </is>
       </c>
       <c r="L7" s="17" t="inlineStr">
@@ -1193,16 +1193,16 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 29
-"landuse = industrial", 41
+          <t>"landuse = industrial", 41
+"type = multipolygon", 8
 "place = quarter", 18
 "place = locality", 25
 "place = suburb", 5
+"natural = cape", 2
 "building = industrial", 4
-"ref:bygningsnr = 166261902", 2
-"type = multipolygon", 8
-"natural = cape", 2
-"man_made = wastewater_plant", 2</t>
+"man_made = wastewater_plant", 2
+"place = neighbourhood", 29
+"ref:bygningsnr = 166261902", 2</t>
         </is>
       </c>
       <c r="L8" s="17" t="inlineStr">
@@ -1263,8 +1263,8 @@
           <t>"place = suburb", 97
 "place = neighbourhood", 10
 "landuse = residential", 3
-"place = village", 4
-"place = quarter", 15</t>
+"place = quarter", 15
+"place = village", 4</t>
         </is>
       </c>
       <c r="L9" s="17" t="inlineStr">
@@ -1719,8 +1719,8 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 4564
-"building = cabin", 938
+          <t>"building = cabin", 938
+"place = isolated_dwelling", 4564
 "place = locality", 265
 "historic = shieling", 581</t>
         </is>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"building = sports_centre", 4
-"leisure = sports_centre", 20
+          <t>"leisure = sports_centre", 20
+"building = sports_centre", 4
 "sport = multi", 2
+"building = yes", 2
 "amenity = sports_centre", 2
-"place = locality", 2
-"building = yes", 2</t>
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L21" s="17" t="inlineStr">
@@ -2031,15 +2031,15 @@
         <is>
           <t>"leisure = pitch", 70
 "sport = soccer", 28
+"type = multipolygon", 6
 "sport = horse_racing", 6
-"surface = grass", 3
 "place = locality", 17
+"amenity = parking", 2
+"leisure = sports_centre", 8
 "building = yes", 2
-"leisure = sports_centre", 8
 "area = no", 2
 "leisure = track", 3
-"type = multipolygon", 6
-"amenity = parking", 2
+"surface = grass", 3
 "piste:type = ski_jump", 4</t>
         </is>
       </c>
@@ -2157,9 +2157,9 @@
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3
-"landuse = winter_sports", 2
-"piste:type = downhill", 2</t>
+          <t>"landuse = winter_sports", 2
+"piste:type = downhill", 2
+"place = locality", 3</t>
         </is>
       </c>
       <c r="L24" s="17" t="inlineStr">
@@ -2217,8 +2217,8 @@
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 20
-"leisure = swimming_area", 16
+          <t>"leisure = swimming_area", 16
+"place = locality", 20
 "natural = beach", 10
 "surface = sand", 10
 "layer = 2", 3</t>
@@ -2472,8 +2472,8 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1007
-"building = farm_auxiliary", 195
+          <t>"building = farm_auxiliary", 195
+"place = locality", 1007
 "historic = shieling", 170</t>
         </is>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1615
-"place = farm", 8802</t>
+          <t>"place = farm", 8802
+"place = hamlet", 1615</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2721,8 +2721,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 460
-"place = farm", 305</t>
+          <t>"place = farm", 305
+"place = hamlet", 460</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2858,26 +2858,26 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>"amenity = school", 133
+          <t>"building = school", 21
+"amenity = school", 133
 "fee = no", 99
+"grades = 1-7", 50
+"isced:level = 1", 54
+"operator:type = public", 99
 "grades = 1-10", 21
 "isced:level = 1;2", 28
-"operator:type = public", 99
-"grades = 1-7", 50
-"isced:level = 1", 54
-"building = house", 7
-"building = school", 21
 "place = locality", 43
 "was:amenity = school", 7
-"building = civic", 23
-"disused:amenity = school", 5
-"building = kindergarten", 8
 "grades = 8-10", 11
 "isced:level = 2", 11
+"building = civic", 23
+"fee = yes", 9
+"operator:type = private", 9
+"building = house", 7
+"building = kindergarten", 8
 "grades = 11-13", 15
 "isced:level = 3", 15
-"fee = yes", 9
-"operator:type = private", 9</t>
+"disused:amenity = school", 5</t>
         </is>
       </c>
       <c r="L36" s="17" t="inlineStr">
@@ -2997,13 +2997,13 @@
           <t>"amenity = nursing_home", 72
 "place = isolated_dwelling", 2
 "place = locality", 6
+"amenity = social_facility", 3
+"building = public", 2
 "building = yes", 3
-"amenity = social_facility", 3
-"social_facility = group_home", 2
 "healthcare = yes", 2
-"building = public", 2
 "building = civic", 3
-"ref:bygningsnr = 165595157", 2</t>
+"ref:bygningsnr = 165595157", 2
+"social_facility = group_home", 2</t>
         </is>
       </c>
       <c r="L38" s="17" t="inlineStr">
@@ -3062,9 +3062,9 @@
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>"building = civic", 6
+"place = locality", 2
 "building = cabin", 2
-"ref:bygningsnr = 300303199", 2
-"place = locality", 2</t>
+"ref:bygningsnr = 300303199", 2</t>
         </is>
       </c>
       <c r="L39" s="17" t="inlineStr">
@@ -3123,8 +3123,8 @@
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>"landuse = military", 9
-"place = neighbourhood", 3
-"natural = bay", 2</t>
+"natural = bay", 2
+"place = neighbourhood", 3</t>
         </is>
       </c>
       <c r="L40" s="17" t="inlineStr">
@@ -3305,8 +3305,8 @@
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>"amenity = school", 3
-"amenity = university", 4</t>
+          <t>"amenity = university", 4
+"amenity = school", 3</t>
         </is>
       </c>
       <c r="L43" s="17" t="inlineStr">
@@ -3473,22 +3473,22 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"building = industrial", 36
-"industrial = factory", 46
+          <t>"industrial = factory", 46
+"building = industrial", 36
 "place = locality", 21
+"landuse = industrial", 15
 "place = neighbourhood", 9
+"industrial = shipyard", 2
+"ref:bygningsnr = 23042452", 2
+"ref:bygningsnr = 165574125", 2
+"ref:bygningsnr = 8612811", 2
 "ref:bygningsnr = 165706714", 2
 "ref:bygningsnr = 8631476", 2
 "ref:bygningsnr = 8633177", 2
-"landuse = industrial", 15
-"type = multipolygon", 3
 "email = kundesenter@hansaborg.no", 2
 "industrial = brewery", 2
 "ref:bygningsnr = 140572462", 2
-"ref:bygningsnr = 23042452", 2
-"ref:bygningsnr = 165574125", 2
-"ref:bygningsnr = 8612811", 2
-"industrial = shipyard", 2
+"type = multipolygon", 3
 "ref:bygningsnr = 8997497", 2
 "ref:bygningsnr = 169092559", 2</t>
         </is>
@@ -3549,21 +3549,21 @@
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>"building = industrial", 46
+"ref:bygningsnr = 157458736", 2
+"ref:bygningsnr = 8451478", 2
+"place = locality", 11
 "ref:bygningsnr = 165283686", 2
-"place = locality", 11
+"ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165783034", 2
 "ref:bygningsnr = 165781120", 2
-"ref:bygningsnr = 166255279", 2
-"place = neighbourhood", 2
-"ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165894626", 2
 "ref:bygningsnr = 165921429", 2
-"ref:bygningsnr = 157458736", 2
 "building = yes", 2
 "ref:bygningsnr = 166020549", 2
+"place = neighbourhood", 2
+"ref:bygningsnr = 166255279", 2
 "ref:bygningsnr = 300204274", 2
-"ref:bygningsnr = 169058776", 2
-"ref:bygningsnr = 8451478", 2</t>
+"ref:bygningsnr = 169058776", 2</t>
         </is>
       </c>
       <c r="L47" s="17" t="inlineStr">
@@ -3624,19 +3624,19 @@
           <t>"shop = mall", 2
 "building = office", 2
 "building = commercial", 13
+"place = locality", 5
 "place = isolated_dwelling", 3
-"ref:bygningsnr = 8630992", 2
 "amenity = cafe", 2
-"place = locality", 5
-"place = farm", 2
 "ref:bygningsnr = 8428425", 2
 "ref:bygningsnr = 8401365", 2
 "place = quarter", 2
 "place = neighbourhood", 2
+"building = religious", 2
+"ref:bygningsnr = 164431983", 2
+"place = farm", 2
+"ref:bygningsnr = 8630992", 2
 "building = industrial", 2
-"ref:bygningsnr = 169069298", 2
-"building = religious", 2
-"ref:bygningsnr = 164431983", 2</t>
+"ref:bygningsnr = 169069298", 2</t>
         </is>
       </c>
       <c r="L48" s="17" t="inlineStr">
@@ -3757,9 +3757,9 @@
       </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
-          <t>"building = house", 2
-"building = hotel", 2
+          <t>"building = hotel", 2
 "tourism = guest_house", 6
+"building = house", 2
 "place = locality", 6</t>
         </is>
       </c>
@@ -3818,43 +3818,43 @@
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>"tourism = chalet", 46
+          <t>"amenity = shelter", 3
+"capacity = 6", 3
+"network = Den Norske Turistforening", 10
+"shelter_type = basic_hut", 3
+"tourism = wilderness_hut", 11
+"building = house", 2
+"capacity = 11", 2
+"dnt:classification = ubetjent", 11
+"dnt:lock = yes", 15
+"tourism = alpine_hut", 3
+"tourism = chalet", 46
+"amenity = cafe", 10
 "building = cabin", 8
-"ref:bygningsnr = 165795091", 2
-"ref:bygningsnr = 165767705", 2
+"capacity = 24", 2
+"dnt:classification = servering", 5
+"hiking = yes", 5
+"place = locality", 8
+"dnt:iid = 416", 2
+"dnt:iid = 417", 2
+"historic = shieling", 6
 "capacity = 4", 2
-"dnt:classification = ubetjent", 11
 "dnt:iid = 345", 2
-"dnt:lock = yes", 15
 "dog = no", 2
 "fee = yes", 4
-"historic = shieling", 6
-"network = Den Norske Turistforening", 10
-"tourism = wilderness_hut", 11
 "capacity = 32", 2
 "dnt:iid = 1489", 2
 "note:no = kystledhytte", 2
-"place = locality", 8
 "network = Den norske Turistforening", 2
 "building = yes", 4
 "capacity = 8", 2
 "dnt:iid = 251", 2
 "access = permit", 2
-"capacity = 6", 3
 "dnt:iid = 2019", 2
-"amenity = cafe", 10
 "ski = yes", 2
-"tourism = alpine_hut", 3
-"amenity = shelter", 3
-"shelter_type = basic_hut", 3
-"building = house", 2
-"capacity = 11", 2
-"amenity = restaurant", 2
-"capacity = 24", 2
-"dnt:classification = servering", 5
-"hiking = yes", 5
-"dnt:iid = 416", 2
-"dnt:iid = 417", 2</t>
+"ref:bygningsnr = 165795091", 2
+"ref:bygningsnr = 165767705", 2
+"amenity = restaurant", 2</t>
         </is>
       </c>
       <c r="L51" s="17" t="inlineStr">
@@ -4633,9 +4633,9 @@
       </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9
-"natural = beach", 9
-"type = multipolygon", 2</t>
+          <t>"natural = beach", 9
+"type = multipolygon", 2
+"place = locality", 9</t>
         </is>
       </c>
       <c r="L65" s="17" t="inlineStr">
@@ -4989,10 +4989,10 @@
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>"waterway = river", 153
+"layer = -1", 9
+"width = 2", 9
 "width = 3", 10
-"waterway = stream", 14
-"layer = -1", 9
-"width = 2", 9</t>
+"waterway = stream", 14</t>
         </is>
       </c>
       <c r="L71" s="17" t="inlineStr">
@@ -5051,12 +5051,12 @@
       <c r="K72" s="1" t="inlineStr">
         <is>
           <t>"waterway = stream", 398
+"layer = -1", 53
+"tunnel = culvert", 16
+"waterway = river", 50
 "width = 2", 79
 "width = 3", 24
-"waterway = river", 50
-"tunnel = culvert", 16
-"place = locality", 69
-"layer = -1", 53</t>
+"place = locality", 69</t>
         </is>
       </c>
       <c r="L72" s="17" t="inlineStr">
@@ -5165,8 +5165,8 @@
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>"waterway = waterfall", 7
-"natural = waterfall", 24
+          <t>"natural = waterfall", 24
+"waterway = waterfall", 7
 "place = locality", 7
 "water = waterfall", 2</t>
         </is>
@@ -5226,8 +5226,8 @@
       </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
-          <t>"waterway = rapids", 3
-"place = suburb", 2</t>
+          <t>"place = suburb", 2
+"waterway = rapids", 3</t>
         </is>
       </c>
       <c r="L75" s="17" t="inlineStr">
@@ -5348,11 +5348,11 @@
       </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 17
-"natural = water", 9
+          <t>"natural = water", 9
 "type = multipolygon", 3
 "water = pool", 5
-"water = pond", 2</t>
+"water = pond", 2
+"place = locality", 17</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5416,10 +5416,10 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"type = multipolygon", 10
-"natural = bay", 14
-"natural = water", 12
-"water = river", 6</t>
+          <t>"natural = water", 12
+"water = river", 6
+"type = multipolygon", 10
+"natural = bay", 14</t>
         </is>
       </c>
       <c r="L78" s="2" t="inlineStr">
@@ -5700,12 +5700,12 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>"ele:min = 431", 3
+          <t>"natural = water", 15
+"type = multipolygon", 15
+"water = lake", 12
+"ele:min = 431", 3
 "intermittent = no", 3
-"natural = water", 15
-"salt = no", 3
-"type = multipolygon", 15
-"water = lake", 12</t>
+"salt = no", 3</t>
         </is>
       </c>
       <c r="L83" s="17" t="inlineStr">
@@ -5886,8 +5886,8 @@
         <is>
           <t>"natural = water", 79
 "water = pond", 80
-"type = multipolygon", 10
-"place = locality", 3</t>
+"place = locality", 3
+"type = multipolygon", 10</t>
         </is>
       </c>
       <c r="L86" s="17" t="inlineStr">
@@ -6067,8 +6067,8 @@
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 6
+"water = lake", 3
 "place = locality", 2
-"water = lake", 3
 "type = multipolygon", 3</t>
         </is>
       </c>
@@ -6129,9 +6129,9 @@
       <c r="K90" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 75
-"place = locality", 13
 "water = lake", 52
-"type = multipolygon", 31</t>
+"type = multipolygon", 31
+"place = locality", 13</t>
         </is>
       </c>
       <c r="L90" s="17" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="K93" s="1" t="inlineStr">
         <is>
-          <t>"railway = halt", 7
-"train = yes", 4
-"disused:railway = halt", 2
+          <t>"disused:railway = halt", 2
 "railway:traffic_mode = passenger", 7
 "abandoned:railway = halt", 2
-"place = locality", 2</t>
+"place = locality", 2
+"train = yes", 4
+"railway = halt", 7</t>
         </is>
       </c>
       <c r="L93" s="17" t="inlineStr">
@@ -7096,19 +7096,19 @@
       </c>
       <c r="K109" s="1" t="inlineStr">
         <is>
-          <t>"note = Fyrlykt", 30
+          <t>"kystverket:information = FL/SC", 12
+"note = Fyrlykt", 30
 "seamark:type = light_minor", 31
 "source:seamark = Kystverket", 31
-"kystverket:information = FL/SC", 12
-"kystverket:information = 4-FL/NB", 2
-"kystverket:information = 4-FL/SC", 3
-"man_made = lighthouse", 3
 "kystverket:information = Lyktehus på søyle", 7
 "kystverket:information = FL/NB", 4
 "seamark:beacon:colour = white;black;white", 2
 "seamark:beacon:colour_pattern = horizontal", 2
 "seamark:beacon:shape = tower", 2
-"man_made = beacon", 6</t>
+"kystverket:information = 4-FL/SC", 3
+"man_made = beacon", 6
+"kystverket:information = 4-FL/NB", 2
+"man_made = lighthouse", 3</t>
         </is>
       </c>
       <c r="O109" s="17">
@@ -7651,13 +7651,9 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"is_in:continent = Europe", 2
-"is_in:country = Norway", 2
-"is_in:country_code = NO", 2
-"layer = -1", 7
-"place = locality", 2
+          <t>"layer = -1", 7
+"surface = paved", 2
 "tunnel = yes", 7
-"surface = paved", 2
 "electrified = contact_line", 3
 "frequency = 16.67", 3
 "gauge = 1435", 3
@@ -7667,7 +7663,11 @@
 "passenger_lines = 1", 3
 "railway = rail", 3
 "usage = main", 3
-"voltage = 15000", 3</t>
+"voltage = 15000", 3
+"is_in:continent = Europe", 2
+"is_in:country = Norway", 2
+"is_in:country_code = NO", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L120" s="17" t="inlineStr">
@@ -7707,28 +7707,28 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 43
+          <t>"layer = -1", 3
+"man_made = tunnel", 3
+"bridge = yes", 43
+"cycleway:both = no", 4
+"highway = primary", 15
+"layer = 1", 45
+"surface = asphalt", 8
+"lanes = 2", 6
+"maxweight:signed = no", 3
 "highway = secondary", 10
-"layer = 1", 45
+"highway = trunk", 2
+"surface = paved", 2
+"man_made = bridge", 27
 "tunnel = culvert", 6
 "waterway = stream", 7
-"man_made = bridge", 27
-"highway = primary", 15
-"lanes = 2", 6
-"surface = asphalt", 8
-"place = locality", 3
+"bridge:description = Dragbrua", 2
+"surface = gravel", 2
 "place = suburb", 2
-"layer = -1", 3
-"man_made = tunnel", 3
-"cycleway:both = no", 4
-"maxweight:signed = no", 3
-"highway = trunk", 2
-"surface = paved", 2
 "highway = residential", 2
 "highway = track", 2
-"bridge:description = Dragbrua", 2
-"surface = gravel", 2
-"old_ref = 158", 2</t>
+"old_ref = 158", 2
+"place = locality", 3</t>
         </is>
       </c>
       <c r="L121" s="17" t="inlineStr">
@@ -8320,9 +8320,9 @@
       </c>
       <c r="K133" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 15
+          <t>"place = isolated_dwelling", 2
 "man_made = quay", 13
-"place = isolated_dwelling", 2</t>
+"place = locality", 15</t>
         </is>
       </c>
       <c r="L133" s="17" t="inlineStr">
@@ -8664,10 +8664,10 @@
       </c>
       <c r="K139" s="1" t="inlineStr">
         <is>
-          <t>"leisure = marina", 2
-"place = locality", 2
+          <t>"place = locality", 2
 "natural = beach", 2
-"surface = sand", 2</t>
+"surface = sand", 2
+"leisure = marina", 2</t>
         </is>
       </c>
       <c r="L139" s="17" t="inlineStr">
@@ -8730,11 +8730,11 @@
       </c>
       <c r="K140" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 2
+          <t>"landuse = harbour", 3
+"leisure = marina", 2
 "place = locality", 3
-"landuse = harbour", 3
 "seamark:type = harbour", 3
-"leisure = marina", 2</t>
+"place = hamlet", 2</t>
         </is>
       </c>
       <c r="L140" s="17" t="inlineStr">
@@ -8793,9 +8793,9 @@
       </c>
       <c r="K141" s="1" t="inlineStr">
         <is>
-          <t>"historic = yes", 76
+          <t>"mooring = yes", 5
 "place = locality", 77
-"mooring = yes", 5</t>
+"historic = yes", 76</t>
         </is>
       </c>
       <c r="L141" s="17" t="inlineStr">
@@ -8985,8 +8985,8 @@
         <is>
           <t>"highway = track", 12
 "tracktype = grade3", 2
-"place = locality", 5
-"tracktype = grade4", 2</t>
+"tracktype = grade4", 2
+"place = locality", 5</t>
         </is>
       </c>
       <c r="L144" s="9" t="inlineStr">
@@ -9049,11 +9049,11 @@
       </c>
       <c r="K145" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 15
-"highway = path", 38
+          <t>"highway = path", 38
 "sac_scale = hiking", 6
 "mtb:scale = 1", 2
-"trail_visibility = excellent", 3</t>
+"trail_visibility = excellent", 3
+"place = locality", 15</t>
         </is>
       </c>
       <c r="L145" s="9" t="inlineStr">
@@ -9777,56 +9777,56 @@
       <c r="K159" s="1" t="inlineStr">
         <is>
           <t>"amenity = place_of_worship", 85
-"architect = J.W.Nordan", 4
+"denomination = lutheran", 85
+"diocese = Stavanger", 12
+"religion = christian", 85
+"toilets = no", 8
+"toilets:wheelchair = no", 5
 "building = church", 81
-"capacity = 200", 9
-"deanery = Vest-Nedenes", 4
-"denomination = lutheran", 85
-"diocese = Agder og Telemark", 49
-"heritage = yes", 42
-"note = Soknekirke", 34
-"religion = christian", 85
-"capacity = 350", 6
-"toilets = yes", 38
-"deanery = Lister", 4
-"hearing_aids = yes", 12
-"toilets:wheelchair = yes", 7
-"wheelchair = yes", 9
-"capacity = 170", 3
-"parish = Farsund", 3
-"capacity = 500", 8
-"toilets = no", 8
-"capacity = 400", 3
-"deanery = Otredal", 20
-"parish = Evje og Hornnes", 4
-"capacity = 300", 5
-"diocese = Stavanger", 12
-"toilets:wheelchair = no", 5
 "capacity = 700", 3
 "deanery = Ytre Stavanger", 4
 "note = Soknekirke/arbeidskirke", 9
+"toilets = yes", 38
 "deanery = Stavanger Domprosti", 6
+"note = Soknekirke", 34
+"capacity = 300", 5
 "capacity = 430", 3
 "capacity = 450", 6
+"capacity = 400", 3
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"deanery = Aust-Nedenes", 16
-"parish = Åmli", 3
+"capacity = 500", 8
 "parish = Gildeskål", 3
 "capacity = 250", 7
 "diocese = Tunsberg", 13
-"architect = J.H.Nissen", 3
-"architect = Linstow type / Anders Thorsen Syrtveit", 9
-"parish = Valle og Hylestad", 3
-"parish = Bykle", 3
-"parish = Bygland", 6
 "deanery = Kongsberg", 7
 "parish = Kongsberg og Jondalen", 3
+"hearing_aids = yes", 12
 "note = Prostikirke", 3
 "capacity = 150", 3
+"architect = J.W.Nordan", 4
+"capacity = 170", 3
+"toilets:wheelchair = yes", 7
+"wheelchair = yes", 9
+"capacity = 200", 9
+"deanery = Lier", 4
+"deanery = Aust-Nedenes", 16
+"diocese = Agder og Telemark", 49
+"heritage = yes", 42
+"architect = J.H.Nissen", 3
 "deanery = Mandal", 3
-"deanery = Lier", 4
-"parish = Holt", 4</t>
+"deanery = Lister", 4
+"parish = Farsund", 3
+"capacity = 350", 6
+"parish = Holt", 4
+"deanery = Vest-Nedenes", 4
+"parish = Åmli", 3
+"architect = Linstow type / Anders Thorsen Syrtveit", 9
+"deanery = Otredal", 20
+"parish = Evje og Hornnes", 4
+"parish = Bygland", 6
+"parish = Valle og Hylestad", 3
+"parish = Bykle", 3</t>
         </is>
       </c>
       <c r="L159" s="17" t="inlineStr">
@@ -9889,8 +9889,8 @@
       </c>
       <c r="K160" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 4
-"amenity = community_centre", 12
+          <t>"amenity = community_centre", 12
+"place = isolated_dwelling", 4
 "building = civic", 4</t>
         </is>
       </c>
@@ -10082,8 +10082,8 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2
-"tourism = museum", 2</t>
+          <t>"tourism = museum", 2
+"place = isolated_dwelling", 2</t>
         </is>
       </c>
       <c r="L163" s="17" t="inlineStr">
@@ -10232,11 +10232,11 @@
       </c>
       <c r="K166" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
-"tourism = attraction", 4
-"historic = memorial", 3
+          <t>"tourism = attraction", 4
 "tourism = museum", 2
-"type = multipolygon", 2</t>
+"type = multipolygon", 2
+"place = locality", 2
+"historic = memorial", 3</t>
         </is>
       </c>
       <c r="L166" s="17" t="inlineStr">
@@ -10572,10 +10572,10 @@
       <c r="K172" s="1" t="inlineStr">
         <is>
           <t>"landuse = meadow", 19
+"type = multipolygon", 4
 "place = locality", 24
 "natural = wetland", 2
-"wetland = bog", 2
-"type = multipolygon", 4</t>
+"wetland = bog", 2</t>
         </is>
       </c>
       <c r="L172" s="17" t="inlineStr">
@@ -10633,9 +10633,9 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 152
-"landuse = farmland", 41
-"type = multipolygon", 19</t>
+          <t>"landuse = farmland", 41
+"type = multipolygon", 19
+"place = locality", 152</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 6
+          <t>"building = farm_auxiliary", 4
+"historic = shieling", 85
+"landuse = meadow", 8
 "place = locality", 92
-"historic = shieling", 85
 "place = isolated_dwelling", 3
-"building = farm_auxiliary", 4
-"landuse = meadow", 8</t>
+"place = farm", 6</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
@@ -10824,8 +10824,8 @@
       </c>
       <c r="K176" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 7
-"place = locality", 8</t>
+          <t>"place = locality", 8
+"historic = shieling", 7</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
@@ -11099,8 +11099,8 @@
       </c>
       <c r="K181" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 19
-"natural = scree", 66</t>
+          <t>"natural = scree", 66
+"place = locality", 19</t>
         </is>
       </c>
       <c r="L181" s="17" t="inlineStr">
@@ -11393,10 +11393,10 @@
       </c>
       <c r="K187" s="1" t="inlineStr">
         <is>
-          <t>"landuse = quarry", 2
-"historic = mine", 7
+          <t>"historic = mine", 7
 "resource = silver", 3
-"place = locality", 2</t>
+"place = locality", 2
+"landuse = quarry", 2</t>
         </is>
       </c>
       <c r="L187" s="17" t="inlineStr">
@@ -11563,10 +11563,10 @@
       </c>
       <c r="K190" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 76
-"place = farm", 4
-"natural = wood", 19
-"type = multipolygon", 6</t>
+          <t>"natural = wood", 19
+"type = multipolygon", 6
+"place = locality", 76
+"place = farm", 4</t>
         </is>
       </c>
       <c r="M190" s="12" t="inlineStr">
@@ -11682,8 +11682,8 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"natural = wetland", 569
-"place = locality", 424
+          <t>"place = locality", 424
+"natural = wetland", 569
 "wetland = bog", 252
 "type = multipolygon", 93</t>
         </is>
@@ -12521,13 +12521,13 @@
         <is>
           <t>"boundary = protected_area", 5
 "leisure = nature_reserve", 5
+"type = boundary", 4
 "naturbase:url = https://faktaark.naturbase.no/?id=VV00001832", 3
 "naturbase:verneform = Naturreservat", 4
 "naturbase:verneplan = Skog", 3
 "protect_class = 1a", 4
 "ref:naturvern = VV00001832", 3
-"related_law = https://lovdata.no/forskrift/2008-12-19-1448", 3
-"type = boundary", 4</t>
+"related_law = https://lovdata.no/forskrift/2008-12-19-1448", 3</t>
         </is>
       </c>
       <c r="L209" s="17" t="inlineStr">
@@ -13115,10 +13115,10 @@
       </c>
       <c r="K220" s="1" t="inlineStr">
         <is>
-          <t>"seamark:type = rock", 83
+          <t>"natural = rock", 343
+"seamark:type = rock", 83
+"place = islet", 397
 "natural = coastline", 328
-"place = islet", 397
-"natural = rock", 343
 "natural = shoal", 51</t>
         </is>
       </c>
@@ -13182,9 +13182,9 @@
       </c>
       <c r="K221" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 45
-"seamark:type = rock", 45
-"natural = rock", 2</t>
+          <t>"natural = rock", 2
+"place = locality", 45
+"seamark:type = rock", 45</t>
         </is>
       </c>
       <c r="L221" s="17" t="inlineStr">
@@ -13784,13 +13784,13 @@
       </c>
       <c r="K231" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2
-"place = hamlet", 2
-"place = locality", 33
+          <t>"place = locality", 33
 "natural = beach", 47
+"type = multipolygon", 8
+"place = isolated_dwelling", 2
+"layer = 2", 3
 "surface = sand", 9
-"type = multipolygon", 8
-"layer = 2", 3</t>
+"place = hamlet", 2</t>
         </is>
       </c>
       <c r="L231" s="17" t="inlineStr">
@@ -13908,10 +13908,10 @@
       </c>
       <c r="K233" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 12
+          <t>"place = archipelago", 2
+"place = island", 6
+"natural = coastline", 12
 "place = islet", 11
-"place = archipelago", 2
-"place = island", 6
 "natural = cape", 2
 "type = multipolygon", 2</t>
         </is>
@@ -14977,9 +14977,9 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 300
-"place = locality", 265
-"natural = peak", 48</t>
+          <t>"natural = peak", 48
+"natural = hill", 300
+"place = locality", 265</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15047,10 +15047,10 @@
       </c>
       <c r="K261" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 168
-"place = locality", 252
+          <t>"man_made = survey_point", 18
 "natural = peak", 237
-"man_made = survey_point", 18</t>
+"natural = hill", 168
+"place = locality", 252</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15118,9 +15118,9 @@
       </c>
       <c r="K262" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1010
-"place = locality", 1017
-"natural = heath", 58</t>
+          <t>"natural = heath", 58
+"natural = hill", 1010
+"place = locality", 1017</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15328,10 +15328,10 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 105
-"natural = hill", 54
+          <t>"natural = hill", 54
 "natural = ridge", 171
-"natural = peak", 7</t>
+"natural = peak", 7
+"place = locality", 105</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15394,9 +15394,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1136
-"place = locality", 870
-"natural = peak", 129</t>
+          <t>"natural = peak", 129
+"natural = hill", 1136
+"place = locality", 870</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15459,8 +15459,8 @@
       </c>
       <c r="K267" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 5
-"natural = peak", 24</t>
+          <t>"natural = peak", 24
+"natural = hill", 5</t>
         </is>
       </c>
       <c r="L267" s="17" t="inlineStr">
@@ -15717,8 +15717,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 1152
-"place = locality", 839</t>
+          <t>"place = locality", 839
+"natural = valley", 1152</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15781,8 +15781,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 83
-"natural = valley", 80</t>
+          <t>"natural = valley", 80
+"place = locality", 83</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -788,17 +788,26 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 33
-"source:population = SSB - befolkning i tettstedet", 39
-"place = city", 12
+          <t>"place = town", 41
+"source:population = SSB - befolkning i tettstedet", 48
+"place = city", 13
 "ref:ssb_tettsted = 2562", 2
 "ref:ssb_tettsted = 2511", 2
 "ref:ssb_tettsted = 2603", 2
 "ref:ssb_tettsted = 2501", 2
 "ref:ssb_tettsted = 2521", 2
 "ref:ssb_tettsted = 2531", 2
+"ref:ssb_tettsted = 2541", 2
+"ref:ssb_tettsted = 2551", 2
+"ref:ssb_tettsted = 3005-3806", 2
 "ref:ssb_tettsted = 3005-3807", 2
-"ref:ssb_tettsted = 3531", 2</t>
+"ref:ssb_tettsted = 3021", 2
+"ref:ssb_tettsted = 3005-3813", 2
+"ref:ssb_tettsted = 3054", 2
+"ref:ssb_tettsted = 3102", 2
+"ref:ssb_tettsted = 3501", 2
+"ref:ssb_tettsted = 3531", 2
+"ref:ssb_tettsted = 4091", 2</t>
         </is>
       </c>
       <c r="L2" s="17" t="inlineStr">
@@ -840,7 +849,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>746</v>
+        <v>828</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -862,13 +871,13 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 171
-"source:population = SSB - befolkning i tettstedet", 111
-"place = town", 8
-"place = suburb", 38
-"place = hamlet", 13
-"place = quarter", 23
-"place = neighbourhood", 13</t>
+          <t>"place = village", 190
+"source:population = SSB - befolkning i tettstedet", 126
+"place = town", 9
+"place = suburb", 42
+"place = hamlet", 14
+"place = quarter", 25
+"place = neighbourhood", 15</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -904,7 +913,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>769</v>
+        <v>911</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -926,12 +935,12 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 68
-"source:population = SSB - befolkning i tettstedet", 36
-"place = neighbourhood", 136
-"place = suburb", 72
-"place = hamlet", 37
-"place = quarter", 56</t>
+          <t>"place = village", 78
+"source:population = SSB - befolkning i tettstedet", 41
+"place = neighbourhood", 164
+"place = suburb", 87
+"place = hamlet", 46
+"place = quarter", 64</t>
         </is>
       </c>
       <c r="L4" s="17" t="inlineStr">
@@ -978,7 +987,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1465</v>
+        <v>1733</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1000,11 +1009,11 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 188
-"place = hamlet", 128
-"place = suburb", 16
-"source:population = SSB - befolkning i tettstedet", 25
-"place = neighbourhood", 12</t>
+          <t>"place = village", 215
+"place = hamlet", 141
+"place = suburb", 19
+"source:population = SSB - befolkning i tettstedet", 31
+"place = neighbourhood", 18</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1050,7 +1059,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2391</v>
+        <v>2780</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1072,10 +1081,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 615
-"place = neighbourhood", 46
-"place = farm", 29
-"place = village", 28</t>
+          <t>"place = hamlet", 711
+"place = neighbourhood", 55
+"place = farm", 37
+"place = village", 32</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1111,7 +1120,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2218</v>
+        <v>2608</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1133,9 +1142,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 668
-"place = suburb", 38
-"place = quarter", 169</t>
+          <t>"place = neighbourhood", 760
+"place = suburb", 45
+"place = quarter", 192</t>
         </is>
       </c>
       <c r="L7" s="17" t="inlineStr">
@@ -1171,7 +1180,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1193,15 +1202,17 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"landuse = industrial", 41
-"type = multipolygon", 8
-"place = quarter", 18
+          <t>"landuse = industrial", 43
+"type = multipolygon", 9
+"place = quarter", 20
 "place = locality", 25
-"place = suburb", 5
+"place = suburb", 7
 "natural = cape", 2
 "building = industrial", 4
 "man_made = wastewater_plant", 2
-"place = neighbourhood", 29
+"place = neighbourhood", 39
+"place = farm", 2
+"place = isolated_dwelling", 2
 "ref:bygningsnr = 166261902", 2</t>
         </is>
       </c>
@@ -1238,7 +1249,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1260,10 +1271,9 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 97
-"place = neighbourhood", 10
-"landuse = residential", 3
-"place = quarter", 15
+          <t>"place = suburb", 113
+"place = neighbourhood", 12
+"place = quarter", 21
 "place = village", 4</t>
         </is>
       </c>
@@ -1300,7 +1310,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>630</v>
+        <v>797</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1322,8 +1332,9 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 150
-"landuse = residential", 7</t>
+          <t>"place = neighbourhood", 169
+"place = quarter", 9
+"landuse = residential", 6</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1359,7 +1370,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1381,7 +1392,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 28</t>
+          <t>"place = square", 40</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1417,7 +1428,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1529,7 +1540,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1539,7 +1550,8 @@
       <c r="J14" s="12" t="n"/>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3</t>
+          <t>"place = locality", 2
+"place = isolated_dwelling", 2</t>
         </is>
       </c>
       <c r="M14" s="12" t="inlineStr">
@@ -1575,7 +1587,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>19</v>
@@ -1633,7 +1645,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8110</v>
+        <v>9750</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1655,8 +1667,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2812
-"place = farm", 520</t>
+          <t>"place = isolated_dwelling", 3331
+"place = farm", 568</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1697,7 +1709,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10810</v>
+        <v>12545</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1719,10 +1731,10 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 938
-"place = isolated_dwelling", 4564
-"place = locality", 265
-"historic = shieling", 581</t>
+          <t>"building = cabin", 1121
+"place = isolated_dwelling", 5173
+"place = locality", 293
+"historic = shieling", 673</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1758,7 +1770,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8424</v>
+        <v>10027</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1780,9 +1792,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4605
-"historic = shieling", 827
-"historic = ruins", 666</t>
+          <t>"place = locality", 5476
+"historic = shieling", 1001
+"historic = ruins", 733</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1824,7 +1836,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>3</v>
@@ -1844,12 +1856,7 @@
           <t>Stort boligbygg med 2 eller flere etasjer hvor det er 5 eller flere boligenheter</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
-        <is>
-          <t>"building = apartments", 2
-"ref:bygningsnr = 300264746", 2</t>
-        </is>
-      </c>
+      <c r="K19" s="1" t="inlineStr"/>
       <c r="L19" s="17" t="inlineStr">
         <is>
           <t>building=apartments</t>
@@ -1884,7 +1891,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1906,7 +1913,7 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 27
+          <t>"leisure = park", 30
 "natural = wood", 3
 "type = multipolygon", 3</t>
         </is>
@@ -1944,7 +1951,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -1966,10 +1973,11 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"leisure = sports_centre", 20
-"building = sports_centre", 4
+          <t>"leisure = sports_centre", 21
+"building = sports_centre", 5
 "sport = multi", 2
 "building = yes", 2
+"ref:bygningsnr = 8628955", 2
 "amenity = sports_centre", 2
 "place = locality", 2</t>
         </is>
@@ -2007,7 +2015,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>524</v>
+        <v>627</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2029,18 +2037,24 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>"leisure = pitch", 70
-"sport = soccer", 28
-"type = multipolygon", 6
+          <t>"leisure = pitch", 73
+"sport = soccer", 32
+"type = multipolygon", 7
 "sport = horse_racing", 6
-"place = locality", 17
+"place = locality", 19
 "amenity = parking", 2
-"leisure = sports_centre", 8
+"leisure = sports_centre", 9
+"building = public", 2
+"building:levels = 3", 2
+"sport = swimming;basketball;volleyball;handball", 2
 "building = yes", 2
+"surface = grass", 4
 "area = no", 2
 "leisure = track", 3
-"surface = grass", 3
-"piste:type = ski_jump", 4</t>
+"landuse = recreation_ground", 2
+"piste:type = ski_jump", 6
+"abandoned:piste:type = ski_jump", 2
+"place = neighbourhood", 2</t>
         </is>
       </c>
       <c r="L22" s="17" t="inlineStr">
@@ -2076,7 +2090,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>24</v>
@@ -2135,7 +2149,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2159,7 +2173,7 @@
         <is>
           <t>"landuse = winter_sports", 2
 "piste:type = downhill", 2
-"place = locality", 3</t>
+"place = locality", 4</t>
         </is>
       </c>
       <c r="L24" s="17" t="inlineStr">
@@ -2195,7 +2209,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2217,11 +2231,11 @@
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>"leisure = swimming_area", 16
-"place = locality", 20
+          <t>"leisure = swimming_area", 20
+"place = locality", 23
 "natural = beach", 10
 "surface = sand", 10
-"layer = 2", 3</t>
+"layer = 2", 4</t>
         </is>
       </c>
       <c r="L25" s="17" t="inlineStr">
@@ -2267,7 +2281,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>12</v>
@@ -2322,7 +2336,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>78235</v>
+        <v>90149</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2344,7 +2358,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 24723</t>
+          <t>"place = farm", 27435</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2385,7 +2399,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15988</v>
+        <v>18823</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2407,9 +2421,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 5078
-"place = locality", 4250
-"place = isolated_dwelling", 841</t>
+          <t>"historic = shieling", 6028
+"place = locality", 5010
+"place = isolated_dwelling", 1042</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2450,7 +2464,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2023</v>
+        <v>2316</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2472,9 +2486,9 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 195
-"place = locality", 1007
-"historic = shieling", 170</t>
+          <t>"building = farm_auxiliary", 209
+"place = locality", 1098
+"historic = shieling", 174</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2510,7 +2524,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3079</v>
+        <v>3558</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2532,10 +2546,10 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 886
-"place = farm", 96
+          <t>"place = locality", 940
+"place = farm", 132
 "place = isolated_dwelling", 52
-"historic = shieling", 43</t>
+"historic = shieling", 47</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2571,7 +2585,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>80</v>
@@ -2630,7 +2644,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>31070</v>
+        <v>35676</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2652,8 +2666,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 8802
-"place = hamlet", 1615</t>
+          <t>"place = farm", 9745
+"place = hamlet", 1835</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2699,7 +2713,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2408</v>
+        <v>2914</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2721,8 +2735,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 305
-"place = hamlet", 460</t>
+          <t>"place = farm", 312
+"place = hamlet", 525</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2757,7 +2771,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2836,7 +2850,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1671</v>
+        <v>1915</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2858,26 +2872,26 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>"building = school", 21
-"amenity = school", 133
-"fee = no", 99
-"grades = 1-7", 50
-"isced:level = 1", 54
-"operator:type = public", 99
-"grades = 1-10", 21
-"isced:level = 1;2", 28
-"place = locality", 43
+          <t>"building = school", 23
+"amenity = school", 146
+"fee = no", 108
+"grades = 1-7", 53
+"isced:level = 1", 57
+"operator:type = public", 108
+"grades = 1-10", 25
+"isced:level = 1;2", 32
+"place = locality", 48
 "was:amenity = school", 7
-"grades = 8-10", 11
-"isced:level = 2", 11
-"building = civic", 23
-"fee = yes", 9
-"operator:type = private", 9
-"building = house", 7
-"building = kindergarten", 8
-"grades = 11-13", 15
-"isced:level = 3", 15
-"disused:amenity = school", 5</t>
+"grades = 8-10", 13
+"isced:level = 2", 13
+"building = civic", 27
+"fee = yes", 11
+"operator:type = private", 11
+"building = house", 9
+"building = kindergarten", 11
+"grades = 11-13", 17
+"isced:level = 3", 17
+"disused:amenity = school", 7</t>
         </is>
       </c>
       <c r="L36" s="17" t="inlineStr">
@@ -2913,7 +2927,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>88</v>
@@ -2935,8 +2949,9 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>"amenity = hospital", 10
-"healthcare = hospital", 2</t>
+          <t>"amenity = hospital", 11
+"emergency = yes", 2
+"healthcare = hospital", 3</t>
         </is>
       </c>
       <c r="L37" s="17" t="inlineStr">
@@ -2972,7 +2987,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -2994,16 +3009,11 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 72
-"place = isolated_dwelling", 2
+          <t>"amenity = nursing_home", 78
 "place = locality", 6
 "amenity = social_facility", 3
-"building = public", 2
 "building = yes", 3
-"healthcare = yes", 2
-"building = civic", 3
-"ref:bygningsnr = 165595157", 2
-"social_facility = group_home", 2</t>
+"building = civic", 3</t>
         </is>
       </c>
       <c r="L38" s="17" t="inlineStr">
@@ -3039,7 +3049,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3100,7 +3110,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>67</v>
@@ -3124,7 +3134,8 @@
         <is>
           <t>"landuse = military", 9
 "natural = bay", 2
-"place = neighbourhood", 3</t>
+"place = locality", 2
+"place = neighbourhood", 2</t>
         </is>
       </c>
       <c r="L40" s="17" t="inlineStr">
@@ -3160,7 +3171,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3182,7 +3193,7 @@
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>"amenity = kindergarten", 4
+          <t>"amenity = kindergarten", 5
 "barrier = fence", 2
 "capacity = 56", 2
 "max_age = 5", 3
@@ -3224,7 +3235,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>65</v>
@@ -3246,8 +3257,9 @@
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>"amenity = townhall", 5
-"wheelchair = yes", 2</t>
+          <t>"amenity = townhall", 4
+"wheelchair = yes", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L42" s="17" t="inlineStr">
@@ -3283,7 +3295,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>28</v>
@@ -3451,7 +3463,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3473,12 +3485,13 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"industrial = factory", 46
-"building = industrial", 36
-"place = locality", 21
+          <t>"industrial = factory", 49
+"building = industrial", 38
+"place = locality", 25
 "landuse = industrial", 15
-"place = neighbourhood", 9
+"place = neighbourhood", 10
 "industrial = shipyard", 2
+"ref:bygningsnr = 8563357", 2
 "ref:bygningsnr = 23042452", 2
 "ref:bygningsnr = 165574125", 2
 "ref:bygningsnr = 8612811", 2
@@ -3490,7 +3503,8 @@
 "ref:bygningsnr = 140572462", 2
 "type = multipolygon", 3
 "ref:bygningsnr = 8997497", 2
-"ref:bygningsnr = 169092559", 2</t>
+"ref:bygningsnr = 169092559", 2
+"ref:bygningsnr = 169664846", 2</t>
         </is>
       </c>
       <c r="L46" s="17" t="inlineStr">
@@ -3526,7 +3540,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3548,22 +3562,31 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"building = industrial", 46
-"ref:bygningsnr = 157458736", 2
+          <t>"building = industrial", 56
+"place = locality", 17
 "ref:bygningsnr = 8451478", 2
-"place = locality", 11
+"ref:bygningsnr = 8560013", 2
 "ref:bygningsnr = 165283686", 2
+"ref:bygningsnr = 17711024", 2
 "ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165783034", 2
 "ref:bygningsnr = 165781120", 2
+"ref:bygningsnr = 165771508", 2
 "ref:bygningsnr = 165894626", 2
 "ref:bygningsnr = 165921429", 2
 "building = yes", 2
 "ref:bygningsnr = 166020549", 2
-"place = neighbourhood", 2
+"place = neighbourhood", 4
+"ref:bygningsnr = 166232686", 2
+"ref:bygningsnr = 166226023", 2
+"ref:bygningsnr = 166225922", 2
 "ref:bygningsnr = 166255279", 2
+"ref:bygningsnr = 8671281", 2
+"ref:bygningsnr = 166301742", 2
+"ref:bygningsnr = 166280877", 2
 "ref:bygningsnr = 300204274", 2
-"ref:bygningsnr = 169058776", 2</t>
+"ref:bygningsnr = 169058776", 2
+"ref:bygningsnr = 169721165", 2</t>
         </is>
       </c>
       <c r="L47" s="17" t="inlineStr">
@@ -3599,7 +3622,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3624,13 +3647,13 @@
           <t>"shop = mall", 2
 "building = office", 2
 "building = commercial", 13
-"place = locality", 5
+"place = locality", 8
 "place = isolated_dwelling", 3
-"amenity = cafe", 2
+"amenity = cafe", 3
+"place = neighbourhood", 4
+"place = quarter", 3
 "ref:bygningsnr = 8428425", 2
 "ref:bygningsnr = 8401365", 2
-"place = quarter", 2
-"place = neighbourhood", 2
 "building = religious", 2
 "ref:bygningsnr = 164431983", 2
 "place = farm", 2
@@ -3672,7 +3695,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3694,9 +3717,10 @@
       </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
-          <t>"tourism = hotel", 14
-"building = hotel", 10
-"place = locality", 8
+          <t>"tourism = hotel", 17
+"building = hotel", 11
+"place = locality", 10
+"tourism = chalet", 2
 "ref:bygningsnr = 8667314", 2
 "tourism = apartment", 2
 "ref:bygningsnr = 166214432", 2</t>
@@ -3735,7 +3759,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3758,9 +3782,12 @@
       <c r="K50" s="1" t="inlineStr">
         <is>
           <t>"building = hotel", 2
-"tourism = guest_house", 6
+"tourism = guest_house", 7
 "building = house", 2
-"place = locality", 6</t>
+"place = locality", 6
+"place = hamlet", 2
+"building = yes", 2
+"ref:bygningsnr = 165884418", 2</t>
         </is>
       </c>
       <c r="L50" s="17" t="inlineStr">
@@ -3796,7 +3823,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>782</v>
+        <v>926</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3827,10 +3854,10 @@
 "capacity = 11", 2
 "dnt:classification = ubetjent", 11
 "dnt:lock = yes", 15
-"tourism = alpine_hut", 3
+"tourism = alpine_hut", 4
 "tourism = chalet", 46
-"amenity = cafe", 10
-"building = cabin", 8
+"amenity = cafe", 11
+"building = cabin", 9
 "capacity = 24", 2
 "dnt:classification = servering", 5
 "hiking = yes", 5
@@ -3854,6 +3881,7 @@
 "ski = yes", 2
 "ref:bygningsnr = 165795091", 2
 "ref:bygningsnr = 165767705", 2
+"ref:bygningsnr = 165906551", 2
 "amenity = restaurant", 2</t>
         </is>
       </c>
@@ -3895,7 +3923,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -3917,7 +3945,7 @@
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>"tourism = camp_site", 12</t>
+          <t>"tourism = camp_site", 14</t>
         </is>
       </c>
       <c r="L52" s="17" t="inlineStr">
@@ -3953,7 +3981,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>4</v>
@@ -4011,7 +4039,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4142,7 +4170,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4164,7 +4192,7 @@
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 8</t>
+          <t>"place = locality", 9</t>
         </is>
       </c>
       <c r="M57" s="12" t="inlineStr">
@@ -4200,7 +4228,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>732</v>
+        <v>923</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4222,7 +4250,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 54
+          <t>"natural = strait", 49
 "place = locality", 4</t>
         </is>
       </c>
@@ -4259,7 +4287,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5145</v>
+        <v>6246</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4281,7 +4309,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 202</t>
+          <t>"natural = bay", 219</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4317,7 +4345,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>949</v>
+        <v>1160</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4339,8 +4367,8 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 82
-"place = islet", 4</t>
+          <t>"place = island", 76
+"place = islet", 5</t>
         </is>
       </c>
       <c r="L60" s="17" t="inlineStr">
@@ -4376,7 +4404,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2894</v>
+        <v>3512</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4398,9 +4426,8 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 116
-"natural = wood", 17
-"leaf_type = needleleaved", 4</t>
+          <t>"natural = wood", 21
+"place = islet", 128</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4436,7 +4463,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4458,7 +4485,7 @@
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 28</t>
+          <t>"natural = cape", 32</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4494,7 +4521,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6561</v>
+        <v>7978</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4516,7 +4543,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 272</t>
+          <t>"natural = cape", 304</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4552,7 +4579,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4611,7 +4638,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>704</v>
+        <v>840</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4633,9 +4660,9 @@
       </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 9
+          <t>"natural = beach", 10
 "type = multipolygon", 2
-"place = locality", 9</t>
+"place = locality", 10</t>
         </is>
       </c>
       <c r="L65" s="17" t="inlineStr">
@@ -4672,7 +4699,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>73</v>
@@ -4730,7 +4757,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>399</v>
@@ -4752,7 +4779,8 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 4</t>
+          <t>"place = islet", 4
+"natural = shoal", 2</t>
         </is>
       </c>
       <c r="L67" s="17" t="inlineStr">
@@ -4849,7 +4877,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -4912,7 +4940,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>32</v>
@@ -4966,7 +4994,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6790</v>
+        <v>7834</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -4988,11 +5016,11 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 153
+          <t>"waterway = river", 170
 "layer = -1", 9
-"width = 2", 9
+"width = 2", 10
 "width = 3", 10
-"waterway = stream", 14</t>
+"waterway = stream", 17</t>
         </is>
       </c>
       <c r="L71" s="17" t="inlineStr">
@@ -5028,7 +5056,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>31327</v>
+        <v>36718</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5050,13 +5078,13 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 398
-"layer = -1", 53
+          <t>"waterway = stream", 396
+"layer = -1", 51
 "tunnel = culvert", 16
-"waterway = river", 50
+"waterway = river", 55
 "width = 2", 79
 "width = 3", 24
-"place = locality", 69</t>
+"place = locality", 62</t>
         </is>
       </c>
       <c r="L72" s="17" t="inlineStr">
@@ -5143,7 +5171,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2422</v>
+        <v>2870</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5204,7 +5232,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>461</v>
@@ -5268,7 +5296,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>752</v>
+        <v>859</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5290,7 +5318,7 @@
       </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 6</t>
+          <t>"natural = bay", 4</t>
         </is>
       </c>
       <c r="L76" s="17" t="inlineStr">
@@ -5326,7 +5354,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1812</v>
+        <v>2171</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5348,11 +5376,11 @@
       </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 9
+          <t>"natural = water", 10
 "type = multipolygon", 3
 "water = pool", 5
-"water = pond", 2
-"place = locality", 17</t>
+"water = pond", 3
+"place = locality", 18</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5394,7 +5422,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1205</v>
+        <v>1451</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5416,10 +5444,10 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 12
-"water = river", 6
+          <t>"natural = water", 11
+"water = river", 5
 "type = multipolygon", 10
-"natural = bay", 14</t>
+"natural = bay", 15</t>
         </is>
       </c>
       <c r="L78" s="2" t="inlineStr">
@@ -5455,7 +5483,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>15</v>
@@ -5509,7 +5537,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5531,7 +5559,7 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 19</t>
+          <t>"natural = cape", 20</t>
         </is>
       </c>
       <c r="L80" s="17" t="inlineStr">
@@ -5568,7 +5596,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5678,7 +5706,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5700,8 +5728,8 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 15
-"type = multipolygon", 15
+          <t>"natural = water", 16
+"type = multipolygon", 16
 "water = lake", 12
 "ele:min = 431", 3
 "intermittent = no", 3
@@ -5741,7 +5769,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9454</v>
+        <v>10952</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5763,9 +5791,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 346
-"type = multipolygon", 255
-"water = lake", 220
+          <t>"natural = water", 388
+"type = multipolygon", 294
+"water = lake", 258
 "water = reservoir", 17</t>
         </is>
       </c>
@@ -5802,7 +5830,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>40905</v>
+        <v>48707</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5824,9 +5852,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 2395
-"type = multipolygon", 1124
-"water = lake", 768</t>
+          <t>"natural = water", 2630
+"type = multipolygon", 1273
+"water = lake", 859</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5862,7 +5890,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>951</v>
+        <v>1194</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -5884,8 +5912,8 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 79
-"water = pond", 80
+          <t>"natural = water", 84
+"water = pond", 85
 "place = locality", 3
 "type = multipolygon", 10</t>
         </is>
@@ -5923,7 +5951,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>601</v>
+        <v>757</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -5983,7 +6011,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6007,7 +6035,7 @@
         <is>
           <t>"natural = bay", 2
 "natural = water", 3
-"place = locality", 6</t>
+"place = locality", 5</t>
         </is>
       </c>
       <c r="L88" s="17" t="inlineStr">
@@ -6044,7 +6072,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6106,7 +6134,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1856</v>
+        <v>2118</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6128,10 +6156,10 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 75
-"water = lake", 52
-"type = multipolygon", 31
-"place = locality", 13</t>
+          <t>"natural = water", 96
+"water = lake", 63
+"type = multipolygon", 42
+"place = locality", 14</t>
         </is>
       </c>
       <c r="L90" s="17" t="inlineStr">
@@ -6200,7 +6228,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6269,7 +6297,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6463,7 +6491,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -6866,7 +6894,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G105" s="12" t="n">
         <v>120</v>
@@ -7020,7 +7048,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>98</v>
@@ -7074,7 +7102,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1735</v>
+        <v>1988</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>2333</v>
@@ -7097,9 +7125,9 @@
       <c r="K109" s="1" t="inlineStr">
         <is>
           <t>"kystverket:information = FL/SC", 12
-"note = Fyrlykt", 30
-"seamark:type = light_minor", 31
-"source:seamark = Kystverket", 31
+"note = Fyrlykt", 31
+"seamark:type = light_minor", 32
+"source:seamark = Kystverket", 32
 "kystverket:information = Lyktehus på søyle", 7
 "kystverket:information = FL/NB", 4
 "seamark:beacon:colour = white;black;white", 2
@@ -7108,7 +7136,8 @@
 "kystverket:information = 4-FL/SC", 3
 "man_made = beacon", 6
 "kystverket:information = 4-FL/NB", 2
-"man_made = lighthouse", 3</t>
+"man_made = lighthouse", 3
+"kystverket:information = Lyktehus", 2</t>
         </is>
       </c>
       <c r="O109" s="17">
@@ -7144,7 +7173,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7208,7 +7237,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7568,7 +7597,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7629,7 +7658,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7697,7 +7726,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6362</v>
+        <v>7546</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7709,26 +7738,34 @@
         <is>
           <t>"layer = -1", 3
 "man_made = tunnel", 3
-"bridge = yes", 43
+"bridge = yes", 50
 "cycleway:both = no", 4
-"highway = primary", 15
-"layer = 1", 45
-"surface = asphalt", 8
+"highway = primary", 17
+"layer = 1", 52
+"surface = asphalt", 11
 "lanes = 2", 6
 "maxweight:signed = no", 3
-"highway = secondary", 10
+"highway = secondary", 12
+"highway = service", 2
 "highway = trunk", 2
 "surface = paved", 2
 "man_made = bridge", 27
-"tunnel = culvert", 6
-"waterway = stream", 7
 "bridge:description = Dragbrua", 2
 "surface = gravel", 2
+"tunnel = culvert", 5
+"waterway = stream", 6
 "place = suburb", 2
+"old_ref = 459", 2
+"highway = track", 4
+"nvdb:id = 339480834", 2
+"old_ref = 202", 2
 "highway = residential", 2
-"highway = track", 2
 "old_ref = 158", 2
-"place = locality", 3</t>
+"place = locality", 3
+"lanes = 1", 3
+"old_ref = 49", 3
+"source:maxspeed = sign", 2
+"width = 3.0", 2</t>
         </is>
       </c>
       <c r="L121" s="17" t="inlineStr">
@@ -7764,7 +7801,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G122" s="12" t="n">
         <v>11</v>
@@ -8229,7 +8266,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8251,7 +8288,7 @@
       </c>
       <c r="K132" s="1" t="inlineStr">
         <is>
-          <t>"man_made = quay", 5
+          <t>"man_made = quay", 6
 "place = locality", 2</t>
         </is>
       </c>
@@ -8298,7 +8335,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8321,8 +8358,9 @@
       <c r="K133" s="1" t="inlineStr">
         <is>
           <t>"place = isolated_dwelling", 2
-"man_made = quay", 13
-"place = locality", 15</t>
+"man_made = quay", 16
+"place = locality", 19
+"natural = coastline", 2</t>
         </is>
       </c>
       <c r="L133" s="17" t="inlineStr">
@@ -8368,7 +8406,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>160</v>
@@ -8533,7 +8571,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>64</v>
@@ -8642,7 +8680,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -8708,7 +8746,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G140" s="12" t="n">
         <v>188</v>
@@ -8771,7 +8809,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -8793,9 +8831,9 @@
       </c>
       <c r="K141" s="1" t="inlineStr">
         <is>
-          <t>"mooring = yes", 5
-"place = locality", 77
-"historic = yes", 76</t>
+          <t>"mooring = yes", 6
+"place = locality", 84
+"historic = yes", 82</t>
         </is>
       </c>
       <c r="L141" s="17" t="inlineStr">
@@ -8907,7 +8945,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3774</v>
+        <v>5167</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -8927,7 +8965,12 @@
           <t>Offisielt adressenavn (veg-/gatenavn), jf. § 2 bokstav e i   matrikkelforskriften. Bruk ellers kode 240 Vegstrekning.</t>
         </is>
       </c>
-      <c r="K143" s="1" t="inlineStr"/>
+      <c r="K143" s="1" t="inlineStr">
+        <is>
+          <t>"natural = coastline", 2
+"place = islet", 2</t>
+        </is>
+      </c>
       <c r="O143" s="17">
         <f>CONCATENATE(Tabell1[[#This Row],[OSM tag]],";",Tabell1[[#This Row],[tillegg]],";",Tabell1[[#This Row],[fixme]])</f>
         <v/>
@@ -8961,7 +9004,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -8986,7 +9029,8 @@
           <t>"highway = track", 12
 "tracktype = grade3", 2
 "tracktype = grade4", 2
-"place = locality", 5</t>
+"place = locality", 5
+"highway = path", 3</t>
         </is>
       </c>
       <c r="L144" s="9" t="inlineStr">
@@ -9027,7 +9071,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3011</v>
+        <v>3719</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9053,7 +9097,7 @@
 "sac_scale = hiking", 6
 "mtb:scale = 1", 2
 "trail_visibility = excellent", 3
-"place = locality", 15</t>
+"place = locality", 16</t>
         </is>
       </c>
       <c r="L145" s="9" t="inlineStr">
@@ -9089,7 +9133,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9154,7 +9198,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>70</v>
@@ -9320,7 +9364,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>603</v>
+        <v>753</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9389,7 +9433,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>261</v>
@@ -9411,7 +9455,7 @@
       </c>
       <c r="K151" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 18</t>
+          <t>"place = locality", 17</t>
         </is>
       </c>
       <c r="M151" s="12" t="inlineStr">
@@ -9447,7 +9491,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>771</v>
+        <v>867</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9754,7 +9798,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1302</v>
+        <v>1544</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9776,57 +9820,58 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 85
-"denomination = lutheran", 85
-"diocese = Stavanger", 12
-"religion = christian", 85
-"toilets = no", 8
-"toilets:wheelchair = no", 5
-"building = church", 81
+          <t>"amenity = place_of_worship", 92
+"denomination = lutheran", 92
+"diocese = Stavanger", 15
+"religion = christian", 92
+"toilets = no", 9
+"toilets:wheelchair = no", 6
+"wheelchair = limited", 3
+"building = church", 88
 "capacity = 700", 3
-"deanery = Ytre Stavanger", 4
-"note = Soknekirke/arbeidskirke", 9
-"toilets = yes", 38
-"deanery = Stavanger Domprosti", 6
-"note = Soknekirke", 34
+"deanery = Ytre Stavanger", 6
+"note = Soknekirke/arbeidskirke", 12
+"toilets = yes", 44
+"deanery = Stavanger Domprosti", 7
+"note = Soknekirke", 39
 "capacity = 300", 5
+"toilets:wheelchair = yes", 10
+"wheelchair = yes", 11
+"note = Prostikirke", 4
 "capacity = 430", 3
+"capacity = 500", 10
 "capacity = 450", 6
-"capacity = 400", 3
+"capacity = 650", 3
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"capacity = 500", 8
 "parish = Gildeskål", 3
-"capacity = 250", 7
+"capacity = 250", 5
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
 "parish = Kongsberg og Jondalen", 3
-"hearing_aids = yes", 12
-"note = Prostikirke", 3
+"hearing_aids = yes", 14
 "capacity = 150", 3
 "architect = J.W.Nordan", 4
 "capacity = 170", 3
-"toilets:wheelchair = yes", 7
-"wheelchair = yes", 9
 "capacity = 200", 9
 "deanery = Lier", 4
-"deanery = Aust-Nedenes", 16
-"diocese = Agder og Telemark", 49
-"heritage = yes", 42
-"architect = J.H.Nissen", 3
+"architect = J.H.Nissen", 4
+"deanery = Aust-Nedenes", 18
+"diocese = Agder og Telemark", 52
+"heritage = yes", 44
 "deanery = Mandal", 3
 "deanery = Lister", 4
 "parish = Farsund", 3
-"capacity = 350", 6
+"capacity = 350", 8
 "parish = Holt", 4
-"deanery = Vest-Nedenes", 4
+"deanery = Vest-Nedenes", 6
 "parish = Åmli", 3
 "architect = Linstow type / Anders Thorsen Syrtveit", 9
-"deanery = Otredal", 20
-"parish = Evje og Hornnes", 4
-"parish = Bygland", 6
-"parish = Valle og Hylestad", 3
-"parish = Bykle", 3</t>
+"deanery = Otredal", 19
+"parish = Evje og Hornnes", 3
+"parish = Bygland", 4
+"parish = Valle og Hylestad", 4
+"parish = Bykle", 4</t>
         </is>
       </c>
       <c r="L159" s="17" t="inlineStr">
@@ -9867,7 +9912,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>528</v>
+        <v>658</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -9891,7 +9936,10 @@
         <is>
           <t>"amenity = community_centre", 12
 "place = isolated_dwelling", 4
-"building = civic", 4</t>
+"place = farm", 2
+"building = civic", 5
+"heritage = yes", 2
+"ref:bygningsnr = 168600461", 2</t>
         </is>
       </c>
       <c r="L160" s="17" t="inlineStr">
@@ -9927,7 +9975,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -9949,9 +9997,10 @@
       </c>
       <c r="K161" s="1" t="inlineStr">
         <is>
-          <t>"cemetery = grave", 3
-"landuse = cemetery", 3
-"type = multipolygon", 2</t>
+          <t>"cemetery = grave", 5
+"landuse = cemetery", 4
+"amenity = grave_yard", 2
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L161" s="17" t="inlineStr">
@@ -9997,7 +10046,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10060,7 +10109,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10082,8 +10131,8 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"tourism = museum", 2
-"place = isolated_dwelling", 2</t>
+          <t>"place = isolated_dwelling", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L163" s="17" t="inlineStr">
@@ -10210,7 +10259,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10235,7 +10284,7 @@
           <t>"tourism = attraction", 4
 "tourism = museum", 2
 "type = multipolygon", 2
-"place = locality", 2
+"place = locality", 3
 "historic = memorial", 3</t>
         </is>
       </c>
@@ -10272,7 +10321,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10326,7 +10375,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3930</v>
+        <v>4622</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10348,11 +10397,13 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 152
-"building = farm_auxiliary", 23
+          <t>"place = locality", 212
+"building = farm_auxiliary", 24
 "man_made = mineshaft", 18
 "resource = silver", 21
-"historic = mine", 40</t>
+"historic = mine", 40
+"place = isolated_dwelling", 12
+"historic = shieling", 8</t>
         </is>
       </c>
       <c r="M168" s="12" t="inlineStr">
@@ -10388,7 +10439,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>358</v>
+        <v>467</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10484,7 +10535,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4417</v>
+        <v>5229</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10506,7 +10557,7 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 95
+          <t>"place = locality", 118
 "place = farm", 5</t>
         </is>
       </c>
@@ -10549,7 +10600,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2109</v>
+        <v>2577</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10571,9 +10622,9 @@
       </c>
       <c r="K172" s="1" t="inlineStr">
         <is>
-          <t>"landuse = meadow", 19
+          <t>"landuse = meadow", 24
 "type = multipolygon", 4
-"place = locality", 24
+"place = locality", 28
 "natural = wetland", 2
 "wetland = bog", 2</t>
         </is>
@@ -10611,7 +10662,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4494</v>
+        <v>6096</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10633,9 +10684,9 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"landuse = farmland", 41
-"type = multipolygon", 19
-"place = locality", 152</t>
+          <t>"landuse = farmland", 46
+"type = multipolygon", 20
+"place = locality", 170</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10671,7 +10722,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10693,7 +10744,7 @@
       </c>
       <c r="K174" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 12</t>
+          <t>"place = locality", 11</t>
         </is>
       </c>
       <c r="M174" s="17" t="inlineStr">
@@ -10734,7 +10785,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2340</v>
+        <v>3035</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10756,12 +10807,10 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 4
-"historic = shieling", 85
-"landuse = meadow", 8
-"place = locality", 92
-"place = isolated_dwelling", 3
-"place = farm", 6</t>
+          <t>"historic = shieling", 133
+"landuse = meadow", 26
+"place = locality", 153
+"place = farm", 12</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
@@ -10802,7 +10851,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="G176" s="12" t="n">
         <v>264</v>
@@ -10824,8 +10873,8 @@
       </c>
       <c r="K176" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 8
-"historic = shieling", 7</t>
+          <t>"place = locality", 10
+"historic = shieling", 9</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
@@ -10866,7 +10915,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -10926,7 +10975,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11017,7 +11066,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2361</v>
+        <v>2875</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11039,8 +11088,9 @@
       </c>
       <c r="K180" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 44
-"place = locality", 3</t>
+          <t>"natural = stone", 46
+"place = locality", 3
+"natural = rock", 2</t>
         </is>
       </c>
       <c r="L180" s="17" t="inlineStr">
@@ -11077,7 +11127,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1871</v>
+        <v>2196</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11099,8 +11149,8 @@
       </c>
       <c r="K181" s="1" t="inlineStr">
         <is>
-          <t>"natural = scree", 66
-"place = locality", 19</t>
+          <t>"natural = scree", 74
+"place = locality", 20</t>
         </is>
       </c>
       <c r="L181" s="17" t="inlineStr">
@@ -11187,7 +11237,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G183" s="12" t="n">
         <v>121</v>
@@ -11207,7 +11257,11 @@
           <t>Sand-/grusområde over vannkontur/kystkontur; morenemateriale</t>
         </is>
       </c>
-      <c r="K183" s="1" t="inlineStr"/>
+      <c r="K183" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 2</t>
+        </is>
+      </c>
       <c r="L183" s="17" t="inlineStr">
         <is>
           <t>natural=beach; surface=sand</t>
@@ -11273,7 +11327,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I185" s="2" t="inlineStr">
         <is>
@@ -11371,7 +11425,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11432,7 +11486,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11452,11 +11506,7 @@
           <t>Uttaksplass/-område for sand, grus, pukk, skifer eller stein (Se også Bergverk 218)</t>
         </is>
       </c>
-      <c r="K188" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2</t>
-        </is>
-      </c>
+      <c r="K188" s="1" t="inlineStr"/>
       <c r="L188" s="17" t="inlineStr">
         <is>
           <t>landuse=quarry</t>
@@ -11541,7 +11591,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4477</v>
+        <v>5884</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11563,10 +11613,11 @@
       </c>
       <c r="K190" s="1" t="inlineStr">
         <is>
-          <t>"natural = wood", 19
+          <t>"leaf_type = needleleaved", 3
+"natural = wood", 20
 "type = multipolygon", 6
-"place = locality", 76
-"place = farm", 4</t>
+"place = locality", 74
+"place = farm", 8</t>
         </is>
       </c>
       <c r="M190" s="12" t="inlineStr">
@@ -11602,7 +11653,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11660,7 +11711,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>33832</v>
+        <v>41374</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11682,10 +11733,10 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 424
-"natural = wetland", 569
-"wetland = bog", 252
-"type = multipolygon", 93</t>
+          <t>"place = locality", 492
+"natural = wetland", 663
+"wetland = bog", 258
+"type = multipolygon", 97</t>
         </is>
       </c>
       <c r="L192" s="17" t="inlineStr">
@@ -11909,7 +11960,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>12</v>
@@ -11929,7 +11980,11 @@
           <t>Kirkesogn i Den norske kirke</t>
         </is>
       </c>
-      <c r="K197" s="1" t="inlineStr"/>
+      <c r="K197" s="1" t="inlineStr">
+        <is>
+          <t>"place = suburb", 2</t>
+        </is>
+      </c>
       <c r="L197" s="17" t="inlineStr">
         <is>
           <t>place=hamlet</t>
@@ -12387,7 +12442,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>233</v>
@@ -12497,7 +12552,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>588</v>
+        <v>719</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12519,15 +12574,15 @@
       </c>
       <c r="K209" s="1" t="inlineStr">
         <is>
-          <t>"boundary = protected_area", 5
-"leisure = nature_reserve", 5
-"type = boundary", 4
-"naturbase:url = https://faktaark.naturbase.no/?id=VV00001832", 3
-"naturbase:verneform = Naturreservat", 4
-"naturbase:verneplan = Skog", 3
-"protect_class = 1a", 4
-"ref:naturvern = VV00001832", 3
-"related_law = https://lovdata.no/forskrift/2008-12-19-1448", 3</t>
+          <t>"boundary = protected_area", 6
+"leisure = nature_reserve", 6
+"type = boundary", 5
+"naturbase:url = https://faktaark.naturbase.no/?id=VV00001832", 4
+"naturbase:verneform = Naturreservat", 5
+"naturbase:verneplan = Skog", 4
+"protect_class = 1a", 5
+"ref:naturvern = VV00001832", 4
+"related_law = https://lovdata.no/forskrift/2008-12-19-1448", 4</t>
         </is>
       </c>
       <c r="L209" s="17" t="inlineStr">
@@ -12624,7 +12679,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12767,7 +12822,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1482</v>
+        <v>1755</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12789,9 +12844,9 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 107
-"natural = bay", 108
-"type = multipolygon", 11</t>
+          <t>"bay = fjord", 128
+"natural = bay", 130
+"type = multipolygon", 15</t>
         </is>
       </c>
       <c r="L214" s="17" t="inlineStr">
@@ -12935,7 +12990,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -12955,7 +13010,11 @@
           <t>Del av sjøen, vanligvis innaskjærs eller i kystnære farvann. Eks. Folda, Hustadvika</t>
         </is>
       </c>
-      <c r="K217" s="1" t="inlineStr"/>
+      <c r="K217" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 2</t>
+        </is>
+      </c>
       <c r="L217" s="17" t="inlineStr">
         <is>
           <t>natural=bay</t>
@@ -13093,7 +13152,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10936</v>
+        <v>12155</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13115,11 +13174,11 @@
       </c>
       <c r="K220" s="1" t="inlineStr">
         <is>
-          <t>"natural = rock", 343
-"seamark:type = rock", 83
-"place = islet", 397
-"natural = coastline", 328
-"natural = shoal", 51</t>
+          <t>"natural = rock", 345
+"seamark:type = rock", 99
+"place = islet", 468
+"natural = coastline", 383
+"natural = shoal", 59</t>
         </is>
       </c>
       <c r="L220" s="17" t="inlineStr">
@@ -13160,7 +13219,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>893</v>
+        <v>1098</v>
       </c>
       <c r="G221" s="12" t="n">
         <v>1206</v>
@@ -13183,8 +13242,8 @@
       <c r="K221" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 2
-"place = locality", 45
-"seamark:type = rock", 45</t>
+"place = locality", 51
+"seamark:type = rock", 51</t>
         </is>
       </c>
       <c r="L221" s="17" t="inlineStr">
@@ -13230,7 +13289,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10556</v>
+        <v>11835</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13252,8 +13311,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 309
-"place = locality", 103</t>
+          <t>"natural = shoal", 318
+"place = locality", 111</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13346,7 +13405,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>3346</v>
+        <v>4056</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13368,7 +13427,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 289</t>
+          <t>"natural = strait", 327</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13404,7 +13463,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>19370</v>
+        <v>23449</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13426,7 +13485,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1244</t>
+          <t>"natural = bay", 1392</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13463,7 +13522,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2986</v>
+        <v>3380</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13485,10 +13544,10 @@
       </c>
       <c r="K226" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 113
-"natural = coastline", 110
-"place = islet", 89
-"type = multipolygon", 75
+          <t>"place = island", 120
+"natural = coastline", 117
+"place = islet", 102
+"type = multipolygon", 88
 "natural = wood", 5</t>
         </is>
       </c>
@@ -13525,7 +13584,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>14720</v>
+        <v>16910</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13547,9 +13606,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1013
-"natural = coastline", 913
-"type = multipolygon", 73</t>
+          <t>"place = islet", 1140
+"natural = coastline", 1023
+"type = multipolygon", 90</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13585,7 +13644,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13608,7 +13667,7 @@
       <c r="K228" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 9
-"natural = cape", 37</t>
+"natural = cape", 40</t>
         </is>
       </c>
       <c r="L228" s="17" t="inlineStr">
@@ -13644,7 +13703,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>16840</v>
+        <v>20489</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13666,8 +13725,8 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 823
-"place = locality", 49</t>
+          <t>"natural = cape", 896
+"place = locality", 54</t>
         </is>
       </c>
       <c r="L229" s="17" t="inlineStr">
@@ -13704,7 +13763,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13726,7 +13785,7 @@
       </c>
       <c r="K230" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2</t>
+          <t>"place = locality", 3</t>
         </is>
       </c>
       <c r="M230" s="17" t="inlineStr">
@@ -13762,7 +13821,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1783</v>
+        <v>2116</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13784,8 +13843,8 @@
       </c>
       <c r="K231" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 33
-"natural = beach", 47
+          <t>"place = locality", 35
+"natural = beach", 48
 "type = multipolygon", 8
 "place = isolated_dwelling", 2
 "layer = 2", 3
@@ -13827,7 +13886,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>976</v>
+        <v>1209</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -13849,7 +13908,7 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 16</t>
+          <t>"natural = bay", 18</t>
         </is>
       </c>
       <c r="L232" s="17" t="inlineStr">
@@ -13886,7 +13945,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -13910,8 +13969,8 @@
         <is>
           <t>"place = archipelago", 2
 "place = island", 6
-"natural = coastline", 12
-"place = islet", 11
+"natural = coastline", 15
+"place = islet", 14
 "natural = cape", 2
 "type = multipolygon", 2</t>
         </is>
@@ -13949,7 +14008,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -13971,8 +14030,8 @@
       </c>
       <c r="K234" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 13
-"place = islet", 14</t>
+          <t>"natural = coastline", 16
+"place = islet", 17</t>
         </is>
       </c>
       <c r="L234" s="17" t="inlineStr">
@@ -14106,7 +14165,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>78</v>
@@ -14838,7 +14897,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>5262</v>
+        <v>6431</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -14860,7 +14919,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 176</t>
+          <t>"place = locality", 188</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -14897,7 +14956,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3098</v>
+        <v>3484</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -14919,7 +14978,7 @@
       </c>
       <c r="K259" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 11</t>
+          <t>"place = locality", 14</t>
         </is>
       </c>
       <c r="M259" s="12" t="inlineStr">
@@ -14955,7 +15014,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>10236</v>
+        <v>12656</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -14977,9 +15036,9 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 48
-"natural = hill", 300
-"place = locality", 265</t>
+          <t>"natural = peak", 49
+"natural = hill", 418
+"place = locality", 365</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15025,7 +15084,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>16728</v>
+        <v>19278</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15048,9 +15107,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 237
-"natural = hill", 168
-"place = locality", 252</t>
+"natural = peak", 249
+"place = locality", 314
+"natural = hill", 231</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15096,7 +15155,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>5983</v>
+        <v>6965</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15119,8 +15178,8 @@
       <c r="K262" s="1" t="inlineStr">
         <is>
           <t>"natural = heath", 58
-"natural = hill", 1010
-"place = locality", 1017</t>
+"natural = hill", 1197
+"place = locality", 1205</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15166,7 +15225,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>6753</v>
+        <v>8013</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15188,8 +15247,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 883
-"place = locality", 625</t>
+          <t>"natural = hill", 1001
+"place = locality", 689</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15230,7 +15289,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>41089</v>
+        <v>49361</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15252,9 +15311,9 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 2574
-"place = locality", 1535
-"natural = peak", 414
+          <t>"natural = hill", 3185
+"place = locality", 1876
+"natural = peak", 476
 "natural = ridge", 288</t>
         </is>
       </c>
@@ -15306,7 +15365,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>5258</v>
+        <v>6058</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15328,10 +15387,9 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 54
-"natural = ridge", 171
-"natural = peak", 7
-"place = locality", 105</t>
+          <t>"natural = hill", 65
+"natural = ridge", 228
+"place = locality", 172</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15372,7 +15430,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>34575</v>
+        <v>41086</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15394,9 +15452,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 129
-"natural = hill", 1136
-"place = locality", 870</t>
+          <t>"natural = peak", 145
+"natural = hill", 1696
+"place = locality", 1394</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15437,7 +15495,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1221</v>
+        <v>1578</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15459,8 +15517,8 @@
       </c>
       <c r="K267" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 24
-"natural = hill", 5</t>
+          <t>"natural = peak", 25
+"natural = hill", 19</t>
         </is>
       </c>
       <c r="L267" s="17" t="inlineStr">
@@ -15511,7 +15569,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>910</v>
+        <v>1058</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15636,7 +15694,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G271" s="12" t="n">
         <v>251</v>
@@ -15695,7 +15753,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>27603</v>
+        <v>32931</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15717,8 +15775,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 839
-"natural = valley", 1152</t>
+          <t>"place = locality", 936
+"natural = valley", 1273</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15759,7 +15817,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>4812</v>
+        <v>5391</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15781,8 +15839,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 80
-"place = locality", 83</t>
+          <t>"natural = valley", 84
+"place = locality", 86</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -15823,7 +15881,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>8143</v>
+        <v>9465</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -15845,8 +15903,8 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 126
-"place = locality", 114</t>
+          <t>"natural = valley", 137
+"place = locality", 120</t>
         </is>
       </c>
       <c r="L274" s="2" t="inlineStr">
@@ -15887,7 +15945,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1411</v>
+        <v>1713</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -15909,7 +15967,7 @@
       </c>
       <c r="K275" s="1" t="inlineStr">
         <is>
-          <t>"natural = gorge", 62
+          <t>"natural = gorge", 63
 "place = locality", 23</t>
         </is>
       </c>
@@ -15946,7 +16004,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2252</v>
+        <v>2686</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -15968,8 +16026,8 @@
       </c>
       <c r="K276" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 49
-"place = locality", 36
+          <t>"natural = valley", 55
+"place = locality", 44
 "natural = wetland", 3
 "wetland = bog", 2</t>
         </is>
@@ -16017,7 +16075,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16039,8 +16097,8 @@
       </c>
       <c r="K277" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 21
-"place = locality", 21</t>
+          <t>"natural = valley", 22
+"place = locality", 22</t>
         </is>
       </c>
       <c r="L277" s="17" t="inlineStr">
@@ -16114,7 +16172,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>8704</v>
+        <v>10334</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16136,8 +16194,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 285
-"place = locality", 294</t>
+          <t>"natural = slope", 307
+"place = locality", 317</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16178,7 +16236,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>24538</v>
+        <v>28404</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16200,8 +16258,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 771
-"place = locality", 781</t>
+          <t>"natural = slope", 807
+"place = locality", 822</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16242,7 +16300,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1260</v>
+        <v>1412</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16264,7 +16322,7 @@
       </c>
       <c r="K281" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 17</t>
+          <t>"place = locality", 21</t>
         </is>
       </c>
       <c r="M281" s="12" t="inlineStr">
@@ -16333,7 +16391,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2359</v>
+        <v>2620</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16355,7 +16413,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 155</t>
+          <t>"natural = cliff", 159</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16392,7 +16450,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16451,7 +16509,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2417</v>
+        <v>2880</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16509,7 +16567,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>4314</v>
+        <v>5189</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16531,7 +16589,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 95</t>
+          <t>"place = locality", 114</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
@@ -16721,7 +16779,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -16785,7 +16843,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G291" s="12" t="n">
         <v>279</v>
@@ -16839,7 +16897,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>
@@ -16863,7 +16921,7 @@
         <is>
           <t>"place = farm", 2
 "place = isolated_dwelling", 2
-"place = locality", 10</t>
+"place = locality", 12</t>
         </is>
       </c>
       <c r="L292" s="17" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -871,13 +871,14 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 190
-"source:population = SSB - befolkning i tettstedet", 126
+          <t>"place = village", 191
+"source:population = SSB - befolkning i tettstedet", 121
 "place = town", 9
-"place = suburb", 42
+"place = suburb", 43
 "place = hamlet", 14
 "place = quarter", 25
-"place = neighbourhood", 15</t>
+"place = neighbourhood", 16
+"type = multipolygon", 9</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -913,7 +914,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>911</v>
+        <v>972</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -935,11 +936,11 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 78
+          <t>"place = village", 80
 "source:population = SSB - befolkning i tettstedet", 41
-"place = neighbourhood", 164
-"place = suburb", 87
-"place = hamlet", 46
+"place = neighbourhood", 175
+"place = suburb", 89
+"place = hamlet", 44
 "place = quarter", 64</t>
         </is>
       </c>
@@ -987,7 +988,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1733</v>
+        <v>1867</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1010,10 +1011,10 @@
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>"place = village", 215
-"place = hamlet", 141
+"place = hamlet", 147
 "place = suburb", 19
-"source:population = SSB - befolkning i tettstedet", 31
-"place = neighbourhood", 18</t>
+"source:population = SSB - befolkning i tettstedet", 30
+"place = neighbourhood", 16</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1059,7 +1060,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2780</v>
+        <v>3026</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1081,9 +1082,9 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 711
-"place = neighbourhood", 55
-"place = farm", 37
+          <t>"place = hamlet", 719
+"place = neighbourhood", 56
+"place = farm", 39
 "place = village", 32</t>
         </is>
       </c>
@@ -1120,7 +1121,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2608</v>
+        <v>2717</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1142,8 +1143,8 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 760
-"place = suburb", 45
+          <t>"place = neighbourhood", 759
+"place = suburb", 47
 "place = quarter", 192</t>
         </is>
       </c>
@@ -1180,7 +1181,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1210,7 +1211,7 @@
 "natural = cape", 2
 "building = industrial", 4
 "man_made = wastewater_plant", 2
-"place = neighbourhood", 39
+"place = neighbourhood", 40
 "place = farm", 2
 "place = isolated_dwelling", 2
 "ref:bygningsnr = 166261902", 2</t>
@@ -1249,7 +1250,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 113
+          <t>"place = suburb", 115
 "place = neighbourhood", 12
 "place = quarter", 21
 "place = village", 4</t>
@@ -1310,7 +1311,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1332,9 +1333,8 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 169
-"place = quarter", 9
-"landuse = residential", 6</t>
+          <t>"place = neighbourhood", 170
+"place = quarter", 9</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 40</t>
+          <t>"place = square", 42</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       <c r="J14" s="12" t="n"/>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
+          <t>"place = locality", 3
 "place = isolated_dwelling", 2</t>
         </is>
       </c>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>19</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9750</v>
+        <v>10247</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1667,8 +1667,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3331
-"place = farm", 568</t>
+          <t>"place = isolated_dwelling", 3419
+"place = farm", 561</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12545</v>
+        <v>12918</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1731,10 +1731,10 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 1121
-"place = isolated_dwelling", 5173
-"place = locality", 293
-"historic = shieling", 673</t>
+          <t>"building = cabin", 1154
+"place = isolated_dwelling", 5269
+"place = locality", 289
+"historic = shieling", 684</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10027</v>
+        <v>10254</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1792,9 +1792,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5476
-"historic = shieling", 1001
-"historic = ruins", 733</t>
+          <t>"place = locality", 5667
+"historic = shieling", 1062
+"historic = ruins", 687</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>3</v>
@@ -1856,7 +1856,12 @@
           <t>Stort boligbygg med 2 eller flere etasjer hvor det er 5 eller flere boligenheter</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr"/>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>"building = apartments", 2
+"ref:bygningsnr = 300264746", 2</t>
+        </is>
+      </c>
       <c r="L19" s="17" t="inlineStr">
         <is>
           <t>building=apartments</t>
@@ -1891,7 +1896,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1913,9 +1918,9 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 30
+          <t>"leisure = park", 31
 "natural = wood", 3
-"type = multipolygon", 3</t>
+"type = multipolygon", 4</t>
         </is>
       </c>
       <c r="L20" s="17" t="inlineStr">
@@ -1951,7 +1956,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -1973,11 +1978,12 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"leisure = sports_centre", 21
-"building = sports_centre", 5
+          <t>"leisure = sports_centre", 22
+"building = sports_centre", 6
 "sport = multi", 2
 "building = yes", 2
 "ref:bygningsnr = 8628955", 2
+"ref:bygningsnr = 168158319", 2
 "amenity = sports_centre", 2
 "place = locality", 2</t>
         </is>
@@ -2015,7 +2021,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2037,24 +2043,15 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>"leisure = pitch", 73
-"sport = soccer", 32
+          <t>"leisure = pitch", 75
+"sport = soccer", 34
 "type = multipolygon", 7
 "sport = horse_racing", 6
 "place = locality", 19
-"amenity = parking", 2
-"leisure = sports_centre", 9
-"building = public", 2
-"building:levels = 3", 2
-"sport = swimming;basketball;volleyball;handball", 2
-"building = yes", 2
-"surface = grass", 4
-"area = no", 2
+"leisure = sports_centre", 10
+"surface = grass", 5
 "leisure = track", 3
-"landuse = recreation_ground", 2
-"piste:type = ski_jump", 6
-"abandoned:piste:type = ski_jump", 2
-"place = neighbourhood", 2</t>
+"piste:type = ski_jump", 6</t>
         </is>
       </c>
       <c r="L22" s="17" t="inlineStr">
@@ -2149,7 +2146,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2209,7 +2206,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2233,9 +2230,9 @@
         <is>
           <t>"leisure = swimming_area", 20
 "place = locality", 23
-"natural = beach", 10
-"surface = sand", 10
-"layer = 2", 4</t>
+"natural = beach", 9
+"surface = sand", 9
+"layer = 2", 3</t>
         </is>
       </c>
       <c r="L25" s="17" t="inlineStr">
@@ -2336,7 +2333,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>90149</v>
+        <v>94311</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2358,7 +2355,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 27435</t>
+          <t>"place = farm", 27742</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2399,7 +2396,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>18823</v>
+        <v>20072</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2421,9 +2418,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6028
-"place = locality", 5010
-"place = isolated_dwelling", 1042</t>
+          <t>"historic = shieling", 6407
+"place = locality", 5406
+"place = isolated_dwelling", 1026</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2464,7 +2461,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2316</v>
+        <v>2379</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2486,9 +2483,9 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 209
-"place = locality", 1098
-"historic = shieling", 174</t>
+          <t>"building = farm_auxiliary", 208
+"place = locality", 1130
+"historic = shieling", 179</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2524,7 +2521,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3558</v>
+        <v>3751</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2546,10 +2543,10 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 940
-"place = farm", 132
+          <t>"place = locality", 963
+"place = farm", 160
 "place = isolated_dwelling", 52
-"historic = shieling", 47</t>
+"historic = shieling", 52</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2585,7 +2582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>80</v>
@@ -2607,7 +2604,7 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
+          <t>"place = locality", 4
 "barrier = fence", 2</t>
         </is>
       </c>
@@ -2644,7 +2641,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>35676</v>
+        <v>37685</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2666,8 +2663,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 9745
-"place = hamlet", 1835</t>
+          <t>"place = farm", 10086
+"place = hamlet", 1868</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2713,7 +2710,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2914</v>
+        <v>3038</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2735,8 +2732,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 312
-"place = hamlet", 525</t>
+          <t>"place = farm", 324
+"place = hamlet", 538</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2850,7 +2847,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1915</v>
+        <v>2043</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2872,22 +2869,22 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>"building = school", 23
-"amenity = school", 146
-"fee = no", 108
-"grades = 1-7", 53
-"isced:level = 1", 57
-"operator:type = public", 108
-"grades = 1-10", 25
-"isced:level = 1;2", 32
+          <t>"building = school", 24
+"amenity = school", 155
+"fee = no", 117
+"grades = 1-7", 56
+"isced:level = 1", 62
+"operator:type = public", 117
+"grades = 1-10", 27
+"isced:level = 1;2", 34
 "place = locality", 48
 "was:amenity = school", 7
-"grades = 8-10", 13
-"isced:level = 2", 13
-"building = civic", 27
+"grades = 8-10", 15
+"isced:level = 2", 15
+"building = civic", 29
 "fee = yes", 11
 "operator:type = private", 11
-"building = house", 9
+"building = house", 10
 "building = kindergarten", 11
 "grades = 11-13", 17
 "isced:level = 3", 17
@@ -2927,7 +2924,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>88</v>
@@ -2987,7 +2984,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3009,8 +3006,8 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 78
-"place = locality", 6
+          <t>"amenity = nursing_home", 80
+"place = locality", 7
 "amenity = social_facility", 3
 "building = yes", 3
 "building = civic", 3</t>
@@ -3049,7 +3046,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3110,7 +3107,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>67</v>
@@ -3134,8 +3131,8 @@
         <is>
           <t>"landuse = military", 9
 "natural = bay", 2
-"place = locality", 2
-"place = neighbourhood", 2</t>
+"place = locality", 3
+"place = neighbourhood", 3</t>
         </is>
       </c>
       <c r="L40" s="17" t="inlineStr">
@@ -3171,7 +3168,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3235,7 +3232,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>65</v>
@@ -3257,9 +3254,11 @@
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>"amenity = townhall", 4
-"wheelchair = yes", 2
-"place = locality", 2</t>
+          <t>"amenity = townhall", 6
+"wheelchair = yes", 3
+"place = locality", 2
+"building = public", 2
+"ref:bygningsnr = 168251440", 2</t>
         </is>
       </c>
       <c r="L42" s="17" t="inlineStr">
@@ -3295,7 +3294,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>28</v>
@@ -3354,7 +3353,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>14</v>
@@ -3409,7 +3408,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>1</v>
@@ -3463,7 +3462,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3489,7 +3488,7 @@
 "building = industrial", 38
 "place = locality", 25
 "landuse = industrial", 15
-"place = neighbourhood", 10
+"place = neighbourhood", 9
 "industrial = shipyard", 2
 "ref:bygningsnr = 8563357", 2
 "ref:bygningsnr = 23042452", 2
@@ -3540,7 +3539,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3562,12 +3561,15 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"building = industrial", 56
-"place = locality", 17
+          <t>"building = industrial", 58
+"place = locality", 20
 "ref:bygningsnr = 8451478", 2
 "ref:bygningsnr = 8560013", 2
 "ref:bygningsnr = 165283686", 2
 "ref:bygningsnr = 17711024", 2
+"ref:bygningsnr = 165495055", 2
+"building = shed", 2
+"ref:bygningsnr = 165508807", 2
 "ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165783034", 2
 "ref:bygningsnr = 165781120", 2
@@ -3584,6 +3586,7 @@
 "ref:bygningsnr = 8671281", 2
 "ref:bygningsnr = 166301742", 2
 "ref:bygningsnr = 166280877", 2
+"ref:bygningsnr = 168150547", 2
 "ref:bygningsnr = 300204274", 2
 "ref:bygningsnr = 169058776", 2
 "ref:bygningsnr = 169721165", 2</t>
@@ -3622,7 +3625,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3644,8 +3647,9 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>"shop = mall", 2
-"building = office", 2
+          <t>"building = retail", 2
+"shop = mall", 2
+"building = office", 3
 "building = commercial", 13
 "place = locality", 8
 "place = isolated_dwelling", 3
@@ -3658,6 +3662,7 @@
 "ref:bygningsnr = 164431983", 2
 "place = farm", 2
 "ref:bygningsnr = 8630992", 2
+"ref:bygningsnr = 15310227", 2
 "building = industrial", 2
 "ref:bygningsnr = 169069298", 2</t>
         </is>
@@ -3695,7 +3700,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3719,7 +3724,7 @@
         <is>
           <t>"tourism = hotel", 17
 "building = hotel", 11
-"place = locality", 10
+"place = locality", 11
 "tourism = chalet", 2
 "ref:bygningsnr = 8667314", 2
 "tourism = apartment", 2
@@ -3759,7 +3764,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3784,7 +3789,7 @@
           <t>"building = hotel", 2
 "tourism = guest_house", 7
 "building = house", 2
-"place = locality", 6
+"place = locality", 7
 "place = hamlet", 2
 "building = yes", 2
 "ref:bygningsnr = 165884418", 2</t>
@@ -3823,7 +3828,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>926</v>
+        <v>976</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3855,7 +3860,7 @@
 "dnt:classification = ubetjent", 11
 "dnt:lock = yes", 15
 "tourism = alpine_hut", 4
-"tourism = chalet", 46
+"tourism = chalet", 48
 "amenity = cafe", 11
 "building = cabin", 9
 "capacity = 24", 2
@@ -3923,7 +3928,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -3981,7 +3986,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>4</v>
@@ -4039,7 +4044,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4061,7 +4066,9 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 3</t>
+          <t>"amenity = cafe", 4
+"building = religious", 2
+"ref:bygningsnr = 8893748", 2</t>
         </is>
       </c>
       <c r="L54" s="17" t="inlineStr">
@@ -4170,7 +4177,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4192,7 +4199,7 @@
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9</t>
+          <t>"place = locality", 8</t>
         </is>
       </c>
       <c r="M57" s="12" t="inlineStr">
@@ -4228,7 +4235,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4250,7 +4257,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 49
+          <t>"natural = strait", 50
 "place = locality", 4</t>
         </is>
       </c>
@@ -4287,7 +4294,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6246</v>
+        <v>6473</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4309,7 +4316,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 219</t>
+          <t>"natural = bay", 215</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4345,7 +4352,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1160</v>
+        <v>1221</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4368,7 +4375,7 @@
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>"place = island", 76
-"place = islet", 5</t>
+"place = islet", 4</t>
         </is>
       </c>
       <c r="L60" s="17" t="inlineStr">
@@ -4404,7 +4411,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3512</v>
+        <v>3681</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4426,8 +4433,8 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>"natural = wood", 21
-"place = islet", 128</t>
+          <t>"natural = wood", 23
+"place = islet", 130</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4463,7 +4470,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4485,7 +4492,7 @@
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 32</t>
+          <t>"natural = cape", 29</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4521,7 +4528,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7978</v>
+        <v>8448</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4543,7 +4550,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 304</t>
+          <t>"natural = cape", 298</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4579,7 +4586,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4601,7 +4608,7 @@
       </c>
       <c r="K64" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4
+          <t>"place = locality", 5
 "natural = strait", 2</t>
         </is>
       </c>
@@ -4638,7 +4645,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>840</v>
+        <v>909</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4699,7 +4706,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>73</v>
@@ -4757,7 +4764,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>399</v>
@@ -4779,8 +4786,7 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 4
-"natural = shoal", 2</t>
+          <t>"place = islet", 4</t>
         </is>
       </c>
       <c r="L67" s="17" t="inlineStr">
@@ -4877,7 +4883,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -4940,7 +4946,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>32</v>
@@ -4994,7 +5000,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7834</v>
+        <v>8801</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5016,8 +5022,8 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 170
-"layer = -1", 9
+          <t>"waterway = river", 171
+"layer = -1", 10
 "width = 2", 10
 "width = 3", 10
 "waterway = stream", 17</t>
@@ -5056,7 +5062,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>36718</v>
+        <v>39510</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5078,11 +5084,11 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 396
-"layer = -1", 51
-"tunnel = culvert", 16
-"waterway = river", 55
-"width = 2", 79
+          <t>"waterway = stream", 406
+"layer = -1", 53
+"tunnel = culvert", 18
+"waterway = river", 56
+"width = 2", 80
 "width = 3", 24
 "place = locality", 62</t>
         </is>
@@ -5171,7 +5177,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2870</v>
+        <v>3098</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5232,7 +5238,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>461</v>
@@ -5296,7 +5302,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>859</v>
+        <v>955</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5354,7 +5360,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2171</v>
+        <v>2317</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5422,7 +5428,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1451</v>
+        <v>1559</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5444,7 +5450,7 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 11
+          <t>"natural = water", 13
 "water = river", 5
 "type = multipolygon", 10
 "natural = bay", 15</t>
@@ -5537,7 +5543,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5559,7 +5565,7 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 20</t>
+          <t>"natural = cape", 19</t>
         </is>
       </c>
       <c r="L80" s="17" t="inlineStr">
@@ -5596,7 +5602,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5706,7 +5712,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5769,7 +5775,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>10952</v>
+        <v>11940</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5791,9 +5797,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 388
-"type = multipolygon", 294
-"water = lake", 258
+          <t>"natural = water", 397
+"type = multipolygon", 303
+"water = lake", 262
 "water = reservoir", 17</t>
         </is>
       </c>
@@ -5830,7 +5836,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>48707</v>
+        <v>51336</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5852,9 +5858,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 2630
-"type = multipolygon", 1273
-"water = lake", 859</t>
+          <t>"natural = water", 2712
+"type = multipolygon", 1324
+"water = lake", 860</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5890,7 +5896,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1194</v>
+        <v>1213</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -5912,8 +5918,8 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 84
-"water = pond", 85
+          <t>"natural = water", 85
+"water = pond", 86
 "place = locality", 3
 "type = multipolygon", 10</t>
         </is>
@@ -5951,7 +5957,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -6011,7 +6017,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6072,7 +6078,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6134,7 +6140,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2118</v>
+        <v>2251</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6156,9 +6162,9 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 96
+          <t>"natural = water", 101
 "water = lake", 63
-"type = multipolygon", 42
+"type = multipolygon", 43
 "place = locality", 14</t>
         </is>
       </c>
@@ -6228,7 +6234,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6297,7 +6303,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6491,7 +6497,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -6894,7 +6900,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G105" s="12" t="n">
         <v>120</v>
@@ -6916,9 +6922,7 @@
       </c>
       <c r="K105" s="1" t="inlineStr">
         <is>
-          <t>"aeroway = aerodrome", 3
-"icao = ENGK", 2
-"type = multipolygon", 2</t>
+          <t>"aeroway = aerodrome", 2</t>
         </is>
       </c>
       <c r="L105" s="17" t="inlineStr">
@@ -6954,7 +6958,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G106" s="12" t="n">
         <v>22</v>
@@ -7048,7 +7052,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>98</v>
@@ -7102,7 +7106,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1988</v>
+        <v>2161</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>2333</v>
@@ -7173,7 +7177,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7237,7 +7241,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7597,7 +7601,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7658,7 +7662,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7726,7 +7730,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7546</v>
+        <v>7914</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7738,14 +7742,14 @@
         <is>
           <t>"layer = -1", 3
 "man_made = tunnel", 3
-"bridge = yes", 50
+"bridge = yes", 47
 "cycleway:both = no", 4
 "highway = primary", 17
-"layer = 1", 52
+"layer = 1", 49
 "surface = asphalt", 11
 "lanes = 2", 6
 "maxweight:signed = no", 3
-"highway = secondary", 12
+"highway = secondary", 10
 "highway = service", 2
 "highway = trunk", 2
 "surface = paved", 2
@@ -7755,12 +7759,8 @@
 "tunnel = culvert", 5
 "waterway = stream", 6
 "place = suburb", 2
-"old_ref = 459", 2
-"highway = track", 4
-"nvdb:id = 339480834", 2
-"old_ref = 202", 2
 "highway = residential", 2
-"old_ref = 158", 2
+"highway = track", 3
 "place = locality", 3
 "lanes = 1", 3
 "old_ref = 49", 3
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G122" s="12" t="n">
         <v>11</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8358,9 +8358,8 @@
       <c r="K133" s="1" t="inlineStr">
         <is>
           <t>"place = isolated_dwelling", 2
-"man_made = quay", 16
-"place = locality", 19
-"natural = coastline", 2</t>
+"man_made = quay", 14
+"place = locality", 17</t>
         </is>
       </c>
       <c r="L133" s="17" t="inlineStr">
@@ -8406,7 +8405,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>160</v>
@@ -8571,7 +8570,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>64</v>
@@ -8680,7 +8679,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -8746,7 +8745,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G140" s="12" t="n">
         <v>188</v>
@@ -8809,7 +8808,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -8831,9 +8830,9 @@
       </c>
       <c r="K141" s="1" t="inlineStr">
         <is>
-          <t>"mooring = yes", 6
-"place = locality", 84
-"historic = yes", 82</t>
+          <t>"mooring = yes", 5
+"place = locality", 77
+"historic = yes", 76</t>
         </is>
       </c>
       <c r="L141" s="17" t="inlineStr">
@@ -8945,7 +8944,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5167</v>
+        <v>5830</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9004,7 +9003,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -9030,7 +9029,7 @@
 "tracktype = grade3", 2
 "tracktype = grade4", 2
 "place = locality", 5
-"highway = path", 3</t>
+"highway = path", 2</t>
         </is>
       </c>
       <c r="L144" s="9" t="inlineStr">
@@ -9071,7 +9070,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3719</v>
+        <v>3964</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9133,7 +9132,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9198,7 +9197,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>70</v>
@@ -9364,7 +9363,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9433,7 +9432,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>261</v>
@@ -9491,7 +9490,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>867</v>
+        <v>896</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9798,7 +9797,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1544</v>
+        <v>1634</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9820,28 +9819,28 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 92
-"denomination = lutheran", 92
+          <t>"amenity = place_of_worship", 89
+"denomination = lutheran", 89
 "diocese = Stavanger", 15
-"religion = christian", 92
+"religion = christian", 89
 "toilets = no", 9
 "toilets:wheelchair = no", 6
 "wheelchair = limited", 3
-"building = church", 88
+"building = church", 85
 "capacity = 700", 3
 "deanery = Ytre Stavanger", 6
 "note = Soknekirke/arbeidskirke", 12
-"toilets = yes", 44
+"toilets = yes", 43
 "deanery = Stavanger Domprosti", 7
-"note = Soknekirke", 39
+"note = Soknekirke", 37
 "capacity = 300", 5
 "toilets:wheelchair = yes", 10
-"wheelchair = yes", 11
+"wheelchair = yes", 12
 "note = Prostikirke", 4
 "capacity = 430", 3
 "capacity = 500", 10
 "capacity = 450", 6
-"capacity = 650", 3
+"capacity = 400", 3
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
 "parish = Gildeskål", 3
@@ -9849,27 +9848,27 @@
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
 "parish = Kongsberg og Jondalen", 3
-"hearing_aids = yes", 14
+"hearing_aids = yes", 15
 "capacity = 150", 3
 "architect = J.W.Nordan", 4
 "capacity = 170", 3
-"capacity = 200", 9
+"capacity = 200", 8
 "deanery = Lier", 4
 "architect = J.H.Nissen", 4
-"deanery = Aust-Nedenes", 18
-"diocese = Agder og Telemark", 52
-"heritage = yes", 44
+"deanery = Aust-Nedenes", 17
+"diocese = Agder og Telemark", 49
+"heritage = yes", 42
 "deanery = Mandal", 3
 "deanery = Lister", 4
 "parish = Farsund", 3
-"capacity = 350", 8
+"capacity = 350", 6
 "parish = Holt", 4
-"deanery = Vest-Nedenes", 6
+"deanery = Vest-Nedenes", 4
 "parish = Åmli", 3
-"architect = Linstow type / Anders Thorsen Syrtveit", 9
+"architect = Linstow type / Anders Thorsen Syrtveit", 8
 "deanery = Otredal", 19
-"parish = Evje og Hornnes", 3
-"parish = Bygland", 4
+"parish = Evje og Hornnes", 4
+"parish = Bygland", 3
 "parish = Valle og Hylestad", 4
 "parish = Bykle", 4</t>
         </is>
@@ -9912,7 +9911,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>658</v>
+        <v>720</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -9937,9 +9936,8 @@
           <t>"amenity = community_centre", 12
 "place = isolated_dwelling", 4
 "place = farm", 2
-"building = civic", 5
-"heritage = yes", 2
-"ref:bygningsnr = 168600461", 2</t>
+"building = civic", 4
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L160" s="17" t="inlineStr">
@@ -9975,7 +9973,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -10046,7 +10044,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10109,7 +10107,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10259,7 +10257,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10321,7 +10319,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10375,7 +10373,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4622</v>
+        <v>4732</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10397,13 +10395,12 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 212
-"building = farm_auxiliary", 24
+          <t>"place = locality", 233
+"building = farm_auxiliary", 25
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 12
-"historic = shieling", 8</t>
+"place = isolated_dwelling", 12</t>
         </is>
       </c>
       <c r="M168" s="12" t="inlineStr">
@@ -10439,7 +10436,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10535,7 +10532,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5229</v>
+        <v>5444</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10557,8 +10554,8 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 118
-"place = farm", 5</t>
+          <t>"place = locality", 117
+"place = farm", 13</t>
         </is>
       </c>
       <c r="L171" s="2" t="n"/>
@@ -10600,7 +10597,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2577</v>
+        <v>2665</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10624,7 +10621,7 @@
         <is>
           <t>"landuse = meadow", 24
 "type = multipolygon", 4
-"place = locality", 28
+"place = locality", 25
 "natural = wetland", 2
 "wetland = bog", 2</t>
         </is>
@@ -10662,7 +10659,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6096</v>
+        <v>6525</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10684,9 +10681,9 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"landuse = farmland", 46
-"type = multipolygon", 20
-"place = locality", 170</t>
+          <t>"landuse = farmland", 41
+"type = multipolygon", 19
+"place = locality", 157</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10722,7 +10719,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10785,7 +10782,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3035</v>
+        <v>3279</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10807,9 +10804,10 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 133
+          <t>"historic = shieling", 135
 "landuse = meadow", 26
-"place = locality", 153
+"place = locality", 156
+"place = isolated_dwelling", 6
 "place = farm", 12</t>
         </is>
       </c>
@@ -10851,7 +10849,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G176" s="12" t="n">
         <v>264</v>
@@ -10873,8 +10871,8 @@
       </c>
       <c r="K176" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 10
-"historic = shieling", 9</t>
+          <t>"place = locality", 9
+"historic = shieling", 8</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
@@ -10915,7 +10913,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -10975,7 +10973,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11066,7 +11064,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2875</v>
+        <v>3083</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11088,7 +11086,7 @@
       </c>
       <c r="K180" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 46
+          <t>"natural = stone", 44
 "place = locality", 3
 "natural = rock", 2</t>
         </is>
@@ -11127,7 +11125,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2196</v>
+        <v>2380</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11149,7 +11147,7 @@
       </c>
       <c r="K181" s="1" t="inlineStr">
         <is>
-          <t>"natural = scree", 74
+          <t>"natural = scree", 68
 "place = locality", 20</t>
         </is>
       </c>
@@ -11237,7 +11235,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G183" s="12" t="n">
         <v>121</v>
@@ -11257,11 +11255,7 @@
           <t>Sand-/grusområde over vannkontur/kystkontur; morenemateriale</t>
         </is>
       </c>
-      <c r="K183" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2</t>
-        </is>
-      </c>
+      <c r="K183" s="1" t="inlineStr"/>
       <c r="L183" s="17" t="inlineStr">
         <is>
           <t>natural=beach; surface=sand</t>
@@ -11327,7 +11321,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I185" s="2" t="inlineStr">
         <is>
@@ -11425,7 +11419,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11450,7 +11444,7 @@
           <t>"historic = mine", 7
 "resource = silver", 3
 "place = locality", 2
-"landuse = quarry", 2</t>
+"landuse = quarry", 3</t>
         </is>
       </c>
       <c r="L187" s="17" t="inlineStr">
@@ -11486,7 +11480,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11591,7 +11585,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5884</v>
+        <v>6619</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11711,7 +11705,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>41374</v>
+        <v>42334</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11733,7 +11727,7 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 492
+          <t>"place = locality", 439
 "natural = wetland", 663
 "wetland = bog", 258
 "type = multipolygon", 97</t>
@@ -12442,7 +12436,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>233</v>
@@ -12552,7 +12546,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12679,7 +12673,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12822,7 +12816,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1755</v>
+        <v>1876</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12844,8 +12838,8 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 128
-"natural = bay", 130
+          <t>"bay = fjord", 126
+"natural = bay", 128
 "type = multipolygon", 15</t>
         </is>
       </c>
@@ -12990,7 +12984,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -13010,11 +13004,7 @@
           <t>Del av sjøen, vanligvis innaskjærs eller i kystnære farvann. Eks. Folda, Hustadvika</t>
         </is>
       </c>
-      <c r="K217" s="1" t="inlineStr">
-        <is>
-          <t>"place = locality", 2</t>
-        </is>
-      </c>
+      <c r="K217" s="1" t="inlineStr"/>
       <c r="L217" s="17" t="inlineStr">
         <is>
           <t>natural=bay</t>
@@ -13152,7 +13142,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>12155</v>
+        <v>13237</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13175,10 +13165,10 @@
       <c r="K220" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 345
-"seamark:type = rock", 99
-"place = islet", 468
-"natural = coastline", 383
-"natural = shoal", 59</t>
+"seamark:type = rock", 88
+"place = islet", 446
+"natural = coastline", 371
+"natural = shoal", 52</t>
         </is>
       </c>
       <c r="L220" s="17" t="inlineStr">
@@ -13219,7 +13209,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="G221" s="12" t="n">
         <v>1206</v>
@@ -13242,8 +13232,8 @@
       <c r="K221" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 2
-"place = locality", 51
-"seamark:type = rock", 51</t>
+"place = locality", 48
+"seamark:type = rock", 48</t>
         </is>
       </c>
       <c r="L221" s="17" t="inlineStr">
@@ -13289,7 +13279,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>11835</v>
+        <v>13035</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13311,8 +13301,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 318
-"place = locality", 111</t>
+          <t>"natural = shoal", 319
+"place = locality", 112</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13405,7 +13395,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4056</v>
+        <v>4304</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13427,7 +13417,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 327</t>
+          <t>"natural = strait", 334</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13463,7 +13453,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>23449</v>
+        <v>24845</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13485,7 +13475,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1392</t>
+          <t>"natural = bay", 1370</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13522,7 +13512,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>3380</v>
+        <v>3708</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13545,10 +13535,10 @@
       <c r="K226" s="1" t="inlineStr">
         <is>
           <t>"place = island", 120
-"natural = coastline", 117
-"place = islet", 102
-"type = multipolygon", 88
-"natural = wood", 5</t>
+"natural = coastline", 114
+"place = islet", 106
+"type = multipolygon", 94
+"natural = wood", 7</t>
         </is>
       </c>
       <c r="L226" s="17" t="inlineStr">
@@ -13584,7 +13574,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16910</v>
+        <v>18546</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13606,9 +13596,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1140
-"natural = coastline", 1023
-"type = multipolygon", 90</t>
+          <t>"place = islet", 1126
+"natural = coastline", 1010
+"type = multipolygon", 87</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13644,7 +13634,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13667,7 +13657,7 @@
       <c r="K228" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 9
-"natural = cape", 40</t>
+"natural = cape", 39</t>
         </is>
       </c>
       <c r="L228" s="17" t="inlineStr">
@@ -13703,7 +13693,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>20489</v>
+        <v>21928</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13725,7 +13715,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 896
+          <t>"natural = cape", 859
 "place = locality", 54</t>
         </is>
       </c>
@@ -13763,7 +13753,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13785,7 +13775,7 @@
       </c>
       <c r="K230" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3</t>
+          <t>"place = locality", 2</t>
         </is>
       </c>
       <c r="M230" s="17" t="inlineStr">
@@ -13821,7 +13811,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2116</v>
+        <v>2268</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13843,8 +13833,8 @@
       </c>
       <c r="K231" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 35
-"natural = beach", 48
+          <t>"place = locality", 34
+"natural = beach", 47
 "type = multipolygon", 8
 "place = isolated_dwelling", 2
 "layer = 2", 3
@@ -13886,7 +13876,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1209</v>
+        <v>1304</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -13908,7 +13898,7 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 18</t>
+          <t>"natural = bay", 17</t>
         </is>
       </c>
       <c r="L232" s="17" t="inlineStr">
@@ -13945,7 +13935,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -13969,8 +13959,8 @@
         <is>
           <t>"place = archipelago", 2
 "place = island", 6
-"natural = coastline", 15
-"place = islet", 14
+"natural = coastline", 13
+"place = islet", 12
 "natural = cape", 2
 "type = multipolygon", 2</t>
         </is>
@@ -14008,7 +13998,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -14030,8 +14020,8 @@
       </c>
       <c r="K234" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 16
-"place = islet", 17</t>
+          <t>"natural = coastline", 14
+"place = islet", 15</t>
         </is>
       </c>
       <c r="L234" s="17" t="inlineStr">
@@ -14068,7 +14058,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G235" s="12" t="n">
         <v>109</v>
@@ -14165,7 +14155,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>78</v>
@@ -14897,7 +14887,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>6431</v>
+        <v>7209</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -14919,7 +14909,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 188</t>
+          <t>"place = locality", 184</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -14956,7 +14946,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3484</v>
+        <v>3837</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15014,7 +15004,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>12656</v>
+        <v>14200</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15037,8 +15027,8 @@
       <c r="K260" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 49
-"natural = hill", 418
-"place = locality", 365</t>
+"natural = hill", 421
+"place = locality", 368</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15084,7 +15074,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>19278</v>
+        <v>20856</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15107,9 +15097,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 249
-"place = locality", 314
-"natural = hill", 231</t>
+"natural = peak", 251
+"place = locality", 311
+"natural = hill", 228</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15155,7 +15145,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>6965</v>
+        <v>7540</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15178,8 +15168,8 @@
       <c r="K262" s="1" t="inlineStr">
         <is>
           <t>"natural = heath", 58
-"natural = hill", 1197
-"place = locality", 1205</t>
+"natural = hill", 1079
+"place = locality", 1086</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15225,7 +15215,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>8013</v>
+        <v>8618</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15247,8 +15237,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1001
-"place = locality", 689</t>
+          <t>"natural = hill", 986
+"place = locality", 678</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15289,7 +15279,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>49361</v>
+        <v>52100</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15311,8 +15301,8 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3185
-"place = locality", 1876
+          <t>"natural = hill", 3141
+"place = locality", 1832
 "natural = peak", 476
 "natural = ridge", 288</t>
         </is>
@@ -15365,7 +15355,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>6058</v>
+        <v>6452</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15387,9 +15377,9 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 65
-"natural = ridge", 228
-"place = locality", 172</t>
+          <t>"natural = hill", 57
+"natural = ridge", 227
+"place = locality", 163</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15430,7 +15420,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>41086</v>
+        <v>44716</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15452,9 +15442,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 145
-"natural = hill", 1696
-"place = locality", 1394</t>
+          <t>"natural = peak", 144
+"natural = hill", 1694
+"place = locality", 1391</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15495,7 +15485,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1578</v>
+        <v>1711</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15518,7 +15508,7 @@
       <c r="K267" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 25
-"natural = hill", 19</t>
+"natural = hill", 18</t>
         </is>
       </c>
       <c r="L267" s="17" t="inlineStr">
@@ -15569,7 +15559,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1058</v>
+        <v>1191</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15694,7 +15684,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G271" s="12" t="n">
         <v>251</v>
@@ -15753,7 +15743,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>32931</v>
+        <v>35363</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15775,8 +15765,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 936
-"natural = valley", 1273</t>
+          <t>"place = locality", 859
+"natural = valley", 1195</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15817,7 +15807,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>5391</v>
+        <v>6417</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15839,8 +15829,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 84
-"place = locality", 86</t>
+          <t>"natural = valley", 82
+"place = locality", 84</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -15881,7 +15871,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>9465</v>
+        <v>10556</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -15903,8 +15893,8 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 137
-"place = locality", 120</t>
+          <t>"natural = valley", 131
+"place = locality", 114</t>
         </is>
       </c>
       <c r="L274" s="2" t="inlineStr">
@@ -15945,7 +15935,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1713</v>
+        <v>1888</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -16004,7 +15994,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2686</v>
+        <v>2988</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16026,8 +16016,8 @@
       </c>
       <c r="K276" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 55
-"place = locality", 44
+          <t>"natural = valley", 53
+"place = locality", 42
 "natural = wetland", 3
 "wetland = bog", 2</t>
         </is>
@@ -16075,7 +16065,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16097,8 +16087,8 @@
       </c>
       <c r="K277" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 22
-"place = locality", 22</t>
+          <t>"natural = valley", 20
+"place = locality", 20</t>
         </is>
       </c>
       <c r="L277" s="17" t="inlineStr">
@@ -16172,7 +16162,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>10334</v>
+        <v>11751</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16194,8 +16184,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 307
-"place = locality", 317</t>
+          <t>"natural = slope", 297
+"place = locality", 307</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16236,7 +16226,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>28404</v>
+        <v>30842</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16258,8 +16248,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 807
-"place = locality", 822</t>
+          <t>"natural = slope", 793
+"place = locality", 808</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16300,7 +16290,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1412</v>
+        <v>1471</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16322,7 +16312,7 @@
       </c>
       <c r="K281" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 21</t>
+          <t>"place = locality", 17</t>
         </is>
       </c>
       <c r="M281" s="12" t="inlineStr">
@@ -16391,7 +16381,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2620</v>
+        <v>2881</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16413,7 +16403,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 159</t>
+          <t>"natural = cliff", 157</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16450,7 +16440,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16509,7 +16499,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2880</v>
+        <v>3232</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16567,7 +16557,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5189</v>
+        <v>5667</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16589,7 +16579,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 114</t>
+          <t>"place = locality", 107</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
@@ -16779,7 +16769,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -16843,7 +16833,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G291" s="12" t="n">
         <v>279</v>
@@ -16863,7 +16853,12 @@
           <t>Høyereliggende, større område uten skog med lave terrengvariasjoner  innenfor området. Eks. Valdresflye, Hardangervidda, Finnmarksvidda, Laksefjordvidda</t>
         </is>
       </c>
-      <c r="K291" s="1" t="inlineStr"/>
+      <c r="K291" s="1" t="inlineStr">
+        <is>
+          <t>"natural = mountain_range", 2
+"note = Please refine boundary based on local knowledge", 2</t>
+        </is>
+      </c>
       <c r="L291" s="17" t="inlineStr">
         <is>
           <t>natural=plateau</t>
@@ -16897,7 +16892,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>
@@ -16921,7 +16916,7 @@
         <is>
           <t>"place = farm", 2
 "place = isolated_dwelling", 2
-"place = locality", 12</t>
+"place = locality", 10</t>
         </is>
       </c>
       <c r="L292" s="17" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -788,8 +788,8 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 41
-"source:population = SSB - befolkning i tettstedet", 48
+          <t>"place = town", 39
+"source:population = SSB - befolkning i tettstedet", 46
 "place = city", 13
 "ref:ssb_tettsted = 2562", 2
 "ref:ssb_tettsted = 2511", 2
@@ -804,10 +804,8 @@
 "ref:ssb_tettsted = 3021", 2
 "ref:ssb_tettsted = 3005-3813", 2
 "ref:ssb_tettsted = 3054", 2
-"ref:ssb_tettsted = 3102", 2
 "ref:ssb_tettsted = 3501", 2
-"ref:ssb_tettsted = 3531", 2
-"ref:ssb_tettsted = 4091", 2</t>
+"ref:ssb_tettsted = 3531", 2</t>
         </is>
       </c>
       <c r="L2" s="17" t="inlineStr">
@@ -849,7 +847,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>857</v>
+        <v>810</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -871,14 +869,13 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 191
-"source:population = SSB - befolkning i tettstedet", 121
-"place = town", 9
-"place = suburb", 43
+          <t>"place = village", 184
+"source:population = SSB - befolkning i tettstedet", 122
+"place = town", 10
+"place = suburb", 37
 "place = hamlet", 14
 "place = quarter", 25
-"place = neighbourhood", 16
-"type = multipolygon", 9</t>
+"place = neighbourhood", 13</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -914,7 +911,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>972</v>
+        <v>886</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -936,10 +933,10 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 80
-"source:population = SSB - befolkning i tettstedet", 41
-"place = neighbourhood", 175
-"place = suburb", 89
+          <t>"place = village", 74
+"source:population = SSB - befolkning i tettstedet", 37
+"place = neighbourhood", 155
+"place = suburb", 82
 "place = hamlet", 44
 "place = quarter", 64</t>
         </is>
@@ -988,7 +985,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1867</v>
+        <v>1751</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1010,11 +1007,11 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 215
-"place = hamlet", 147
+          <t>"place = village", 208
+"place = hamlet", 135
 "place = suburb", 19
-"source:population = SSB - befolkning i tettstedet", 30
-"place = neighbourhood", 16</t>
+"source:population = SSB - befolkning i tettstedet", 26
+"place = neighbourhood", 14</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1060,7 +1057,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3026</v>
+        <v>2822</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1082,9 +1079,9 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 719
-"place = neighbourhood", 56
-"place = farm", 39
+          <t>"place = hamlet", 671
+"place = neighbourhood", 48
+"place = farm", 38
 "place = village", 32</t>
         </is>
       </c>
@@ -1121,7 +1118,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2717</v>
+        <v>2594</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1143,9 +1140,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 759
-"place = suburb", 47
-"place = quarter", 192</t>
+          <t>"place = neighbourhood", 732
+"place = suburb", 45
+"place = quarter", 202</t>
         </is>
       </c>
       <c r="L7" s="17" t="inlineStr">
@@ -1181,7 +1178,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1203,17 +1200,15 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"landuse = industrial", 43
-"type = multipolygon", 9
-"place = quarter", 20
-"place = locality", 25
+          <t>"landuse = industrial", 42
+"type = multipolygon", 8
+"place = quarter", 21
+"place = locality", 26
 "place = suburb", 7
 "natural = cape", 2
 "building = industrial", 4
 "man_made = wastewater_plant", 2
 "place = neighbourhood", 40
-"place = farm", 2
-"place = isolated_dwelling", 2
 "ref:bygningsnr = 166261902", 2</t>
         </is>
       </c>
@@ -1250,7 +1245,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1272,10 +1267,9 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 115
-"place = neighbourhood", 12
-"place = quarter", 21
-"place = village", 4</t>
+          <t>"place = suburb", 105
+"place = neighbourhood", 10
+"place = quarter", 21</t>
         </is>
       </c>
       <c r="L9" s="17" t="inlineStr">
@@ -1311,7 +1305,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1333,8 +1327,9 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 170
-"place = quarter", 9</t>
+          <t>"place = neighbourhood", 169
+"place = quarter", 9
+"landuse = residential", 6</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1370,7 +1365,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1392,7 +1387,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 42</t>
+          <t>"place = square", 40</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1428,7 +1423,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1540,7 +1535,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1587,7 +1582,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>19</v>
@@ -1645,7 +1640,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10247</v>
+        <v>9599</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1667,8 +1662,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3419
-"place = farm", 561</t>
+          <t>"place = isolated_dwelling", 3183
+"place = farm", 518</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1709,7 +1704,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12918</v>
+        <v>12808</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1731,10 +1726,10 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 1154
-"place = isolated_dwelling", 5269
-"place = locality", 289
-"historic = shieling", 684</t>
+          <t>"building = cabin", 901
+"place = isolated_dwelling", 5178
+"place = locality", 324
+"historic = shieling", 647</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1770,7 +1765,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10254</v>
+        <v>9897</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1792,9 +1787,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5667
-"historic = shieling", 1062
-"historic = ruins", 687</t>
+          <t>"place = locality", 5491
+"historic = shieling", 980
+"historic = ruins", 735</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1836,7 +1831,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>3</v>
@@ -1896,7 +1891,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1918,9 +1913,9 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 31
+          <t>"leisure = park", 30
 "natural = wood", 3
-"type = multipolygon", 4</t>
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L20" s="17" t="inlineStr">
@@ -1956,7 +1951,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -1978,12 +1973,11 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"leisure = sports_centre", 22
-"building = sports_centre", 6
+          <t>"leisure = sports_centre", 21
+"building = sports_centre", 5
 "sport = multi", 2
 "building = yes", 2
 "ref:bygningsnr = 8628955", 2
-"ref:bygningsnr = 168158319", 2
 "amenity = sports_centre", 2
 "place = locality", 2</t>
         </is>
@@ -2021,7 +2015,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2044,11 +2038,11 @@
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>"leisure = pitch", 75
-"sport = soccer", 34
+"sport = soccer", 32
 "type = multipolygon", 7
 "sport = horse_racing", 6
-"place = locality", 19
-"leisure = sports_centre", 10
+"place = locality", 18
+"leisure = sports_centre", 9
 "surface = grass", 5
 "leisure = track", 3
 "piste:type = ski_jump", 6</t>
@@ -2087,7 +2081,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>24</v>
@@ -2146,7 +2140,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2206,7 +2200,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2229,9 +2223,9 @@
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>"leisure = swimming_area", 20
-"place = locality", 23
-"natural = beach", 9
-"surface = sand", 9
+"place = locality", 24
+"natural = beach", 10
+"surface = sand", 10
 "layer = 2", 3</t>
         </is>
       </c>
@@ -2333,7 +2327,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>94311</v>
+        <v>91967</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2355,7 +2349,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 27742</t>
+          <t>"place = farm", 27535</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2396,7 +2390,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20072</v>
+        <v>19827</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2418,9 +2412,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6407
-"place = locality", 5406
-"place = isolated_dwelling", 1026</t>
+          <t>"historic = shieling", 5821
+"place = locality", 4939
+"place = isolated_dwelling", 903</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2461,7 +2455,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2484,8 +2478,8 @@
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>"building = farm_auxiliary", 208
-"place = locality", 1130
-"historic = shieling", 179</t>
+"place = locality", 1065
+"historic = shieling", 174</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2521,7 +2515,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3751</v>
+        <v>3740</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2543,10 +2537,10 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 963
-"place = farm", 160
-"place = isolated_dwelling", 52
-"historic = shieling", 52</t>
+          <t>"place = locality", 967
+"place = farm", 150
+"place = isolated_dwelling", 55
+"historic = shieling", 44</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2582,7 +2576,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>80</v>
@@ -2604,7 +2598,7 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4
+          <t>"place = locality", 3
 "barrier = fence", 2</t>
         </is>
       </c>
@@ -2641,7 +2635,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>37685</v>
+        <v>36068</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2663,8 +2657,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 10086
-"place = hamlet", 1868</t>
+          <t>"place = farm", 9777
+"place = hamlet", 1776</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2710,7 +2704,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3038</v>
+        <v>3031</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2732,8 +2726,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 324
-"place = hamlet", 538</t>
+          <t>"place = farm", 315
+"place = hamlet", 557</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2768,7 +2762,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2778,7 +2772,8 @@
       <c r="J34" s="12" t="n"/>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 2</t>
+          <t>"place = farm", 2
+"place = isolated_dwelling", 3</t>
         </is>
       </c>
       <c r="M34" s="12" t="inlineStr">
@@ -2847,7 +2842,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2043</v>
+        <v>1921</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2870,17 +2865,17 @@
       <c r="K36" s="1" t="inlineStr">
         <is>
           <t>"building = school", 24
-"amenity = school", 155
-"fee = no", 117
-"grades = 1-7", 56
-"isced:level = 1", 62
-"operator:type = public", 117
-"grades = 1-10", 27
-"isced:level = 1;2", 34
+"amenity = school", 143
+"fee = no", 103
+"grades = 1-7", 48
+"isced:level = 1", 53
+"operator:type = public", 103
+"grades = 1-10", 26
+"isced:level = 1;2", 32
 "place = locality", 48
 "was:amenity = school", 7
-"grades = 8-10", 15
-"isced:level = 2", 15
+"grades = 8-10", 12
+"isced:level = 2", 12
 "building = civic", 29
 "fee = yes", 11
 "operator:type = private", 11
@@ -2924,7 +2919,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>88</v>
@@ -2946,9 +2941,8 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>"amenity = hospital", 11
-"emergency = yes", 2
-"healthcare = hospital", 3</t>
+          <t>"amenity = hospital", 10
+"healthcare = hospital", 2</t>
         </is>
       </c>
       <c r="L37" s="17" t="inlineStr">
@@ -2984,7 +2978,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3006,7 +3000,7 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 80
+          <t>"amenity = nursing_home", 75
 "place = locality", 7
 "amenity = social_facility", 3
 "building = yes", 3
@@ -3046,7 +3040,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3107,7 +3101,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>67</v>
@@ -3131,7 +3125,7 @@
         <is>
           <t>"landuse = military", 9
 "natural = bay", 2
-"place = locality", 3
+"place = locality", 2
 "place = neighbourhood", 3</t>
         </is>
       </c>
@@ -3168,7 +3162,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3190,13 +3184,10 @@
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>"amenity = kindergarten", 5
-"barrier = fence", 2
-"capacity = 56", 2
-"max_age = 5", 3
-"min_age = 1", 3
-"no-barnehage:nsrid = 973831704", 2
-"operator:type = public", 3</t>
+          <t>"amenity = kindergarten", 3
+"max_age = 5", 2
+"min_age = 1", 2
+"operator:type = public", 2</t>
         </is>
       </c>
       <c r="L41" s="17" t="inlineStr">
@@ -3232,7 +3223,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>65</v>
@@ -3254,11 +3245,9 @@
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>"amenity = townhall", 6
-"wheelchair = yes", 3
-"place = locality", 2
-"building = public", 2
-"ref:bygningsnr = 168251440", 2</t>
+          <t>"amenity = townhall", 5
+"wheelchair = yes", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L42" s="17" t="inlineStr">
@@ -3294,7 +3283,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>28</v>
@@ -3353,7 +3342,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>14</v>
@@ -3408,7 +3397,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>1</v>
@@ -3462,7 +3451,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3484,11 +3473,12 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"industrial = factory", 49
-"building = industrial", 38
-"place = locality", 25
-"landuse = industrial", 15
-"place = neighbourhood", 9
+          <t>"industrial = factory", 48
+"building = industrial", 37
+"place = locality", 24
+"type = multipolygon", 4
+"landuse = industrial", 14
+"place = neighbourhood", 10
 "industrial = shipyard", 2
 "ref:bygningsnr = 8563357", 2
 "ref:bygningsnr = 23042452", 2
@@ -3497,10 +3487,6 @@
 "ref:bygningsnr = 165706714", 2
 "ref:bygningsnr = 8631476", 2
 "ref:bygningsnr = 8633177", 2
-"email = kundesenter@hansaborg.no", 2
-"industrial = brewery", 2
-"ref:bygningsnr = 140572462", 2
-"type = multipolygon", 3
 "ref:bygningsnr = 8997497", 2
 "ref:bygningsnr = 169092559", 2
 "ref:bygningsnr = 169664846", 2</t>
@@ -3539,7 +3525,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3561,15 +3547,16 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"building = industrial", 58
-"place = locality", 20
+          <t>"building = industrial", 60
+"place = isolated_dwelling", 2
+"ref:bygningsnr = 157524291", 2
+"ref:bygningsnr = 157502042", 2
+"ref:bygningsnr = 157458736", 2
+"place = locality", 17
 "ref:bygningsnr = 8451478", 2
 "ref:bygningsnr = 8560013", 2
 "ref:bygningsnr = 165283686", 2
 "ref:bygningsnr = 17711024", 2
-"ref:bygningsnr = 165495055", 2
-"building = shed", 2
-"ref:bygningsnr = 165508807", 2
 "ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165783034", 2
 "ref:bygningsnr = 165781120", 2
@@ -3586,7 +3573,6 @@
 "ref:bygningsnr = 8671281", 2
 "ref:bygningsnr = 166301742", 2
 "ref:bygningsnr = 166280877", 2
-"ref:bygningsnr = 168150547", 2
 "ref:bygningsnr = 300204274", 2
 "ref:bygningsnr = 169058776", 2
 "ref:bygningsnr = 169721165", 2</t>
@@ -3625,7 +3611,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3647,13 +3633,12 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>"building = retail", 2
-"shop = mall", 2
-"building = office", 3
-"building = commercial", 13
+          <t>"shop = mall", 2
+"building = office", 2
+"building = commercial", 14
 "place = locality", 8
 "place = isolated_dwelling", 3
-"amenity = cafe", 3
+"amenity = cafe", 4
 "place = neighbourhood", 4
 "place = quarter", 3
 "ref:bygningsnr = 8428425", 2
@@ -3662,7 +3647,6 @@
 "ref:bygningsnr = 164431983", 2
 "place = farm", 2
 "ref:bygningsnr = 8630992", 2
-"ref:bygningsnr = 15310227", 2
 "building = industrial", 2
 "ref:bygningsnr = 169069298", 2</t>
         </is>
@@ -3700,7 +3684,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3725,7 +3709,6 @@
           <t>"tourism = hotel", 17
 "building = hotel", 11
 "place = locality", 11
-"tourism = chalet", 2
 "ref:bygningsnr = 8667314", 2
 "tourism = apartment", 2
 "ref:bygningsnr = 166214432", 2</t>
@@ -3790,9 +3773,7 @@
 "tourism = guest_house", 7
 "building = house", 2
 "place = locality", 7
-"place = hamlet", 2
-"building = yes", 2
-"ref:bygningsnr = 165884418", 2</t>
+"place = hamlet", 2</t>
         </is>
       </c>
       <c r="L50" s="17" t="inlineStr">
@@ -3828,7 +3809,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>976</v>
+        <v>933</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3855,18 +3836,17 @@
 "network = Den Norske Turistforening", 10
 "shelter_type = basic_hut", 3
 "tourism = wilderness_hut", 11
-"building = house", 2
+"building = cabin", 10
 "capacity = 11", 2
 "dnt:classification = ubetjent", 11
 "dnt:lock = yes", 15
-"tourism = alpine_hut", 4
-"tourism = chalet", 48
+"tourism = alpine_hut", 3
+"tourism = chalet", 40
 "amenity = cafe", 11
-"building = cabin", 9
 "capacity = 24", 2
 "dnt:classification = servering", 5
 "hiking = yes", 5
-"place = locality", 8
+"place = locality", 10
 "dnt:iid = 416", 2
 "dnt:iid = 417", 2
 "historic = shieling", 6
@@ -3885,9 +3865,7 @@
 "dnt:iid = 2019", 2
 "ski = yes", 2
 "ref:bygningsnr = 165795091", 2
-"ref:bygningsnr = 165767705", 2
-"ref:bygningsnr = 165906551", 2
-"amenity = restaurant", 2</t>
+"ref:bygningsnr = 165767705", 2</t>
         </is>
       </c>
       <c r="L51" s="17" t="inlineStr">
@@ -3950,7 +3928,7 @@
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>"tourism = camp_site", 14</t>
+          <t>"tourism = camp_site", 13</t>
         </is>
       </c>
       <c r="L52" s="17" t="inlineStr">
@@ -4044,7 +4022,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4066,9 +4044,7 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 4
-"building = religious", 2
-"ref:bygningsnr = 8893748", 2</t>
+          <t>"amenity = cafe", 3</t>
         </is>
       </c>
       <c r="L54" s="17" t="inlineStr">
@@ -4177,7 +4153,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4199,7 +4175,7 @@
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 8</t>
+          <t>"place = locality", 9</t>
         </is>
       </c>
       <c r="M57" s="12" t="inlineStr">
@@ -4235,7 +4211,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4257,7 +4233,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 50
+          <t>"natural = strait", 65
 "place = locality", 4</t>
         </is>
       </c>
@@ -4294,7 +4270,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6473</v>
+        <v>6242</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4316,7 +4292,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 215</t>
+          <t>"natural = bay", 229</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4352,7 +4328,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1221</v>
+        <v>1175</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4374,7 +4350,7 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 76
+          <t>"place = island", 94
 "place = islet", 4</t>
         </is>
       </c>
@@ -4411,7 +4387,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3681</v>
+        <v>3551</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4433,8 +4409,8 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>"natural = wood", 23
-"place = islet", 130</t>
+          <t>"natural = wood", 18
+"place = islet", 122</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4470,7 +4446,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4492,7 +4468,7 @@
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 29</t>
+          <t>"natural = cape", 30</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4528,7 +4504,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8448</v>
+        <v>8128</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4550,7 +4526,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 298</t>
+          <t>"natural = cape", 297</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4586,7 +4562,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4608,7 +4584,7 @@
       </c>
       <c r="K64" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5
+          <t>"place = locality", 3
 "natural = strait", 2</t>
         </is>
       </c>
@@ -4645,7 +4621,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>909</v>
+        <v>856</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4706,7 +4682,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>73</v>
@@ -4764,7 +4740,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>399</v>
@@ -4883,7 +4859,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -4903,11 +4879,7 @@
           <t>Lite område under vann</t>
         </is>
       </c>
-      <c r="K69" s="1" t="inlineStr">
-        <is>
-          <t>"seamark:type = rock", 2</t>
-        </is>
-      </c>
+      <c r="K69" s="1" t="inlineStr"/>
       <c r="L69" s="17" t="inlineStr">
         <is>
           <t>natural=shoal</t>
@@ -4946,7 +4918,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>32</v>
@@ -5000,7 +4972,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8801</v>
+        <v>8050</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5022,11 +4994,11 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 171
-"layer = -1", 10
+          <t>"waterway = river", 185
+"layer = -1", 13
 "width = 2", 10
 "width = 3", 10
-"waterway = stream", 17</t>
+"waterway = stream", 19</t>
         </is>
       </c>
       <c r="L71" s="17" t="inlineStr">
@@ -5062,7 +5034,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>39510</v>
+        <v>37271</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5084,13 +5056,13 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 406
-"layer = -1", 53
-"tunnel = culvert", 18
-"waterway = river", 56
-"width = 2", 80
+          <t>"waterway = stream", 424
+"layer = -1", 67
+"tunnel = culvert", 16
+"waterway = river", 55
+"width = 2", 79
 "width = 3", 24
-"place = locality", 62</t>
+"place = locality", 76</t>
         </is>
       </c>
       <c r="L72" s="17" t="inlineStr">
@@ -5177,7 +5149,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3098</v>
+        <v>2960</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5199,10 +5171,10 @@
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>"natural = waterfall", 24
-"waterway = waterfall", 7
-"place = locality", 7
-"water = waterfall", 2</t>
+          <t>"natural = waterfall", 22
+"waterway = waterfall", 8
+"place = locality", 9
+"water = waterfall", 3</t>
         </is>
       </c>
       <c r="L74" s="17" t="inlineStr">
@@ -5238,7 +5210,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>461</v>
@@ -5302,7 +5274,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>955</v>
+        <v>888</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5324,7 +5296,7 @@
       </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 4</t>
+          <t>"natural = bay", 7</t>
         </is>
       </c>
       <c r="L76" s="17" t="inlineStr">
@@ -5360,7 +5332,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2317</v>
+        <v>2135</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5386,7 +5358,7 @@
 "type = multipolygon", 3
 "water = pool", 5
 "water = pond", 3
-"place = locality", 18</t>
+"place = locality", 16</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5428,7 +5400,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1559</v>
+        <v>1456</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5450,9 +5422,9 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 13
-"water = river", 5
-"type = multipolygon", 10
+          <t>"natural = water", 15
+"water = river", 7
+"type = multipolygon", 13
 "natural = bay", 15</t>
         </is>
       </c>
@@ -5489,7 +5461,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>15</v>
@@ -5509,7 +5481,11 @@
           <t>Kunstig fløtningsanlegg</t>
         </is>
       </c>
-      <c r="K79" s="1" t="inlineStr"/>
+      <c r="K79" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 3</t>
+        </is>
+      </c>
       <c r="M79" s="17" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -5543,7 +5519,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5565,7 +5541,7 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 19</t>
+          <t>"natural = cape", 17</t>
         </is>
       </c>
       <c r="L80" s="17" t="inlineStr">
@@ -5602,7 +5578,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5712,7 +5688,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5734,9 +5710,9 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 16
-"type = multipolygon", 16
-"water = lake", 12
+          <t>"natural = water", 18
+"type = multipolygon", 18
+"water = lake", 14
 "ele:min = 431", 3
 "intermittent = no", 3
 "salt = no", 3</t>
@@ -5775,7 +5751,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>11940</v>
+        <v>11162</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5797,9 +5773,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 397
-"type = multipolygon", 303
-"water = lake", 262
+          <t>"natural = water", 392
+"type = multipolygon", 292
+"water = lake", 258
 "water = reservoir", 17</t>
         </is>
       </c>
@@ -5836,7 +5812,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>51336</v>
+        <v>49464</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5858,9 +5834,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 2712
-"type = multipolygon", 1324
-"water = lake", 860</t>
+          <t>"natural = water", 2722
+"type = multipolygon", 1304
+"water = lake", 830</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5896,7 +5872,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -5918,9 +5894,9 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 85
-"water = pond", 86
-"place = locality", 3
+          <t>"natural = water", 101
+"water = pond", 103
+"place = locality", 7
 "type = multipolygon", 10</t>
         </is>
       </c>
@@ -5957,7 +5933,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -5980,7 +5956,7 @@
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 2
-"waterway = dam", 7</t>
+"waterway = dam", 8</t>
         </is>
       </c>
       <c r="L87" s="17" t="inlineStr">
@@ -6017,7 +5993,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6040,8 +6016,8 @@
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>"natural = bay", 2
-"natural = water", 3
-"place = locality", 5</t>
+"natural = water", 4
+"place = locality", 7</t>
         </is>
       </c>
       <c r="L88" s="17" t="inlineStr">
@@ -6078,7 +6054,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6100,10 +6076,10 @@
       </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 6
-"water = lake", 3
-"place = locality", 2
-"type = multipolygon", 3</t>
+          <t>"natural = water", 7
+"water = lake", 6
+"type = multipolygon", 3
+"place = locality", 3</t>
         </is>
       </c>
       <c r="L89" s="17" t="inlineStr">
@@ -6140,7 +6116,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2251</v>
+        <v>2227</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6162,10 +6138,10 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 101
-"water = lake", 63
+          <t>"natural = water", 99
+"water = lake", 73
 "type = multipolygon", 43
-"place = locality", 14</t>
+"place = locality", 20</t>
         </is>
       </c>
       <c r="L90" s="17" t="inlineStr">
@@ -6234,7 +6210,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6256,11 +6232,12 @@
       </c>
       <c r="K92" s="1" t="inlineStr">
         <is>
-          <t>"railway = station", 5
+          <t>"railway = station", 6
 "railway:traffic_mode = passenger", 3
 "public_transport = station", 2
-"building = train_station", 2
-"train = yes", 5
+"building = train_station", 3
+"train = yes", 6
+"ref:bygningsnr = 157484370", 2
 "abandoned:railway = station", 2
 "place = locality", 2</t>
         </is>
@@ -6303,7 +6280,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6497,7 +6474,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -6520,7 +6497,13 @@
       <c r="K97" s="1" t="inlineStr">
         <is>
           <t>"plant:source = hydro", 2
-"power = plant", 3</t>
+"power = plant", 4
+"generator:source = hydro", 2
+"landuse = industrial", 2
+"place = locality", 2
+"power = generator", 2
+"building = service", 2
+"ref:bygningsnr = 157446959", 2</t>
         </is>
       </c>
       <c r="L97" s="17" t="inlineStr">
@@ -6900,7 +6883,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G105" s="12" t="n">
         <v>120</v>
@@ -6922,7 +6905,9 @@
       </c>
       <c r="K105" s="1" t="inlineStr">
         <is>
-          <t>"aeroway = aerodrome", 2</t>
+          <t>"aeroway = aerodrome", 3
+"icao = ENGK", 2
+"type = multipolygon", 2</t>
         </is>
       </c>
       <c r="L105" s="17" t="inlineStr">
@@ -6958,7 +6943,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G106" s="12" t="n">
         <v>22</v>
@@ -7052,7 +7037,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>98</v>
@@ -7106,7 +7091,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2161</v>
+        <v>1950</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>2333</v>
@@ -7177,7 +7162,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7241,7 +7226,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>524</v>
+        <v>449</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7601,7 +7586,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7662,7 +7647,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7684,9 +7669,8 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"layer = -1", 7
-"surface = paved", 2
-"tunnel = yes", 7
+          <t>"layer = -1", 6
+"tunnel = yes", 6
 "electrified = contact_line", 3
 "frequency = 16.67", 3
 "gauge = 1435", 3
@@ -7730,7 +7714,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7914</v>
+        <v>7666</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7742,25 +7726,27 @@
         <is>
           <t>"layer = -1", 3
 "man_made = tunnel", 3
-"bridge = yes", 47
+"bridge = yes", 46
 "cycleway:both = no", 4
 "highway = primary", 17
-"layer = 1", 49
-"surface = asphalt", 11
+"layer = 1", 48
+"surface = asphalt", 12
 "lanes = 2", 6
 "maxweight:signed = no", 3
-"highway = secondary", 10
+"highway = secondary", 11
 "highway = service", 2
 "highway = trunk", 2
 "surface = paved", 2
-"man_made = bridge", 27
+"man_made = bridge", 26
+"tunnel = culvert", 8
+"waterway = stream", 9
+"VANNBR = 2", 2
 "bridge:description = Dragbrua", 2
 "surface = gravel", 2
-"tunnel = culvert", 5
-"waterway = stream", 6
+"bridge:description = Grymyr", 2
 "place = suburb", 2
-"highway = residential", 2
-"highway = track", 3
+"highway = track", 2
+"old_ref = 158", 2
 "place = locality", 3
 "lanes = 1", 3
 "old_ref = 49", 3
@@ -7801,7 +7787,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G122" s="12" t="n">
         <v>11</v>
@@ -8266,7 +8252,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8335,7 +8321,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8359,7 +8345,7 @@
         <is>
           <t>"place = isolated_dwelling", 2
 "man_made = quay", 14
-"place = locality", 17</t>
+"place = locality", 15</t>
         </is>
       </c>
       <c r="L133" s="17" t="inlineStr">
@@ -8405,7 +8391,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>160</v>
@@ -8427,7 +8413,7 @@
       </c>
       <c r="K134" s="1" t="inlineStr">
         <is>
-          <t>"amenity = ferry_terminal", 2</t>
+          <t>"amenity = ferry_terminal", 4</t>
         </is>
       </c>
       <c r="L134" s="17" t="inlineStr">
@@ -8570,7 +8556,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>64</v>
@@ -8590,11 +8576,7 @@
           <t>Utgravd vannveg i sjø og ferskvann F.eks. opplagsplass for store båter/skip</t>
         </is>
       </c>
-      <c r="K137" s="1" t="inlineStr">
-        <is>
-          <t>"waterway = canal", 2</t>
-        </is>
-      </c>
+      <c r="K137" s="1" t="inlineStr"/>
       <c r="L137" s="17" t="inlineStr">
         <is>
           <t>waterway=canal</t>
@@ -8679,7 +8661,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -8701,10 +8683,7 @@
       </c>
       <c r="K139" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2
-"natural = beach", 2
-"surface = sand", 2
-"leisure = marina", 2</t>
+          <t>"leisure = marina", 2</t>
         </is>
       </c>
       <c r="L139" s="17" t="inlineStr">
@@ -8745,7 +8724,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G140" s="12" t="n">
         <v>188</v>
@@ -8808,7 +8787,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -8831,8 +8810,8 @@
       <c r="K141" s="1" t="inlineStr">
         <is>
           <t>"mooring = yes", 5
-"place = locality", 77
-"historic = yes", 76</t>
+"place = locality", 91
+"historic = yes", 90</t>
         </is>
       </c>
       <c r="L141" s="17" t="inlineStr">
@@ -8944,7 +8923,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5830</v>
+        <v>6024</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9003,7 +8982,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -9025,7 +9004,7 @@
       </c>
       <c r="K144" s="1" t="inlineStr">
         <is>
-          <t>"highway = track", 12
+          <t>"highway = track", 13
 "tracktype = grade3", 2
 "tracktype = grade4", 2
 "place = locality", 5
@@ -9070,7 +9049,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3964</v>
+        <v>3711</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9092,11 +9071,11 @@
       </c>
       <c r="K145" s="1" t="inlineStr">
         <is>
-          <t>"highway = path", 38
+          <t>"highway = path", 40
 "sac_scale = hiking", 6
 "mtb:scale = 1", 2
 "trail_visibility = excellent", 3
-"place = locality", 16</t>
+"place = locality", 17</t>
         </is>
       </c>
       <c r="L145" s="9" t="inlineStr">
@@ -9132,7 +9111,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9154,9 +9133,8 @@
       </c>
       <c r="K146" s="1" t="inlineStr">
         <is>
-          <t>"junction = yes", 12
-"place = locality", 12
-"highway = service", 2</t>
+          <t>"junction = yes", 13
+"place = locality", 13</t>
         </is>
       </c>
       <c r="L146" s="2" t="inlineStr">
@@ -9197,7 +9175,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>70</v>
@@ -9363,7 +9341,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9385,8 +9363,8 @@
       </c>
       <c r="K150" s="1" t="inlineStr">
         <is>
-          <t>"ford = yes", 11
-"place = locality", 10</t>
+          <t>"ford = yes", 12
+"place = locality", 11</t>
         </is>
       </c>
       <c r="L150" s="2" t="inlineStr">
@@ -9432,7 +9410,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>261</v>
@@ -9454,7 +9432,7 @@
       </c>
       <c r="K151" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 17</t>
+          <t>"place = locality", 23</t>
         </is>
       </c>
       <c r="M151" s="12" t="inlineStr">
@@ -9490,7 +9468,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>896</v>
+        <v>992</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9797,7 +9775,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1634</v>
+        <v>1546</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9819,58 +9797,58 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 89
-"denomination = lutheran", 89
+          <t>"amenity = place_of_worship", 96
+"denomination = lutheran", 95
 "diocese = Stavanger", 15
-"religion = christian", 89
+"religion = christian", 96
 "toilets = no", 9
 "toilets:wheelchair = no", 6
 "wheelchair = limited", 3
-"building = church", 85
+"building = church", 91
 "capacity = 700", 3
 "deanery = Ytre Stavanger", 6
-"note = Soknekirke/arbeidskirke", 12
+"note = Soknekirke/arbeidskirke", 11
 "toilets = yes", 43
 "deanery = Stavanger Domprosti", 7
-"note = Soknekirke", 37
+"note = Soknekirke", 41
 "capacity = 300", 5
-"toilets:wheelchair = yes", 10
-"wheelchair = yes", 12
+"toilets:wheelchair = yes", 8
+"wheelchair = yes", 11
 "note = Prostikirke", 4
 "capacity = 430", 3
 "capacity = 500", 10
 "capacity = 450", 6
+"capacity = 650", 3
 "capacity = 400", 3
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
+"heritage = yes", 53
 "parish = Gildeskål", 3
-"capacity = 250", 5
+"capacity = 250", 7
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
+"hearing_aids = yes", 13
 "parish = Kongsberg og Jondalen", 3
-"hearing_aids = yes", 15
 "capacity = 150", 3
 "architect = J.W.Nordan", 4
 "capacity = 170", 3
-"capacity = 200", 8
+"capacity = 200", 10
 "deanery = Lier", 4
 "architect = J.H.Nissen", 4
-"deanery = Aust-Nedenes", 17
-"diocese = Agder og Telemark", 49
-"heritage = yes", 42
+"deanery = Aust-Nedenes", 20
+"diocese = Agder og Telemark", 55
 "deanery = Mandal", 3
 "deanery = Lister", 4
 "parish = Farsund", 3
-"capacity = 350", 6
+"capacity = 350", 8
 "parish = Holt", 4
-"deanery = Vest-Nedenes", 4
-"parish = Åmli", 3
-"architect = Linstow type / Anders Thorsen Syrtveit", 8
-"deanery = Otredal", 19
+"deanery = Vest-Nedenes", 6
+"parish = Åmli", 4
+"architect = Linstow type / Anders Thorsen Syrtveit", 10
+"deanery = Otredal", 20
 "parish = Evje og Hornnes", 4
-"parish = Bygland", 3
-"parish = Valle og Hylestad", 4
-"parish = Bykle", 4</t>
+"parish = Bygland", 6
+"parish = Valle og Hylestad", 4</t>
         </is>
       </c>
       <c r="L159" s="17" t="inlineStr">
@@ -9911,7 +9889,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -9933,11 +9911,10 @@
       </c>
       <c r="K160" s="1" t="inlineStr">
         <is>
-          <t>"amenity = community_centre", 12
+          <t>"amenity = community_centre", 15
 "place = isolated_dwelling", 4
 "place = farm", 2
-"building = civic", 4
-"place = locality", 2</t>
+"building = civic", 4</t>
         </is>
       </c>
       <c r="L160" s="17" t="inlineStr">
@@ -9973,7 +9950,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -10044,7 +10021,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10107,7 +10084,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10129,8 +10106,8 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2
-"place = locality", 2</t>
+          <t>"tourism = museum", 2
+"place = isolated_dwelling", 2</t>
         </is>
       </c>
       <c r="L163" s="17" t="inlineStr">
@@ -10257,7 +10234,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10282,7 +10259,7 @@
           <t>"tourism = attraction", 4
 "tourism = museum", 2
 "type = multipolygon", 2
-"place = locality", 3
+"place = locality", 2
 "historic = memorial", 3</t>
         </is>
       </c>
@@ -10319,7 +10296,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10373,7 +10350,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4732</v>
+        <v>4459</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10395,12 +10372,13 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 233
-"building = farm_auxiliary", 25
+          <t>"place = locality", 197
+"building = farm_auxiliary", 24
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 12</t>
+"place = isolated_dwelling", 13
+"historic = shieling", 8</t>
         </is>
       </c>
       <c r="M168" s="12" t="inlineStr">
@@ -10436,7 +10414,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>488</v>
+        <v>407</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10532,7 +10510,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5444</v>
+        <v>4927</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10554,8 +10532,8 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 117
-"place = farm", 13</t>
+          <t>"place = locality", 116
+"place = farm", 11</t>
         </is>
       </c>
       <c r="L171" s="2" t="n"/>
@@ -10597,7 +10575,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2665</v>
+        <v>2434</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10621,7 +10599,7 @@
         <is>
           <t>"landuse = meadow", 24
 "type = multipolygon", 4
-"place = locality", 25
+"place = locality", 26
 "natural = wetland", 2
 "wetland = bog", 2</t>
         </is>
@@ -10659,7 +10637,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6525</v>
+        <v>4931</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10681,9 +10659,11 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"landuse = farmland", 41
-"type = multipolygon", 19
-"place = locality", 157</t>
+          <t>"landuse = farmland", 39
+"type = multipolygon", 18
+"place = farm", 7
+"place = isolated_dwelling", 7
+"place = locality", 150</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10719,7 +10699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10782,7 +10762,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3279</v>
+        <v>3045</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10804,11 +10784,11 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 135
+          <t>"building = farm_auxiliary", 5
+"historic = shieling", 130
 "landuse = meadow", 26
-"place = locality", 156
-"place = isolated_dwelling", 6
-"place = farm", 12</t>
+"place = locality", 139
+"place = farm", 11</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
@@ -10849,7 +10829,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="G176" s="12" t="n">
         <v>264</v>
@@ -10913,7 +10893,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -10973,7 +10953,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11064,7 +11044,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3083</v>
+        <v>2748</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11087,7 +11067,7 @@
       <c r="K180" s="1" t="inlineStr">
         <is>
           <t>"natural = stone", 44
-"place = locality", 3
+"place = locality", 4
 "natural = rock", 2</t>
         </is>
       </c>
@@ -11125,7 +11105,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2380</v>
+        <v>2165</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11235,7 +11215,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G183" s="12" t="n">
         <v>121</v>
@@ -11321,7 +11301,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I185" s="2" t="inlineStr">
         <is>
@@ -11419,7 +11399,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11480,7 +11460,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11500,7 +11480,12 @@
           <t>Uttaksplass/-område for sand, grus, pukk, skifer eller stein (Se også Bergverk 218)</t>
         </is>
       </c>
-      <c r="K188" s="1" t="inlineStr"/>
+      <c r="K188" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 3
+"place = isolated_dwelling", 2</t>
+        </is>
+      </c>
       <c r="L188" s="17" t="inlineStr">
         <is>
           <t>landuse=quarry</t>
@@ -11585,7 +11570,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>6619</v>
+        <v>5699</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11610,8 +11595,9 @@
           <t>"leaf_type = needleleaved", 3
 "natural = wood", 20
 "type = multipolygon", 6
-"place = locality", 74
-"place = farm", 8</t>
+"place = locality", 99
+"place = isolated_dwelling", 5
+"place = farm", 7</t>
         </is>
       </c>
       <c r="M190" s="12" t="inlineStr">
@@ -11647,7 +11633,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11705,7 +11691,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>42334</v>
+        <v>41720</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11727,8 +11713,8 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 439
-"natural = wetland", 663
+          <t>"place = locality", 424
+"natural = wetland", 738
 "wetland = bog", 258
 "type = multipolygon", 97</t>
         </is>
@@ -11954,7 +11940,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>12</v>
@@ -12458,7 +12444,7 @@
       </c>
       <c r="K207" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4</t>
+          <t>"place = locality", 5</t>
         </is>
       </c>
       <c r="L207" s="9" t="n"/>
@@ -12546,7 +12532,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12673,7 +12659,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12816,7 +12802,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1876</v>
+        <v>1732</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12838,9 +12824,9 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 126
-"natural = bay", 128
-"type = multipolygon", 15</t>
+          <t>"bay = fjord", 113
+"natural = bay", 115
+"type = multipolygon", 14</t>
         </is>
       </c>
       <c r="L214" s="17" t="inlineStr">
@@ -12984,7 +12970,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -13142,7 +13128,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>13237</v>
+        <v>11957</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13165,10 +13151,10 @@
       <c r="K220" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 345
-"seamark:type = rock", 88
-"place = islet", 446
-"natural = coastline", 371
-"natural = shoal", 52</t>
+"seamark:type = rock", 74
+"place = islet", 373
+"natural = coastline", 316
+"natural = shoal", 39</t>
         </is>
       </c>
       <c r="L220" s="17" t="inlineStr">
@@ -13209,7 +13195,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1110</v>
+        <v>1017</v>
       </c>
       <c r="G221" s="12" t="n">
         <v>1206</v>
@@ -13232,8 +13218,8 @@
       <c r="K221" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 2
-"place = locality", 48
-"seamark:type = rock", 48</t>
+"place = locality", 33
+"seamark:type = rock", 33</t>
         </is>
       </c>
       <c r="L221" s="17" t="inlineStr">
@@ -13279,7 +13265,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>13035</v>
+        <v>11762</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13301,8 +13287,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 319
-"place = locality", 112</t>
+          <t>"natural = shoal", 289
+"place = locality", 82</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13395,7 +13381,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4304</v>
+        <v>3923</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13417,7 +13403,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 334</t>
+          <t>"natural = strait", 280</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13453,7 +13439,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>24845</v>
+        <v>22324</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13475,7 +13461,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1370</t>
+          <t>"natural = bay", 1229</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13512,7 +13498,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>3708</v>
+        <v>3325</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13534,11 +13520,11 @@
       </c>
       <c r="K226" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 120
-"natural = coastline", 114
-"place = islet", 106
-"type = multipolygon", 94
-"natural = wood", 7</t>
+          <t>"place = island", 113
+"natural = coastline", 112
+"place = islet", 90
+"type = multipolygon", 75
+"natural = wood", 5</t>
         </is>
       </c>
       <c r="L226" s="17" t="inlineStr">
@@ -13574,7 +13560,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>18546</v>
+        <v>16694</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13596,9 +13582,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1126
-"natural = coastline", 1010
-"type = multipolygon", 87</t>
+          <t>"place = islet", 995
+"natural = coastline", 895
+"type = multipolygon", 77</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13634,7 +13620,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13657,7 +13643,7 @@
       <c r="K228" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 9
-"natural = cape", 39</t>
+"natural = cape", 26</t>
         </is>
       </c>
       <c r="L228" s="17" t="inlineStr">
@@ -13693,7 +13679,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>21928</v>
+        <v>19949</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13715,7 +13701,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 859
+          <t>"natural = cape", 761
 "place = locality", 54</t>
         </is>
       </c>
@@ -13753,7 +13739,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13811,7 +13797,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2268</v>
+        <v>2075</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13876,7 +13862,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1304</v>
+        <v>1178</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -13898,7 +13884,7 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 17</t>
+          <t>"natural = bay", 16</t>
         </is>
       </c>
       <c r="L232" s="17" t="inlineStr">
@@ -13935,7 +13921,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -13960,9 +13946,7 @@
           <t>"place = archipelago", 2
 "place = island", 6
 "natural = coastline", 13
-"place = islet", 12
-"natural = cape", 2
-"type = multipolygon", 2</t>
+"place = islet", 11</t>
         </is>
       </c>
       <c r="L233" s="17" t="inlineStr">
@@ -13998,7 +13982,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -14020,8 +14004,8 @@
       </c>
       <c r="K234" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 14
-"place = islet", 15</t>
+          <t>"natural = coastline", 12
+"place = islet", 13</t>
         </is>
       </c>
       <c r="L234" s="17" t="inlineStr">
@@ -14058,7 +14042,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G235" s="12" t="n">
         <v>109</v>
@@ -14155,7 +14139,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>78</v>
@@ -14887,7 +14871,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>7209</v>
+        <v>6757</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -14909,7 +14893,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 184</t>
+          <t>"place = locality", 190</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -14946,7 +14930,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3837</v>
+        <v>3616</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15004,7 +14988,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>14200</v>
+        <v>12932</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15026,9 +15010,9 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 49
-"natural = hill", 421
-"place = locality", 368</t>
+          <t>"natural = peak", 48
+"natural = hill", 424
+"place = locality", 372</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15074,7 +15058,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>20856</v>
+        <v>19358</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15097,9 +15081,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 251
-"place = locality", 311
-"natural = hill", 228</t>
+"natural = peak", 250
+"place = locality", 299
+"natural = hill", 216</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15145,7 +15129,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>7540</v>
+        <v>6796</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15168,8 +15152,8 @@
       <c r="K262" s="1" t="inlineStr">
         <is>
           <t>"natural = heath", 58
-"natural = hill", 1079
-"place = locality", 1086</t>
+"natural = hill", 803
+"place = locality", 809</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15215,7 +15199,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>8618</v>
+        <v>7938</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15237,8 +15221,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 986
-"place = locality", 678</t>
+          <t>"natural = hill", 953
+"place = locality", 634</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15279,7 +15263,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>52100</v>
+        <v>48866</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15301,9 +15285,9 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3141
-"place = locality", 1832
-"natural = peak", 476
+          <t>"natural = hill", 2868
+"place = locality", 1562
+"natural = peak", 466
 "natural = ridge", 288</t>
         </is>
       </c>
@@ -15355,7 +15339,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>6452</v>
+        <v>5818</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15377,9 +15361,9 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 57
-"natural = ridge", 227
-"place = locality", 163</t>
+          <t>"natural = hill", 38
+"natural = ridge", 231
+"place = locality", 148</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15420,7 +15404,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>44716</v>
+        <v>40583</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15442,9 +15426,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 144
-"natural = hill", 1694
-"place = locality", 1391</t>
+          <t>"natural = peak", 142
+"natural = hill", 1673
+"place = locality", 1367</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15485,7 +15469,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1711</v>
+        <v>1476</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15559,7 +15543,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1191</v>
+        <v>1077</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15743,7 +15727,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>35363</v>
+        <v>33076</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15765,8 +15749,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 859
-"natural = valley", 1195</t>
+          <t>"place = locality", 742
+"natural = valley", 1077</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15807,7 +15791,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>6417</v>
+        <v>5662</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15829,8 +15813,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 82
-"place = locality", 84</t>
+          <t>"natural = valley", 75
+"place = locality", 78</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -15871,7 +15855,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>10556</v>
+        <v>9389</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -15893,8 +15877,8 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 131
-"place = locality", 114</t>
+          <t>"natural = valley", 122
+"place = locality", 105</t>
         </is>
       </c>
       <c r="L274" s="2" t="inlineStr">
@@ -15935,7 +15919,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1888</v>
+        <v>1753</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -15994,7 +15978,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2988</v>
+        <v>2687</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16065,7 +16049,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16162,7 +16146,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>11751</v>
+        <v>10455</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16184,8 +16168,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 297
-"place = locality", 307</t>
+          <t>"natural = slope", 290
+"place = locality", 300</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16226,7 +16210,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>30842</v>
+        <v>28144</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16248,8 +16232,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 793
-"place = locality", 808</t>
+          <t>"natural = slope", 810
+"place = locality", 825</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16290,7 +16274,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1471</v>
+        <v>1350</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16312,7 +16296,7 @@
       </c>
       <c r="K281" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 17</t>
+          <t>"place = locality", 12</t>
         </is>
       </c>
       <c r="M281" s="12" t="inlineStr">
@@ -16381,7 +16365,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2881</v>
+        <v>2582</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16403,7 +16387,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 157</t>
+          <t>"natural = cliff", 145</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16440,7 +16424,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>556</v>
+        <v>481</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16462,7 +16446,7 @@
       </c>
       <c r="K284" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 7</t>
+          <t>"place = locality", 6</t>
         </is>
       </c>
       <c r="L284" s="2" t="n"/>
@@ -16499,7 +16483,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>3232</v>
+        <v>2831</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16521,7 +16505,7 @@
       </c>
       <c r="K285" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 132</t>
+          <t>"place = locality", 130</t>
         </is>
       </c>
       <c r="M285" s="12" t="inlineStr">
@@ -16557,7 +16541,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5667</v>
+        <v>5154</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16579,7 +16563,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 107</t>
+          <t>"place = locality", 104</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
@@ -16769,7 +16753,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -16832,9 +16816,6 @@
           <t>vidde</t>
         </is>
       </c>
-      <c r="F291" t="n">
-        <v>109</v>
-      </c>
       <c r="G291" s="12" t="n">
         <v>279</v>
       </c>
@@ -16853,12 +16834,7 @@
           <t>Høyereliggende, større område uten skog med lave terrengvariasjoner  innenfor området. Eks. Valdresflye, Hardangervidda, Finnmarksvidda, Laksefjordvidda</t>
         </is>
       </c>
-      <c r="K291" s="1" t="inlineStr">
-        <is>
-          <t>"natural = mountain_range", 2
-"note = Please refine boundary based on local knowledge", 2</t>
-        </is>
-      </c>
+      <c r="K291" s="17" t="n"/>
       <c r="L291" s="17" t="inlineStr">
         <is>
           <t>natural=plateau</t>
@@ -16892,7 +16868,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>
@@ -16916,7 +16892,7 @@
         <is>
           <t>"place = farm", 2
 "place = isolated_dwelling", 2
-"place = locality", 10</t>
+"place = locality", 8</t>
         </is>
       </c>
       <c r="L292" s="17" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -788,9 +788,9 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 39
-"source:population = SSB - befolkning i tettstedet", 46
-"place = city", 13
+          <t>"place = town", 40
+"source:population = SSB - befolkning i tettstedet", 48
+"place = city", 14
 "ref:ssb_tettsted = 2562", 2
 "ref:ssb_tettsted = 2511", 2
 "ref:ssb_tettsted = 2603", 2
@@ -805,7 +805,10 @@
 "ref:ssb_tettsted = 3005-3813", 2
 "ref:ssb_tettsted = 3054", 2
 "ref:ssb_tettsted = 3501", 2
-"ref:ssb_tettsted = 3531", 2</t>
+"email = postmottak@kristiansand.kommune.no", 2
+"ref:ssb_tettsted = 4002", 2
+"ref:ssb_tettsted = 3531", 2
+"ref:ssb_tettsted = 4091", 2</t>
         </is>
       </c>
       <c r="L2" s="17" t="inlineStr">
@@ -847,7 +850,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>810</v>
+        <v>895</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -869,13 +872,14 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 184
-"source:population = SSB - befolkning i tettstedet", 122
-"place = town", 10
-"place = suburb", 37
-"place = hamlet", 14
+          <t>"place = village", 199
+"source:population = SSB - befolkning i tettstedet", 129
+"place = town", 11
+"place = suburb", 43
+"place = hamlet", 17
 "place = quarter", 25
-"place = neighbourhood", 13</t>
+"place = neighbourhood", 20
+"type = multipolygon", 9</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -911,7 +915,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>886</v>
+        <v>1002</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -933,11 +937,11 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 74
-"source:population = SSB - befolkning i tettstedet", 37
-"place = neighbourhood", 155
-"place = suburb", 82
-"place = hamlet", 44
+          <t>"place = village", 83
+"source:population = SSB - befolkning i tettstedet", 41
+"place = neighbourhood", 186
+"place = suburb", 91
+"place = hamlet", 49
 "place = quarter", 64</t>
         </is>
       </c>
@@ -985,7 +989,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1751</v>
+        <v>1964</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1007,11 +1011,11 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 208
-"place = hamlet", 135
+          <t>"place = village", 224
+"place = hamlet", 158
 "place = suburb", 19
-"source:population = SSB - befolkning i tettstedet", 26
-"place = neighbourhood", 14</t>
+"source:population = SSB - befolkning i tettstedet", 30
+"place = neighbourhood", 17</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1057,7 +1061,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2822</v>
+        <v>3216</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1079,10 +1083,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 671
-"place = neighbourhood", 48
-"place = farm", 38
-"place = village", 32</t>
+          <t>"place = hamlet", 738
+"place = neighbourhood", 60
+"place = farm", 39
+"place = village", 36</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1118,7 +1122,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2594</v>
+        <v>2801</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1140,8 +1144,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 732
-"place = suburb", 45
+          <t>"place = neighbourhood", 775
+"landuse = residential", 31
+"place = suburb", 49
 "place = quarter", 202</t>
         </is>
       </c>
@@ -1178,7 +1183,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1200,8 +1205,8 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"landuse = industrial", 42
-"type = multipolygon", 8
+          <t>"landuse = industrial", 48
+"type = multipolygon", 11
 "place = quarter", 21
 "place = locality", 26
 "place = suburb", 7
@@ -1209,7 +1214,9 @@
 "building = industrial", 4
 "man_made = wastewater_plant", 2
 "place = neighbourhood", 40
-"ref:bygningsnr = 166261902", 2</t>
+"place = isolated_dwelling", 2
+"ref:bygningsnr = 166261902", 2
+"landuse = retail", 2</t>
         </is>
       </c>
       <c r="L8" s="17" t="inlineStr">
@@ -1245,7 +1252,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1267,9 +1274,10 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 105
-"place = neighbourhood", 10
-"place = quarter", 21</t>
+          <t>"place = suburb", 109
+"place = neighbourhood", 13
+"place = quarter", 21
+"place = village", 4</t>
         </is>
       </c>
       <c r="L9" s="17" t="inlineStr">
@@ -1305,7 +1313,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>797</v>
+        <v>857</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1327,9 +1335,9 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 169
+          <t>"place = neighbourhood", 181
 "place = quarter", 9
-"landuse = residential", 6</t>
+"landuse = residential", 10</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1365,7 +1373,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1387,7 +1395,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 40</t>
+          <t>"place = square", 42</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1423,7 +1431,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1445,7 +1453,8 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 7</t>
+          <t>"place = quarter", 7
+"place = neighbourhood", 2</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1481,7 +1490,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>1</v>
@@ -1503,7 +1512,8 @@
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3
+          <t>"place = farm", 3
+"place = isolated_dwelling", 3
 "historic = shieling", 2
 "place = locality", 2</t>
         </is>
@@ -1535,7 +1545,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1582,7 +1592,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>19</v>
@@ -1640,7 +1650,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9599</v>
+        <v>10186</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1662,8 +1672,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3183
-"place = farm", 518</t>
+          <t>"place = isolated_dwelling", 3195
+"place = farm", 533</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1704,7 +1714,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12808</v>
+        <v>13842</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1726,10 +1736,10 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 901
-"place = isolated_dwelling", 5178
-"place = locality", 324
-"historic = shieling", 647</t>
+          <t>"building = cabin", 943
+"place = isolated_dwelling", 5380
+"place = locality", 350
+"historic = shieling", 685</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1765,7 +1775,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9897</v>
+        <v>10582</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1787,9 +1797,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5491
-"historic = shieling", 980
-"historic = ruins", 735</t>
+          <t>"place = locality", 5711
+"historic = shieling", 1020
+"historic = ruins", 836</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1831,7 +1841,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>3</v>
@@ -1891,7 +1901,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1913,9 +1923,9 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>"leisure = park", 30
+          <t>"leisure = park", 31
 "natural = wood", 3
-"type = multipolygon", 3</t>
+"type = multipolygon", 4</t>
         </is>
       </c>
       <c r="L20" s="17" t="inlineStr">
@@ -1951,7 +1961,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -1973,11 +1983,12 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>"leisure = sports_centre", 21
-"building = sports_centre", 5
+          <t>"leisure = sports_centre", 22
+"building = sports_centre", 6
 "sport = multi", 2
 "building = yes", 2
 "ref:bygningsnr = 8628955", 2
+"ref:bygningsnr = 168158319", 2
 "amenity = sports_centre", 2
 "place = locality", 2</t>
         </is>
@@ -2015,7 +2026,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2041,8 +2052,8 @@
 "sport = soccer", 32
 "type = multipolygon", 7
 "sport = horse_racing", 6
-"place = locality", 18
-"leisure = sports_centre", 9
+"place = locality", 17
+"leisure = sports_centre", 10
 "surface = grass", 5
 "leisure = track", 3
 "piste:type = ski_jump", 6</t>
@@ -2081,7 +2092,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>24</v>
@@ -2140,7 +2151,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2200,7 +2211,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2272,7 +2283,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>12</v>
@@ -2327,7 +2338,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>91967</v>
+        <v>100683</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2349,7 +2360,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 27535</t>
+          <t>"place = farm", 28741</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2390,7 +2401,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>19827</v>
+        <v>21910</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2412,9 +2423,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 5821
-"place = locality", 4939
-"place = isolated_dwelling", 903</t>
+          <t>"historic = shieling", 6379
+"place = locality", 5246
+"place = isolated_dwelling", 1171</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2455,7 +2466,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2374</v>
+        <v>2566</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2477,9 +2488,9 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 208
-"place = locality", 1065
-"historic = shieling", 174</t>
+          <t>"building = farm_auxiliary", 209
+"place = locality", 1120
+"historic = shieling", 179</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2515,7 +2526,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3740</v>
+        <v>4073</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2537,10 +2548,10 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 967
-"place = farm", 150
+          <t>"place = locality", 987
+"place = farm", 181
 "place = isolated_dwelling", 55
-"historic = shieling", 44</t>
+"historic = shieling", 53</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2576,7 +2587,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>80</v>
@@ -2598,7 +2609,7 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3
+          <t>"place = locality", 4
 "barrier = fence", 2</t>
         </is>
       </c>
@@ -2635,7 +2646,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>36068</v>
+        <v>39564</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2657,8 +2668,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 9777
-"place = hamlet", 1776</t>
+          <t>"place = farm", 10573
+"place = hamlet", 1954</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2704,7 +2715,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3031</v>
+        <v>3257</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2726,8 +2737,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 315
-"place = hamlet", 557</t>
+          <t>"place = farm", 329
+"place = hamlet", 566</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2842,7 +2853,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1921</v>
+        <v>2121</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2864,26 +2875,26 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>"building = school", 24
-"amenity = school", 143
-"fee = no", 103
-"grades = 1-7", 48
-"isced:level = 1", 53
-"operator:type = public", 103
-"grades = 1-10", 26
-"isced:level = 1;2", 32
+          <t>"building = school", 27
+"amenity = school", 178
+"fee = no", 135
+"grades = 1-7", 67
+"isced:level = 1", 72
+"operator:type = public", 135
+"grades = 1-10", 28
+"isced:level = 1;2", 37
 "place = locality", 48
 "was:amenity = school", 7
-"grades = 8-10", 12
-"isced:level = 2", 12
+"grades = 8-10", 18
+"isced:level = 2", 18
 "building = civic", 29
-"fee = yes", 11
-"operator:type = private", 11
+"fee = yes", 13
+"operator:type = private", 13
 "building = house", 10
-"building = kindergarten", 11
-"grades = 11-13", 17
-"isced:level = 3", 17
-"disused:amenity = school", 7</t>
+"building = kindergarten", 12
+"grades = 11-13", 21
+"isced:level = 3", 21
+"disused:amenity = school", 8</t>
         </is>
       </c>
       <c r="L36" s="17" t="inlineStr">
@@ -2919,7 +2930,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>88</v>
@@ -2941,8 +2952,9 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>"amenity = hospital", 10
-"healthcare = hospital", 2</t>
+          <t>"amenity = hospital", 11
+"emergency = yes", 2
+"healthcare = hospital", 3</t>
         </is>
       </c>
       <c r="L37" s="17" t="inlineStr">
@@ -2978,7 +2990,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3000,11 +3012,11 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 75
+          <t>"amenity = nursing_home", 81
 "place = locality", 7
 "amenity = social_facility", 3
 "building = yes", 3
-"building = civic", 3</t>
+"building = civic", 4</t>
         </is>
       </c>
       <c r="L38" s="17" t="inlineStr">
@@ -3040,7 +3052,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3101,7 +3113,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>67</v>
@@ -3125,8 +3137,8 @@
         <is>
           <t>"landuse = military", 9
 "natural = bay", 2
-"place = locality", 2
-"place = neighbourhood", 3</t>
+"place = locality", 3
+"place = neighbourhood", 4</t>
         </is>
       </c>
       <c r="L40" s="17" t="inlineStr">
@@ -3162,7 +3174,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3184,10 +3196,15 @@
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>"amenity = kindergarten", 3
-"max_age = 5", 2
-"min_age = 1", 2
-"operator:type = public", 2</t>
+          <t>"amenity = kindergarten", 5
+"capacity = 59", 2
+"max_age = 5", 4
+"min_age = 1", 4
+"no-barnehage:nsrid = 873831472", 2
+"operator:type = public", 4
+"barrier = fence", 2
+"capacity = 56", 2
+"no-barnehage:nsrid = 973831704", 2</t>
         </is>
       </c>
       <c r="L41" s="17" t="inlineStr">
@@ -3223,7 +3240,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>65</v>
@@ -3245,9 +3262,14 @@
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>"amenity = townhall", 5
-"wheelchair = yes", 2
-"place = locality", 2</t>
+          <t>"amenity = townhall", 6
+"wheelchair = yes", 3
+"place = locality", 2
+"government = administrative", 2
+"office = government", 2
+"opening_hours = Mo-Fr 08:00-15:45", 2
+"building = public", 2
+"ref:bygningsnr = 168251440", 2</t>
         </is>
       </c>
       <c r="L42" s="17" t="inlineStr">
@@ -3283,7 +3305,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>28</v>
@@ -3342,7 +3364,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>14</v>
@@ -3451,7 +3473,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3473,11 +3495,11 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"industrial = factory", 48
-"building = industrial", 37
-"place = locality", 24
-"type = multipolygon", 4
-"landuse = industrial", 14
+          <t>"industrial = factory", 53
+"building = industrial", 40
+"place = locality", 25
+"type = multipolygon", 5
+"landuse = industrial", 17
 "place = neighbourhood", 10
 "industrial = shipyard", 2
 "ref:bygningsnr = 8563357", 2
@@ -3487,6 +3509,11 @@
 "ref:bygningsnr = 165706714", 2
 "ref:bygningsnr = 8631476", 2
 "ref:bygningsnr = 8633177", 2
+"email = kundesenter@hansaborg.no", 2
+"industrial = brewery", 2
+"ref:bygningsnr = 168181728", 2
+"ref:bygningsnr = 140572462", 2
+"ref:bygningsnr = 8900299", 2
 "ref:bygningsnr = 8997497", 2
 "ref:bygningsnr = 169092559", 2
 "ref:bygningsnr = 169664846", 2</t>
@@ -3525,7 +3552,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3552,17 +3579,16 @@
 "ref:bygningsnr = 157524291", 2
 "ref:bygningsnr = 157502042", 2
 "ref:bygningsnr = 157458736", 2
-"place = locality", 17
+"place = locality", 19
 "ref:bygningsnr = 8451478", 2
 "ref:bygningsnr = 8560013", 2
 "ref:bygningsnr = 165283686", 2
 "ref:bygningsnr = 17711024", 2
+"ref:bygningsnr = 165495055", 2
 "ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165783034", 2
 "ref:bygningsnr = 165781120", 2
 "ref:bygningsnr = 165771508", 2
-"ref:bygningsnr = 165894626", 2
-"ref:bygningsnr = 165921429", 2
 "building = yes", 2
 "ref:bygningsnr = 166020549", 2
 "place = neighbourhood", 4
@@ -3573,6 +3599,7 @@
 "ref:bygningsnr = 8671281", 2
 "ref:bygningsnr = 166301742", 2
 "ref:bygningsnr = 166280877", 2
+"ref:bygningsnr = 168150547", 2
 "ref:bygningsnr = 300204274", 2
 "ref:bygningsnr = 169058776", 2
 "ref:bygningsnr = 169721165", 2</t>
@@ -3611,7 +3638,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3633,8 +3660,9 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>"shop = mall", 2
-"building = office", 2
+          <t>"building = retail", 2
+"shop = mall", 2
+"building = office", 3
 "building = commercial", 14
 "place = locality", 8
 "place = isolated_dwelling", 3
@@ -3647,6 +3675,7 @@
 "ref:bygningsnr = 164431983", 2
 "place = farm", 2
 "ref:bygningsnr = 8630992", 2
+"ref:bygningsnr = 15310227", 2
 "building = industrial", 2
 "ref:bygningsnr = 169069298", 2</t>
         </is>
@@ -3684,7 +3713,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3747,7 +3776,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3809,7 +3838,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>933</v>
+        <v>1036</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3841,12 +3870,12 @@
 "dnt:classification = ubetjent", 11
 "dnt:lock = yes", 15
 "tourism = alpine_hut", 3
-"tourism = chalet", 40
+"tourism = chalet", 48
 "amenity = cafe", 11
 "capacity = 24", 2
 "dnt:classification = servering", 5
 "hiking = yes", 5
-"place = locality", 10
+"place = locality", 11
 "dnt:iid = 416", 2
 "dnt:iid = 417", 2
 "historic = shieling", 6
@@ -3865,7 +3894,8 @@
 "dnt:iid = 2019", 2
 "ski = yes", 2
 "ref:bygningsnr = 165795091", 2
-"ref:bygningsnr = 165767705", 2</t>
+"ref:bygningsnr = 165767705", 2
+"amenity = restaurant", 2</t>
         </is>
       </c>
       <c r="L51" s="17" t="inlineStr">
@@ -3906,7 +3936,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -3928,7 +3958,17 @@
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>"tourism = camp_site", 13</t>
+          <t>"tourism = camp_site", 15
+"barrier = fence", 2
+"caravans = yes", 2
+"dryer = yes", 2
+"email = roligheden@roligheden.no", 2
+"internet_access = wlan", 2
+"power_supply = cee_7_3", 2
+"power_supply:voltage = 230", 2
+"stars = 4", 2
+"tents = yes", 2
+"washing_machine = yes", 2</t>
         </is>
       </c>
       <c r="L52" s="17" t="inlineStr">
@@ -3964,7 +4004,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>4</v>
@@ -4022,7 +4062,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4044,7 +4084,9 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 3</t>
+          <t>"amenity = cafe", 4
+"building = religious", 2
+"ref:bygningsnr = 8893748", 2</t>
         </is>
       </c>
       <c r="L54" s="17" t="inlineStr">
@@ -4153,7 +4195,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4211,7 +4253,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>931</v>
+        <v>1072</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4233,7 +4275,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 65
+          <t>"natural = strait", 66
 "place = locality", 4</t>
         </is>
       </c>
@@ -4270,7 +4312,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6242</v>
+        <v>7253</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4292,7 +4334,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 229</t>
+          <t>"natural = bay", 252</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4328,7 +4370,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1175</v>
+        <v>1313</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4350,7 +4392,7 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 94
+          <t>"place = island", 95
 "place = islet", 4</t>
         </is>
       </c>
@@ -4387,7 +4429,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3551</v>
+        <v>4201</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4409,8 +4451,8 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>"natural = wood", 18
-"place = islet", 122</t>
+          <t>"natural = wood", 25
+"place = islet", 150</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4446,7 +4488,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4504,7 +4546,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8128</v>
+        <v>9527</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4526,7 +4568,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 297</t>
+          <t>"natural = cape", 327</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4562,7 +4604,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4584,8 +4626,8 @@
       </c>
       <c r="K64" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3
-"natural = strait", 2</t>
+          <t>"place = locality", 5
+"natural = strait", 4</t>
         </is>
       </c>
       <c r="M64" s="17" t="inlineStr">
@@ -4621,7 +4663,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>856</v>
+        <v>990</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4682,7 +4724,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>73</v>
@@ -4740,7 +4782,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>399</v>
@@ -4859,7 +4901,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -4879,7 +4921,12 @@
           <t>Lite område under vann</t>
         </is>
       </c>
-      <c r="K69" s="1" t="inlineStr"/>
+      <c r="K69" s="1" t="inlineStr">
+        <is>
+          <t>"seamark:type = rock", 2
+"place = islet", 2</t>
+        </is>
+      </c>
       <c r="L69" s="17" t="inlineStr">
         <is>
           <t>natural=shoal</t>
@@ -4918,7 +4965,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>32</v>
@@ -4972,7 +5019,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8050</v>
+        <v>9497</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -4994,8 +5041,8 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 185
-"layer = -1", 13
+          <t>"waterway = river", 186
+"layer = -1", 14
 "width = 2", 10
 "width = 3", 10
 "waterway = stream", 19</t>
@@ -5034,7 +5081,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>37271</v>
+        <v>43141</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5056,11 +5103,11 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 424
-"layer = -1", 67
-"tunnel = culvert", 16
-"waterway = river", 55
-"width = 2", 79
+          <t>"waterway = stream", 464
+"layer = -1", 72
+"tunnel = culvert", 20
+"waterway = river", 57
+"width = 2", 80
 "width = 3", 24
 "place = locality", 76</t>
         </is>
@@ -5149,7 +5196,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2960</v>
+        <v>3431</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5171,7 +5218,7 @@
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>"natural = waterfall", 22
+          <t>"natural = waterfall", 23
 "waterway = waterfall", 8
 "place = locality", 9
 "water = waterfall", 3</t>
@@ -5210,7 +5257,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>461</v>
@@ -5233,7 +5280,7 @@
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>"place = suburb", 2
-"waterway = rapids", 3</t>
+"waterway = rapids", 5</t>
         </is>
       </c>
       <c r="L75" s="17" t="inlineStr">
@@ -5274,7 +5321,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>888</v>
+        <v>1019</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5332,7 +5379,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2135</v>
+        <v>2565</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5358,7 +5405,7 @@
 "type = multipolygon", 3
 "water = pool", 5
 "water = pond", 3
-"place = locality", 16</t>
+"place = locality", 17</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5400,7 +5447,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1456</v>
+        <v>1770</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5422,9 +5469,9 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 15
+          <t>"natural = water", 17
 "water = river", 7
-"type = multipolygon", 13
+"type = multipolygon", 14
 "natural = bay", 15</t>
         </is>
       </c>
@@ -5461,7 +5508,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>15</v>
@@ -5519,7 +5566,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>554</v>
+        <v>676</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5578,7 +5625,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5688,7 +5735,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5710,12 +5757,12 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 18
-"type = multipolygon", 18
-"water = lake", 14
-"ele:min = 431", 3
-"intermittent = no", 3
-"salt = no", 3</t>
+          <t>"natural = water", 19
+"type = multipolygon", 19
+"water = lake", 15
+"ele:min = 431", 4
+"intermittent = no", 4
+"salt = no", 4</t>
         </is>
       </c>
       <c r="L83" s="17" t="inlineStr">
@@ -5751,7 +5798,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>11162</v>
+        <v>13032</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5773,9 +5820,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 392
-"type = multipolygon", 292
-"water = lake", 258
+          <t>"natural = water", 437
+"type = multipolygon", 333
+"water = lake", 288
 "water = reservoir", 17</t>
         </is>
       </c>
@@ -5812,7 +5859,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>49464</v>
+        <v>56978</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5834,9 +5881,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 2722
-"type = multipolygon", 1304
-"water = lake", 830</t>
+          <t>"natural = water", 3084
+"type = multipolygon", 1488
+"water = lake", 900</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5872,7 +5919,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1229</v>
+        <v>1423</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -5894,8 +5941,8 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 101
-"water = pond", 103
+          <t>"natural = water", 102
+"water = pond", 104
 "place = locality", 7
 "type = multipolygon", 10</t>
         </is>
@@ -5933,7 +5980,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>748</v>
+        <v>867</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -5956,7 +6003,7 @@
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 2
-"waterway = dam", 8</t>
+"waterway = dam", 9</t>
         </is>
       </c>
       <c r="L87" s="17" t="inlineStr">
@@ -5993,7 +6040,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6054,7 +6101,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6116,7 +6163,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2227</v>
+        <v>2496</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6138,9 +6185,9 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 99
-"water = lake", 73
-"type = multipolygon", 43
+          <t>"natural = water", 112
+"water = lake", 74
+"type = multipolygon", 46
 "place = locality", 20</t>
         </is>
       </c>
@@ -6210,7 +6257,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6280,7 +6327,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6474,7 +6521,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -6883,7 +6930,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G105" s="12" t="n">
         <v>120</v>
@@ -6943,7 +6990,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G106" s="12" t="n">
         <v>22</v>
@@ -7037,7 +7084,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>98</v>
@@ -7091,7 +7138,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1950</v>
+        <v>2195</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>2333</v>
@@ -7162,7 +7209,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7226,7 +7273,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7586,7 +7633,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7647,7 +7694,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7669,8 +7716,9 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"layer = -1", 6
-"tunnel = yes", 6
+          <t>"layer = -1", 7
+"surface = paved", 2
+"tunnel = yes", 7
 "electrified = contact_line", 3
 "frequency = 16.67", 3
 "gauge = 1435", 3
@@ -7714,7 +7762,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7666</v>
+        <v>8535</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7726,10 +7774,10 @@
         <is>
           <t>"layer = -1", 3
 "man_made = tunnel", 3
-"bridge = yes", 46
+"bridge = yes", 48
 "cycleway:both = no", 4
-"highway = primary", 17
-"layer = 1", 48
+"highway = primary", 18
+"layer = 1", 50
 "surface = asphalt", 12
 "lanes = 2", 6
 "maxweight:signed = no", 3
@@ -7745,9 +7793,11 @@
 "surface = gravel", 2
 "bridge:description = Grymyr", 2
 "place = suburb", 2
+"highway = residential", 2
 "highway = track", 2
+"historic = bridge", 2
+"place = locality", 4
 "old_ref = 158", 2
-"place = locality", 3
 "lanes = 1", 3
 "old_ref = 49", 3
 "source:maxspeed = sign", 2
@@ -8252,7 +8302,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8321,7 +8371,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8391,7 +8441,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>160</v>
@@ -8556,7 +8606,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>64</v>
@@ -8576,7 +8626,12 @@
           <t>Utgravd vannveg i sjø og ferskvann F.eks. opplagsplass for store båter/skip</t>
         </is>
       </c>
-      <c r="K137" s="1" t="inlineStr"/>
+      <c r="K137" s="1" t="inlineStr">
+        <is>
+          <t>"natural = bay", 2
+"waterway = canal", 2</t>
+        </is>
+      </c>
       <c r="L137" s="17" t="inlineStr">
         <is>
           <t>waterway=canal</t>
@@ -8661,7 +8716,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -8683,7 +8738,9 @@
       </c>
       <c r="K139" s="1" t="inlineStr">
         <is>
-          <t>"leisure = marina", 2</t>
+          <t>"natural = beach", 2
+"surface = sand", 2
+"leisure = marina", 2</t>
         </is>
       </c>
       <c r="L139" s="17" t="inlineStr">
@@ -8724,7 +8781,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="G140" s="12" t="n">
         <v>188</v>
@@ -8787,7 +8844,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -8810,8 +8867,8 @@
       <c r="K141" s="1" t="inlineStr">
         <is>
           <t>"mooring = yes", 5
-"place = locality", 91
-"historic = yes", 90</t>
+"place = locality", 93
+"historic = yes", 92</t>
         </is>
       </c>
       <c r="L141" s="17" t="inlineStr">
@@ -8923,7 +8980,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6024</v>
+        <v>6927</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -8982,7 +9039,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>597</v>
+        <v>747</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -9007,7 +9064,7 @@
           <t>"highway = track", 13
 "tracktype = grade3", 2
 "tracktype = grade4", 2
-"place = locality", 5
+"place = locality", 6
 "highway = path", 2</t>
         </is>
       </c>
@@ -9049,7 +9106,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3711</v>
+        <v>4382</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9111,7 +9168,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>694</v>
+        <v>741</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9175,7 +9232,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>70</v>
@@ -9341,7 +9398,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>732</v>
+        <v>885</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9410,7 +9467,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>261</v>
@@ -9468,7 +9525,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>992</v>
+        <v>1066</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9775,7 +9832,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1546</v>
+        <v>1716</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9797,23 +9854,23 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 96
-"denomination = lutheran", 95
+          <t>"amenity = place_of_worship", 98
+"denomination = lutheran", 97
 "diocese = Stavanger", 15
-"religion = christian", 96
+"religion = christian", 98
 "toilets = no", 9
 "toilets:wheelchair = no", 6
 "wheelchair = limited", 3
-"building = church", 91
+"building = church", 93
 "capacity = 700", 3
 "deanery = Ytre Stavanger", 6
-"note = Soknekirke/arbeidskirke", 11
-"toilets = yes", 43
+"note = Soknekirke/arbeidskirke", 12
+"toilets = yes", 45
 "deanery = Stavanger Domprosti", 7
 "note = Soknekirke", 41
 "capacity = 300", 5
-"toilets:wheelchair = yes", 8
-"wheelchair = yes", 11
+"toilets:wheelchair = yes", 10
+"wheelchair = yes", 12
 "note = Prostikirke", 4
 "capacity = 430", 3
 "capacity = 500", 10
@@ -9822,12 +9879,12 @@
 "capacity = 400", 3
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"heritage = yes", 53
+"heritage = yes", 54
 "parish = Gildeskål", 3
 "capacity = 250", 7
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
-"hearing_aids = yes", 13
+"hearing_aids = yes", 15
 "parish = Kongsberg og Jondalen", 3
 "capacity = 150", 3
 "architect = J.W.Nordan", 4
@@ -9836,7 +9893,7 @@
 "deanery = Lier", 4
 "architect = J.H.Nissen", 4
 "deanery = Aust-Nedenes", 20
-"diocese = Agder og Telemark", 55
+"diocese = Agder og Telemark", 57
 "deanery = Mandal", 3
 "deanery = Lister", 4
 "parish = Farsund", 3
@@ -9845,10 +9902,11 @@
 "deanery = Vest-Nedenes", 6
 "parish = Åmli", 4
 "architect = Linstow type / Anders Thorsen Syrtveit", 10
-"deanery = Otredal", 20
+"deanery = Otredal", 22
 "parish = Evje og Hornnes", 4
 "parish = Bygland", 6
-"parish = Valle og Hylestad", 4</t>
+"parish = Valle og Hylestad", 4
+"parish = Bykle", 4</t>
         </is>
       </c>
       <c r="L159" s="17" t="inlineStr">
@@ -9889,7 +9947,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -9950,7 +10008,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -10021,7 +10079,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10084,7 +10142,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10107,7 +10165,8 @@
       <c r="K163" s="1" t="inlineStr">
         <is>
           <t>"tourism = museum", 2
-"place = isolated_dwelling", 2</t>
+"place = isolated_dwelling", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L163" s="17" t="inlineStr">
@@ -10234,7 +10293,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10259,7 +10318,7 @@
           <t>"tourism = attraction", 4
 "tourism = museum", 2
 "type = multipolygon", 2
-"place = locality", 2
+"place = locality", 3
 "historic = memorial", 3</t>
         </is>
       </c>
@@ -10296,7 +10355,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10350,7 +10409,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4459</v>
+        <v>5029</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10372,13 +10431,13 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 197
-"building = farm_auxiliary", 24
+          <t>"place = locality", 242
+"building = farm_auxiliary", 25
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
 "place = isolated_dwelling", 13
-"historic = shieling", 8</t>
+"historic = shieling", 10</t>
         </is>
       </c>
       <c r="M168" s="12" t="inlineStr">
@@ -10414,7 +10473,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10510,7 +10569,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4927</v>
+        <v>5984</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10532,8 +10591,8 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 116
-"place = farm", 11</t>
+          <t>"place = locality", 117
+"place = farm", 21</t>
         </is>
       </c>
       <c r="L171" s="2" t="n"/>
@@ -10575,7 +10634,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2434</v>
+        <v>3003</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10637,7 +10696,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4931</v>
+        <v>7661</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10659,11 +10718,11 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"landuse = farmland", 39
-"type = multipolygon", 18
+          <t>"landuse = farmland", 40
+"type = multipolygon", 19
 "place = farm", 7
 "place = isolated_dwelling", 7
-"place = locality", 150</t>
+"place = locality", 155</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10699,7 +10758,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>314</v>
+        <v>498</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10721,7 +10780,7 @@
       </c>
       <c r="K174" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 11</t>
+          <t>"place = locality", 12</t>
         </is>
       </c>
       <c r="M174" s="17" t="inlineStr">
@@ -10762,7 +10821,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3045</v>
+        <v>3630</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10784,10 +10843,10 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 5
-"historic = shieling", 130
+          <t>"historic = shieling", 138
 "landuse = meadow", 26
-"place = locality", 139
+"place = locality", 165
+"place = isolated_dwelling", 6
 "place = farm", 11</t>
         </is>
       </c>
@@ -10829,7 +10888,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="G176" s="12" t="n">
         <v>264</v>
@@ -10851,8 +10910,8 @@
       </c>
       <c r="K176" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9
-"historic = shieling", 8</t>
+          <t>"place = locality", 10
+"historic = shieling", 9</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
@@ -10893,7 +10952,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -10953,7 +11012,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11044,7 +11103,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2748</v>
+        <v>3280</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11105,7 +11164,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2165</v>
+        <v>2482</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11215,7 +11274,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G183" s="12" t="n">
         <v>121</v>
@@ -11301,7 +11360,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I185" s="2" t="inlineStr">
         <is>
@@ -11399,7 +11458,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11460,7 +11519,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11570,7 +11629,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5699</v>
+        <v>7449</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11597,7 +11656,7 @@
 "type = multipolygon", 6
 "place = locality", 99
 "place = isolated_dwelling", 5
-"place = farm", 7</t>
+"place = farm", 8</t>
         </is>
       </c>
       <c r="M190" s="12" t="inlineStr">
@@ -11633,7 +11692,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11691,7 +11750,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>41720</v>
+        <v>49387</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11713,7 +11772,7 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 424
+          <t>"place = locality", 440
 "natural = wetland", 738
 "wetland = bog", 258
 "type = multipolygon", 97</t>
@@ -11940,7 +11999,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>12</v>
@@ -12422,7 +12481,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>233</v>
@@ -12532,7 +12591,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>762</v>
+        <v>818</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12659,7 +12718,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12802,7 +12861,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1732</v>
+        <v>1953</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12824,8 +12883,8 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 113
-"natural = bay", 115
+          <t>"bay = fjord", 126
+"natural = bay", 128
 "type = multipolygon", 14</t>
         </is>
       </c>
@@ -12970,7 +13029,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -13029,6 +13088,9 @@
           <t>fiskeplassISjø</t>
         </is>
       </c>
+      <c r="F218" t="n">
+        <v>53</v>
+      </c>
       <c r="G218" s="12" t="n">
         <v>46</v>
       </c>
@@ -13047,7 +13109,7 @@
           <t>Fiskested, fiskemed</t>
         </is>
       </c>
-      <c r="K218" s="17" t="n"/>
+      <c r="K218" s="1" t="inlineStr"/>
       <c r="M218" s="12" t="n"/>
       <c r="O218" s="17">
         <f>CONCATENATE(Tabell1[[#This Row],[OSM tag]],";",Tabell1[[#This Row],[tillegg]],";",Tabell1[[#This Row],[fixme]])</f>
@@ -13128,7 +13190,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>11957</v>
+        <v>13440</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13151,10 +13213,10 @@
       <c r="K220" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 345
-"seamark:type = rock", 74
-"place = islet", 373
-"natural = coastline", 316
-"natural = shoal", 39</t>
+"seamark:type = rock", 91
+"place = islet", 457
+"natural = coastline", 379
+"natural = shoal", 42</t>
         </is>
       </c>
       <c r="L220" s="17" t="inlineStr">
@@ -13195,7 +13257,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1017</v>
+        <v>1195</v>
       </c>
       <c r="G221" s="12" t="n">
         <v>1206</v>
@@ -13218,8 +13280,8 @@
       <c r="K221" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 2
-"place = locality", 33
-"seamark:type = rock", 33</t>
+"place = locality", 37
+"seamark:type = rock", 37</t>
         </is>
       </c>
       <c r="L221" s="17" t="inlineStr">
@@ -13265,7 +13327,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>11762</v>
+        <v>13195</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13287,8 +13349,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 289
-"place = locality", 82</t>
+          <t>"natural = shoal", 336
+"place = locality", 129</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13381,7 +13443,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>3923</v>
+        <v>4572</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13403,7 +13465,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 280</t>
+          <t>"natural = strait", 339</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13439,7 +13501,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>22324</v>
+        <v>25792</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13461,7 +13523,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1229</t>
+          <t>"natural = bay", 1419</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13498,7 +13560,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>3325</v>
+        <v>3809</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13520,11 +13582,11 @@
       </c>
       <c r="K226" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 113
-"natural = coastline", 112
-"place = islet", 90
-"type = multipolygon", 75
-"natural = wood", 5</t>
+          <t>"place = island", 121
+"natural = coastline", 117
+"place = islet", 107
+"type = multipolygon", 93
+"natural = wood", 8</t>
         </is>
       </c>
       <c r="L226" s="17" t="inlineStr">
@@ -13560,7 +13622,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16694</v>
+        <v>19062</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13582,9 +13644,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 995
-"natural = coastline", 895
-"type = multipolygon", 77</t>
+          <t>"place = islet", 1175
+"natural = coastline", 1054
+"type = multipolygon", 86</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13620,7 +13682,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13643,7 +13705,7 @@
       <c r="K228" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 9
-"natural = cape", 26</t>
+"natural = cape", 30</t>
         </is>
       </c>
       <c r="L228" s="17" t="inlineStr">
@@ -13679,7 +13741,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>19949</v>
+        <v>22726</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13701,7 +13763,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 761
+          <t>"natural = cape", 838
 "place = locality", 54</t>
         </is>
       </c>
@@ -13739,7 +13801,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13797,7 +13859,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2075</v>
+        <v>2307</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13862,7 +13924,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1178</v>
+        <v>1437</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -13884,7 +13946,7 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 16</t>
+          <t>"natural = bay", 19</t>
         </is>
       </c>
       <c r="L232" s="17" t="inlineStr">
@@ -13921,7 +13983,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -13982,7 +14044,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -14004,8 +14066,8 @@
       </c>
       <c r="K234" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 12
-"place = islet", 13</t>
+          <t>"natural = coastline", 14
+"place = islet", 15</t>
         </is>
       </c>
       <c r="L234" s="17" t="inlineStr">
@@ -14042,7 +14104,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G235" s="12" t="n">
         <v>109</v>
@@ -14139,7 +14201,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>78</v>
@@ -14871,7 +14933,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>6757</v>
+        <v>7855</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -14893,7 +14955,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 190</t>
+          <t>"place = locality", 193</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -14930,7 +14992,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>3616</v>
+        <v>4124</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -14988,7 +15050,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>12932</v>
+        <v>15086</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15010,9 +15072,9 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 48
-"natural = hill", 424
-"place = locality", 372</t>
+          <t>"natural = peak", 50
+"natural = hill", 438
+"place = locality", 386</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15058,7 +15120,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>19358</v>
+        <v>21970</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15081,9 +15143,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 250
-"place = locality", 299
-"natural = hill", 216</t>
+"natural = peak", 252
+"place = locality", 314
+"natural = hill", 231</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15129,7 +15191,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>6796</v>
+        <v>8444</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15152,8 +15214,8 @@
       <c r="K262" s="1" t="inlineStr">
         <is>
           <t>"natural = heath", 58
-"natural = hill", 803
-"place = locality", 809</t>
+"natural = hill", 1013
+"place = locality", 1021</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15199,7 +15261,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>7938</v>
+        <v>9437</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15221,8 +15283,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 953
-"place = locality", 634</t>
+          <t>"natural = hill", 1046
+"place = locality", 747</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15263,7 +15325,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>48866</v>
+        <v>56165</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15285,9 +15347,9 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 2868
-"place = locality", 1562
-"natural = peak", 466
+          <t>"natural = hill", 3170
+"place = locality", 1866
+"natural = peak", 489
 "natural = ridge", 288</t>
         </is>
       </c>
@@ -15339,7 +15401,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>5818</v>
+        <v>6909</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15361,9 +15423,9 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 38
+          <t>"natural = hill", 42
 "natural = ridge", 231
-"place = locality", 148</t>
+"place = locality", 152</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15404,7 +15466,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>40583</v>
+        <v>47844</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15426,9 +15488,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 142
-"natural = hill", 1673
-"place = locality", 1367</t>
+          <t>"natural = peak", 144
+"natural = hill", 1718
+"place = locality", 1417</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15469,7 +15531,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1476</v>
+        <v>1804</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15492,7 +15554,7 @@
       <c r="K267" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 25
-"natural = hill", 18</t>
+"natural = hill", 19</t>
         </is>
       </c>
       <c r="L267" s="17" t="inlineStr">
@@ -15543,7 +15605,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1077</v>
+        <v>1184</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15668,7 +15730,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G271" s="12" t="n">
         <v>251</v>
@@ -15727,7 +15789,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>33076</v>
+        <v>38650</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15749,8 +15811,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 742
-"natural = valley", 1077</t>
+          <t>"place = locality", 795
+"natural = valley", 1131</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15791,7 +15853,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>5662</v>
+        <v>6799</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15813,8 +15875,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 75
-"place = locality", 78</t>
+          <t>"natural = valley", 78
+"place = locality", 81</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -15855,7 +15917,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>9389</v>
+        <v>11073</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -15877,8 +15939,8 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 122
-"place = locality", 105</t>
+          <t>"natural = valley", 126
+"place = locality", 109</t>
         </is>
       </c>
       <c r="L274" s="2" t="inlineStr">
@@ -15919,7 +15981,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1753</v>
+        <v>2024</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -15978,7 +16040,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2687</v>
+        <v>3250</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16049,7 +16111,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16146,7 +16208,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>10455</v>
+        <v>12646</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16168,8 +16230,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 290
-"place = locality", 300</t>
+          <t>"natural = slope", 292
+"place = locality", 302</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16210,7 +16272,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>28144</v>
+        <v>33347</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16232,8 +16294,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 810
-"place = locality", 825</t>
+          <t>"natural = slope", 815
+"place = locality", 830</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16274,7 +16336,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1350</v>
+        <v>1467</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16296,7 +16358,7 @@
       </c>
       <c r="K281" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 12</t>
+          <t>"place = locality", 15</t>
         </is>
       </c>
       <c r="M281" s="12" t="inlineStr">
@@ -16365,7 +16427,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2582</v>
+        <v>3067</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16387,7 +16449,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 145</t>
+          <t>"natural = cliff", 150</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16424,7 +16486,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>481</v>
+        <v>620</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16483,7 +16545,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2831</v>
+        <v>3449</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16505,7 +16567,7 @@
       </c>
       <c r="K285" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 130</t>
+          <t>"place = locality", 131</t>
         </is>
       </c>
       <c r="M285" s="12" t="inlineStr">
@@ -16541,7 +16603,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5154</v>
+        <v>6491</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16753,7 +16815,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -16816,6 +16878,9 @@
           <t>vidde</t>
         </is>
       </c>
+      <c r="F291" t="n">
+        <v>116</v>
+      </c>
       <c r="G291" s="12" t="n">
         <v>279</v>
       </c>
@@ -16834,7 +16899,7 @@
           <t>Høyereliggende, større område uten skog med lave terrengvariasjoner  innenfor området. Eks. Valdresflye, Hardangervidda, Finnmarksvidda, Laksefjordvidda</t>
         </is>
       </c>
-      <c r="K291" s="17" t="n"/>
+      <c r="K291" s="1" t="inlineStr"/>
       <c r="L291" s="17" t="inlineStr">
         <is>
           <t>natural=plateau</t>
@@ -16868,7 +16933,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -788,8 +788,8 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 40
-"source:population = SSB - befolkning i tettstedet", 48
+          <t>"place = town", 42
+"source:population = SSB - befolkning i tettstedet", 50
 "place = city", 14
 "ref:ssb_tettsted = 2562", 2
 "ref:ssb_tettsted = 2511", 2
@@ -804,9 +804,11 @@
 "ref:ssb_tettsted = 3021", 2
 "ref:ssb_tettsted = 3005-3813", 2
 "ref:ssb_tettsted = 3054", 2
+"ref:ssb_tettsted = 3102", 2
 "ref:ssb_tettsted = 3501", 2
 "email = postmottak@kristiansand.kommune.no", 2
 "ref:ssb_tettsted = 4002", 2
+"ref:ssb_tettsted = 4011", 2
 "ref:ssb_tettsted = 3531", 2
 "ref:ssb_tettsted = 4091", 2</t>
         </is>
@@ -850,7 +852,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -873,12 +875,12 @@
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>"place = village", 199
-"source:population = SSB - befolkning i tettstedet", 129
+"source:population = SSB - befolkning i tettstedet", 130
 "place = town", 11
-"place = suburb", 43
-"place = hamlet", 17
+"place = suburb", 46
+"place = hamlet", 15
 "place = quarter", 25
-"place = neighbourhood", 20
+"place = neighbourhood", 19
 "type = multipolygon", 9</t>
         </is>
       </c>
@@ -915,7 +917,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -937,11 +939,11 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 83
+          <t>"place = village", 84
 "source:population = SSB - befolkning i tettstedet", 41
 "place = neighbourhood", 186
-"place = suburb", 91
-"place = hamlet", 49
+"place = suburb", 94
+"place = hamlet", 48
 "place = quarter", 64</t>
         </is>
       </c>
@@ -989,7 +991,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1964</v>
+        <v>1948</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1011,11 +1013,11 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 224
-"place = hamlet", 158
+          <t>"place = village", 227
+"place = hamlet", 163
 "place = suburb", 19
-"source:population = SSB - befolkning i tettstedet", 30
-"place = neighbourhood", 17</t>
+"source:population = SSB - befolkning i tettstedet", 29
+"place = neighbourhood", 16</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1061,7 +1063,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3216</v>
+        <v>3254</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1083,10 +1085,10 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 738
-"place = neighbourhood", 60
-"place = farm", 39
-"place = village", 36</t>
+          <t>"place = hamlet", 787
+"place = neighbourhood", 64
+"place = farm", 42
+"place = village", 37</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1122,7 +1124,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2801</v>
+        <v>2849</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1144,7 +1146,7 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 775
+          <t>"place = neighbourhood", 798
 "landuse = residential", 31
 "place = suburb", 49
 "place = quarter", 202</t>
@@ -1183,7 +1185,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1205,15 +1207,16 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"landuse = industrial", 48
-"type = multipolygon", 11
+          <t>"landuse = industrial", 49
+"type = multipolygon", 12
 "place = quarter", 21
 "place = locality", 26
 "place = suburb", 7
 "natural = cape", 2
 "building = industrial", 4
 "man_made = wastewater_plant", 2
-"place = neighbourhood", 40
+"place = neighbourhood", 42
+"place = farm", 2
 "place = isolated_dwelling", 2
 "ref:bygningsnr = 166261902", 2
 "landuse = retail", 2</t>
@@ -1252,7 +1255,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1274,8 +1277,8 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 109
-"place = neighbourhood", 13
+          <t>"place = suburb", 118
+"place = neighbourhood", 14
 "place = quarter", 21
 "place = village", 4</t>
         </is>
@@ -1313,7 +1316,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>857</v>
+        <v>878</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1335,7 +1338,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 181
+          <t>"place = neighbourhood", 184
 "place = quarter", 9
 "landuse = residential", 10</t>
         </is>
@@ -1373,7 +1376,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 42</t>
+          <t>"place = square", 44</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1431,7 +1434,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1545,7 +1548,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1556,7 +1559,7 @@
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 3
-"place = isolated_dwelling", 2</t>
+"place = isolated_dwelling", 3</t>
         </is>
       </c>
       <c r="M14" s="12" t="inlineStr">
@@ -1592,7 +1595,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>19</v>
@@ -1650,7 +1653,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10186</v>
+        <v>9734</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1672,8 +1675,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3195
-"place = farm", 533</t>
+          <t>"place = isolated_dwelling", 3011
+"place = farm", 537</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1714,7 +1717,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13842</v>
+        <v>13462</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1736,10 +1739,10 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 943
-"place = isolated_dwelling", 5380
-"place = locality", 350
-"historic = shieling", 685</t>
+          <t>"building = cabin", 1018
+"place = isolated_dwelling", 5640
+"place = locality", 362
+"historic = shieling", 734</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1775,7 +1778,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10582</v>
+        <v>11043</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1797,9 +1800,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5711
-"historic = shieling", 1020
-"historic = ruins", 836</t>
+          <t>"place = locality", 6075
+"historic = shieling", 1090
+"historic = ruins", 844</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1901,7 +1904,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1961,7 +1964,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -2026,7 +2029,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2048,11 +2051,11 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>"leisure = pitch", 75
-"sport = soccer", 32
+          <t>"leisure = pitch", 77
+"sport = soccer", 34
 "type = multipolygon", 7
 "sport = horse_racing", 6
-"place = locality", 17
+"place = locality", 19
 "leisure = sports_centre", 10
 "surface = grass", 5
 "leisure = track", 3
@@ -2092,7 +2095,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>24</v>
@@ -2211,7 +2214,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2234,10 +2237,11 @@
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>"leisure = swimming_area", 20
-"place = locality", 24
-"natural = beach", 10
-"surface = sand", 10
-"layer = 2", 3</t>
+"place = locality", 25
+"natural = beach", 13
+"surface = sand", 13
+"layer = 2", 6
+"description:no = Stranda har fått navnet sitt etter den rødfarget sanden, denne rødfargen stammer fra ned rustet tyskt materiell som ble ligende her etter 2. verdenskrig, som nettopp minner om kanelfarge.", 2</t>
         </is>
       </c>
       <c r="L25" s="17" t="inlineStr">
@@ -2338,7 +2342,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100683</v>
+        <v>100385</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2360,7 +2364,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 28741</t>
+          <t>"place = farm", 29422</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2401,7 +2405,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>21910</v>
+        <v>21534</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2423,9 +2427,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6379
-"place = locality", 5246
-"place = isolated_dwelling", 1171</t>
+          <t>"historic = shieling", 6820
+"place = locality", 5687
+"place = isolated_dwelling", 1174</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2466,7 +2470,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2566</v>
+        <v>2524</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2489,8 +2493,8 @@
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>"building = farm_auxiliary", 209
-"place = locality", 1120
-"historic = shieling", 179</t>
+"place = locality", 1170
+"historic = shieling", 180</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2526,7 +2530,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4073</v>
+        <v>4078</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2548,10 +2552,10 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 987
-"place = farm", 181
+          <t>"place = locality", 990
+"place = farm", 200
 "place = isolated_dwelling", 55
-"historic = shieling", 53</t>
+"historic = shieling", 54</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2587,7 +2591,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>80</v>
@@ -2646,7 +2650,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>39564</v>
+        <v>39686</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2668,8 +2672,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 10573
-"place = hamlet", 1954</t>
+          <t>"place = farm", 11025
+"place = hamlet", 2053</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2715,7 +2719,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3257</v>
+        <v>3354</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2737,8 +2741,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 329
-"place = hamlet", 566</t>
+          <t>"place = farm", 330
+"place = hamlet", 584</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2853,7 +2857,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2121</v>
+        <v>2187</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2876,21 +2880,21 @@
       <c r="K36" s="1" t="inlineStr">
         <is>
           <t>"building = school", 27
-"amenity = school", 178
-"fee = no", 135
-"grades = 1-7", 67
-"isced:level = 1", 72
-"operator:type = public", 135
+"amenity = school", 181
+"fee = no", 138
+"grades = 1-7", 68
+"isced:level = 1", 74
+"operator:type = public", 138
 "grades = 1-10", 28
 "isced:level = 1;2", 37
-"place = locality", 48
+"place = locality", 49
 "was:amenity = school", 7
-"grades = 8-10", 18
-"isced:level = 2", 18
-"building = civic", 29
+"grades = 8-10", 19
+"isced:level = 2", 19
+"building = civic", 30
 "fee = yes", 13
 "operator:type = private", 13
-"building = house", 10
+"building = house", 12
 "building = kindergarten", 12
 "grades = 11-13", 21
 "isced:level = 3", 21
@@ -2930,7 +2934,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>88</v>
@@ -2990,7 +2994,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3012,7 +3016,7 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 81
+          <t>"amenity = nursing_home", 82
 "place = locality", 7
 "amenity = social_facility", 3
 "building = yes", 3
@@ -3052,7 +3056,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3113,7 +3117,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>67</v>
@@ -3174,7 +3178,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3196,7 +3200,7 @@
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>"amenity = kindergarten", 5
+          <t>"amenity = kindergarten", 6
 "capacity = 59", 2
 "max_age = 5", 4
 "min_age = 1", 4
@@ -3305,7 +3309,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>28</v>
@@ -3419,7 +3423,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>1</v>
@@ -3473,7 +3477,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3497,7 +3501,7 @@
         <is>
           <t>"industrial = factory", 53
 "building = industrial", 40
-"place = locality", 25
+"place = locality", 26
 "type = multipolygon", 5
 "landuse = industrial", 17
 "place = neighbourhood", 10
@@ -3574,21 +3578,25 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"building = industrial", 60
+          <t>"building = industrial", 64
 "place = isolated_dwelling", 2
 "ref:bygningsnr = 157524291", 2
 "ref:bygningsnr = 157502042", 2
 "ref:bygningsnr = 157458736", 2
-"place = locality", 19
+"place = locality", 20
 "ref:bygningsnr = 8451478", 2
 "ref:bygningsnr = 8560013", 2
 "ref:bygningsnr = 165283686", 2
 "ref:bygningsnr = 17711024", 2
 "ref:bygningsnr = 165495055", 2
+"building = shed", 2
+"ref:bygningsnr = 165508807", 2
 "ref:bygningsnr = 8612730", 2
 "ref:bygningsnr = 165783034", 2
 "ref:bygningsnr = 165781120", 2
 "ref:bygningsnr = 165771508", 2
+"ref:bygningsnr = 165894626", 2
+"ref:bygningsnr = 165921429", 2
 "building = yes", 2
 "ref:bygningsnr = 166020549", 2
 "place = neighbourhood", 4
@@ -3638,7 +3646,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3713,7 +3721,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3738,6 +3746,7 @@
           <t>"tourism = hotel", 17
 "building = hotel", 11
 "place = locality", 11
+"tourism = chalet", 2
 "ref:bygningsnr = 8667314", 2
 "tourism = apartment", 2
 "ref:bygningsnr = 166214432", 2</t>
@@ -3776,7 +3785,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3799,10 +3808,13 @@
       <c r="K50" s="1" t="inlineStr">
         <is>
           <t>"building = hotel", 2
-"tourism = guest_house", 7
-"building = house", 2
+"tourism = guest_house", 8
+"building = house", 3
 "place = locality", 7
-"place = hamlet", 2</t>
+"place = hamlet", 2
+"building = yes", 2
+"ref:bygningsnr = 165884418", 2
+"ref:bygningsnr = 165877926", 2</t>
         </is>
       </c>
       <c r="L50" s="17" t="inlineStr">
@@ -3838,7 +3850,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3865,12 +3877,12 @@
 "network = Den Norske Turistforening", 10
 "shelter_type = basic_hut", 3
 "tourism = wilderness_hut", 11
-"building = cabin", 10
+"building = cabin", 11
 "capacity = 11", 2
 "dnt:classification = ubetjent", 11
 "dnt:lock = yes", 15
-"tourism = alpine_hut", 3
-"tourism = chalet", 48
+"tourism = alpine_hut", 4
+"tourism = chalet", 52
 "amenity = cafe", 11
 "capacity = 24", 2
 "dnt:classification = servering", 5
@@ -3895,6 +3907,7 @@
 "ski = yes", 2
 "ref:bygningsnr = 165795091", 2
 "ref:bygningsnr = 165767705", 2
+"ref:bygningsnr = 165906551", 2
 "amenity = restaurant", 2</t>
         </is>
       </c>
@@ -3936,7 +3949,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -4062,7 +4075,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4195,7 +4208,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4217,7 +4230,7 @@
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9</t>
+          <t>"place = locality", 11</t>
         </is>
       </c>
       <c r="M57" s="12" t="inlineStr">
@@ -4253,7 +4266,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1072</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4275,7 +4288,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 66
+          <t>"natural = strait", 69
 "place = locality", 4</t>
         </is>
       </c>
@@ -4312,7 +4325,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7253</v>
+        <v>7389</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4334,7 +4347,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 252</t>
+          <t>"natural = bay", 283</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4370,7 +4383,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1313</v>
+        <v>1371</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4393,7 +4406,7 @@
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>"place = island", 95
-"place = islet", 4</t>
+"place = islet", 6</t>
         </is>
       </c>
       <c r="L60" s="17" t="inlineStr">
@@ -4429,7 +4442,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4201</v>
+        <v>4177</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4451,8 +4464,8 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>"natural = wood", 25
-"place = islet", 150</t>
+          <t>"natural = wood", 26
+"place = islet", 157</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4488,7 +4501,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4510,7 +4523,7 @@
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 30</t>
+          <t>"natural = cape", 41</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4546,7 +4559,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9527</v>
+        <v>9684</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4568,7 +4581,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 327</t>
+          <t>"natural = cape", 382</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4604,7 +4617,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4663,7 +4676,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4724,7 +4737,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>73</v>
@@ -4782,7 +4795,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>399</v>
@@ -4804,7 +4817,8 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 4</t>
+          <t>"place = islet", 4
+"natural = shoal", 2</t>
         </is>
       </c>
       <c r="L67" s="17" t="inlineStr">
@@ -4901,7 +4915,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -5019,7 +5033,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>9497</v>
+        <v>9553</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5081,7 +5095,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>43141</v>
+        <v>43255</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5103,10 +5117,10 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 464
+          <t>"waterway = stream", 465
 "layer = -1", 72
 "tunnel = culvert", 20
-"waterway = river", 57
+"waterway = river", 56
 "width = 2", 80
 "width = 3", 24
 "place = locality", 76</t>
@@ -5196,7 +5210,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3431</v>
+        <v>3421</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5218,8 +5232,8 @@
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>"natural = waterfall", 23
-"waterway = waterfall", 8
+          <t>"natural = waterfall", 25
+"waterway = waterfall", 9
 "place = locality", 9
 "water = waterfall", 3</t>
         </is>
@@ -5257,7 +5271,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>461</v>
@@ -5321,7 +5335,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5379,7 +5393,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2565</v>
+        <v>2629</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5405,7 +5419,7 @@
 "type = multipolygon", 3
 "water = pool", 5
 "water = pond", 3
-"place = locality", 17</t>
+"place = locality", 18</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5447,7 +5461,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1770</v>
+        <v>1856</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5508,7 +5522,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G79" s="12" t="n">
         <v>15</v>
@@ -5530,7 +5544,7 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3</t>
+          <t>"place = locality", 4</t>
         </is>
       </c>
       <c r="M79" s="17" t="inlineStr">
@@ -5566,7 +5580,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5588,7 +5602,7 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 17</t>
+          <t>"natural = cape", 23</t>
         </is>
       </c>
       <c r="L80" s="17" t="inlineStr">
@@ -5625,7 +5639,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5735,7 +5749,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5757,12 +5771,12 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 19
-"type = multipolygon", 19
-"water = lake", 15
-"ele:min = 431", 4
-"intermittent = no", 4
-"salt = no", 4</t>
+          <t>"natural = water", 18
+"type = multipolygon", 18
+"water = lake", 14
+"ele:min = 431", 3
+"intermittent = no", 3
+"salt = no", 3</t>
         </is>
       </c>
       <c r="L83" s="17" t="inlineStr">
@@ -5798,7 +5812,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13032</v>
+        <v>13111</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5820,10 +5834,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 437
-"type = multipolygon", 333
-"water = lake", 288
-"water = reservoir", 17</t>
+          <t>"natural = water", 443
+"type = multipolygon", 338
+"water = lake", 294</t>
         </is>
       </c>
       <c r="L84" s="17" t="inlineStr">
@@ -5859,7 +5872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>56978</v>
+        <v>58099</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5881,9 +5894,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 3084
-"type = multipolygon", 1488
-"water = lake", 900</t>
+          <t>"natural = water", 3124
+"type = multipolygon", 1515
+"water = lake", 940</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5919,7 +5932,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -5941,10 +5954,10 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 102
-"water = pond", 104
+          <t>"natural = water", 103
+"water = pond", 105
 "place = locality", 7
-"type = multipolygon", 10</t>
+"type = multipolygon", 11</t>
         </is>
       </c>
       <c r="L86" s="17" t="inlineStr">
@@ -5980,7 +5993,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -6040,7 +6053,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6101,7 +6114,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6163,7 +6176,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2496</v>
+        <v>2444</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6257,7 +6270,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6327,7 +6340,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6479,7 +6492,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
@@ -6521,7 +6534,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -6930,7 +6943,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G105" s="12" t="n">
         <v>120</v>
@@ -6990,7 +7003,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G106" s="12" t="n">
         <v>22</v>
@@ -7084,7 +7097,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>98</v>
@@ -7138,7 +7151,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2195</v>
+        <v>2151</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>2333</v>
@@ -7209,7 +7222,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7273,7 +7286,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7633,7 +7646,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7694,7 +7707,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>198</v>
+        <v>1400</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7716,19 +7729,33 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"layer = -1", 7
-"surface = paved", 2
-"tunnel = yes", 7
-"electrified = contact_line", 3
-"frequency = 16.67", 3
-"gauge = 1435", 3
-"maxspeed:hgv = 80", 2
-"maxspeed:plus = 85", 2
-"maxspeed:tilting = 100", 2
-"passenger_lines = 1", 3
-"railway = rail", 3
-"usage = main", 3
-"voltage = 15000", 3
+          <t>"layer = -1", 15
+"surface = paved", 3
+"tunnel = yes", 19
+"bicycle = no", 3
+"foot = no", 3
+"highway = primary", 8
+"lit = yes", 7
+"surface = asphalt", 5
+"bicycle = yes", 2
+"foot = yes", 3
+"maxheight = 4.2", 2
+"highway = trunk", 2
+"int_ref = E 39", 2
+"maxheight = 4.5", 2
+"electrified = contact_line", 6
+"frequency = 16.67", 6
+"gauge = 1435", 6
+"maxspeed:hgv = 80", 4
+"maxspeed:plus = 85", 4
+"maxspeed:tilting = 100", 4
+"passenger_lines = 1", 6
+"railway = rail", 6
+"usage = main", 6
+"voltage = 15000", 6
+"maxspeed:hgv = 90", 2
+"maxspeed:plus = 100", 2
+"maxspeed:tilting = 115", 2
 "is_in:continent = Europe", 2
 "is_in:country = Norway", 2
 "is_in:country_code = NO", 2
@@ -7762,7 +7789,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8535</v>
+        <v>9913</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7772,29 +7799,36 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"layer = -1", 3
+          <t>"bridge = yes", 61
+"layer = 1", 65
+"surface = asphalt", 13
+"man_made = bridge", 30
+"layer = -1", 3
 "man_made = tunnel", 3
-"bridge = yes", 48
 "cycleway:both = no", 4
-"highway = primary", 18
-"layer = 1", 50
-"surface = asphalt", 12
+"highway = primary", 19
 "lanes = 2", 6
-"maxweight:signed = no", 3
-"highway = secondary", 11
+"maxweight:signed = no", 4
+"highway = secondary", 14
 "highway = service", 2
-"highway = trunk", 2
-"surface = paved", 2
-"man_made = bridge", 26
+"highway = trunk", 4
+"surface = paved", 3
 "tunnel = culvert", 8
-"waterway = stream", 9
+"waterway = stream", 10
 "VANNBR = 2", 2
 "bridge:description = Dragbrua", 2
 "surface = gravel", 2
 "bridge:description = Grymyr", 2
 "place = suburb", 2
+"old_ref = 459", 2
+"highway = tertiary", 2
+"int_ref = E 39", 2
+"lit = yes", 2
+"highway = track", 4
+"nvdb:id = 339480834", 2
+"old_ref = 202", 2
+"old_ref = 408", 2
 "highway = residential", 2
-"highway = track", 2
 "historic = bridge", 2
 "place = locality", 4
 "old_ref = 158", 2
@@ -8302,7 +8336,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8371,7 +8405,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8394,8 +8428,9 @@
       <c r="K133" s="1" t="inlineStr">
         <is>
           <t>"place = isolated_dwelling", 2
-"man_made = quay", 14
-"place = locality", 15</t>
+"man_made = quay", 19
+"place = locality", 22
+"natural = coastline", 2</t>
         </is>
       </c>
       <c r="L133" s="17" t="inlineStr">
@@ -8441,7 +8476,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>160</v>
@@ -8606,7 +8641,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>64</v>
@@ -8716,7 +8751,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -8738,9 +8773,10 @@
       </c>
       <c r="K139" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 2
-"surface = sand", 2
-"leisure = marina", 2</t>
+          <t>"place = locality", 2
+"leisure = marina", 3
+"natural = beach", 2
+"surface = sand", 2</t>
         </is>
       </c>
       <c r="L139" s="17" t="inlineStr">
@@ -8781,7 +8817,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G140" s="12" t="n">
         <v>188</v>
@@ -8844,7 +8880,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -8866,8 +8902,8 @@
       </c>
       <c r="K141" s="1" t="inlineStr">
         <is>
-          <t>"mooring = yes", 5
-"place = locality", 93
+          <t>"mooring = yes", 6
+"place = locality", 94
 "historic = yes", 92</t>
         </is>
       </c>
@@ -8980,7 +9016,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6927</v>
+        <v>104074</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9002,8 +9038,8 @@
       </c>
       <c r="K143" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 2
-"place = islet", 2</t>
+          <t>"place = islet", 3
+"natural = coastline", 2</t>
         </is>
       </c>
       <c r="O143" s="17">
@@ -9039,7 +9075,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>747</v>
+        <v>692</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -9061,11 +9097,11 @@
       </c>
       <c r="K144" s="1" t="inlineStr">
         <is>
-          <t>"highway = track", 13
+          <t>"highway = track", 14
 "tracktype = grade3", 2
-"tracktype = grade4", 2
+"tracktype = grade4", 3
 "place = locality", 6
-"highway = path", 2</t>
+"highway = path", 3</t>
         </is>
       </c>
       <c r="L144" s="9" t="inlineStr">
@@ -9106,7 +9142,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4382</v>
+        <v>4452</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9132,7 +9168,7 @@
 "sac_scale = hiking", 6
 "mtb:scale = 1", 2
 "trail_visibility = excellent", 3
-"place = locality", 17</t>
+"place = locality", 18</t>
         </is>
       </c>
       <c r="L145" s="9" t="inlineStr">
@@ -9168,7 +9204,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9232,7 +9268,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>70</v>
@@ -9398,7 +9434,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9467,7 +9503,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>261</v>
@@ -9525,7 +9561,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1066</v>
+        <v>1125</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9832,7 +9868,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9854,49 +9890,40 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 98
-"denomination = lutheran", 97
+          <t>"amenity = place_of_worship", 101
+"denomination = lutheran", 100
 "diocese = Stavanger", 15
-"religion = christian", 98
+"religion = christian", 101
 "toilets = no", 9
 "toilets:wheelchair = no", 6
-"wheelchair = limited", 3
-"building = church", 93
-"capacity = 700", 3
+"building = church", 96
 "deanery = Ytre Stavanger", 6
 "note = Soknekirke/arbeidskirke", 12
 "toilets = yes", 45
 "deanery = Stavanger Domprosti", 7
-"note = Soknekirke", 41
+"note = Soknekirke", 43
 "capacity = 300", 5
 "toilets:wheelchair = yes", 10
 "wheelchair = yes", 12
 "note = Prostikirke", 4
-"capacity = 430", 3
 "capacity = 500", 10
 "capacity = 450", 6
-"capacity = 650", 3
-"capacity = 400", 3
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"heritage = yes", 54
-"parish = Gildeskål", 3
+"heritage = yes", 57
 "capacity = 250", 7
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
 "hearing_aids = yes", 15
-"parish = Kongsberg og Jondalen", 3
-"capacity = 150", 3
 "architect = J.W.Nordan", 4
-"capacity = 170", 3
 "capacity = 200", 10
 "deanery = Lier", 4
 "architect = J.H.Nissen", 4
 "deanery = Aust-Nedenes", 20
-"diocese = Agder og Telemark", 57
-"deanery = Mandal", 3
+"diocese = Agder og Telemark", 60
+"deanery = Mandal", 6
+"parish = Mandal", 4
 "deanery = Lister", 4
-"parish = Farsund", 3
 "capacity = 350", 8
 "parish = Holt", 4
 "deanery = Vest-Nedenes", 6
@@ -9947,7 +9974,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -9972,7 +9999,10 @@
           <t>"amenity = community_centre", 15
 "place = isolated_dwelling", 4
 "place = farm", 2
-"building = civic", 4</t>
+"building = civic", 5
+"place = locality", 2
+"heritage = yes", 2
+"ref:bygningsnr = 168600461", 2</t>
         </is>
       </c>
       <c r="L160" s="17" t="inlineStr">
@@ -10008,7 +10038,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -10079,7 +10109,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10142,7 +10172,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10293,7 +10323,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10319,7 +10349,7 @@
 "tourism = museum", 2
 "type = multipolygon", 2
 "place = locality", 3
-"historic = memorial", 3</t>
+"historic = memorial", 4</t>
         </is>
       </c>
       <c r="L166" s="17" t="inlineStr">
@@ -10355,7 +10385,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10409,7 +10439,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5029</v>
+        <v>5335</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10431,13 +10461,13 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 242
-"building = farm_auxiliary", 25
+          <t>"place = locality", 267
+"building = farm_auxiliary", 26
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 13
-"historic = shieling", 10</t>
+"place = isolated_dwelling", 35
+"historic = shieling", 11</t>
         </is>
       </c>
       <c r="M168" s="12" t="inlineStr">
@@ -10473,7 +10503,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10569,7 +10599,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5984</v>
+        <v>6008</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10591,8 +10621,8 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 117
-"place = farm", 21</t>
+          <t>"place = locality", 120
+"place = farm", 23</t>
         </is>
       </c>
       <c r="L171" s="2" t="n"/>
@@ -10634,7 +10664,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3003</v>
+        <v>3093</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10658,7 +10688,7 @@
         <is>
           <t>"landuse = meadow", 24
 "type = multipolygon", 4
-"place = locality", 26
+"place = locality", 31
 "natural = wetland", 2
 "wetland = bog", 2</t>
         </is>
@@ -10696,7 +10726,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>7661</v>
+        <v>8251</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10718,11 +10748,9 @@
       </c>
       <c r="K173" s="1" t="inlineStr">
         <is>
-          <t>"landuse = farmland", 40
-"type = multipolygon", 19
-"place = farm", 7
-"place = isolated_dwelling", 7
-"place = locality", 155</t>
+          <t>"landuse = farmland", 48
+"type = multipolygon", 22
+"place = locality", 209</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10758,7 +10786,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10780,7 +10808,7 @@
       </c>
       <c r="K174" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 12</t>
+          <t>"place = locality", 14</t>
         </is>
       </c>
       <c r="M174" s="17" t="inlineStr">
@@ -10821,7 +10849,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3630</v>
+        <v>3740</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10843,11 +10871,11 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 138
+          <t>"historic = shieling", 143
 "landuse = meadow", 26
-"place = locality", 165
+"place = locality", 172
 "place = isolated_dwelling", 6
-"place = farm", 11</t>
+"place = farm", 14</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
@@ -10888,7 +10916,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G176" s="12" t="n">
         <v>264</v>
@@ -10952,7 +10980,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -11012,7 +11040,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11103,7 +11131,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3280</v>
+        <v>3268</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11125,7 +11153,7 @@
       </c>
       <c r="K180" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 44
+          <t>"natural = stone", 53
 "place = locality", 4
 "natural = rock", 2</t>
         </is>
@@ -11164,7 +11192,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2482</v>
+        <v>2414</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11186,7 +11214,7 @@
       </c>
       <c r="K181" s="1" t="inlineStr">
         <is>
-          <t>"natural = scree", 68
+          <t>"natural = scree", 81
 "place = locality", 20</t>
         </is>
       </c>
@@ -11274,7 +11302,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G183" s="12" t="n">
         <v>121</v>
@@ -11294,7 +11322,11 @@
           <t>Sand-/grusområde over vannkontur/kystkontur; morenemateriale</t>
         </is>
       </c>
-      <c r="K183" s="1" t="inlineStr"/>
+      <c r="K183" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 2</t>
+        </is>
+      </c>
       <c r="L183" s="17" t="inlineStr">
         <is>
           <t>natural=beach; surface=sand</t>
@@ -11458,7 +11490,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11519,7 +11551,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11629,7 +11661,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>7449</v>
+        <v>7826</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11651,12 +11683,11 @@
       </c>
       <c r="K190" s="1" t="inlineStr">
         <is>
-          <t>"leaf_type = needleleaved", 3
-"natural = wood", 20
+          <t>"natural = wood", 20
 "type = multipolygon", 6
-"place = locality", 99
+"place = locality", 101
 "place = isolated_dwelling", 5
-"place = farm", 8</t>
+"place = farm", 11</t>
         </is>
       </c>
       <c r="M190" s="12" t="inlineStr">
@@ -11692,7 +11723,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11750,7 +11781,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>49387</v>
+        <v>50297</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11772,8 +11803,8 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 440
-"natural = wetland", 738
+          <t>"place = locality", 665
+"natural = wetland", 737
 "wetland = bog", 258
 "type = multipolygon", 97</t>
         </is>
@@ -11999,7 +12030,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>12</v>
@@ -12481,7 +12512,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>233</v>
@@ -12591,7 +12622,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>818</v>
+        <v>948</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12718,7 +12749,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12861,7 +12892,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1953</v>
+        <v>1903</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12883,9 +12914,9 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 126
-"natural = bay", 128
-"type = multipolygon", 14</t>
+          <t>"bay = fjord", 143
+"natural = bay", 145
+"type = multipolygon", 15</t>
         </is>
       </c>
       <c r="L214" s="17" t="inlineStr">
@@ -13029,7 +13060,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -13049,7 +13080,11 @@
           <t>Del av sjøen, vanligvis innaskjærs eller i kystnære farvann. Eks. Folda, Hustadvika</t>
         </is>
       </c>
-      <c r="K217" s="1" t="inlineStr"/>
+      <c r="K217" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 2</t>
+        </is>
+      </c>
       <c r="L217" s="17" t="inlineStr">
         <is>
           <t>natural=bay</t>
@@ -13088,9 +13123,6 @@
           <t>fiskeplassISjø</t>
         </is>
       </c>
-      <c r="F218" t="n">
-        <v>53</v>
-      </c>
       <c r="G218" s="12" t="n">
         <v>46</v>
       </c>
@@ -13109,7 +13141,7 @@
           <t>Fiskested, fiskemed</t>
         </is>
       </c>
-      <c r="K218" s="1" t="inlineStr"/>
+      <c r="K218" s="17" t="n"/>
       <c r="M218" s="12" t="n"/>
       <c r="O218" s="17">
         <f>CONCATENATE(Tabell1[[#This Row],[OSM tag]],";",Tabell1[[#This Row],[tillegg]],";",Tabell1[[#This Row],[fixme]])</f>
@@ -13190,7 +13222,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>13440</v>
+        <v>13248</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13213,10 +13245,10 @@
       <c r="K220" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 345
-"seamark:type = rock", 91
-"place = islet", 457
-"natural = coastline", 379
-"natural = shoal", 42</t>
+"seamark:type = rock", 126
+"place = islet", 586
+"natural = coastline", 473
+"natural = shoal", 78</t>
         </is>
       </c>
       <c r="L220" s="17" t="inlineStr">
@@ -13257,7 +13289,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1195</v>
+        <v>1230</v>
       </c>
       <c r="G221" s="12" t="n">
         <v>1206</v>
@@ -13280,8 +13312,8 @@
       <c r="K221" s="1" t="inlineStr">
         <is>
           <t>"natural = rock", 2
-"place = locality", 37
-"seamark:type = rock", 37</t>
+"place = locality", 65
+"seamark:type = rock", 65</t>
         </is>
       </c>
       <c r="L221" s="17" t="inlineStr">
@@ -13327,7 +13359,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>13195</v>
+        <v>12733</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13349,8 +13381,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 336
-"place = locality", 129</t>
+          <t>"natural = shoal", 355
+"place = locality", 148</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13443,7 +13475,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4572</v>
+        <v>4258</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13465,7 +13497,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 339</t>
+          <t>"natural = strait", 395</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13501,7 +13533,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>25792</v>
+        <v>25086</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13523,7 +13555,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1419</t>
+          <t>"natural = bay", 1686</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13560,7 +13592,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>3809</v>
+        <v>3757</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13582,10 +13614,10 @@
       </c>
       <c r="K226" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 121
-"natural = coastline", 117
-"place = islet", 107
-"type = multipolygon", 93
+          <t>"place = island", 123
+"natural = coastline", 131
+"place = islet", 131
+"type = multipolygon", 105
 "natural = wood", 8</t>
         </is>
       </c>
@@ -13622,7 +13654,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>19062</v>
+        <v>18301</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13644,9 +13676,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1175
-"natural = coastline", 1054
-"type = multipolygon", 86</t>
+          <t>"place = islet", 1338
+"natural = coastline", 1193
+"type = multipolygon", 109</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13682,7 +13714,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13705,7 +13737,7 @@
       <c r="K228" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 9
-"natural = cape", 30</t>
+"natural = cape", 50</t>
         </is>
       </c>
       <c r="L228" s="17" t="inlineStr">
@@ -13741,7 +13773,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>22726</v>
+        <v>21874</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13763,7 +13795,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 838
+          <t>"natural = cape", 1012
 "place = locality", 54</t>
         </is>
       </c>
@@ -13801,7 +13833,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13823,7 +13855,7 @@
       </c>
       <c r="K230" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2</t>
+          <t>"place = locality", 3</t>
         </is>
       </c>
       <c r="M230" s="17" t="inlineStr">
@@ -13859,7 +13891,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2307</v>
+        <v>2323</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13881,12 +13913,12 @@
       </c>
       <c r="K231" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 34
-"natural = beach", 47
-"type = multipolygon", 8
+          <t>"place = locality", 40
+"natural = beach", 52
+"type = multipolygon", 9
 "place = isolated_dwelling", 2
-"layer = 2", 3
-"surface = sand", 9
+"layer = 2", 7
+"surface = sand", 13
 "place = hamlet", 2</t>
         </is>
       </c>
@@ -13924,7 +13956,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1437</v>
+        <v>1211</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -13946,7 +13978,7 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 19</t>
+          <t>"natural = bay", 22</t>
         </is>
       </c>
       <c r="L232" s="17" t="inlineStr">
@@ -13983,7 +14015,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -14007,8 +14039,10 @@
         <is>
           <t>"place = archipelago", 2
 "place = island", 6
-"natural = coastline", 13
-"place = islet", 11</t>
+"natural = coastline", 20
+"place = islet", 20
+"natural = cape", 2
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L233" s="17" t="inlineStr">
@@ -14044,7 +14078,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -14066,8 +14100,8 @@
       </c>
       <c r="K234" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 14
-"place = islet", 15</t>
+          <t>"natural = coastline", 18
+"place = islet", 19</t>
         </is>
       </c>
       <c r="L234" s="17" t="inlineStr">
@@ -14104,7 +14138,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G235" s="12" t="n">
         <v>109</v>
@@ -14201,7 +14235,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>78</v>
@@ -14221,7 +14255,11 @@
           <t>Skrånende sjøbunn; skråning</t>
         </is>
       </c>
-      <c r="K237" s="1" t="inlineStr"/>
+      <c r="K237" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 2</t>
+        </is>
+      </c>
       <c r="M237" s="11" t="n"/>
       <c r="O237" s="17">
         <f>CONCATENATE(Tabell1[[#This Row],[OSM tag]],";",Tabell1[[#This Row],[tillegg]],";",Tabell1[[#This Row],[fixme]])</f>
@@ -14933,7 +14971,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>7855</v>
+        <v>7562</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -14955,7 +14993,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 193</t>
+          <t>"place = locality", 209</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -14992,7 +15030,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>4124</v>
+        <v>4225</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15050,7 +15088,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>15086</v>
+        <v>14743</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15073,8 +15111,8 @@
       <c r="K260" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 50
-"natural = hill", 438
-"place = locality", 386</t>
+"natural = hill", 439
+"place = locality", 387</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15120,7 +15158,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>21970</v>
+        <v>21641</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15144,8 +15182,8 @@
         <is>
           <t>"man_made = survey_point", 18
 "natural = peak", 252
-"place = locality", 314
-"natural = hill", 231</t>
+"place = locality", 331
+"natural = hill", 248</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15191,7 +15229,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>8444</v>
+        <v>9390</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15213,9 +15251,8 @@
       </c>
       <c r="K262" s="1" t="inlineStr">
         <is>
-          <t>"natural = heath", 58
-"natural = hill", 1013
-"place = locality", 1021</t>
+          <t>"natural = hill", 1471
+"place = locality", 1484</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15261,7 +15298,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9437</v>
+        <v>9906</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15283,8 +15320,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1046
-"place = locality", 747</t>
+          <t>"natural = hill", 1199
+"place = locality", 901</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15325,7 +15362,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>56165</v>
+        <v>57044</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15347,9 +15384,9 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3170
-"place = locality", 1866
-"natural = peak", 489
+          <t>"natural = hill", 3505
+"place = locality", 2200
+"natural = peak", 494
 "natural = ridge", 288</t>
         </is>
       </c>
@@ -15401,7 +15438,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>6909</v>
+        <v>6913</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15423,9 +15460,9 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 42
-"natural = ridge", 231
-"place = locality", 152</t>
+          <t>"natural = hill", 68
+"natural = ridge", 238
+"place = locality", 186</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15466,7 +15503,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>47844</v>
+        <v>46270</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15488,9 +15525,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 144
-"natural = hill", 1718
-"place = locality", 1417</t>
+          <t>"natural = peak", 151
+"natural = hill", 1768
+"place = locality", 1472</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15531,7 +15568,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1804</v>
+        <v>1832</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15605,7 +15642,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1184</v>
+        <v>1222</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15730,7 +15767,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G271" s="12" t="n">
         <v>251</v>
@@ -15789,7 +15826,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>38650</v>
+        <v>39318</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15811,8 +15848,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 795
-"natural = valley", 1131</t>
+          <t>"place = locality", 1106
+"natural = valley", 1444</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15853,7 +15890,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>6799</v>
+        <v>6380</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15875,8 +15912,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 78
-"place = locality", 81</t>
+          <t>"natural = valley", 89
+"place = locality", 94</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -15917,7 +15954,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11073</v>
+        <v>11099</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -15939,8 +15976,8 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 126
-"place = locality", 109</t>
+          <t>"natural = valley", 148
+"place = locality", 131</t>
         </is>
       </c>
       <c r="L274" s="2" t="inlineStr">
@@ -15981,7 +16018,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2024</v>
+        <v>1905</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -16040,7 +16077,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>3250</v>
+        <v>3308</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16062,8 +16099,8 @@
       </c>
       <c r="K276" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 53
-"place = locality", 42
+          <t>"natural = valley", 65
+"place = locality", 54
 "natural = wetland", 3
 "wetland = bog", 2</t>
         </is>
@@ -16111,7 +16148,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16133,8 +16170,8 @@
       </c>
       <c r="K277" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 20
-"place = locality", 20</t>
+          <t>"natural = valley", 33
+"place = locality", 33</t>
         </is>
       </c>
       <c r="L277" s="17" t="inlineStr">
@@ -16208,7 +16245,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>12646</v>
+        <v>12675</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16230,8 +16267,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 292
-"place = locality", 302</t>
+          <t>"natural = slope", 324
+"place = locality", 334</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16272,7 +16309,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>33347</v>
+        <v>33657</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16294,8 +16331,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 815
-"place = locality", 830</t>
+          <t>"natural = slope", 864
+"place = locality", 879</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16336,7 +16373,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1467</v>
+        <v>1573</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16358,7 +16395,7 @@
       </c>
       <c r="K281" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 15</t>
+          <t>"place = locality", 24</t>
         </is>
       </c>
       <c r="M281" s="12" t="inlineStr">
@@ -16427,7 +16464,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>3067</v>
+        <v>3161</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16449,7 +16486,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 150</t>
+          <t>"natural = cliff", 162</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16486,7 +16523,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16508,7 +16545,7 @@
       </c>
       <c r="K284" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 6</t>
+          <t>"place = locality", 7</t>
         </is>
       </c>
       <c r="L284" s="2" t="n"/>
@@ -16545,7 +16582,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>3449</v>
+        <v>3267</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16567,7 +16604,7 @@
       </c>
       <c r="K285" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 131</t>
+          <t>"place = locality", 132</t>
         </is>
       </c>
       <c r="M285" s="12" t="inlineStr">
@@ -16603,7 +16640,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>6491</v>
+        <v>6565</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16625,7 +16662,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 104</t>
+          <t>"place = locality", 131</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
@@ -16815,7 +16852,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -16879,7 +16916,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G291" s="12" t="n">
         <v>279</v>
@@ -16899,7 +16936,12 @@
           <t>Høyereliggende, større område uten skog med lave terrengvariasjoner  innenfor området. Eks. Valdresflye, Hardangervidda, Finnmarksvidda, Laksefjordvidda</t>
         </is>
       </c>
-      <c r="K291" s="1" t="inlineStr"/>
+      <c r="K291" s="1" t="inlineStr">
+        <is>
+          <t>"natural = mountain_range", 2
+"note = Please refine boundary based on local knowledge", 2</t>
+        </is>
+      </c>
       <c r="L291" s="17" t="inlineStr">
         <is>
           <t>natural=plateau</t>
@@ -16933,7 +16975,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>
@@ -16957,7 +16999,7 @@
         <is>
           <t>"place = farm", 2
 "place = isolated_dwelling", 2
-"place = locality", 8</t>
+"place = locality", 16</t>
         </is>
       </c>
       <c r="L292" s="17" t="inlineStr">

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>874</v>
+        <v>920</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -874,13 +874,13 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 199
-"source:population = SSB - befolkning i tettstedet", 130
+          <t>"place = village", 210
+"source:population = SSB - befolkning i tettstedet", 138
 "place = town", 11
 "place = suburb", 46
-"place = hamlet", 15
+"place = hamlet", 19
 "place = quarter", 25
-"place = neighbourhood", 19
+"place = neighbourhood", 20
 "type = multipolygon", 9</t>
         </is>
       </c>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1020</v>
+        <v>1046</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -939,12 +939,13 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 84
-"source:population = SSB - befolkning i tettstedet", 41
-"place = neighbourhood", 186
+          <t>"place = village", 91
+"source:population = SSB - befolkning i tettstedet", 44
+"place = neighbourhood", 188
 "place = suburb", 94
-"place = hamlet", 48
-"place = quarter", 64</t>
+"place = hamlet", 51
+"place = quarter", 64
+"type = multipolygon", 8</t>
         </is>
       </c>
       <c r="L4" s="17" t="inlineStr">
@@ -991,7 +992,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1948</v>
+        <v>2067</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1013,11 +1014,11 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 227
-"place = hamlet", 163
+          <t>"place = village", 233
+"place = hamlet", 172
 "place = suburb", 19
-"source:population = SSB - befolkning i tettstedet", 29
-"place = neighbourhood", 16</t>
+"source:population = SSB - befolkning i tettstedet", 33
+"place = neighbourhood", 19</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1063,7 +1064,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3254</v>
+        <v>3407</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 787
+          <t>"place = hamlet", 795
 "place = neighbourhood", 64
 "place = farm", 42
 "place = village", 37</t>
@@ -1124,7 +1125,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2849</v>
+        <v>2949</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1146,8 +1147,7 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 798
-"landuse = residential", 31
+          <t>"place = neighbourhood", 810
 "place = suburb", 49
 "place = quarter", 202</t>
         </is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1213,11 +1213,13 @@
 "place = locality", 26
 "place = suburb", 7
 "natural = cape", 2
-"building = industrial", 4
+"building = service", 2
 "man_made = wastewater_plant", 2
+"ref:bygningsnr = 8287996", 2
 "place = neighbourhood", 42
 "place = farm", 2
 "place = isolated_dwelling", 2
+"building = industrial", 2
 "ref:bygningsnr = 166261902", 2
 "landuse = retail", 2</t>
         </is>
@@ -1255,7 +1257,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1316,7 +1318,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1338,7 +1340,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 184
+          <t>"place = neighbourhood", 189
 "place = quarter", 9
 "landuse = residential", 10</t>
         </is>
@@ -1376,7 +1378,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1434,7 +1436,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1457,6 +1459,7 @@
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>"place = quarter", 7
+"place = isolated_dwelling", 3
 "place = neighbourhood", 2</t>
         </is>
       </c>
@@ -1493,7 +1496,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>1</v>
@@ -1548,7 +1551,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1653,7 +1656,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9734</v>
+        <v>9768</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1675,8 +1678,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3011
-"place = farm", 537</t>
+          <t>"place = isolated_dwelling", 2936
+"place = farm", 534</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1717,7 +1720,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13462</v>
+        <v>14418</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1739,9 +1742,9 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 1018
-"place = isolated_dwelling", 5640
-"place = locality", 362
+          <t>"building = cabin", 1014
+"place = isolated_dwelling", 5647
+"place = locality", 366
 "historic = shieling", 734</t>
         </is>
       </c>
@@ -1778,7 +1781,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11043</v>
+        <v>11287</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1800,7 +1803,7 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 6075
+          <t>"place = locality", 6080
 "historic = shieling", 1090
 "historic = ruins", 844</t>
         </is>
@@ -1904,7 +1907,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1964,7 +1967,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -1990,6 +1993,7 @@
 "building = sports_centre", 6
 "sport = multi", 2
 "building = yes", 2
+"ref:bygningsnr = 300201899", 2
 "ref:bygningsnr = 8628955", 2
 "ref:bygningsnr = 168158319", 2
 "amenity = sports_centre", 2
@@ -2029,7 +2033,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2095,7 +2099,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>24</v>
@@ -2154,7 +2158,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2214,7 +2218,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2342,7 +2346,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100385</v>
+        <v>105614</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2364,7 +2368,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 29422</t>
+          <t>"place = farm", 29590</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2405,7 +2409,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>21534</v>
+        <v>22722</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2427,9 +2431,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6820
-"place = locality", 5687
-"place = isolated_dwelling", 1174</t>
+          <t>"historic = shieling", 6920
+"place = locality", 5711
+"place = isolated_dwelling", 1249</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2470,7 +2474,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2524</v>
+        <v>2676</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2493,7 +2497,7 @@
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>"building = farm_auxiliary", 209
-"place = locality", 1170
+"place = locality", 1180
 "historic = shieling", 180</t>
         </is>
       </c>
@@ -2530,7 +2534,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4078</v>
+        <v>4271</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2552,9 +2556,9 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 990
+          <t>"place = locality", 997
 "place = farm", 200
-"place = isolated_dwelling", 55
+"place = isolated_dwelling", 58
 "historic = shieling", 54</t>
         </is>
       </c>
@@ -2591,7 +2595,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>80</v>
@@ -2650,7 +2654,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>39686</v>
+        <v>41537</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2672,8 +2676,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 11025
-"place = hamlet", 2053</t>
+          <t>"place = farm", 11171
+"place = hamlet", 2103</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2719,7 +2723,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3354</v>
+        <v>3453</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2742,7 +2746,7 @@
       <c r="K33" s="1" t="inlineStr">
         <is>
           <t>"place = farm", 330
-"place = hamlet", 584</t>
+"place = hamlet", 601</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2857,7 +2861,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2187</v>
+        <v>2254</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2880,13 +2884,13 @@
       <c r="K36" s="1" t="inlineStr">
         <is>
           <t>"building = school", 27
-"amenity = school", 181
-"fee = no", 138
-"grades = 1-7", 68
-"isced:level = 1", 74
-"operator:type = public", 138
+"amenity = school", 178
+"fee = no", 134
+"grades = 1-7", 63
+"isced:level = 1", 73
+"operator:type = public", 134
 "grades = 1-10", 28
-"isced:level = 1;2", 37
+"isced:level = 1;2", 34
 "place = locality", 49
 "was:amenity = school", 7
 "grades = 8-10", 19
@@ -2934,7 +2938,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>88</v>
@@ -2994,7 +2998,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3019,8 +3023,8 @@
           <t>"amenity = nursing_home", 82
 "place = locality", 7
 "amenity = social_facility", 3
-"building = yes", 3
-"building = civic", 4</t>
+"building = civic", 5
+"building = yes", 3</t>
         </is>
       </c>
       <c r="L38" s="17" t="inlineStr">
@@ -3056,7 +3060,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3078,7 +3082,7 @@
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>"building = civic", 6
+          <t>"building = civic", 4
 "place = locality", 2
 "building = cabin", 2
 "ref:bygningsnr = 300303199", 2</t>
@@ -3117,7 +3121,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>67</v>
@@ -3178,7 +3182,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3244,7 +3248,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>65</v>
@@ -3309,7 +3313,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>28</v>
@@ -3368,7 +3372,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>14</v>
@@ -3477,7 +3481,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3499,9 +3503,10 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"industrial = factory", 53
-"building = industrial", 40
-"place = locality", 26
+          <t>"industrial = factory", 51
+"place = locality", 29
+"building = industrial", 37
+"man_made = works", 2
 "type = multipolygon", 5
 "landuse = industrial", 17
 "place = neighbourhood", 10
@@ -3556,7 +3561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3646,7 +3651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3671,8 +3676,8 @@
           <t>"building = retail", 2
 "shop = mall", 2
 "building = office", 3
-"building = commercial", 14
-"place = locality", 8
+"place = locality", 9
+"building = commercial", 13
 "place = isolated_dwelling", 3
 "amenity = cafe", 4
 "place = neighbourhood", 4
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3743,7 +3748,7 @@
       </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
-          <t>"tourism = hotel", 17
+          <t>"tourism = hotel", 18
 "building = hotel", 11
 "place = locality", 11
 "tourism = chalet", 2
@@ -3785,7 +3790,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3807,8 +3812,7 @@
       </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
-          <t>"building = hotel", 2
-"tourism = guest_house", 8
+          <t>"tourism = guest_house", 9
 "building = house", 3
 "place = locality", 7
 "place = hamlet", 2
@@ -3850,7 +3854,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1039</v>
+        <v>1084</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3874,14 +3878,15 @@
         <is>
           <t>"amenity = shelter", 3
 "capacity = 6", 3
-"network = Den Norske Turistforening", 10
+"network = Den Norske Turistforening", 20
 "shelter_type = basic_hut", 3
-"tourism = wilderness_hut", 11
+"tourism = wilderness_hut", 17
 "building = cabin", 11
 "capacity = 11", 2
-"dnt:classification = ubetjent", 11
-"dnt:lock = yes", 15
-"tourism = alpine_hut", 4
+"dnt:classification = ubetjent", 12
+"dnt:lock = yes", 20
+"service = no", 2
+"tourism = alpine_hut", 11
 "tourism = chalet", 52
 "amenity = cafe", 11
 "capacity = 24", 2
@@ -3899,7 +3904,7 @@
 "dnt:iid = 1489", 2
 "note:no = kystledhytte", 2
 "network = Den norske Turistforening", 2
-"building = yes", 4
+"building = yes", 7
 "capacity = 8", 2
 "dnt:iid = 251", 2
 "access = permit", 2
@@ -3908,7 +3913,12 @@
 "ref:bygningsnr = 165795091", 2
 "ref:bygningsnr = 165767705", 2
 "ref:bygningsnr = 165906551", 2
-"amenity = restaurant", 2</t>
+"amenity = restaurant", 3
+"dnt:classification = betjent", 7
+"service = full", 7
+"dnt:classification = selvbetjent", 3
+"supervisor = DNT Oslo og Omegn", 2
+"provisions = yes", 2</t>
         </is>
       </c>
       <c r="L51" s="17" t="inlineStr">
@@ -3949,7 +3959,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -4017,7 +4027,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>4</v>
@@ -4075,7 +4085,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4097,9 +4107,11 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 4
+          <t>"amenity = cafe", 9
+"amenity = restaurant", 2
 "building = religious", 2
-"ref:bygningsnr = 8893748", 2</t>
+"ref:bygningsnr = 8893748", 2
+"building = civic", 2</t>
         </is>
       </c>
       <c r="L54" s="17" t="inlineStr">
@@ -4208,7 +4220,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4266,7 +4278,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1100</v>
+        <v>1135</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4288,7 +4300,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 69
+          <t>"natural = strait", 74
 "place = locality", 4</t>
         </is>
       </c>
@@ -4325,7 +4337,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7389</v>
+        <v>7742</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4347,7 +4359,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 283</t>
+          <t>"natural = bay", 297</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4383,7 +4395,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1371</v>
+        <v>1407</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4406,7 +4418,7 @@
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>"place = island", 95
-"place = islet", 6</t>
+"place = islet", 12</t>
         </is>
       </c>
       <c r="L60" s="17" t="inlineStr">
@@ -4442,7 +4454,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4177</v>
+        <v>4474</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4464,8 +4476,9 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>"natural = wood", 26
-"place = islet", 157</t>
+          <t>"natural = wood", 29
+"place = islet", 166
+"type = multipolygon", 6</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4501,7 +4514,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4559,7 +4572,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9684</v>
+        <v>10104</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4581,7 +4594,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 382</t>
+          <t>"natural = cape", 408</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4617,7 +4630,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4639,7 +4652,7 @@
       </c>
       <c r="K64" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5
+          <t>"place = locality", 8
 "natural = strait", 4</t>
         </is>
       </c>
@@ -4676,7 +4689,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>985</v>
+        <v>1053</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4698,7 +4711,7 @@
       </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 10
+          <t>"natural = beach", 11
 "type = multipolygon", 2
 "place = locality", 10</t>
         </is>
@@ -4737,7 +4750,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G66" s="12" t="n">
         <v>73</v>
@@ -4795,7 +4808,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>399</v>
@@ -4915,7 +4928,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -4979,7 +4992,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" s="12" t="n">
         <v>32</v>
@@ -5033,7 +5046,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>9553</v>
+        <v>10043</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5055,11 +5068,11 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 186
-"layer = -1", 14
+          <t>"waterway = river", 236
+"layer = -1", 16
 "width = 2", 10
 "width = 3", 10
-"waterway = stream", 19</t>
+"waterway = stream", 22</t>
         </is>
       </c>
       <c r="L71" s="17" t="inlineStr">
@@ -5095,7 +5108,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>43255</v>
+        <v>45727</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5117,10 +5130,10 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 465
-"layer = -1", 72
-"tunnel = culvert", 20
-"waterway = river", 56
+          <t>"waterway = stream", 540
+"layer = -1", 76
+"tunnel = culvert", 22
+"waterway = river", 63
 "width = 2", 80
 "width = 3", 24
 "place = locality", 76</t>
@@ -5210,7 +5223,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3421</v>
+        <v>3641</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5233,7 +5246,7 @@
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>"natural = waterfall", 25
-"waterway = waterfall", 9
+"waterway = waterfall", 30
 "place = locality", 9
 "water = waterfall", 3</t>
         </is>
@@ -5271,7 +5284,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="G75" s="12" t="n">
         <v>461</v>
@@ -5294,7 +5307,7 @@
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>"place = suburb", 2
-"waterway = rapids", 5</t>
+"waterway = rapids", 7</t>
         </is>
       </c>
       <c r="L75" s="17" t="inlineStr">
@@ -5335,7 +5348,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1035</v>
+        <v>1080</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5357,7 +5370,7 @@
       </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 7</t>
+          <t>"natural = bay", 8</t>
         </is>
       </c>
       <c r="L76" s="17" t="inlineStr">
@@ -5393,7 +5406,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2629</v>
+        <v>2737</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5419,7 +5432,7 @@
 "type = multipolygon", 3
 "water = pool", 5
 "water = pond", 3
-"place = locality", 18</t>
+"place = locality", 25</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5461,7 +5474,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1856</v>
+        <v>1975</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5580,7 +5593,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5639,7 +5652,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5749,7 +5762,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5771,12 +5784,14 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 18
-"type = multipolygon", 18
-"water = lake", 14
-"ele:min = 431", 3
-"intermittent = no", 3
-"salt = no", 3</t>
+          <t>"natural = water", 23
+"type = multipolygon", 23
+"water = lake", 17
+"water = reservoir", 3
+"ele:min = 431", 4
+"intermittent = no", 4
+"salt = no", 4
+"reservoir_type = water_storage", 2</t>
         </is>
       </c>
       <c r="L83" s="17" t="inlineStr">
@@ -5812,7 +5827,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13111</v>
+        <v>13662</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5834,9 +5849,10 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 443
-"type = multipolygon", 338
-"water = lake", 294</t>
+          <t>"natural = water", 502
+"type = multipolygon", 385
+"water = lake", 348
+"water = reservoir", 21</t>
         </is>
       </c>
       <c r="L84" s="17" t="inlineStr">
@@ -5872,7 +5888,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>58099</v>
+        <v>60830</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5894,9 +5910,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 3124
-"type = multipolygon", 1515
-"water = lake", 940</t>
+          <t>"natural = water", 3251
+"type = multipolygon", 1587
+"water = lake", 943</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5932,7 +5948,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1424</v>
+        <v>1508</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -5993,7 +6009,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>837</v>
+        <v>933</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -6016,7 +6032,7 @@
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 2
-"waterway = dam", 9</t>
+"waterway = dam", 10</t>
         </is>
       </c>
       <c r="L87" s="17" t="inlineStr">
@@ -6053,7 +6069,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6075,9 +6091,11 @@
       </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 2
+          <t>"natural = bay", 5
 "natural = water", 4
-"place = locality", 7</t>
+"place = locality", 7
+"area = yes", 2
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L88" s="17" t="inlineStr">
@@ -6114,7 +6132,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6136,9 +6154,9 @@
       </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 7
-"water = lake", 6
-"type = multipolygon", 3
+          <t>"natural = water", 9
+"water = lake", 8
+"type = multipolygon", 5
 "place = locality", 3</t>
         </is>
       </c>
@@ -6176,7 +6194,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2444</v>
+        <v>2604</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6198,10 +6216,10 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 112
-"water = lake", 74
-"type = multipolygon", 46
-"place = locality", 20</t>
+          <t>"natural = water", 134
+"water = lake", 95
+"type = multipolygon", 60
+"place = locality", 21</t>
         </is>
       </c>
       <c r="L90" s="17" t="inlineStr">
@@ -6270,7 +6288,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6297,6 +6315,8 @@
 "public_transport = station", 2
 "building = train_station", 3
 "train = yes", 6
+"public_transport = stop_area", 2
+"type = public_transport", 2
 "ref:bygningsnr = 157484370", 2
 "abandoned:railway = station", 2
 "place = locality", 2</t>
@@ -6340,7 +6360,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6534,7 +6554,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -6943,7 +6963,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G105" s="12" t="n">
         <v>120</v>
@@ -7003,7 +7023,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G106" s="12" t="n">
         <v>22</v>
@@ -7097,7 +7117,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G108" s="12" t="n">
         <v>98</v>
@@ -7151,7 +7171,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2151</v>
+        <v>2303</v>
       </c>
       <c r="G109" s="12" t="n">
         <v>2333</v>
@@ -7222,7 +7242,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7244,8 +7264,8 @@
       </c>
       <c r="K110" s="1" t="inlineStr">
         <is>
-          <t>"man_made = cairn", 3
-"place = locality", 2</t>
+          <t>"man_made = cairn", 4
+"place = locality", 3</t>
         </is>
       </c>
       <c r="L110" s="17" t="inlineStr">
@@ -7286,7 +7306,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7646,7 +7666,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7707,7 +7727,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1400</v>
+        <v>1505</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7729,20 +7749,22 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>"layer = -1", 15
+          <t>"highway = cycleway", 2
+"layer = -1", 23
 "surface = paved", 3
-"tunnel = yes", 19
-"bicycle = no", 3
-"foot = no", 3
-"highway = primary", 8
-"lit = yes", 7
-"surface = asphalt", 5
-"bicycle = yes", 2
-"foot = yes", 3
+"tunnel = yes", 27
+"bicycle = no", 4
+"foot = no", 5
+"highway = primary", 11
+"lit = yes", 13
+"surface = asphalt", 12
+"bicycle = yes", 3
+"foot = yes", 4
 "maxheight = 4.2", 2
-"highway = trunk", 2
+"lanes = 2", 2
+"highway = trunk", 3
 "int_ref = E 39", 2
-"maxheight = 4.5", 2
+"maxheight = 4.5", 5
 "electrified = contact_line", 6
 "frequency = 16.67", 6
 "gauge = 1435", 6
@@ -7756,6 +7778,8 @@
 "maxspeed:hgv = 90", 2
 "maxspeed:plus = 100", 2
 "maxspeed:tilting = 115", 2
+"highway = secondary", 3
+"old_ref = 360", 2
 "is_in:continent = Europe", 2
 "is_in:country = Norway", 2
 "is_in:country_code = NO", 2
@@ -7789,7 +7813,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>9913</v>
+        <v>10556</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7799,43 +7823,19 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 61
-"layer = 1", 65
+          <t>"bridge = yes", 96
+"layer = 1", 105
 "surface = asphalt", 13
-"man_made = bridge", 30
-"layer = -1", 3
-"man_made = tunnel", 3
+"man_made = bridge", 66
 "cycleway:both = no", 4
-"highway = primary", 19
+"highway = primary", 21
 "lanes = 2", 6
-"maxweight:signed = no", 4
+"maxweight:signed = no", 5
 "highway = secondary", 14
-"highway = service", 2
-"highway = trunk", 4
-"surface = paved", 3
 "tunnel = culvert", 8
 "waterway = stream", 10
-"VANNBR = 2", 2
-"bridge:description = Dragbrua", 2
-"surface = gravel", 2
-"bridge:description = Grymyr", 2
-"place = suburb", 2
-"old_ref = 459", 2
-"highway = tertiary", 2
-"int_ref = E 39", 2
-"lit = yes", 2
-"highway = track", 4
-"nvdb:id = 339480834", 2
-"old_ref = 202", 2
-"old_ref = 408", 2
-"highway = residential", 2
-"historic = bridge", 2
-"place = locality", 4
-"old_ref = 158", 2
-"lanes = 1", 3
-"old_ref = 49", 3
-"source:maxspeed = sign", 2
-"width = 3.0", 2</t>
+"highway = track", 5
+"place = locality", 4</t>
         </is>
       </c>
       <c r="L121" s="17" t="inlineStr">
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8358,8 +8358,11 @@
       </c>
       <c r="K132" s="1" t="inlineStr">
         <is>
-          <t>"man_made = quay", 6
-"place = locality", 2</t>
+          <t>"man_made = pier", 4
+"area = yes", 2
+"man_made = quay", 19
+"place = locality", 18
+"type = multipolygon", 11</t>
         </is>
       </c>
       <c r="L132" s="17" t="inlineStr">
@@ -8405,7 +8408,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8476,7 +8479,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="G134" s="12" t="n">
         <v>160</v>
@@ -8498,7 +8501,7 @@
       </c>
       <c r="K134" s="1" t="inlineStr">
         <is>
-          <t>"amenity = ferry_terminal", 4</t>
+          <t>"amenity = ferry_terminal", 5</t>
         </is>
       </c>
       <c r="L134" s="17" t="inlineStr">
@@ -8641,7 +8644,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G137" s="12" t="n">
         <v>64</v>
@@ -8751,7 +8754,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -8817,7 +8820,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G140" s="12" t="n">
         <v>188</v>
@@ -8880,7 +8883,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -9016,7 +9019,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>104074</v>
+        <v>108454</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9075,7 +9078,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>692</v>
+        <v>822</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -9142,7 +9145,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4452</v>
+        <v>4639</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9164,11 +9167,12 @@
       </c>
       <c r="K145" s="1" t="inlineStr">
         <is>
-          <t>"highway = path", 40
+          <t>"highway = path", 46
 "sac_scale = hiking", 6
 "mtb:scale = 1", 2
 "trail_visibility = excellent", 3
-"place = locality", 18</t>
+"place = locality", 18
+"surface = ground", 2</t>
         </is>
       </c>
       <c r="L145" s="9" t="inlineStr">
@@ -9204,7 +9208,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9226,8 +9230,8 @@
       </c>
       <c r="K146" s="1" t="inlineStr">
         <is>
-          <t>"junction = yes", 13
-"place = locality", 13</t>
+          <t>"junction = yes", 14
+"place = locality", 14</t>
         </is>
       </c>
       <c r="L146" s="2" t="inlineStr">
@@ -9268,7 +9272,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G147" s="12" t="n">
         <v>70</v>
@@ -9434,7 +9438,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9503,7 +9507,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G151" s="12" t="n">
         <v>261</v>
@@ -9561,7 +9565,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9666,6 +9670,9 @@
           <t>vegsving</t>
         </is>
       </c>
+      <c r="F154" t="n">
+        <v>37</v>
+      </c>
       <c r="G154" s="12" t="n">
         <v>5</v>
       </c>
@@ -9684,7 +9691,7 @@
           <t>Markert eller allment kjent sving på offentlig og privat veg/gate, også mer lokale navn, f.eks. Styggdalssvingen.</t>
         </is>
       </c>
-      <c r="K154" s="17" t="n"/>
+      <c r="K154" s="1" t="inlineStr"/>
       <c r="M154" s="17" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -9868,7 +9875,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1704</v>
+        <v>1796</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9890,31 +9897,31 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 101
-"denomination = lutheran", 100
+          <t>"amenity = place_of_worship", 106
+"denomination = lutheran", 105
 "diocese = Stavanger", 15
-"religion = christian", 101
-"toilets = no", 9
-"toilets:wheelchair = no", 6
-"building = church", 96
+"religion = christian", 106
+"toilets = no", 11
+"toilets:wheelchair = no", 7
+"building = church", 101
 "deanery = Ytre Stavanger", 6
 "note = Soknekirke/arbeidskirke", 12
-"toilets = yes", 45
+"toilets = yes", 46
 "deanery = Stavanger Domprosti", 7
-"note = Soknekirke", 43
+"note = Soknekirke", 47
 "capacity = 300", 5
-"toilets:wheelchair = yes", 10
-"wheelchair = yes", 12
+"toilets:wheelchair = yes", 11
+"wheelchair = yes", 14
 "note = Prostikirke", 4
 "capacity = 500", 10
 "capacity = 450", 6
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"heritage = yes", 57
+"heritage = yes", 66
 "capacity = 250", 7
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
-"hearing_aids = yes", 15
+"hearing_aids = yes", 17
 "architect = J.W.Nordan", 4
 "capacity = 200", 10
 "deanery = Lier", 4
@@ -9924,7 +9931,7 @@
 "deanery = Mandal", 6
 "parish = Mandal", 4
 "deanery = Lister", 4
-"capacity = 350", 8
+"capacity = 350", 9
 "parish = Holt", 4
 "deanery = Vest-Nedenes", 6
 "parish = Åmli", 4
@@ -9933,7 +9940,9 @@
 "parish = Evje og Hornnes", 4
 "parish = Bygland", 6
 "parish = Valle og Hylestad", 4
-"parish = Bykle", 4</t>
+"parish = Bykle", 4
+"diocese = Bjørgvin", 6
+"deanery = Arna og Åsane", 5</t>
         </is>
       </c>
       <c r="L159" s="17" t="inlineStr">
@@ -9974,7 +9983,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -10038,7 +10047,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -10109,7 +10118,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10172,7 +10181,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10194,7 +10203,7 @@
       </c>
       <c r="K163" s="1" t="inlineStr">
         <is>
-          <t>"tourism = museum", 2
+          <t>"tourism = museum", 3
 "place = isolated_dwelling", 2
 "place = locality", 2</t>
         </is>
@@ -10323,7 +10332,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10385,7 +10394,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10405,7 +10414,11 @@
           <t>Både i tårn og på bakken, f.eks. Kongens utsikt</t>
         </is>
       </c>
-      <c r="K167" s="1" t="inlineStr"/>
+      <c r="K167" s="1" t="inlineStr">
+        <is>
+          <t>"tourism = viewpoint", 2</t>
+        </is>
+      </c>
       <c r="L167" s="17" t="inlineStr">
         <is>
           <t>tourism=viewpoint</t>
@@ -10439,7 +10452,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5335</v>
+        <v>5388</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10461,7 +10474,7 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 267
+          <t>"place = locality", 269
 "building = farm_auxiliary", 26
 "man_made = mineshaft", 18
 "resource = silver", 21
@@ -10503,7 +10516,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10599,7 +10612,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>6008</v>
+        <v>6326</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10621,7 +10634,7 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 120
+          <t>"place = locality", 121
 "place = farm", 23</t>
         </is>
       </c>
@@ -10664,7 +10677,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3093</v>
+        <v>3303</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10688,7 +10701,7 @@
         <is>
           <t>"landuse = meadow", 24
 "type = multipolygon", 4
-"place = locality", 31
+"place = locality", 33
 "natural = wetland", 2
 "wetland = bog", 2</t>
         </is>
@@ -10726,7 +10739,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8251</v>
+        <v>8378</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10750,7 +10763,7 @@
         <is>
           <t>"landuse = farmland", 48
 "type = multipolygon", 22
-"place = locality", 209</t>
+"place = locality", 210</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10786,7 +10799,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10849,7 +10862,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3740</v>
+        <v>3842</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10916,7 +10929,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G176" s="12" t="n">
         <v>264</v>
@@ -10938,8 +10951,8 @@
       </c>
       <c r="K176" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 10
-"historic = shieling", 9</t>
+          <t>"place = locality", 11
+"historic = shieling", 10</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
@@ -10980,7 +10993,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -11040,7 +11053,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11131,7 +11144,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3268</v>
+        <v>3451</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11153,7 +11166,7 @@
       </c>
       <c r="K180" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 53
+          <t>"natural = stone", 56
 "place = locality", 4
 "natural = rock", 2</t>
         </is>
@@ -11192,7 +11205,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2414</v>
+        <v>2589</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11214,7 +11227,7 @@
       </c>
       <c r="K181" s="1" t="inlineStr">
         <is>
-          <t>"natural = scree", 81
+          <t>"natural = scree", 84
 "place = locality", 20</t>
         </is>
       </c>
@@ -11302,7 +11315,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G183" s="12" t="n">
         <v>121</v>
@@ -11392,7 +11405,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I185" s="2" t="inlineStr">
         <is>
@@ -11490,7 +11503,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11515,7 +11528,7 @@
           <t>"historic = mine", 7
 "resource = silver", 3
 "place = locality", 2
-"landuse = quarry", 3</t>
+"landuse = quarry", 4</t>
         </is>
       </c>
       <c r="L187" s="17" t="inlineStr">
@@ -11551,7 +11564,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11574,6 +11587,7 @@
       <c r="K188" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 3
+"landuse = quarry", 2
 "place = isolated_dwelling", 2</t>
         </is>
       </c>
@@ -11661,7 +11675,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>7826</v>
+        <v>8345</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11685,7 +11699,7 @@
         <is>
           <t>"natural = wood", 20
 "type = multipolygon", 6
-"place = locality", 101
+"place = locality", 103
 "place = isolated_dwelling", 5
 "place = farm", 11</t>
         </is>
@@ -11723,7 +11737,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11781,7 +11795,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>50297</v>
+        <v>53884</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11803,10 +11817,10 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 665
-"natural = wetland", 737
-"wetland = bog", 258
-"type = multipolygon", 97</t>
+          <t>"place = locality", 666
+"natural = wetland", 755
+"wetland = bog", 268
+"type = multipolygon", 101</t>
         </is>
       </c>
       <c r="L192" s="17" t="inlineStr">
@@ -12512,7 +12526,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>233</v>
@@ -12534,7 +12548,7 @@
       </c>
       <c r="K207" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 5</t>
+          <t>"place = locality", 6</t>
         </is>
       </c>
       <c r="L207" s="9" t="n"/>
@@ -12622,7 +12636,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>948</v>
+        <v>996</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12644,15 +12658,16 @@
       </c>
       <c r="K209" s="1" t="inlineStr">
         <is>
-          <t>"boundary = protected_area", 6
-"leisure = nature_reserve", 6
+          <t>"boundary = protected_area", 7
+"leisure = nature_reserve", 7
 "type = boundary", 5
 "naturbase:url = https://faktaark.naturbase.no/?id=VV00001832", 4
-"naturbase:verneform = Naturreservat", 5
+"naturbase:verneform = Naturreservat", 6
 "naturbase:verneplan = Skog", 4
-"protect_class = 1a", 5
+"protect_class = 1a", 6
 "ref:naturvern = VV00001832", 4
-"related_law = https://lovdata.no/forskrift/2008-12-19-1448", 4</t>
+"related_law = https://lovdata.no/forskrift/2008-12-19-1448", 4
+"naturbase:verneplan = Myr", 2</t>
         </is>
       </c>
       <c r="L209" s="17" t="inlineStr">
@@ -12749,7 +12764,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12892,7 +12907,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1903</v>
+        <v>2041</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12914,8 +12929,8 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 143
-"natural = bay", 145
+          <t>"bay = fjord", 148
+"natural = bay", 150
 "type = multipolygon", 15</t>
         </is>
       </c>
@@ -13060,7 +13075,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -13123,6 +13138,9 @@
           <t>fiskeplassISjø</t>
         </is>
       </c>
+      <c r="F218" t="n">
+        <v>61</v>
+      </c>
       <c r="G218" s="12" t="n">
         <v>46</v>
       </c>
@@ -13141,7 +13159,7 @@
           <t>Fiskested, fiskemed</t>
         </is>
       </c>
-      <c r="K218" s="17" t="n"/>
+      <c r="K218" s="1" t="inlineStr"/>
       <c r="M218" s="12" t="n"/>
       <c r="O218" s="17">
         <f>CONCATENATE(Tabell1[[#This Row],[OSM tag]],";",Tabell1[[#This Row],[tillegg]],";",Tabell1[[#This Row],[fixme]])</f>
@@ -13222,7 +13240,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>13248</v>
+        <v>14149</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13246,7 +13264,7 @@
         <is>
           <t>"natural = rock", 345
 "seamark:type = rock", 126
-"place = islet", 586
+"place = islet", 588
 "natural = coastline", 473
 "natural = shoal", 78</t>
         </is>
@@ -13289,7 +13307,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1230</v>
+        <v>1281</v>
       </c>
       <c r="G221" s="12" t="n">
         <v>1206</v>
@@ -13359,7 +13377,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>12733</v>
+        <v>13806</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13381,8 +13399,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 355
-"place = locality", 148</t>
+          <t>"natural = shoal", 359
+"place = locality", 151</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13475,7 +13493,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4258</v>
+        <v>4805</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13497,7 +13515,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 395</t>
+          <t>"natural = strait", 397</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13533,7 +13551,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>25086</v>
+        <v>27297</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13555,7 +13573,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1686</t>
+          <t>"natural = bay", 1765</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13592,7 +13610,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>3757</v>
+        <v>4037</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13614,10 +13632,10 @@
       </c>
       <c r="K226" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 123
+          <t>"place = island", 129
 "natural = coastline", 131
 "place = islet", 131
-"type = multipolygon", 105
+"type = multipolygon", 111
 "natural = wood", 8</t>
         </is>
       </c>
@@ -13654,7 +13672,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>18301</v>
+        <v>19898</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13676,9 +13694,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1338
-"natural = coastline", 1193
-"type = multipolygon", 109</t>
+          <t>"place = islet", 1353
+"natural = coastline", 1195
+"type = multipolygon", 123</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13714,7 +13732,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13773,7 +13791,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>21874</v>
+        <v>23907</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13795,7 +13813,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 1012
+          <t>"natural = cape", 1087
 "place = locality", 54</t>
         </is>
       </c>
@@ -13833,7 +13851,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13891,7 +13909,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2323</v>
+        <v>2425</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13956,7 +13974,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1211</v>
+        <v>1480</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -13978,7 +13996,8 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 22</t>
+          <t>"natural = bay", 29
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L232" s="17" t="inlineStr">
@@ -14015,7 +14034,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -14078,7 +14097,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -14235,7 +14254,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G237" s="12" t="n">
         <v>78</v>
@@ -14971,7 +14990,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>7562</v>
+        <v>8320</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -14993,7 +15012,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 209</t>
+          <t>"place = locality", 222</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -15030,7 +15049,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>4225</v>
+        <v>4310</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15088,7 +15107,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>14743</v>
+        <v>16001</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15110,9 +15129,9 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 50
-"natural = hill", 439
-"place = locality", 387</t>
+          <t>"natural = peak", 59
+"natural = hill", 476
+"place = locality", 428</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15158,7 +15177,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>21641</v>
+        <v>22925</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15181,9 +15200,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 252
-"place = locality", 331
-"natural = hill", 248</t>
+"natural = peak", 296
+"place = locality", 398
+"natural = hill", 284</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15229,7 +15248,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>9390</v>
+        <v>9504</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15251,8 +15270,8 @@
       </c>
       <c r="K262" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1471
-"place = locality", 1484</t>
+          <t>"natural = hill", 1472
+"place = locality", 1485</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15298,7 +15317,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9906</v>
+        <v>10346</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15320,8 +15339,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1199
-"place = locality", 901</t>
+          <t>"natural = hill", 1258
+"place = locality", 966</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15362,7 +15381,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>57044</v>
+        <v>60001</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15384,9 +15403,9 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3505
-"place = locality", 2200
-"natural = peak", 494
+          <t>"natural = hill", 3611
+"place = locality", 2317
+"natural = peak", 564
 "natural = ridge", 288</t>
         </is>
       </c>
@@ -15438,7 +15457,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>6913</v>
+        <v>7191</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15461,8 +15480,8 @@
       <c r="K265" s="1" t="inlineStr">
         <is>
           <t>"natural = hill", 68
-"natural = ridge", 238
-"place = locality", 186</t>
+"natural = ridge", 250
+"place = locality", 198</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15503,7 +15522,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>46270</v>
+        <v>50444</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15525,9 +15544,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 151
-"natural = hill", 1768
-"place = locality", 1472</t>
+          <t>"natural = peak", 190
+"natural = hill", 1931
+"place = locality", 1645</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15568,7 +15587,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1832</v>
+        <v>1945</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15590,8 +15609,9 @@
       </c>
       <c r="K267" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 25
-"natural = hill", 19</t>
+          <t>"natural = peak", 43
+"natural = hill", 40
+"place = locality", 39</t>
         </is>
       </c>
       <c r="L267" s="17" t="inlineStr">
@@ -15642,7 +15662,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1222</v>
+        <v>1296</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15662,7 +15682,11 @@
           <t>Skulder, nese, bryn</t>
         </is>
       </c>
-      <c r="K268" s="1" t="inlineStr"/>
+      <c r="K268" s="1" t="inlineStr">
+        <is>
+          <t>"place = locality", 2</t>
+        </is>
+      </c>
       <c r="M268" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -15767,7 +15791,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G271" s="12" t="n">
         <v>251</v>
@@ -15787,7 +15811,12 @@
           <t>Stor dal med sidedaler. Eks. Gudbrandsdalen, Namdalen, Setesdal, Valdres</t>
         </is>
       </c>
-      <c r="K271" s="1" t="inlineStr"/>
+      <c r="K271" s="1" t="inlineStr">
+        <is>
+          <t>"natural = valley", 3
+"place = locality", 3</t>
+        </is>
+      </c>
       <c r="L271" s="17" t="inlineStr">
         <is>
           <t>natural=valley</t>
@@ -15826,7 +15855,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>39318</v>
+        <v>41181</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15848,8 +15877,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1106
-"natural = valley", 1444</t>
+          <t>"place = locality", 1237
+"natural = valley", 1579</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15890,7 +15919,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>6380</v>
+        <v>7032</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15912,8 +15941,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 89
-"place = locality", 94</t>
+          <t>"natural = valley", 132
+"place = locality", 137</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -15954,7 +15983,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11099</v>
+        <v>11635</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -15976,8 +16005,9 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 148
-"place = locality", 131</t>
+          <t>"natural = valley", 165
+"place = locality", 150
+"natural = saddle", 11</t>
         </is>
       </c>
       <c r="L274" s="2" t="inlineStr">
@@ -16018,7 +16048,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1905</v>
+        <v>2072</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -16040,7 +16070,7 @@
       </c>
       <c r="K275" s="1" t="inlineStr">
         <is>
-          <t>"natural = gorge", 63
+          <t>"natural = gorge", 89
 "place = locality", 23</t>
         </is>
       </c>
@@ -16077,7 +16107,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>3308</v>
+        <v>3435</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16148,7 +16178,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16245,7 +16275,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>12675</v>
+        <v>13466</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16267,8 +16297,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 324
-"place = locality", 334</t>
+          <t>"natural = slope", 354
+"place = locality", 364</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16309,7 +16339,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>33657</v>
+        <v>35002</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16331,8 +16361,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 864
-"place = locality", 879</t>
+          <t>"natural = slope", 938
+"place = locality", 951</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16373,7 +16403,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16464,7 +16494,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>3161</v>
+        <v>3208</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16486,7 +16516,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 162</t>
+          <t>"natural = cliff", 163</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16523,7 +16553,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16545,7 +16575,7 @@
       </c>
       <c r="K284" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 7</t>
+          <t>"place = locality", 8</t>
         </is>
       </c>
       <c r="L284" s="2" t="n"/>
@@ -16582,7 +16612,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>3267</v>
+        <v>3528</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16604,7 +16634,7 @@
       </c>
       <c r="K285" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 132</t>
+          <t>"place = locality", 139</t>
         </is>
       </c>
       <c r="M285" s="12" t="inlineStr">
@@ -16640,7 +16670,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>6565</v>
+        <v>6929</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16662,7 +16692,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 131</t>
+          <t>"place = locality", 254</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
@@ -16852,7 +16882,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -16916,7 +16946,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G291" s="12" t="n">
         <v>279</v>
@@ -16938,7 +16968,8 @@
       </c>
       <c r="K291" s="1" t="inlineStr">
         <is>
-          <t>"natural = mountain_range", 2
+          <t>"natural = plateau", 2
+"natural = mountain_range", 2
 "note = Please refine boundary based on local knowledge", 2</t>
         </is>
       </c>
@@ -16975,7 +17006,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -3876,17 +3876,17 @@
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>"amenity = shelter", 3
-"capacity = 6", 3
-"network = Den Norske Turistforening", 20
-"shelter_type = basic_hut", 3
-"tourism = wilderness_hut", 17
-"building = cabin", 11
+          <t>"building = cabin", 11
 "capacity = 11", 2
 "dnt:classification = ubetjent", 12
 "dnt:lock = yes", 20
+"network = Den Norske Turistforening", 20
 "service = no", 2
 "tourism = alpine_hut", 11
+"amenity = shelter", 3
+"capacity = 6", 3
+"shelter_type = basic_hut", 3
+"tourism = wilderness_hut", 17
 "tourism = chalet", 52
 "amenity = cafe", 11
 "capacity = 24", 2
@@ -5131,9 +5131,9 @@
       <c r="K72" s="1" t="inlineStr">
         <is>
           <t>"waterway = stream", 540
+"waterway = river", 63
 "layer = -1", 76
 "tunnel = culvert", 22
-"waterway = river", 63
 "width = 2", 80
 "width = 3", 24
 "place = locality", 76</t>
@@ -8358,8 +8358,8 @@
       </c>
       <c r="K132" s="1" t="inlineStr">
         <is>
-          <t>"man_made = pier", 4
-"area = yes", 2
+          <t>"area = yes", 2
+"man_made = pier", 4
 "man_made = quay", 19
 "place = locality", 18
 "type = multipolygon", 11</t>
@@ -9909,12 +9909,12 @@
 "toilets = yes", 46
 "deanery = Stavanger Domprosti", 7
 "note = Soknekirke", 47
-"capacity = 300", 5
 "toilets:wheelchair = yes", 11
 "wheelchair = yes", 14
 "note = Prostikirke", 4
 "capacity = 500", 10
 "capacity = 450", 6
+"capacity = 300", 5
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
 "heritage = yes", 66
@@ -10071,8 +10071,8 @@
         <is>
           <t>"cemetery = grave", 5
 "landuse = cemetery", 4
-"amenity = grave_yard", 2
-"type = multipolygon", 3</t>
+"type = multipolygon", 3
+"amenity = grave_yard", 2</t>
         </is>
       </c>
       <c r="L161" s="17" t="inlineStr">
@@ -13634,8 +13634,8 @@
         <is>
           <t>"place = island", 129
 "natural = coastline", 131
+"type = multipolygon", 111
 "place = islet", 131
-"type = multipolygon", 111
 "natural = wood", 8</t>
         </is>
       </c>
@@ -13694,8 +13694,8 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1353
-"natural = coastline", 1195
+          <t>"natural = coastline", 1195
+"place = islet", 1353
 "type = multipolygon", 123</t>
         </is>
       </c>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -3876,17 +3876,17 @@
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 11
+          <t>"amenity = shelter", 3
+"capacity = 6", 3
+"network = Den Norske Turistforening", 20
+"shelter_type = basic_hut", 3
+"tourism = wilderness_hut", 17
+"building = cabin", 11
 "capacity = 11", 2
 "dnt:classification = ubetjent", 12
 "dnt:lock = yes", 20
-"network = Den Norske Turistforening", 20
 "service = no", 2
 "tourism = alpine_hut", 11
-"amenity = shelter", 3
-"capacity = 6", 3
-"shelter_type = basic_hut", 3
-"tourism = wilderness_hut", 17
 "tourism = chalet", 52
 "amenity = cafe", 11
 "capacity = 24", 2
@@ -5131,9 +5131,9 @@
       <c r="K72" s="1" t="inlineStr">
         <is>
           <t>"waterway = stream", 540
-"waterway = river", 63
 "layer = -1", 76
 "tunnel = culvert", 22
+"waterway = river", 63
 "width = 2", 80
 "width = 3", 24
 "place = locality", 76</t>
@@ -8358,8 +8358,8 @@
       </c>
       <c r="K132" s="1" t="inlineStr">
         <is>
-          <t>"area = yes", 2
-"man_made = pier", 4
+          <t>"man_made = pier", 4
+"area = yes", 2
 "man_made = quay", 19
 "place = locality", 18
 "type = multipolygon", 11</t>
@@ -9909,12 +9909,12 @@
 "toilets = yes", 46
 "deanery = Stavanger Domprosti", 7
 "note = Soknekirke", 47
+"capacity = 300", 5
 "toilets:wheelchair = yes", 11
 "wheelchair = yes", 14
 "note = Prostikirke", 4
 "capacity = 500", 10
 "capacity = 450", 6
-"capacity = 300", 5
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
 "heritage = yes", 66
@@ -10071,8 +10071,8 @@
         <is>
           <t>"cemetery = grave", 5
 "landuse = cemetery", 4
-"type = multipolygon", 3
-"amenity = grave_yard", 2</t>
+"amenity = grave_yard", 2
+"type = multipolygon", 3</t>
         </is>
       </c>
       <c r="L161" s="17" t="inlineStr">
@@ -13634,8 +13634,8 @@
         <is>
           <t>"place = island", 129
 "natural = coastline", 131
+"place = islet", 131
 "type = multipolygon", 111
-"place = islet", 131
 "natural = wood", 8</t>
         </is>
       </c>
@@ -13694,8 +13694,8 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 1195
-"place = islet", 1353
+          <t>"place = islet", 1353
+"natural = coastline", 1195
 "type = multipolygon", 123</t>
         </is>
       </c>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>108454</v>
+        <v>108457</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9768</v>
+        <v>8927</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1678,8 +1678,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2936
-"place = farm", 534</t>
+          <t>"place = isolated_dwelling", 2646
+"place = farm", 533</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14418</v>
+        <v>14465</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11287</v>
+        <v>11321</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>3</v>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>105614</v>
+        <v>106294</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2368,7 +2368,8 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 29590</t>
+          <t>"place = farm", 29588
+"place = isolated_dwelling", 1308</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2409,7 +2410,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22722</v>
+        <v>22728</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2433,7 +2434,7 @@
         <is>
           <t>"historic = shieling", 6920
 "place = locality", 5711
-"place = isolated_dwelling", 1249</t>
+"place = isolated_dwelling", 1250</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2474,7 +2475,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2676</v>
+        <v>2683</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2534,7 +2535,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4271</v>
+        <v>4278</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2654,7 +2655,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>41537</v>
+        <v>41547</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 11171
+          <t>"place = farm", 11173
 "place = hamlet", 2103</t>
         </is>
       </c>
@@ -2781,7 +2782,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -3481,7 +3482,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -4395,7 +4396,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4454,7 +4455,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -5046,7 +5047,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10043</v>
+        <v>10045</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5068,7 +5069,7 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 236
+          <t>"waterway = river", 237
 "layer = -1", 16
 "width = 2", 10
 "width = 3", 10
@@ -5108,7 +5109,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45727</v>
+        <v>45729</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5133,7 +5134,7 @@
           <t>"waterway = stream", 540
 "layer = -1", 76
 "tunnel = culvert", 22
-"waterway = river", 63
+"waterway = river", 62
 "width = 2", 80
 "width = 3", 24
 "place = locality", 76</t>
@@ -5888,7 +5889,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>60830</v>
+        <v>60832</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -6194,7 +6195,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -7727,7 +7728,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7813,7 +7814,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10556</v>
+        <v>10557</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -9019,7 +9020,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>108457</v>
+        <v>108471</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -10181,7 +10182,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10332,7 +10333,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G166" s="12" t="n">
         <v>193</v>
@@ -10452,7 +10453,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5388</v>
+        <v>5398</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10479,7 +10480,7 @@
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 35
+"place = isolated_dwelling", 47
 "historic = shieling", 11</t>
         </is>
       </c>
@@ -10739,7 +10740,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8378</v>
+        <v>8377</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10862,7 +10863,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3842</v>
+        <v>3845</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -11144,7 +11145,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11675,7 +11676,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>8345</v>
+        <v>8348</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11737,7 +11738,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11795,7 +11796,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>53884</v>
+        <v>53887</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -12636,7 +12637,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -13551,7 +13552,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>27297</v>
+        <v>27300</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13672,7 +13673,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>19898</v>
+        <v>19896</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13791,7 +13792,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>23907</v>
+        <v>23913</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13851,7 +13852,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13909,7 +13910,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -14990,7 +14991,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>8320</v>
+        <v>8323</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -15107,7 +15108,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>16001</v>
+        <v>16005</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15381,7 +15382,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>60001</v>
+        <v>60005</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15457,7 +15458,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>7191</v>
+        <v>7192</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15522,7 +15523,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50444</v>
+        <v>50451</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15587,7 +15588,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15855,7 +15856,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>41181</v>
+        <v>41183</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15919,7 +15920,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>7032</v>
+        <v>7034</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15983,7 +15984,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11635</v>
+        <v>11636</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -16275,7 +16276,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>13466</v>
+        <v>13467</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16339,7 +16340,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>35002</v>
+        <v>35007</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16403,7 +16404,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16670,7 +16671,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>6929</v>
+        <v>6935</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16882,7 +16883,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>110</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -874,13 +874,13 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 210
+          <t>"place = village", 209
 "source:population = SSB - befolkning i tettstedet", 138
 "place = town", 11
 "place = suburb", 46
 "place = hamlet", 19
 "place = quarter", 25
-"place = neighbourhood", 20
+"place = neighbourhood", 21
 "type = multipolygon", 9</t>
         </is>
       </c>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -939,10 +939,10 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 91
+          <t>"place = village", 90
 "source:population = SSB - befolkning i tettstedet", 44
-"place = neighbourhood", 188
-"place = suburb", 94
+"place = neighbourhood", 189
+"place = suburb", 93
 "place = hamlet", 51
 "place = quarter", 64
 "type = multipolygon", 8</t>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>"place = farm", 3
-"place = isolated_dwelling", 3
+"place = isolated_dwelling", 2
 "historic = shieling", 2
 "place = locality", 2</t>
         </is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8927</v>
+        <v>6312</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1678,8 +1678,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2646
-"place = farm", 533</t>
+          <t>"place = isolated_dwelling", 2629
+"place = farm", 529</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14465</v>
+        <v>14478</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1742,8 +1742,8 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 1014
-"place = isolated_dwelling", 5647
+          <t>"building = cabin", 1012
+"place = isolated_dwelling", 5646
 "place = locality", 366
 "historic = shieling", 734</t>
         </is>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11321</v>
+        <v>11404</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 6080
+          <t>"place = locality", 6081
 "historic = shieling", 1090
 "historic = ruins", 844</t>
         </is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2057,11 +2057,12 @@
         <is>
           <t>"leisure = pitch", 77
 "sport = soccer", 34
+"surface = grass", 6
 "type = multipolygon", 7
-"sport = horse_racing", 6
+"sport = horse_racing", 5
 "place = locality", 19
 "leisure = sports_centre", 10
-"surface = grass", 5
+"building = sports_centre", 4
 "leisure = track", 3
 "piste:type = ski_jump", 6</t>
         </is>
@@ -2218,7 +2219,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2346,7 +2347,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>106294</v>
+        <v>108731</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2368,8 +2369,8 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 29588
-"place = isolated_dwelling", 1308</t>
+          <t>"place = farm", 29589
+"place = isolated_dwelling", 1326</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2410,7 +2411,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22728</v>
+        <v>22746</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2432,9 +2433,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6920
+          <t>"historic = shieling", 6919
 "place = locality", 5711
-"place = isolated_dwelling", 1250</t>
+"place = isolated_dwelling", 1249</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2475,7 +2476,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2535,7 +2536,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4278</v>
+        <v>4317</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2559,7 +2560,7 @@
         <is>
           <t>"place = locality", 997
 "place = farm", 200
-"place = isolated_dwelling", 58
+"place = isolated_dwelling", 59
 "historic = shieling", 54</t>
         </is>
       </c>
@@ -2655,7 +2656,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>41547</v>
+        <v>41554</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2677,7 +2678,7 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 11173
+          <t>"place = farm", 11170
 "place = hamlet", 2103</t>
         </is>
       </c>
@@ -2724,7 +2725,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2782,7 +2783,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2862,7 +2863,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2999,7 +3000,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3024,8 +3025,7 @@
           <t>"amenity = nursing_home", 82
 "place = locality", 7
 "amenity = social_facility", 3
-"building = civic", 5
-"building = yes", 3</t>
+"building = civic", 6</t>
         </is>
       </c>
       <c r="L38" s="17" t="inlineStr">
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>"building = civic", 4
+          <t>"building = civic", 2
 "place = locality", 2
 "building = cabin", 2
 "ref:bygningsnr = 300303199", 2</t>
@@ -3144,9 +3144,9 @@
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>"landuse = military", 9
+          <t>"landuse = military", 8
+"place = locality", 4
 "natural = bay", 2
-"place = locality", 3
 "place = neighbourhood", 4</t>
         </is>
       </c>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3504,9 +3504,9 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"industrial = factory", 51
-"place = locality", 29
-"building = industrial", 37
+          <t>"industrial = factory", 48
+"place = locality", 31
+"building = industrial", 34
 "man_made = works", 2
 "type = multipolygon", 5
 "landuse = industrial", 17
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>"building = industrial", 64
+          <t>"building = industrial", 63
+"place = locality", 21
 "place = isolated_dwelling", 2
 "ref:bygningsnr = 157524291", 2
 "ref:bygningsnr = 157502042", 2
 "ref:bygningsnr = 157458736", 2
-"place = locality", 20
 "ref:bygningsnr = 8451478", 2
 "ref:bygningsnr = 8560013", 2
 "ref:bygningsnr = 165283686", 2
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3750,8 +3750,8 @@
       <c r="K49" s="1" t="inlineStr">
         <is>
           <t>"tourism = hotel", 18
-"building = hotel", 11
-"place = locality", 11
+"building = hotel", 8
+"place = locality", 12
 "tourism = chalet", 2
 "ref:bygningsnr = 8667314", 2
 "tourism = apartment", 2
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3878,6 +3878,7 @@
       <c r="K51" s="1" t="inlineStr">
         <is>
           <t>"amenity = shelter", 3
+"building = hut", 5
 "capacity = 6", 3
 "network = Den Norske Turistforening", 20
 "shelter_type = basic_hut", 3
@@ -3905,11 +3906,12 @@
 "dnt:iid = 1489", 2
 "note:no = kystledhytte", 2
 "network = Den norske Turistforening", 2
-"building = yes", 7
 "capacity = 8", 2
 "dnt:iid = 251", 2
+"ref:bygningsnr = 163972026", 2
 "access = permit", 2
 "dnt:iid = 2019", 2
+"ref:bygningsnr = 163983753", 2
 "ski = yes", 2
 "ref:bygningsnr = 165795091", 2
 "ref:bygningsnr = 165767705", 2
@@ -3919,6 +3921,7 @@
 "service = full", 7
 "dnt:classification = selvbetjent", 3
 "supervisor = DNT Oslo og Omegn", 2
+"building = yes", 3
 "provisions = yes", 2</t>
         </is>
       </c>
@@ -3960,7 +3963,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -4086,7 +4089,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4175,7 +4178,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
@@ -4279,7 +4282,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4338,7 +4341,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7742</v>
+        <v>7741</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4396,7 +4399,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4455,7 +4458,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4515,7 +4518,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4573,7 +4576,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10104</v>
+        <v>10124</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4631,7 +4634,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4690,7 +4693,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4929,7 +4932,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G69" s="12" t="n">
         <v>199</v>
@@ -5047,7 +5050,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10045</v>
+        <v>10048</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5070,8 +5073,8 @@
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>"waterway = river", 237
+"width = 2", 11
 "layer = -1", 16
-"width = 2", 10
 "width = 3", 10
 "waterway = stream", 22</t>
         </is>
@@ -5109,7 +5112,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45729</v>
+        <v>45741</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5131,7 +5134,7 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 540
+          <t>"waterway = stream", 542
 "layer = -1", 76
 "tunnel = culvert", 22
 "waterway = river", 62
@@ -5224,7 +5227,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5349,7 +5352,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5407,7 +5410,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="G77" s="12" t="n">
         <v>2461</v>
@@ -5475,7 +5478,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5594,7 +5597,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5653,7 +5656,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5792,6 +5795,8 @@
 "ele:min = 431", 4
 "intermittent = no", 4
 "salt = no", 4
+"ele:max = 153", 2
+"ele:min = 141", 2
 "reservoir_type = water_storage", 2</t>
         </is>
       </c>
@@ -5828,7 +5833,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13662</v>
+        <v>13655</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5852,8 +5857,8 @@
         <is>
           <t>"natural = water", 502
 "type = multipolygon", 385
-"water = lake", 348
-"water = reservoir", 21</t>
+"water = lake", 347
+"water = reservoir", 22</t>
         </is>
       </c>
       <c r="L84" s="17" t="inlineStr">
@@ -5889,7 +5894,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>60832</v>
+        <v>60835</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5912,8 +5917,8 @@
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 3251
-"type = multipolygon", 1587
-"water = lake", 943</t>
+"type = multipolygon", 1589
+"water = lake", 945</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -6010,7 +6015,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -6070,7 +6075,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6133,7 +6138,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6195,7 +6200,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6361,7 +6366,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6555,7 +6560,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -7196,13 +7201,14 @@
         <is>
           <t>"kystverket:information = FL/SC", 12
 "note = Fyrlykt", 31
-"seamark:type = light_minor", 32
+"seamark:type = light_minor", 30
 "source:seamark = Kystverket", 32
 "kystverket:information = Lyktehus på søyle", 7
 "kystverket:information = FL/NB", 4
-"seamark:beacon:colour = white;black;white", 2
-"seamark:beacon:colour_pattern = horizontal", 2
-"seamark:beacon:shape = tower", 2
+"seamark:beacon_special_purpose:colour = white;black;white", 2
+"seamark:beacon_special_purpose:colour_pattern = horizontal", 2
+"seamark:beacon_special_purpose:shape = tower", 2
+"seamark:type = beacon_special_purpose", 2
 "kystverket:information = 4-FL/SC", 3
 "man_made = beacon", 6
 "kystverket:information = 4-FL/NB", 2
@@ -7728,7 +7734,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7758,13 +7764,14 @@
 "foot = no", 5
 "highway = primary", 11
 "lit = yes", 13
+"oneway = no", 2
 "surface = asphalt", 12
 "bicycle = yes", 3
 "foot = yes", 4
 "maxheight = 4.2", 2
-"lanes = 2", 2
+"cycleway:both = no", 2
+"lanes = 2", 3
 "highway = trunk", 3
-"int_ref = E 39", 2
 "maxheight = 4.5", 5
 "electrified = contact_line", 6
 "frequency = 16.67", 6
@@ -7814,7 +7821,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10557</v>
+        <v>10553</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7824,19 +7831,20 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 96
-"layer = 1", 105
-"surface = asphalt", 13
-"man_made = bridge", 66
-"cycleway:both = no", 4
-"highway = primary", 21
-"lanes = 2", 6
-"maxweight:signed = no", 5
-"highway = secondary", 14
-"tunnel = culvert", 8
-"waterway = stream", 10
-"highway = track", 5
-"place = locality", 4</t>
+          <t>"bridge = yes", 633
+"bridge:structure = beam", 79
+"highway = primary", 168
+"layer = 1", 667
+"surface = asphalt", 179
+"highway = trunk", 123
+"highway = secondary", 171
+"lanes = 2", 75
+"lit = yes", 48
+"highway = unclassified", 46
+"sidewalk = none", 37
+"width = 7", 26
+"man_made = bridge", 67
+"surface = paved", 28</t>
         </is>
       </c>
       <c r="L121" s="17" t="inlineStr">
@@ -8409,7 +8417,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8884,7 +8892,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -9020,7 +9028,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>108471</v>
+        <v>108569</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9146,7 +9154,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4639</v>
+        <v>4642</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9209,7 +9217,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9231,8 +9239,10 @@
       </c>
       <c r="K146" s="1" t="inlineStr">
         <is>
-          <t>"junction = yes", 14
-"place = locality", 14</t>
+          <t>"junction = yes", 532
+"junction = roundabout", 35
+"surface = asphalt", 22
+"oneway = yes", 23</t>
         </is>
       </c>
       <c r="L146" s="2" t="inlineStr">
@@ -9904,7 +9914,7 @@
 "religion = christian", 106
 "toilets = no", 11
 "toilets:wheelchair = no", 7
-"building = church", 101
+"building = church", 102
 "deanery = Ytre Stavanger", 6
 "note = Soknekirke/arbeidskirke", 12
 "toilets = yes", 46
@@ -9918,7 +9928,7 @@
 "capacity = 450", 6
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"heritage = yes", 66
+"heritage = yes", 67
 "capacity = 250", 7
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
@@ -9984,7 +9994,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -10206,7 +10216,8 @@
         <is>
           <t>"tourism = museum", 3
 "place = isolated_dwelling", 2
-"place = locality", 2</t>
+"place = locality", 2
+"type = multipolygon", 2</t>
         </is>
       </c>
       <c r="L163" s="17" t="inlineStr">
@@ -10453,7 +10464,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5398</v>
+        <v>5495</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10678,7 +10689,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3303</v>
+        <v>3309</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10740,7 +10751,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8377</v>
+        <v>8384</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10800,7 +10811,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10863,7 +10874,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -11145,7 +11156,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11206,7 +11217,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11676,7 +11687,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>8348</v>
+        <v>8350</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11701,7 +11712,7 @@
           <t>"natural = wood", 20
 "type = multipolygon", 6
 "place = locality", 103
-"place = isolated_dwelling", 5
+"place = isolated_dwelling", 4
 "place = farm", 11</t>
         </is>
       </c>
@@ -11738,7 +11749,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11796,7 +11807,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>53887</v>
+        <v>53901</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11821,7 +11832,7 @@
           <t>"place = locality", 666
 "natural = wetland", 755
 "wetland = bog", 268
-"type = multipolygon", 101</t>
+"type = multipolygon", 100</t>
         </is>
       </c>
       <c r="L192" s="17" t="inlineStr">
@@ -12045,7 +12056,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G197" s="12" t="n">
         <v>12</v>
@@ -12637,7 +12648,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12765,7 +12776,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12908,7 +12919,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -13378,7 +13389,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>13806</v>
+        <v>13809</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13552,7 +13563,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>27300</v>
+        <v>27307</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13611,7 +13622,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13673,7 +13684,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>19896</v>
+        <v>19894</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13733,7 +13744,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13792,7 +13803,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>23913</v>
+        <v>23907</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13814,7 +13825,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 1087
+          <t>"natural = cape", 1088
 "place = locality", 54</t>
         </is>
       </c>
@@ -13852,7 +13863,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13910,7 +13921,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -14991,7 +15002,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>8323</v>
+        <v>8348</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -15050,7 +15061,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>4310</v>
+        <v>4312</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15108,7 +15119,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>16005</v>
+        <v>16022</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15178,7 +15189,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22925</v>
+        <v>22907</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15249,7 +15260,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15318,7 +15329,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>10346</v>
+        <v>10337</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15382,7 +15393,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>60005</v>
+        <v>60007</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15404,10 +15415,10 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3611
-"place = locality", 2317
+          <t>"natural = hill", 3610
+"place = locality", 2316
 "natural = peak", 564
-"natural = ridge", 288</t>
+"natural = ridge", 289</t>
         </is>
       </c>
       <c r="L264" s="17" t="inlineStr">
@@ -15458,7 +15469,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>7192</v>
+        <v>7197</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15523,7 +15534,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50451</v>
+        <v>50465</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15545,9 +15556,9 @@
       </c>
       <c r="K266" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 190
-"natural = hill", 1931
-"place = locality", 1645</t>
+          <t>"natural = peak", 192
+"natural = hill", 1928
+"place = locality", 1642</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15588,7 +15599,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15663,7 +15674,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15792,7 +15803,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G271" s="12" t="n">
         <v>251</v>
@@ -15856,7 +15867,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>41183</v>
+        <v>41185</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15984,7 +15995,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11636</v>
+        <v>11643</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -16049,7 +16060,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -16108,7 +16119,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>3435</v>
+        <v>3445</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16179,7 +16190,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16276,7 +16287,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>13467</v>
+        <v>13496</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16340,7 +16351,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>35007</v>
+        <v>35011</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16404,7 +16415,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16495,7 +16506,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16671,7 +16682,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>6935</v>
+        <v>6938</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16883,7 +16894,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G290" s="12" t="n">
         <v>337</v>
@@ -17007,7 +17018,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G292" s="12" t="n">
         <v>44</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -788,8 +788,8 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 42
-"source:population = SSB - befolkning i tettstedet", 50
+          <t>"place = town", 48
+"source:population = SSB - befolkning i tettstedet", 56
 "place = city", 14
 "ref:ssb_tettsted = 2562", 2
 "ref:ssb_tettsted = 2511", 2
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -874,14 +874,13 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 209
-"source:population = SSB - befolkning i tettstedet", 138
-"place = town", 11
-"place = suburb", 46
-"place = hamlet", 19
-"place = quarter", 25
-"place = neighbourhood", 21
-"type = multipolygon", 9</t>
+          <t>"place = village", 254
+"source:population = SSB - befolkning i tettstedet", 181
+"place = town", 15
+"place = suburb", 50
+"place = hamlet", 21
+"place = quarter", 26
+"place = neighbourhood", 21</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -917,7 +916,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -939,12 +938,12 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 90
-"source:population = SSB - befolkning i tettstedet", 44
-"place = neighbourhood", 189
-"place = suburb", 93
-"place = hamlet", 51
-"place = quarter", 64
+          <t>"place = village", 98
+"source:population = SSB - befolkning i tettstedet", 50
+"place = neighbourhood", 195
+"place = suburb", 92
+"place = hamlet", 50
+"place = quarter", 75
 "type = multipolygon", 8</t>
         </is>
       </c>
@@ -992,7 +991,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1014,11 +1013,12 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 233
-"place = hamlet", 172
-"place = suburb", 19
-"source:population = SSB - befolkning i tettstedet", 33
-"place = neighbourhood", 19</t>
+          <t>"place = village", 262
+"place = hamlet", 205
+"place = suburb", 20
+"source:population = SSB - befolkning i tettstedet", 40
+"place = quarter", 80
+"place = neighbourhood", 17</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1086,10 +1086,9 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 795
-"place = neighbourhood", 64
-"place = farm", 42
-"place = village", 37</t>
+          <t>"place = hamlet", 1016
+"place = neighbourhood", 67
+"place = farm", 42</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1147,9 +1146,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 810
+          <t>"place = neighbourhood", 895
 "place = suburb", 49
-"place = quarter", 202</t>
+"place = quarter", 236</t>
         </is>
       </c>
       <c r="L7" s="17" t="inlineStr">
@@ -1209,14 +1208,14 @@
         <is>
           <t>"landuse = industrial", 49
 "type = multipolygon", 12
-"place = quarter", 21
+"place = neighbourhood", 69
+"place = quarter", 23
 "place = locality", 26
 "place = suburb", 7
 "natural = cape", 2
 "building = service", 2
 "man_made = wastewater_plant", 2
 "ref:bygningsnr = 8287996", 2
-"place = neighbourhood", 42
 "place = farm", 2
 "place = isolated_dwelling", 2
 "building = industrial", 2
@@ -1257,7 +1256,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1279,10 +1278,9 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 118
+          <t>"place = suburb", 120
 "place = neighbourhood", 14
-"place = quarter", 21
-"place = village", 4</t>
+"place = quarter", 22</t>
         </is>
       </c>
       <c r="L9" s="17" t="inlineStr">
@@ -1318,7 +1316,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1340,9 +1338,8 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 189
-"place = quarter", 9
-"landuse = residential", 10</t>
+          <t>"place = neighbourhood", 325
+"place = hamlet", 16</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1436,7 +1433,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>59</v>
@@ -1458,7 +1455,7 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 7
+          <t>"place = quarter", 11
 "place = isolated_dwelling", 3
 "place = neighbourhood", 2</t>
         </is>
@@ -1521,7 +1518,7 @@
           <t>"place = farm", 3
 "place = isolated_dwelling", 2
 "historic = shieling", 2
-"place = locality", 2</t>
+"place = locality", 3</t>
         </is>
       </c>
       <c r="M13" s="12" t="inlineStr">
@@ -1551,7 +1548,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1561,8 +1558,9 @@
       <c r="J14" s="12" t="n"/>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3
-"place = isolated_dwelling", 3</t>
+          <t>"place = locality", 66
+"place = isolated_dwelling", 3
+"historic = shieling", 2</t>
         </is>
       </c>
       <c r="M14" s="12" t="inlineStr">
@@ -1656,7 +1654,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6312</v>
+        <v>5743</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1678,8 +1676,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2629
-"place = farm", 529</t>
+          <t>"place = isolated_dwelling", 2846
+"place = farm", 531</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1720,7 +1718,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14478</v>
+        <v>14444</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1743,9 +1741,9 @@
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>"building = cabin", 1012
-"place = isolated_dwelling", 5646
-"place = locality", 366
-"historic = shieling", 734</t>
+"place = isolated_dwelling", 7219
+"place = locality", 370
+"historic = shieling", 742</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1803,8 +1801,8 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 6081
-"historic = shieling", 1090
+          <t>"place = locality", 6731
+"historic = shieling", 1121
 "historic = ruins", 844</t>
         </is>
       </c>
@@ -1907,7 +1905,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1967,7 +1965,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -2159,7 +2157,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2219,7 +2217,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2241,8 +2239,8 @@
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>"leisure = swimming_area", 20
-"place = locality", 25
+          <t>"leisure = swimming_area", 23
+"place = locality", 28
 "natural = beach", 13
 "surface = sand", 13
 "layer = 2", 6
@@ -2292,7 +2290,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>12</v>
@@ -2347,7 +2345,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>108731</v>
+        <v>109281</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2369,8 +2367,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 29589
-"place = isolated_dwelling", 1326</t>
+          <t>"place = farm", 41096</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2411,7 +2408,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22746</v>
+        <v>22750</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2433,9 +2430,10 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 6919
-"place = locality", 5711
-"place = isolated_dwelling", 1249</t>
+          <t>"historic = shieling", 12072
+"place = locality", 5715
+"place = isolated_dwelling", 5864
+"place = hamlet", 535</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2476,7 +2474,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2685</v>
+        <v>2693</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2499,7 +2497,7 @@
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>"building = farm_auxiliary", 209
-"place = locality", 1180
+"place = locality", 1444
 "historic = shieling", 180</t>
         </is>
       </c>
@@ -2536,7 +2534,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4317</v>
+        <v>4326</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2558,10 +2556,9 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 997
-"place = farm", 200
-"place = isolated_dwelling", 59
-"historic = shieling", 54</t>
+          <t>"place = locality", 1499
+"place = farm", 198
+"place = isolated_dwelling", 61</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2656,7 +2653,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>41554</v>
+        <v>41558</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2678,8 +2675,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 11170
-"place = hamlet", 2103</t>
+          <t>"place = farm", 13530
+"place = hamlet", 2725</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2725,7 +2722,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2747,8 +2744,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 330
-"place = hamlet", 601</t>
+          <t>"place = farm", 440
+"place = hamlet", 868</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2783,7 +2780,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2794,7 +2791,8 @@
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>"place = farm", 2
-"place = isolated_dwelling", 3</t>
+"place = isolated_dwelling", 4
+"place = locality", 2</t>
         </is>
       </c>
       <c r="M34" s="12" t="inlineStr">
@@ -2823,13 +2821,21 @@
           <t>stølsSetereiendom</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>233</v>
+      </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
           <t>Matrikulert seternavn eller enkeltseter innenfor et seterområde.</t>
         </is>
       </c>
       <c r="J35" s="12" t="n"/>
-      <c r="K35" s="17" t="n"/>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>"historic = shieling", 225
+"place = isolated_dwelling", 221</t>
+        </is>
+      </c>
       <c r="L35" s="17" t="inlineStr">
         <is>
           <t>place=isolated_dwelling; historic=shieling</t>
@@ -2863,7 +2869,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -3000,7 +3006,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3022,10 +3028,11 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 82
+          <t>"amenity = nursing_home", 83
+"place = isolated_dwelling", 3
 "place = locality", 7
 "amenity = social_facility", 3
-"building = civic", 6</t>
+"building = civic", 7</t>
         </is>
       </c>
       <c r="L38" s="17" t="inlineStr">
@@ -3428,7 +3435,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>1</v>
@@ -3482,7 +3489,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3652,7 +3659,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3727,7 +3734,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3749,7 +3756,7 @@
       </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
-          <t>"tourism = hotel", 18
+          <t>"tourism = hotel", 19
 "building = hotel", 8
 "place = locality", 12
 "tourism = chalet", 2
@@ -3791,7 +3798,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3855,7 +3862,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3877,10 +3884,11 @@
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>"amenity = shelter", 3
+          <t>"access = yes", 2
+"amenity = shelter", 3
 "building = hut", 5
 "capacity = 6", 3
-"network = Den Norske Turistforening", 20
+"network = Den Norske Turistforening", 21
 "shelter_type = basic_hut", 3
 "tourism = wilderness_hut", 17
 "building = cabin", 11
@@ -3888,13 +3896,15 @@
 "dnt:classification = ubetjent", 12
 "dnt:lock = yes", 20
 "service = no", 2
-"tourism = alpine_hut", 11
-"tourism = chalet", 52
+"tourism = alpine_hut", 13
+"tourism = chalet", 53
 "amenity = cafe", 11
 "capacity = 24", 2
 "dnt:classification = servering", 5
 "hiking = yes", 5
 "place = locality", 11
+"dnt:classification = betjent", 8
+"service = full", 8
 "dnt:iid = 416", 2
 "dnt:iid = 417", 2
 "historic = shieling", 6
@@ -3917,8 +3927,6 @@
 "ref:bygningsnr = 165767705", 2
 "ref:bygningsnr = 165906551", 2
 "amenity = restaurant", 3
-"dnt:classification = betjent", 7
-"service = full", 7
 "dnt:classification = selvbetjent", 3
 "supervisor = DNT Oslo og Omegn", 2
 "building = yes", 3
@@ -4111,7 +4119,7 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 9
+          <t>"amenity = cafe", 10
 "amenity = restaurant", 2
 "building = religious", 2
 "ref:bygningsnr = 8893748", 2
@@ -4304,8 +4312,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 74
-"place = locality", 4</t>
+          <t>"natural = strait", 76</t>
         </is>
       </c>
       <c r="L58" s="17" t="inlineStr">
@@ -4518,7 +4525,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4576,7 +4583,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10124</v>
+        <v>10123</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -5112,7 +5119,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5135,8 +5142,8 @@
       <c r="K72" s="1" t="inlineStr">
         <is>
           <t>"waterway = stream", 542
-"layer = -1", 76
-"tunnel = culvert", 22
+"layer = -1", 77
+"tunnel = culvert", 25
 "waterway = river", 62
 "width = 2", 80
 "width = 3", 24
@@ -5249,8 +5256,8 @@
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>"natural = waterfall", 25
-"waterway = waterfall", 30
+          <t>"natural = waterfall", 22
+"waterway = waterfall", 33
 "place = locality", 9
 "water = waterfall", 3</t>
         </is>
@@ -5432,9 +5439,9 @@
       </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 10
+          <t>"natural = water", 9
 "type = multipolygon", 3
-"water = pool", 5
+"water = pool", 3
 "water = pond", 3
 "place = locality", 25</t>
         </is>
@@ -5500,8 +5507,8 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 17
-"water = river", 7
+          <t>"natural = water", 18
+"water = river", 8
 "type = multipolygon", 14
 "natural = bay", 15</t>
         </is>
@@ -5833,7 +5840,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13655</v>
+        <v>13652</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5894,7 +5901,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>60835</v>
+        <v>60836</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5916,8 +5923,8 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 3251
-"type = multipolygon", 1589
+          <t>"natural = water", 3252
+"type = multipolygon", 1590
 "water = lake", 945</t>
         </is>
       </c>
@@ -6015,7 +6022,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -6223,7 +6230,7 @@
       <c r="K90" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 134
-"water = lake", 95
+"water = lake", 96
 "type = multipolygon", 60
 "place = locality", 21</t>
         </is>
@@ -6366,7 +6373,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -7199,21 +7206,19 @@
       </c>
       <c r="K109" s="1" t="inlineStr">
         <is>
-          <t>"kystverket:information = FL/SC", 12
-"note = Fyrlykt", 31
-"seamark:type = light_minor", 30
-"source:seamark = Kystverket", 32
-"kystverket:information = Lyktehus på søyle", 7
-"kystverket:information = FL/NB", 4
-"seamark:beacon_special_purpose:colour = white;black;white", 2
-"seamark:beacon_special_purpose:colour_pattern = horizontal", 2
-"seamark:beacon_special_purpose:shape = tower", 2
-"seamark:type = beacon_special_purpose", 2
-"kystverket:information = 4-FL/SC", 3
-"man_made = beacon", 6
-"kystverket:information = 4-FL/NB", 2
-"man_made = lighthouse", 3
-"kystverket:information = Lyktehus", 2</t>
+          <t>"seamark:conspicuity = conspicuous", 13
+"seamark:type = light_minor", 22
+"seamark:vertical_length = 3", 5
+"seamark:pile:category = post", 4
+"seamark:type = pile", 5
+"seamark:vertical_length = 6", 2
+"man_made = beacon", 8
+"seamark:landmark:conspicuity = conspicuous", 2
+"seamark:type = landmark", 2
+"kystverket:information = FL/SC", 4
+"note = Fyrlykt", 8
+"source:seamark = Kystverket", 8
+"kystverket:information = Lyktehus på søyle", 2</t>
         </is>
       </c>
       <c r="O109" s="17">
@@ -7673,7 +7678,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G119" s="12" t="n">
         <v>118</v>
@@ -7734,7 +7739,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7821,7 +7826,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10553</v>
+        <v>10575</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7831,14 +7836,14 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 633
+          <t>"bridge = yes", 631
 "bridge:structure = beam", 79
-"highway = primary", 168
-"layer = 1", 667
-"surface = asphalt", 179
-"highway = trunk", 123
+"highway = primary", 166
+"layer = 1", 665
+"surface = asphalt", 177
+"highway = trunk", 122
 "highway = secondary", 171
-"lanes = 2", 75
+"lanes = 2", 73
 "lit = yes", 48
 "highway = unclassified", 46
 "sidewalk = none", 37
@@ -8417,7 +8422,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G133" s="12" t="n">
         <v>407</v>
@@ -8763,7 +8768,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G139" s="12" t="n">
         <v>65</v>
@@ -9028,7 +9033,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>108569</v>
+        <v>108646</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9886,7 +9891,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="G159" s="12" t="n">
         <v>1629</v>
@@ -9908,10 +9913,11 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 106
-"denomination = lutheran", 105
+          <t>"amenity = place_of_worship", 107
+"denomination = lutheran", 106
 "diocese = Stavanger", 15
-"religion = christian", 106
+"heritage = yes", 70
+"religion = christian", 107
 "toilets = no", 11
 "toilets:wheelchair = no", 7
 "building = church", 102
@@ -9928,7 +9934,6 @@
 "capacity = 450", 6
 "deanery = Bodø Domprosti", 6
 "diocese = Sør-Hålogaland", 6
-"heritage = yes", 67
 "capacity = 250", 7
 "diocese = Tunsberg", 13
 "deanery = Kongsberg", 7
@@ -9994,7 +9999,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -10192,7 +10197,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10406,7 +10411,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G167" s="12" t="n">
         <v>97</v>
@@ -10464,7 +10469,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5495</v>
+        <v>5504</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10486,12 +10491,12 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 269
+          <t>"place = locality", 274
 "building = farm_auxiliary", 26
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 47
+"place = isolated_dwelling", 46
 "historic = shieling", 11</t>
         </is>
       </c>
@@ -10624,7 +10629,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>6326</v>
+        <v>6325</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10689,7 +10694,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10751,7 +10756,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8384</v>
+        <v>8385</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10811,7 +10816,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>314</v>
@@ -10874,7 +10879,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10898,9 +10903,9 @@
         <is>
           <t>"historic = shieling", 143
 "landuse = meadow", 26
-"place = locality", 172
+"place = locality", 173
 "place = isolated_dwelling", 6
-"place = farm", 14</t>
+"place = farm", 13</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
@@ -11156,7 +11161,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="G180" s="12" t="n">
         <v>2950</v>
@@ -11275,6 +11280,9 @@
           <t>øyr</t>
         </is>
       </c>
+      <c r="F182" t="n">
+        <v>667</v>
+      </c>
       <c r="G182" s="12" t="n">
         <v>646</v>
       </c>
@@ -11293,7 +11301,7 @@
           <t>Sand-/grusområde i elvemunning, elvedelta både mot innsjø/vann og saltvann</t>
         </is>
       </c>
-      <c r="K182" s="17" t="n"/>
+      <c r="K182" s="1" t="inlineStr"/>
       <c r="M182" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -11749,7 +11757,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11771,7 +11779,7 @@
       </c>
       <c r="K191" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 7</t>
+          <t>"place = isolated_dwelling", 8</t>
         </is>
       </c>
       <c r="M191" s="12" t="inlineStr">
@@ -11807,7 +11815,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>53901</v>
+        <v>53900</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -12648,7 +12656,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12776,7 +12784,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G211" s="12" t="n">
         <v>72</v>
@@ -12919,7 +12927,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -13151,7 +13159,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G218" s="12" t="n">
         <v>46</v>
@@ -13411,7 +13419,7 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 359
+          <t>"natural = shoal", 358
 "place = locality", 151</t>
         </is>
       </c>
@@ -13505,7 +13513,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13563,7 +13571,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>27307</v>
+        <v>27305</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13684,7 +13692,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>19894</v>
+        <v>19895</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13986,7 +13994,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -15002,7 +15010,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>8348</v>
+        <v>8351</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -15083,7 +15091,8 @@
       </c>
       <c r="K259" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 14</t>
+          <t>"place = quarter", 3
+"place = locality", 13</t>
         </is>
       </c>
       <c r="M259" s="12" t="inlineStr">
@@ -15119,7 +15128,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>16022</v>
+        <v>16025</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15141,8 +15150,8 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 59
-"natural = hill", 476
+          <t>"natural = peak", 58
+"natural = hill", 477
 "place = locality", 428</t>
         </is>
       </c>
@@ -15189,7 +15198,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22907</v>
+        <v>22904</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15329,7 +15338,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>10337</v>
+        <v>10333</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15393,7 +15402,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15469,7 +15478,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>7197</v>
+        <v>7198</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15534,7 +15543,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50465</v>
+        <v>50463</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15599,7 +15608,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15674,7 +15683,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15867,7 +15876,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>41185</v>
+        <v>41184</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15931,7 +15940,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>7034</v>
+        <v>7031</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15995,7 +16004,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11643</v>
+        <v>11642</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -16119,7 +16128,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16287,7 +16296,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>13496</v>
+        <v>13498</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16351,7 +16360,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>35011</v>
+        <v>35010</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16624,7 +16633,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -788,9 +788,9 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 48
-"source:population = SSB - befolkning i tettstedet", 56
-"place = city", 14
+          <t>"place = town", 57
+"source:population = SSB - befolkning i tettstedet", 66
+"place = city", 15
 "ref:ssb_tettsted = 2562", 2
 "ref:ssb_tettsted = 2511", 2
 "ref:ssb_tettsted = 2603", 2
@@ -874,12 +874,12 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 254
-"source:population = SSB - befolkning i tettstedet", 181
-"place = town", 15
-"place = suburb", 50
-"place = hamlet", 21
-"place = quarter", 26
+          <t>"place = village", 369
+"source:population = SSB - befolkning i tettstedet", 275
+"place = town", 16
+"place = suburb", 57
+"place = hamlet", 24
+"place = quarter", 29
 "place = neighbourhood", 21</t>
         </is>
       </c>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -938,12 +938,12 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 98
-"source:population = SSB - befolkning i tettstedet", 50
-"place = neighbourhood", 195
-"place = suburb", 92
-"place = hamlet", 50
-"place = quarter", 75
+          <t>"place = quarter", 118
+"place = hamlet", 53
+"place = village", 121
+"source:population = SSB - befolkning i tettstedet", 63
+"place = neighbourhood", 199
+"place = suburb", 101
 "type = multipolygon", 8</t>
         </is>
       </c>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1013,12 +1013,12 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 262
-"place = hamlet", 205
-"place = suburb", 20
-"source:population = SSB - befolkning i tettstedet", 40
-"place = quarter", 80
-"place = neighbourhood", 17</t>
+          <t>"place = village", 309
+"place = hamlet", 356
+"place = quarter", 171
+"source:population = SSB - befolkning i tettstedet", 55
+"place = suburb", 21
+"place = neighbourhood", 20</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3409</v>
+        <v>3405</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1086,9 +1086,8 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1016
-"place = neighbourhood", 67
-"place = farm", 42</t>
+          <t>"place = hamlet", 1457
+"place = neighbourhood", 84</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1124,7 +1123,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1146,9 +1145,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 895
-"place = suburb", 49
-"place = quarter", 236</t>
+          <t>"place = neighbourhood", 1221
+"place = suburb", 59
+"place = quarter", 264</t>
         </is>
       </c>
       <c r="L7" s="17" t="inlineStr">
@@ -1184,7 +1183,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1208,19 +1207,10 @@
         <is>
           <t>"landuse = industrial", 49
 "type = multipolygon", 12
-"place = neighbourhood", 69
-"place = quarter", 23
+"place = neighbourhood", 117
+"place = quarter", 26
 "place = locality", 26
-"place = suburb", 7
-"natural = cape", 2
-"building = service", 2
-"man_made = wastewater_plant", 2
-"ref:bygningsnr = 8287996", 2
-"place = farm", 2
-"place = isolated_dwelling", 2
-"building = industrial", 2
-"ref:bygningsnr = 166261902", 2
-"landuse = retail", 2</t>
+"place = suburb", 7</t>
         </is>
       </c>
       <c r="L8" s="17" t="inlineStr">
@@ -1256,7 +1246,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1278,8 +1268,8 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 120
-"place = neighbourhood", 14
+          <t>"place = suburb", 154
+"place = neighbourhood", 15
 "place = quarter", 22</t>
         </is>
       </c>
@@ -1316,7 +1306,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1338,8 +1328,8 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 325
-"place = hamlet", 16</t>
+          <t>"place = neighbourhood", 394
+"place = hamlet", 19</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1375,7 +1365,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1397,7 +1387,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 44</t>
+          <t>"place = square", 57</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1455,9 +1445,10 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 11
-"place = isolated_dwelling", 3
-"place = neighbourhood", 2</t>
+          <t>"place = quarter", 24
+"place = suburb", 9
+"place = neighbourhood", 4
+"place = isolated_dwelling", 3</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1517,8 +1508,8 @@
         <is>
           <t>"place = farm", 3
 "place = isolated_dwelling", 2
-"historic = shieling", 2
-"place = locality", 3</t>
+"place = locality", 6
+"historic = shieling", 2</t>
         </is>
       </c>
       <c r="M13" s="12" t="inlineStr">
@@ -1548,7 +1539,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1558,9 +1549,10 @@
       <c r="J14" s="12" t="n"/>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 66
-"place = isolated_dwelling", 3
-"historic = shieling", 2</t>
+          <t>"place = locality", 87
+"place = isolated_dwelling", 10
+"historic = shieling", 3
+"building = cabin", 3</t>
         </is>
       </c>
       <c r="M14" s="12" t="inlineStr">
@@ -1618,7 +1610,8 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2</t>
+          <t>"place = neighbourhood", 2
+"place = isolated_dwelling", 2</t>
         </is>
       </c>
       <c r="L15" s="17" t="inlineStr">
@@ -1654,7 +1647,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5743</v>
+        <v>5793</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1676,8 +1669,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 2846
-"place = farm", 531</t>
+          <t>"place = isolated_dwelling", 3448
+"place = farm", 533</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1718,7 +1711,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14444</v>
+        <v>13577</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1740,10 +1733,9 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 1012
-"place = isolated_dwelling", 7219
-"place = locality", 370
-"historic = shieling", 742</t>
+          <t>"building = cabin", 844
+"place = isolated_dwelling", 8493
+"historic = shieling", 510</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1779,7 +1771,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11404</v>
+        <v>11535</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1801,9 +1793,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 6731
-"historic = shieling", 1121
-"historic = ruins", 844</t>
+          <t>"place = locality", 7828
+"historic = shieling", 1129
+"historic = ruins", 846</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1905,7 +1897,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>131</v>
@@ -1965,7 +1957,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -2031,7 +2023,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2054,14 +2046,14 @@
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>"leisure = pitch", 77
-"sport = soccer", 34
+"sport = soccer", 35
 "surface = grass", 6
-"type = multipolygon", 7
+"type = multipolygon", 9
 "sport = horse_racing", 5
 "place = locality", 19
-"leisure = sports_centre", 10
-"building = sports_centre", 4
-"leisure = track", 3
+"building = sports_centre", 5
+"leisure = sports_centre", 12
+"leisure = track", 4
 "piste:type = ski_jump", 6</t>
         </is>
       </c>
@@ -2157,7 +2149,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>45</v>
@@ -2239,8 +2231,8 @@
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>"leisure = swimming_area", 23
-"place = locality", 28
+          <t>"leisure = swimming_area", 32
+"place = locality", 37
 "natural = beach", 13
 "surface = sand", 13
 "layer = 2", 6
@@ -2290,7 +2282,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>12</v>
@@ -2345,7 +2337,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>109281</v>
+        <v>109380</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2367,7 +2359,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 41096</t>
+          <t>"place = farm", 57023</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2408,7 +2400,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22750</v>
+        <v>23159</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2430,10 +2422,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 12072
-"place = locality", 5715
-"place = isolated_dwelling", 5864
-"place = hamlet", 535</t>
+          <t>"historic = shieling", 14875
+"place = isolated_dwelling", 8784
+"place = locality", 5731</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2474,7 +2465,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2693</v>
+        <v>2838</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2496,9 +2487,10 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"building = farm_auxiliary", 209
-"place = locality", 1444
-"historic = shieling", 180</t>
+          <t>"place = locality", 1741
+"building = farm_auxiliary", 211
+"place = isolated_dwelling", 140
+"historic = shieling", 183</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2534,7 +2526,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4326</v>
+        <v>4354</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2556,9 +2548,8 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1499
-"place = farm", 198
-"place = isolated_dwelling", 61</t>
+          <t>"place = locality", 2081
+"place = farm", 213</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2653,7 +2644,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>41558</v>
+        <v>41583</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2675,8 +2666,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 13530
-"place = hamlet", 2725</t>
+          <t>"place = farm", 16948
+"place = hamlet", 4007</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2722,7 +2713,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3457</v>
+        <v>3463</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2744,8 +2735,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 440
-"place = hamlet", 868</t>
+          <t>"place = hamlet", 1225
+"place = farm", 530</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2780,7 +2771,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2791,8 +2782,8 @@
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>"place = farm", 2
-"place = isolated_dwelling", 4
-"place = locality", 2</t>
+"place = isolated_dwelling", 5
+"place = locality", 4</t>
         </is>
       </c>
       <c r="M34" s="12" t="inlineStr">
@@ -2822,7 +2813,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
@@ -2832,8 +2823,8 @@
       <c r="J35" s="12" t="n"/>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 225
-"place = isolated_dwelling", 221</t>
+          <t>"historic = shieling", 227
+"place = isolated_dwelling", 224</t>
         </is>
       </c>
       <c r="L35" s="17" t="inlineStr">
@@ -2869,7 +2860,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -3006,7 +2997,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3068,7 +3059,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>55</v>
@@ -3151,10 +3142,11 @@
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>"landuse = military", 8
+          <t>"place = isolated_dwelling", 2
+"landuse = military", 7
 "place = locality", 4
-"natural = bay", 2
-"place = neighbourhood", 4</t>
+"place = neighbourhood", 5
+"natural = bay", 2</t>
         </is>
       </c>
       <c r="L40" s="17" t="inlineStr">
@@ -3190,7 +3182,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3212,7 +3204,8 @@
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>"amenity = kindergarten", 6
+          <t>"place = isolated_dwelling", 2
+"amenity = kindergarten", 6
 "capacity = 59", 2
 "max_age = 5", 4
 "min_age = 1", 4
@@ -3489,7 +3482,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3511,7 +3504,7 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>"industrial = factory", 48
+          <t>"industrial = factory", 47
 "place = locality", 31
 "building = industrial", 34
 "man_made = works", 2
@@ -3659,7 +3652,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3681,12 +3674,13 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>"building = retail", 2
+          <t>"building = retail", 3
 "shop = mall", 2
+"wheelchair = yes", 2
 "building = office", 3
 "place = locality", 9
 "building = commercial", 13
-"place = isolated_dwelling", 3
+"place = isolated_dwelling", 4
 "amenity = cafe", 4
 "place = neighbourhood", 4
 "place = quarter", 3
@@ -3734,7 +3728,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3798,7 +3792,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3820,7 +3814,7 @@
       </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
-          <t>"tourism = guest_house", 9
+          <t>"tourism = guest_house", 8
 "building = house", 3
 "place = locality", 7
 "place = hamlet", 2
@@ -3862,7 +3856,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3885,52 +3879,76 @@
       <c r="K51" s="1" t="inlineStr">
         <is>
           <t>"access = yes", 2
-"amenity = shelter", 3
+"amenity = shelter", 2
 "building = hut", 5
-"capacity = 6", 3
-"network = Den Norske Turistforening", 21
-"shelter_type = basic_hut", 3
-"tourism = wilderness_hut", 17
+"capacity = 6", 4
+"network = Den Norske Turistforening", 31
+"tourism = wilderness_hut", 20
 "building = cabin", 11
 "capacity = 11", 2
-"dnt:classification = ubetjent", 12
-"dnt:lock = yes", 20
+"dnt:classification = ubetjent", 15
+"dnt:lock = yes", 21
 "service = no", 2
-"tourism = alpine_hut", 13
-"tourism = chalet", 53
-"amenity = cafe", 11
+"tourism = chalet", 48
+"amenity = cafe", 12
 "capacity = 24", 2
 "dnt:classification = servering", 5
-"hiking = yes", 5
+"hiking = yes", 6
 "place = locality", 11
-"dnt:classification = betjent", 8
-"service = full", 8
+"note:no = kystledhytte", 3
+"tourism = alpine_hut", 12
+"dnt:classification = betjent", 10
+"service = full", 10
 "dnt:iid = 416", 2
+"ref:kartverket:hytte = 1201", 2
+"ski = yes", 7
 "dnt:iid = 417", 2
-"historic = shieling", 6
+"historic = shieling", 4
+"ref:kartverket:hytte = 1202", 2
+"ref:kartverket:hytte = 1497", 2
 "capacity = 4", 2
 "dnt:iid = 345", 2
 "dog = no", 2
 "fee = yes", 4
+"ref:kartverket:hytte = 1244", 2
 "capacity = 32", 2
 "dnt:iid = 1489", 2
-"note:no = kystledhytte", 2
+"ref:kartverket:hytte = 5362", 2
 "network = Den norske Turistforening", 2
+"ref:kartverket:hytte = 1509", 2
 "capacity = 8", 2
 "dnt:iid = 251", 2
 "ref:bygningsnr = 163972026", 2
+"ref:kartverket:hytte = 1397", 2
 "access = permit", 2
 "dnt:iid = 2019", 2
 "ref:bygningsnr = 163983753", 2
-"ski = yes", 2
+"ref:kartverket:hytte = 1490", 2
+"ref:kartverket:hytte = 3246", 2
+"ref:kartverket:hytte = 3262", 2
 "ref:bygningsnr = 165795091", 2
 "ref:bygningsnr = 165767705", 2
 "ref:bygningsnr = 165906551", 2
-"amenity = restaurant", 3
+"ref:kartverket:hytte = 3242", 2
+"affiliation = Den Norske Turistforening", 2
+"capacity = 23", 2
+"dnt:iid = 1226", 2
+"ref:kartverket:hytte = 5100", 2
+"tourism = guest_house", 2
+"ref:kartverket:hytte = 1518", 2
+"amenity = restaurant", 2
+"ref:kartverket:hytte = 3226", 2
+"ref:kartverket:hytte = 3221", 2
+"ref:kartverket:hytte = 3233", 2
+"ref:kartverket:hytte = 3227", 2
+"ref:kartverket:hytte = 3228", 2
+"ref:kartverket:hytte = 3234", 2
+"ref:kartverket:hytte = 5527", 2
+"ref:kartverket:hytte = 3232", 2
 "dnt:classification = selvbetjent", 3
+"provisions = yes", 3
 "supervisor = DNT Oslo og Omegn", 2
-"building = yes", 3
-"provisions = yes", 2</t>
+"building = yes", 2</t>
         </is>
       </c>
       <c r="L51" s="17" t="inlineStr">
@@ -3971,7 +3989,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -4039,7 +4057,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>4</v>
@@ -4097,7 +4115,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4120,6 +4138,8 @@
       <c r="K54" s="1" t="inlineStr">
         <is>
           <t>"amenity = cafe", 10
+"hiking = yes", 2
+"ski = yes", 2
 "amenity = restaurant", 2
 "building = religious", 2
 "ref:bygningsnr = 8893748", 2
@@ -4232,7 +4252,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G57" s="12" t="n">
         <v>463</v>
@@ -4290,7 +4310,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4348,7 +4368,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7741</v>
+        <v>7742</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4370,7 +4390,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 297</t>
+          <t>"natural = bay", 347</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4406,7 +4426,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4465,7 +4485,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4472</v>
+        <v>4475</v>
       </c>
       <c r="G61" s="12" t="n">
         <v>4298</v>
@@ -4488,7 +4508,7 @@
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>"natural = wood", 29
-"place = islet", 166
+"place = islet", 171
 "type = multipolygon", 6</t>
         </is>
       </c>
@@ -4583,7 +4603,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10123</v>
+        <v>10125</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4641,7 +4661,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4700,7 +4720,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4841,7 +4861,7 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 4
+          <t>"place = islet", 5
 "natural = shoal", 2</t>
         </is>
       </c>
@@ -5057,7 +5077,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10048</v>
+        <v>10045</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5081,7 +5101,7 @@
         <is>
           <t>"waterway = river", 237
 "width = 2", 11
-"layer = -1", 16
+"layer = -1", 15
 "width = 3", 10
 "waterway = stream", 22</t>
         </is>
@@ -5119,7 +5139,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5234,7 +5254,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5359,7 +5379,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G76" s="12" t="n">
         <v>1004</v>
@@ -5441,8 +5461,9 @@
         <is>
           <t>"natural = water", 9
 "type = multipolygon", 3
-"water = pool", 3
+"water = lake", 2
 "water = pond", 3
+"water = pool", 2
 "place = locality", 25</t>
         </is>
       </c>
@@ -5485,7 +5506,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5773,7 +5794,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G83" s="12" t="n">
         <v>470</v>
@@ -5840,7 +5861,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13652</v>
+        <v>13658</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5862,9 +5883,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 502
-"type = multipolygon", 385
-"water = lake", 347
+          <t>"natural = water", 537
+"type = multipolygon", 420
+"water = lake", 382
 "water = reservoir", 22</t>
         </is>
       </c>
@@ -5901,7 +5922,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>60836</v>
+        <v>60837</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5923,9 +5944,9 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 3252
-"type = multipolygon", 1590
-"water = lake", 945</t>
+          <t>"natural = water", 3352
+"type = multipolygon", 1592
+"water = lake", 993</t>
         </is>
       </c>
       <c r="L85" s="17" t="inlineStr">
@@ -5983,7 +6004,7 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 103
+          <t>"natural = water", 118
 "water = pond", 105
 "place = locality", 7
 "type = multipolygon", 11</t>
@@ -6022,7 +6043,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G87" s="12" t="n">
         <v>884</v>
@@ -6082,7 +6103,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6207,7 +6228,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6229,9 +6250,9 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 134
-"water = lake", 96
-"type = multipolygon", 60
+          <t>"natural = water", 145
+"water = lake", 106
+"type = multipolygon", 70
 "place = locality", 21</t>
         </is>
       </c>
@@ -6567,7 +6588,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G97" s="12" t="n">
         <v>174</v>
@@ -7036,7 +7057,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G106" s="12" t="n">
         <v>22</v>
@@ -7254,7 +7275,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7739,7 +7760,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7762,22 +7783,22 @@
       <c r="K120" s="1" t="inlineStr">
         <is>
           <t>"highway = cycleway", 2
-"layer = -1", 23
+"layer = -1", 27
 "surface = paved", 3
 "tunnel = yes", 27
-"bicycle = no", 4
-"foot = no", 5
+"bicycle = no", 5
+"foot = no", 6
 "highway = primary", 11
 "lit = yes", 13
-"oneway = no", 2
+"maxheight = 4.2", 3
 "surface = asphalt", 12
 "bicycle = yes", 3
 "foot = yes", 4
-"maxheight = 4.2", 2
-"cycleway:both = no", 2
-"lanes = 2", 3
+"maxheight = 4.1", 2
+"lanes = 2", 2
 "highway = trunk", 3
 "maxheight = 4.5", 5
+"tunnel:description = Kirkeheitunnelen hovedløp", 2
 "electrified = contact_line", 6
 "frequency = 16.67", 6
 "gauge = 1435", 6
@@ -7826,7 +7847,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10575</v>
+        <v>10577</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7836,20 +7857,20 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 631
-"bridge:structure = beam", 79
-"highway = primary", 166
-"layer = 1", 665
-"surface = asphalt", 177
-"highway = trunk", 122
-"highway = secondary", 171
-"lanes = 2", 73
-"lit = yes", 48
+          <t>"bridge = yes", 633
+"layer = 1", 668
+"bridge:structure = beam", 74
+"highway = primary", 165
+"surface = asphalt", 180
+"highway = trunk", 115
+"highway = secondary", 173
+"lit = yes", 50
+"man_made = bridge", 73
 "highway = unclassified", 46
-"sidewalk = none", 37
+"lanes = 2", 65
 "width = 7", 26
-"man_made = bridge", 67
-"surface = paved", 28</t>
+"sidewalk = none", 31
+"surface = paved", 29</t>
         </is>
       </c>
       <c r="L121" s="17" t="inlineStr">
@@ -8350,7 +8371,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G132" s="12" t="n">
         <v>341</v>
@@ -8515,7 +8536,9 @@
       </c>
       <c r="K134" s="1" t="inlineStr">
         <is>
-          <t>"amenity = ferry_terminal", 5</t>
+          <t>"amenity = ferry_terminal", 6
+"ferry = yes", 2
+"public_transport = station", 2</t>
         </is>
       </c>
       <c r="L134" s="17" t="inlineStr">
@@ -9033,7 +9056,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>108646</v>
+        <v>109327</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9092,7 +9115,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G144" s="12" t="n">
         <v>729</v>
@@ -9114,11 +9137,11 @@
       </c>
       <c r="K144" s="1" t="inlineStr">
         <is>
-          <t>"highway = track", 14
+          <t>"highway = track", 10
 "tracktype = grade3", 2
 "tracktype = grade4", 3
 "place = locality", 6
-"highway = path", 3</t>
+"highway = path", 5</t>
         </is>
       </c>
       <c r="L144" s="9" t="inlineStr">
@@ -9159,7 +9182,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4642</v>
+        <v>4645</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9181,8 +9204,9 @@
       </c>
       <c r="K145" s="1" t="inlineStr">
         <is>
-          <t>"highway = path", 46
+          <t>"highway = path", 42
 "sac_scale = hiking", 6
+"highway = track", 2
 "mtb:scale = 1", 2
 "trail_visibility = excellent", 3
 "place = locality", 18
@@ -9244,7 +9268,7 @@
       </c>
       <c r="K146" s="1" t="inlineStr">
         <is>
-          <t>"junction = yes", 532
+          <t>"junction = yes", 533
 "junction = roundabout", 35
 "surface = asphalt", 22
 "oneway = yes", 23</t>
@@ -9476,7 +9500,7 @@
       </c>
       <c r="K150" s="1" t="inlineStr">
         <is>
-          <t>"ford = yes", 12
+          <t>"ford = yes", 13
 "place = locality", 11</t>
         </is>
       </c>
@@ -9581,7 +9605,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1127</v>
+        <v>1052</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9913,19 +9937,19 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 107
-"denomination = lutheran", 106
+          <t>"amenity = place_of_worship", 108
+"denomination = lutheran", 107
 "diocese = Stavanger", 15
 "heritage = yes", 70
-"religion = christian", 107
+"religion = christian", 108
 "toilets = no", 11
 "toilets:wheelchair = no", 7
-"building = church", 102
+"building = church", 103
 "deanery = Ytre Stavanger", 6
 "note = Soknekirke/arbeidskirke", 12
 "toilets = yes", 46
 "deanery = Stavanger Domprosti", 7
-"note = Soknekirke", 47
+"note = Soknekirke", 48
 "capacity = 300", 5
 "toilets:wheelchair = yes", 11
 "wheelchair = yes", 14
@@ -9947,7 +9971,7 @@
 "deanery = Mandal", 6
 "parish = Mandal", 4
 "deanery = Lister", 4
-"capacity = 350", 9
+"capacity = 350", 10
 "parish = Holt", 4
 "deanery = Vest-Nedenes", 6
 "parish = Åmli", 4
@@ -9957,7 +9981,7 @@
 "parish = Bygland", 6
 "parish = Valle og Hylestad", 4
 "parish = Bykle", 4
-"diocese = Bjørgvin", 6
+"diocese = Bjørgvin", 7
 "deanery = Arna og Åsane", 5</t>
         </is>
       </c>
@@ -9999,7 +10023,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -10022,8 +10046,8 @@
       <c r="K160" s="1" t="inlineStr">
         <is>
           <t>"amenity = community_centre", 15
-"place = isolated_dwelling", 4
-"place = farm", 2
+"place = isolated_dwelling", 5
+"place = farm", 3
 "building = civic", 5
 "place = locality", 2
 "heritage = yes", 2
@@ -10085,8 +10109,9 @@
       </c>
       <c r="K161" s="1" t="inlineStr">
         <is>
-          <t>"cemetery = grave", 5
+          <t>"cemetery = grave", 6
 "landuse = cemetery", 4
+"place = locality", 2
 "amenity = grave_yard", 2
 "type = multipolygon", 3</t>
         </is>
@@ -10134,7 +10159,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G162" s="12" t="n">
         <v>70</v>
@@ -10197,7 +10222,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10469,7 +10494,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5504</v>
+        <v>5550</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10491,12 +10516,12 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 274
+          <t>"place = locality", 283
 "building = farm_auxiliary", 26
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 46
+"place = isolated_dwelling", 59
 "historic = shieling", 11</t>
         </is>
       </c>
@@ -10629,7 +10654,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>6325</v>
+        <v>6323</v>
       </c>
       <c r="G171" s="12" t="n">
         <v>5340</v>
@@ -10756,7 +10781,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8385</v>
+        <v>8387</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10879,7 +10904,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3851</v>
+        <v>3905</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10901,10 +10926,11 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 143
+          <t>"historic = shieling", 178
 "landuse = meadow", 26
-"place = locality", 173
-"place = isolated_dwelling", 6
+"place = locality", 190
+"building = cabin", 11
+"place = isolated_dwelling", 43
 "place = farm", 13</t>
         </is>
       </c>
@@ -11010,7 +11036,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G177" s="12" t="n">
         <v>491</v>
@@ -11033,7 +11059,7 @@
       <c r="K177" s="1" t="inlineStr">
         <is>
           <t>"natural = glacier", 11
-"type = multipolygon", 3
+"type = multipolygon", 2
 "place = locality", 4</t>
         </is>
       </c>
@@ -11070,7 +11096,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G178" s="12" t="n">
         <v>179</v>
@@ -11695,7 +11721,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>8350</v>
+        <v>8348</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11757,7 +11783,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G191" s="12" t="n">
         <v>6</v>
@@ -11815,7 +11841,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>53900</v>
+        <v>53907</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11838,9 +11864,9 @@
       <c r="K192" s="1" t="inlineStr">
         <is>
           <t>"place = locality", 666
-"natural = wetland", 755
-"wetland = bog", 268
-"type = multipolygon", 100</t>
+"natural = wetland", 1009
+"wetland = bog", 449
+"type = multipolygon", 157</t>
         </is>
       </c>
       <c r="L192" s="17" t="inlineStr">
@@ -12275,6 +12301,9 @@
           <t>grensemerke</t>
         </is>
       </c>
+      <c r="F201" t="n">
+        <v>770</v>
+      </c>
       <c r="G201" s="12" t="n">
         <v>672</v>
       </c>
@@ -12293,7 +12322,12 @@
           <t>Off. godkjent grensemerke; varde, tre, stein, bolt, kors o.l.</t>
         </is>
       </c>
-      <c r="K201" s="17" t="n"/>
+      <c r="K201" s="1" t="inlineStr">
+        <is>
+          <t>"historic = boundary_stone", 16
+"man_made = cairn", 16</t>
+        </is>
+      </c>
       <c r="L201" s="17" t="inlineStr">
         <is>
           <t>man_made=cairn;historic=boundary_stone</t>
@@ -12656,7 +12690,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12927,7 +12961,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -12949,8 +12983,8 @@
       </c>
       <c r="K214" s="1" t="inlineStr">
         <is>
-          <t>"bay = fjord", 148
-"natural = bay", 150
+          <t>"bay = fjord", 149
+"natural = bay", 151
 "type = multipolygon", 15</t>
         </is>
       </c>
@@ -13095,7 +13129,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G217" s="12" t="n">
         <v>119</v>
@@ -13260,7 +13294,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>14149</v>
+        <v>14147</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13284,8 +13318,8 @@
         <is>
           <t>"natural = rock", 345
 "seamark:type = rock", 126
-"place = islet", 588
-"natural = coastline", 473
+"place = islet", 592
+"natural = coastline", 474
 "natural = shoal", 78</t>
         </is>
       </c>
@@ -13397,7 +13431,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>13809</v>
+        <v>13808</v>
       </c>
       <c r="G222" s="12" t="n">
         <v>13694</v>
@@ -13419,8 +13453,8 @@
       </c>
       <c r="K222" s="1" t="inlineStr">
         <is>
-          <t>"natural = shoal", 358
-"place = locality", 151</t>
+          <t>"natural = shoal", 373
+"place = locality", 166</t>
         </is>
       </c>
       <c r="L222" s="17" t="inlineStr">
@@ -13513,7 +13547,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4806</v>
+        <v>4811</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13535,7 +13569,7 @@
       </c>
       <c r="K224" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 397</t>
+          <t>"natural = strait", 398</t>
         </is>
       </c>
       <c r="L224" s="17" t="inlineStr">
@@ -13571,7 +13605,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>27305</v>
+        <v>27308</v>
       </c>
       <c r="G225" s="12" t="n">
         <v>26737</v>
@@ -13593,7 +13627,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1765</t>
+          <t>"natural = bay", 1784</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13630,7 +13664,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4038</v>
+        <v>4031</v>
       </c>
       <c r="G226" s="12" t="n">
         <v>4179</v>
@@ -13692,7 +13726,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>19895</v>
+        <v>19894</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13714,9 +13748,9 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1353
-"natural = coastline", 1195
-"type = multipolygon", 123</t>
+          <t>"place = islet", 1357
+"natural = coastline", 1194
+"type = multipolygon", 124</t>
         </is>
       </c>
       <c r="L227" s="17" t="inlineStr">
@@ -13752,7 +13786,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13811,7 +13845,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>23907</v>
+        <v>23909</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13833,7 +13867,7 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 1088
+          <t>"natural = cape", 1109
 "place = locality", 54</t>
         </is>
       </c>
@@ -13871,7 +13905,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G230" s="12" t="n">
         <v>240</v>
@@ -13929,7 +13963,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="G231" s="12" t="n">
         <v>2328</v>
@@ -13994,7 +14028,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="G232" s="12" t="n">
         <v>1405</v>
@@ -14016,7 +14050,7 @@
       </c>
       <c r="K232" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 29
+          <t>"natural = bay", 30
 "type = multipolygon", 3</t>
         </is>
       </c>
@@ -14054,7 +14088,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G233" s="12" t="n">
         <v>351</v>
@@ -14117,7 +14151,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G234" s="12" t="n">
         <v>318</v>
@@ -14139,8 +14173,8 @@
       </c>
       <c r="K234" s="1" t="inlineStr">
         <is>
-          <t>"natural = coastline", 18
-"place = islet", 19</t>
+          <t>"natural = coastline", 19
+"place = islet", 20</t>
         </is>
       </c>
       <c r="L234" s="17" t="inlineStr">
@@ -14177,7 +14211,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G235" s="12" t="n">
         <v>109</v>
@@ -15010,7 +15044,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>8351</v>
+        <v>8356</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -15069,7 +15103,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15091,7 +15125,9 @@
       </c>
       <c r="K259" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 3
+          <t>"barrier = fence", 2
+"landuse = military", 2
+"place = quarter", 3
 "place = locality", 13</t>
         </is>
       </c>
@@ -15128,7 +15164,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>16025</v>
+        <v>16027</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15150,9 +15186,9 @@
       </c>
       <c r="K260" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 58
-"natural = hill", 477
-"place = locality", 428</t>
+          <t>"natural = peak", 61
+"place = locality", 433
+"natural = hill", 541</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15198,7 +15234,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22904</v>
+        <v>22915</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15221,9 +15257,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 296
+"natural = peak", 300
 "place = locality", 398
-"natural = hill", 284</t>
+"natural = hill", 283</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15269,7 +15305,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>9503</v>
+        <v>9505</v>
       </c>
       <c r="G262" s="12" t="n">
         <v>8191</v>
@@ -15338,7 +15374,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>10333</v>
+        <v>10331</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15360,7 +15396,7 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1258
+          <t>"natural = hill", 1344
 "place = locality", 966</t>
         </is>
       </c>
@@ -15402,7 +15438,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>60008</v>
+        <v>59995</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15424,10 +15460,10 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3610
-"place = locality", 2316
-"natural = peak", 564
-"natural = ridge", 289</t>
+          <t>"natural = hill", 3745
+"place = locality", 2326
+"natural = peak", 567
+"natural = ridge", 297</t>
         </is>
       </c>
       <c r="L264" s="17" t="inlineStr">
@@ -15478,7 +15514,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>7198</v>
+        <v>7209</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15543,7 +15579,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50463</v>
+        <v>50468</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15566,8 +15602,8 @@
       <c r="K266" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 192
-"natural = hill", 1928
-"place = locality", 1642</t>
+"natural = hill", 2052
+"place = locality", 1679</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15608,7 +15644,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1951</v>
+        <v>1960</v>
       </c>
       <c r="G267" s="12" t="n">
         <v>1648</v>
@@ -15683,7 +15719,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G268" s="12" t="n">
         <v>1076</v>
@@ -15876,7 +15912,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>41184</v>
+        <v>41183</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15898,8 +15934,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1237
-"natural = valley", 1579</t>
+          <t>"place = locality", 1243
+"natural = valley", 1585</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15940,7 +15976,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="G273" s="12" t="n">
         <v>6491</v>
@@ -15962,8 +15998,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 132
-"place = locality", 137</t>
+          <t>"natural = valley", 135
+"place = locality", 140</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -16004,7 +16040,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11642</v>
+        <v>11643</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -16026,8 +16062,8 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 165
-"place = locality", 150
+          <t>"natural = valley", 166
+"place = locality", 152
 "natural = saddle", 11</t>
         </is>
       </c>
@@ -16069,7 +16105,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="G275" s="12" t="n">
         <v>1747</v>
@@ -16128,7 +16164,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>3448</v>
+        <v>3452</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16199,7 +16235,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G277" s="12" t="n">
         <v>340</v>
@@ -16296,7 +16332,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>13498</v>
+        <v>13506</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16318,8 +16354,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 354
-"place = locality", 364</t>
+          <t>"natural = slope", 355
+"place = locality", 365</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16360,7 +16396,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>35010</v>
+        <v>35011</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16382,8 +16418,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 938
-"place = locality", 951</t>
+          <t>"natural = slope", 946
+"place = locality", 959</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16424,7 +16460,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="G281" s="12" t="n">
         <v>1437</v>
@@ -16515,7 +16551,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="G283" s="12" t="n">
         <v>2726</v>
@@ -16574,7 +16610,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G284" s="12" t="n">
         <v>513</v>
@@ -16596,7 +16632,7 @@
       </c>
       <c r="K284" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 8</t>
+          <t>"place = locality", 9</t>
         </is>
       </c>
       <c r="L284" s="2" t="n"/>
@@ -16633,7 +16669,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>3529</v>
+        <v>3531</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16655,7 +16691,7 @@
       </c>
       <c r="K285" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 139</t>
+          <t>"place = locality", 140</t>
         </is>
       </c>
       <c r="M285" s="12" t="inlineStr">
@@ -16691,7 +16727,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>6938</v>
+        <v>6934</v>
       </c>
       <c r="G286" s="12" t="n">
         <v>6057</v>
@@ -16713,7 +16749,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 254</t>
+          <t>"place = locality", 274</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
@@ -16851,6 +16887,9 @@
           <t>landskapsområde</t>
         </is>
       </c>
+      <c r="F289" t="n">
+        <v>124</v>
+      </c>
       <c r="G289" s="12" t="n">
         <v>51</v>
       </c>
@@ -16869,7 +16908,7 @@
           <t>Stort landskapsområde. Eks. Dalane, Jæren, Romerike, Grenland, Salten,  Varanger</t>
         </is>
       </c>
-      <c r="K289" s="17" t="n"/>
+      <c r="K289" s="1" t="inlineStr"/>
       <c r="O289" s="17">
         <f>CONCATENATE(Tabell1[[#This Row],[OSM tag]],";",Tabell1[[#This Row],[tillegg]],";",Tabell1[[#This Row],[fixme]])</f>
         <v/>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -788,29 +788,10 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>"place = town", 57
-"source:population = SSB - befolkning i tettstedet", 66
-"place = city", 15
-"ref:ssb_tettsted = 2562", 2
-"ref:ssb_tettsted = 2511", 2
-"ref:ssb_tettsted = 2603", 2
-"ref:ssb_tettsted = 2501", 2
-"ref:ssb_tettsted = 2521", 2
-"ref:ssb_tettsted = 2531", 2
-"ref:ssb_tettsted = 2541", 2
-"ref:ssb_tettsted = 2551", 2
-"ref:ssb_tettsted = 3005-3806", 2
-"ref:ssb_tettsted = 3005-3807", 2
-"ref:ssb_tettsted = 3021", 2
-"ref:ssb_tettsted = 3005-3813", 2
-"ref:ssb_tettsted = 3054", 2
-"ref:ssb_tettsted = 3102", 2
-"ref:ssb_tettsted = 3501", 2
-"email = postmottak@kristiansand.kommune.no", 2
-"ref:ssb_tettsted = 4002", 2
-"ref:ssb_tettsted = 4011", 2
-"ref:ssb_tettsted = 3531", 2
-"ref:ssb_tettsted = 4091", 2</t>
+          <t>"place = town", 83
+"source:population = SSB - befolkning i tettstedet", 93
+"place = city", 16
+"capital = 4", 3</t>
         </is>
       </c>
       <c r="L2" s="17" t="inlineStr">
@@ -852,7 +833,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>866</v>
@@ -874,13 +855,13 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 369
-"source:population = SSB - befolkning i tettstedet", 275
-"place = town", 16
-"place = suburb", 57
-"place = hamlet", 24
-"place = quarter", 29
-"place = neighbourhood", 21</t>
+          <t>"place = village", 532
+"source:population = SSB - befolkning i tettstedet", 401
+"place = hamlet", 34
+"place = suburb", 66
+"place = quarter", 34
+"place = town", 24
+"place = neighbourhood", 22</t>
         </is>
       </c>
       <c r="L3" s="17" t="inlineStr">
@@ -916,7 +897,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>845</v>
@@ -938,12 +919,12 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 118
-"place = hamlet", 53
-"place = village", 121
-"source:population = SSB - befolkning i tettstedet", 63
-"place = neighbourhood", 199
-"place = suburb", 101
+          <t>"place = village", 196
+"place = quarter", 185
+"source:population = SSB - befolkning i tettstedet", 100
+"place = neighbourhood", 209
+"place = suburb", 108
+"place = hamlet", 75
 "type = multipolygon", 8</t>
         </is>
       </c>
@@ -991,7 +972,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>2132</v>
@@ -1013,12 +994,10 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>"place = village", 309
-"place = hamlet", 356
-"place = quarter", 171
-"source:population = SSB - befolkning i tettstedet", 55
-"place = suburb", 21
-"place = neighbourhood", 20</t>
+          <t>"place = hamlet", 797
+"place = quarter", 200
+"source:population = SSB - befolkning i tettstedet", 104
+"place = village", 549</t>
         </is>
       </c>
       <c r="L5" s="17" t="inlineStr">
@@ -1064,7 +1043,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>3300</v>
@@ -1086,8 +1065,8 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1457
-"place = neighbourhood", 84</t>
+          <t>"place = hamlet", 2349
+"place = neighbourhood", 114</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
@@ -1123,7 +1102,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>2027</v>
@@ -1145,9 +1124,9 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 1221
-"place = suburb", 59
-"place = quarter", 264</t>
+          <t>"place = neighbourhood", 1723
+"place = quarter", 291
+"place = suburb", 70</t>
         </is>
       </c>
       <c r="L7" s="17" t="inlineStr">
@@ -1183,7 +1162,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>372</v>
@@ -1205,11 +1184,11 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>"landuse = industrial", 49
+          <t>"place = neighbourhood", 197
+"place = quarter", 31
+"landuse = industrial", 48
 "type = multipolygon", 12
-"place = neighbourhood", 117
-"place = quarter", 26
-"place = locality", 26
+"place = locality", 27
 "place = suburb", 7</t>
         </is>
       </c>
@@ -1246,7 +1225,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>395</v>
@@ -1268,9 +1247,9 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>"place = suburb", 154
-"place = neighbourhood", 15
-"place = quarter", 22</t>
+          <t>"place = suburb", 211
+"place = neighbourhood", 20
+"place = quarter", 23</t>
         </is>
       </c>
       <c r="L9" s="17" t="inlineStr">
@@ -1306,7 +1285,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>536</v>
@@ -1328,8 +1307,8 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 394
-"place = hamlet", 19</t>
+          <t>"place = hamlet", 25
+"place = neighbourhood", 567</t>
         </is>
       </c>
       <c r="L10" s="17" t="inlineStr">
@@ -1365,7 +1344,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>112</v>
@@ -1387,7 +1366,9 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>"place = square", 57</t>
+          <t>"place = square", 82
+"area = yes", 4
+"highway = pedestrian", 4</t>
         </is>
       </c>
       <c r="L11" s="17" t="inlineStr">
@@ -1445,9 +1426,11 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>"place = quarter", 24
+          <t>"place = neighbourhood", 6
+"place = quarter", 28
+"place = village", 4
+"source:population = SSB - befolkning i tettstedet", 2
 "place = suburb", 9
-"place = neighbourhood", 4
 "place = isolated_dwelling", 3</t>
         </is>
       </c>
@@ -1508,7 +1491,7 @@
         <is>
           <t>"place = farm", 3
 "place = isolated_dwelling", 2
-"place = locality", 6
+"place = locality", 7
 "historic = shieling", 2</t>
         </is>
       </c>
@@ -1539,7 +1522,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1549,10 +1532,10 @@
       <c r="J14" s="12" t="n"/>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 87
-"place = isolated_dwelling", 10
-"historic = shieling", 3
-"building = cabin", 3</t>
+          <t>"place = locality", 114
+"place = isolated_dwelling", 19
+"historic = shieling", 5
+"building = cabin", 4</t>
         </is>
       </c>
       <c r="M14" s="12" t="inlineStr">
@@ -1610,7 +1593,7 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>"place = neighbourhood", 2
+          <t>"place = neighbourhood", 5
 "place = isolated_dwelling", 2</t>
         </is>
       </c>
@@ -1647,7 +1630,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5793</v>
+        <v>5865</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>11736</v>
@@ -1669,8 +1652,8 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>"place = isolated_dwelling", 3448
-"place = farm", 533</t>
+          <t>"place = isolated_dwelling", 3915
+"place = farm", 534</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1711,7 +1694,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13577</v>
+        <v>12971</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>13094</v>
@@ -1733,9 +1716,9 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>"building = cabin", 844
-"place = isolated_dwelling", 8493
-"historic = shieling", 510</t>
+          <t>"building = cabin", 822
+"place = isolated_dwelling", 9813
+"historic = shieling", 451</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1771,7 +1754,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11535</v>
+        <v>11630</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>6992</v>
@@ -1793,9 +1776,9 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 7828
+          <t>"place = locality", 9213
 "historic = shieling", 1129
-"historic = ruins", 846</t>
+"historic = ruins", 847</t>
         </is>
       </c>
       <c r="L18" s="2" t="n"/>
@@ -1837,7 +1820,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>3</v>
@@ -1957,7 +1940,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>80</v>
@@ -2023,7 +2006,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>513</v>
@@ -2045,8 +2028,8 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>"leisure = pitch", 77
-"sport = soccer", 35
+          <t>"leisure = pitch", 79
+"sport = soccer", 37
 "surface = grass", 6
 "type = multipolygon", 9
 "sport = horse_racing", 5
@@ -2090,7 +2073,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>24</v>
@@ -2209,7 +2192,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>45</v>
@@ -2231,8 +2214,8 @@
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>"leisure = swimming_area", 32
-"place = locality", 37
+          <t>"leisure = swimming_area", 35
+"place = locality", 40
 "natural = beach", 13
 "surface = sand", 13
 "layer = 2", 6
@@ -2337,7 +2320,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>109380</v>
+        <v>109412</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>117578</v>
@@ -2359,7 +2342,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 57023</t>
+          <t>"place = farm", 77644</t>
         </is>
       </c>
       <c r="L27" s="17" t="inlineStr">
@@ -2400,7 +2383,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23159</v>
+        <v>23325</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>18129</v>
@@ -2422,9 +2405,9 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 14875
-"place = isolated_dwelling", 8784
-"place = locality", 5731</t>
+          <t>"historic = shieling", 18535
+"place = isolated_dwelling", 12412
+"place = locality", 5745</t>
         </is>
       </c>
       <c r="L28" s="17" t="inlineStr">
@@ -2465,7 +2448,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2838</v>
+        <v>2983</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>3963</v>
@@ -2487,10 +2470,10 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1741
+          <t>"place = locality", 2040
 "building = farm_auxiliary", 211
-"place = isolated_dwelling", 140
-"historic = shieling", 183</t>
+"place = isolated_dwelling", 258
+"historic = shieling", 184</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -2526,7 +2509,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4354</v>
+        <v>4361</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>2651</v>
@@ -2548,8 +2531,8 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 2081
-"place = farm", 213</t>
+          <t>"place = locality", 3047
+"place = farm", 217</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
@@ -2644,7 +2627,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>41583</v>
+        <v>41588</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>3119</v>
@@ -2666,8 +2649,8 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>"place = farm", 16948
-"place = hamlet", 4007</t>
+          <t>"place = farm", 21744
+"place = hamlet", 7834</t>
         </is>
       </c>
       <c r="L32" s="17" t="inlineStr">
@@ -2713,7 +2696,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>97</v>
@@ -2735,8 +2718,8 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>"place = hamlet", 1225
-"place = farm", 530</t>
+          <t>"place = hamlet", 1681
+"place = farm", 559</t>
         </is>
       </c>
       <c r="L33" s="17" t="inlineStr">
@@ -2783,7 +2766,7 @@
         <is>
           <t>"place = farm", 2
 "place = isolated_dwelling", 5
-"place = locality", 4</t>
+"place = locality", 5</t>
         </is>
       </c>
       <c r="M34" s="12" t="inlineStr">
@@ -2813,7 +2796,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
@@ -2823,8 +2806,8 @@
       <c r="J35" s="12" t="n"/>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 227
-"place = isolated_dwelling", 224</t>
+          <t>"historic = shieling", 228
+"place = isolated_dwelling", 225</t>
         </is>
       </c>
       <c r="L35" s="17" t="inlineStr">
@@ -2860,7 +2843,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1732</v>
@@ -2997,7 +2980,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>342</v>
@@ -3019,7 +3002,7 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>"amenity = nursing_home", 83
+          <t>"amenity = nursing_home", 84
 "place = isolated_dwelling", 3
 "place = locality", 7
 "amenity = social_facility", 3
@@ -3182,7 +3165,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>251</v>
@@ -3482,7 +3465,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>367</v>
@@ -3562,7 +3545,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>271</v>
@@ -3585,8 +3568,8 @@
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>"building = industrial", 63
+"place = isolated_dwelling", 3
 "place = locality", 21
-"place = isolated_dwelling", 2
 "ref:bygningsnr = 157524291", 2
 "ref:bygningsnr = 157502042", 2
 "ref:bygningsnr = 157458736", 2
@@ -3652,7 +3635,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>198</v>
@@ -3679,8 +3662,8 @@
 "wheelchair = yes", 2
 "building = office", 3
 "place = locality", 9
-"building = commercial", 13
-"place = isolated_dwelling", 4
+"place = isolated_dwelling", 5
+"building = commercial", 14
 "amenity = cafe", 4
 "place = neighbourhood", 4
 "place = quarter", 3
@@ -3728,7 +3711,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>302</v>
@@ -3792,7 +3775,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>99</v>
@@ -3856,7 +3839,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="G51" s="12" t="n">
         <v>784</v>
@@ -3889,6 +3872,7 @@
 "dnt:classification = ubetjent", 15
 "dnt:lock = yes", 21
 "service = no", 2
+"place = isolated_dwelling", 6
 "tourism = chalet", 48
 "amenity = cafe", 12
 "capacity = 24", 2
@@ -3935,6 +3919,7 @@
 "dnt:iid = 1226", 2
 "ref:kartverket:hytte = 5100", 2
 "tourism = guest_house", 2
+"building = hotel", 2
 "ref:kartverket:hytte = 1518", 2
 "amenity = restaurant", 2
 "ref:kartverket:hytte = 3226", 2
@@ -3989,7 +3974,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G52" s="12" t="n">
         <v>152</v>
@@ -4011,7 +3996,8 @@
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>"tourism = camp_site", 15
+          <t>"place = isolated_dwelling", 3
+"tourism = camp_site", 16
 "barrier = fence", 2
 "caravans = yes", 2
 "dryer = yes", 2
@@ -4057,7 +4043,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G53" s="12" t="n">
         <v>4</v>
@@ -4115,7 +4101,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G54" s="12" t="n">
         <v>29</v>
@@ -4137,7 +4123,8 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>"amenity = cafe", 10
+          <t>"place = isolated_dwelling", 5
+"amenity = cafe", 10
 "hiking = yes", 2
 "ski = yes", 2
 "amenity = restaurant", 2
@@ -4310,7 +4297,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G58" s="12" t="n">
         <v>1042</v>
@@ -4332,7 +4319,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>"natural = strait", 76</t>
+          <t>"natural = strait", 77</t>
         </is>
       </c>
       <c r="L58" s="17" t="inlineStr">
@@ -4368,7 +4355,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7742</v>
+        <v>7741</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>7211</v>
@@ -4390,7 +4377,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 347</t>
+          <t>"natural = bay", 360</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -4426,7 +4413,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>1296</v>
@@ -4448,7 +4435,8 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>"place = island", 95
+          <t>"place = island", 97
+"natural = wood", 3
 "place = islet", 12</t>
         </is>
       </c>
@@ -4508,8 +4496,7 @@
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>"natural = wood", 29
-"place = islet", 171
-"type = multipolygon", 6</t>
+"place = islet", 175</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
@@ -4545,7 +4532,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G62" s="12" t="n">
         <v>255</v>
@@ -4567,7 +4554,9 @@
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 41</t>
+          <t>"natural = cape", 40
+"natural = peninsula", 2
+"place = locality", 2</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4603,7 +4592,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10125</v>
+        <v>10126</v>
       </c>
       <c r="G63" s="12" t="n">
         <v>9498</v>
@@ -4625,7 +4614,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 408</t>
+          <t>"natural = cape", 423</t>
         </is>
       </c>
       <c r="L63" s="17" t="inlineStr">
@@ -4661,7 +4650,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G64" s="12" t="n">
         <v>390</v>
@@ -4720,7 +4709,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G65" s="12" t="n">
         <v>923</v>
@@ -4742,9 +4731,9 @@
       </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
-          <t>"natural = beach", 11
+          <t>"natural = beach", 12
 "type = multipolygon", 2
-"place = locality", 10</t>
+"place = locality", 11</t>
         </is>
       </c>
       <c r="L65" s="17" t="inlineStr">
@@ -5077,7 +5066,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10045</v>
+        <v>10048</v>
       </c>
       <c r="G71" s="12" t="n">
         <v>10146</v>
@@ -5099,9 +5088,9 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>"waterway = river", 237
+          <t>"waterway = river", 248
 "width = 2", 11
-"layer = -1", 15
+"layer = -1", 16
 "width = 3", 10
 "waterway = stream", 22</t>
         </is>
@@ -5139,7 +5128,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45747</v>
+        <v>45756</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>44547</v>
@@ -5161,13 +5150,12 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>"waterway = stream", 542
-"layer = -1", 77
-"tunnel = culvert", 25
+          <t>"waterway = stream", 637
+"layer = -1", 84
+"tunnel = culvert", 33
 "waterway = river", 62
 "width = 2", 80
-"width = 3", 24
-"place = locality", 76</t>
+"place = locality", 71</t>
         </is>
       </c>
       <c r="L72" s="17" t="inlineStr">
@@ -5254,7 +5242,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="G74" s="12" t="n">
         <v>3394</v>
@@ -5277,8 +5265,8 @@
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>"natural = waterfall", 22
-"waterway = waterfall", 33
-"place = locality", 9
+"waterway = waterfall", 39
+"place = locality", 11
 "water = waterfall", 3</t>
         </is>
       </c>
@@ -5463,8 +5451,7 @@
 "type = multipolygon", 3
 "water = lake", 2
 "water = pond", 3
-"water = pool", 2
-"place = locality", 25</t>
+"place = locality", 26</t>
         </is>
       </c>
       <c r="L77" s="2" t="n"/>
@@ -5506,7 +5493,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="G78" s="12" t="n">
         <v>1780</v>
@@ -5589,7 +5576,7 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 4</t>
+          <t>"place = locality", 5</t>
         </is>
       </c>
       <c r="M79" s="17" t="inlineStr">
@@ -5625,7 +5612,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G80" s="12" t="n">
         <v>654</v>
@@ -5647,7 +5634,7 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 23</t>
+          <t>"natural = cape", 24</t>
         </is>
       </c>
       <c r="L80" s="17" t="inlineStr">
@@ -5684,7 +5671,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G81" s="12" t="n">
         <v>126</v>
@@ -5861,7 +5848,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13658</v>
+        <v>13653</v>
       </c>
       <c r="G84" s="12" t="n">
         <v>14069</v>
@@ -5883,9 +5870,9 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 537
-"type = multipolygon", 420
-"water = lake", 382
+          <t>"natural = water", 540
+"type = multipolygon", 424
+"water = lake", 384
 "water = reservoir", 22</t>
         </is>
       </c>
@@ -5922,7 +5909,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>60837</v>
+        <v>60838</v>
       </c>
       <c r="G85" s="12" t="n">
         <v>62457</v>
@@ -5944,8 +5931,8 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 3352
-"type = multipolygon", 1592
+          <t>"natural = water", 3390
+"type = multipolygon", 1595
 "water = lake", 993</t>
         </is>
       </c>
@@ -5982,7 +5969,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>1286</v>
@@ -6004,8 +5991,8 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 118
-"water = pond", 105
+          <t>"natural = water", 121
+"water = pond", 108
 "place = locality", 7
 "type = multipolygon", 11</t>
         </is>
@@ -6066,7 +6053,8 @@
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>"natural = water", 2
-"waterway = dam", 10</t>
+"waterway = dam", 16
+"man_made = bridge", 2</t>
         </is>
       </c>
       <c r="L87" s="17" t="inlineStr">
@@ -6103,7 +6091,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G88" s="12" t="n">
         <v>129</v>
@@ -6127,7 +6115,7 @@
         <is>
           <t>"natural = bay", 5
 "natural = water", 4
-"place = locality", 7
+"place = locality", 9
 "area = yes", 2
 "type = multipolygon", 3</t>
         </is>
@@ -6166,7 +6154,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G89" s="12" t="n">
         <v>166</v>
@@ -6228,7 +6216,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="G90" s="12" t="n">
         <v>687</v>
@@ -6250,10 +6238,10 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>"natural = water", 145
-"water = lake", 106
+          <t>"natural = water", 151
+"water = lake", 111
 "type = multipolygon", 70
-"place = locality", 21</t>
+"place = locality", 22</t>
         </is>
       </c>
       <c r="L90" s="17" t="inlineStr">
@@ -6322,7 +6310,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G92" s="12" t="n">
         <v>506</v>
@@ -6344,11 +6332,11 @@
       </c>
       <c r="K92" s="1" t="inlineStr">
         <is>
-          <t>"railway = station", 6
+          <t>"railway = station", 7
 "railway:traffic_mode = passenger", 3
 "public_transport = station", 2
 "building = train_station", 3
-"train = yes", 6
+"train = yes", 7
 "public_transport = stop_area", 2
 "type = public_transport", 2
 "ref:bygningsnr = 157484370", 2
@@ -6394,7 +6382,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G93" s="12" t="n">
         <v>215</v>
@@ -6417,11 +6405,11 @@
       <c r="K93" s="1" t="inlineStr">
         <is>
           <t>"disused:railway = halt", 2
-"railway:traffic_mode = passenger", 7
+"railway:traffic_mode = passenger", 8
 "abandoned:railway = halt", 2
 "place = locality", 2
-"train = yes", 4
-"railway = halt", 7</t>
+"train = yes", 6
+"railway = halt", 9</t>
         </is>
       </c>
       <c r="L93" s="17" t="inlineStr">
@@ -6611,9 +6599,9 @@
       <c r="K97" s="1" t="inlineStr">
         <is>
           <t>"plant:source = hydro", 2
-"power = plant", 4
+"power = plant", 5
 "generator:source = hydro", 2
-"landuse = industrial", 2
+"landuse = industrial", 3
 "place = locality", 2
 "power = generator", 2
 "building = service", 2
@@ -7275,7 +7263,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G110" s="12" t="n">
         <v>202</v>
@@ -7298,7 +7286,7 @@
       <c r="K110" s="1" t="inlineStr">
         <is>
           <t>"man_made = cairn", 4
-"place = locality", 3</t>
+"place = locality", 4</t>
         </is>
       </c>
       <c r="L110" s="17" t="inlineStr">
@@ -7339,7 +7327,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G111" s="12" t="n">
         <v>490</v>
@@ -7721,10 +7709,10 @@
       </c>
       <c r="K119" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 5
-"layer = 1", 5
-"natural = hill", 2
-"place = locality", 4</t>
+          <t>"bridge = yes", 6
+"layer = 1", 6
+"place = locality", 5
+"natural = hill", 2</t>
         </is>
       </c>
       <c r="L119" s="17" t="inlineStr">
@@ -7760,7 +7748,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>1216</v>
@@ -7783,18 +7771,19 @@
       <c r="K120" s="1" t="inlineStr">
         <is>
           <t>"highway = cycleway", 2
-"layer = -1", 27
+"layer = -1", 29
 "surface = paved", 3
-"tunnel = yes", 27
+"tunnel = yes", 29
 "bicycle = no", 5
 "foot = no", 6
-"highway = primary", 11
+"highway = primary", 13
 "lit = yes", 13
 "maxheight = 4.2", 3
 "surface = asphalt", 12
 "bicycle = yes", 3
 "foot = yes", 4
 "maxheight = 4.1", 2
+"maxheight = 4.0", 3
 "lanes = 2", 2
 "highway = trunk", 3
 "maxheight = 4.5", 5
@@ -7847,7 +7836,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10577</v>
+        <v>10580</v>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
@@ -7857,18 +7846,17 @@
       <c r="J121" s="14" t="n"/>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>"bridge = yes", 633
-"layer = 1", 668
+          <t>"bridge = yes", 659
+"layer = 1", 695
 "bridge:structure = beam", 74
-"highway = primary", 165
-"surface = asphalt", 180
-"highway = trunk", 115
-"highway = secondary", 173
+"highway = primary", 168
+"surface = asphalt", 203
+"highway = trunk", 120
+"highway = secondary", 190
 "lit = yes", 50
-"man_made = bridge", 73
-"highway = unclassified", 46
-"lanes = 2", 65
-"width = 7", 26
+"man_made = bridge", 74
+"highway = unclassified", 47
+"lanes = 2", 87
 "sidewalk = none", 31
 "surface = paved", 29</t>
         </is>
@@ -8920,7 +8908,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G141" s="12" t="n">
         <v>400</v>
@@ -9056,7 +9044,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>109327</v>
+        <v>109369</v>
       </c>
       <c r="G143" s="12" t="n">
         <v>24621</v>
@@ -9182,7 +9170,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4645</v>
+        <v>4656</v>
       </c>
       <c r="G145" s="12" t="n">
         <v>4064</v>
@@ -9204,13 +9192,14 @@
       </c>
       <c r="K145" s="1" t="inlineStr">
         <is>
-          <t>"highway = path", 42
+          <t>"highway = path", 45
 "sac_scale = hiking", 6
 "highway = track", 2
 "mtb:scale = 1", 2
 "trail_visibility = excellent", 3
-"place = locality", 18
-"surface = ground", 2</t>
+"mtb:scale = 2", 2
+"place = locality", 19
+"surface = ground", 3</t>
         </is>
       </c>
       <c r="L145" s="9" t="inlineStr">
@@ -9246,7 +9235,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G146" s="12" t="n">
         <v>673</v>
@@ -9268,7 +9257,7 @@
       </c>
       <c r="K146" s="1" t="inlineStr">
         <is>
-          <t>"junction = yes", 533
+          <t>"junction = yes", 532
 "junction = roundabout", 35
 "surface = asphalt", 22
 "oneway = yes", 23</t>
@@ -9478,7 +9467,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G150" s="12" t="n">
         <v>788</v>
@@ -9501,7 +9490,7 @@
       <c r="K150" s="1" t="inlineStr">
         <is>
           <t>"ford = yes", 13
-"place = locality", 11</t>
+"place = locality", 12</t>
         </is>
       </c>
       <c r="L150" s="2" t="inlineStr">
@@ -9569,7 +9558,7 @@
       </c>
       <c r="K151" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 23</t>
+          <t>"place = locality", 30</t>
         </is>
       </c>
       <c r="M151" s="12" t="inlineStr">
@@ -9605,7 +9594,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G152" s="12" t="n">
         <v>792</v>
@@ -9937,19 +9926,19 @@
       </c>
       <c r="K159" s="1" t="inlineStr">
         <is>
-          <t>"amenity = place_of_worship", 108
-"denomination = lutheran", 107
+          <t>"amenity = place_of_worship", 109
+"denomination = lutheran", 108
 "diocese = Stavanger", 15
 "heritage = yes", 70
-"religion = christian", 108
+"religion = christian", 109
 "toilets = no", 11
 "toilets:wheelchair = no", 7
-"building = church", 103
+"building = church", 104
 "deanery = Ytre Stavanger", 6
 "note = Soknekirke/arbeidskirke", 12
 "toilets = yes", 46
 "deanery = Stavanger Domprosti", 7
-"note = Soknekirke", 48
+"note = Soknekirke", 49
 "capacity = 300", 5
 "toilets:wheelchair = yes", 11
 "wheelchair = yes", 14
@@ -9981,7 +9970,7 @@
 "parish = Bygland", 6
 "parish = Valle og Hylestad", 4
 "parish = Bykle", 4
-"diocese = Bjørgvin", 7
+"diocese = Bjørgvin", 8
 "deanery = Arna og Åsane", 5</t>
         </is>
       </c>
@@ -10023,7 +10012,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G160" s="12" t="n">
         <v>653</v>
@@ -10087,7 +10076,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G161" s="12" t="n">
         <v>127</v>
@@ -10222,7 +10211,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G163" s="12" t="n">
         <v>98</v>
@@ -10245,7 +10234,7 @@
       <c r="K163" s="1" t="inlineStr">
         <is>
           <t>"tourism = museum", 3
-"place = isolated_dwelling", 2
+"place = isolated_dwelling", 3
 "place = locality", 2
 "type = multipolygon", 2</t>
         </is>
@@ -10277,13 +10266,20 @@
           <t>kulturMessehall</t>
         </is>
       </c>
+      <c r="F164" t="n">
+        <v>3</v>
+      </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
           <t>Stort anlegg/hall til flerbruk - varemesse, konserter, idrettsarrangement.</t>
         </is>
       </c>
       <c r="J164" s="12" t="n"/>
-      <c r="K164" s="17" t="n"/>
+      <c r="K164" s="1" t="inlineStr">
+        <is>
+          <t>"place = isolated_dwelling", 2</t>
+        </is>
+      </c>
       <c r="L164" s="17" t="inlineStr">
         <is>
           <t>amenity=conference_centre</t>
@@ -10494,7 +10490,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5550</v>
+        <v>5556</v>
       </c>
       <c r="G168" s="12" t="n">
         <v>3733</v>
@@ -10516,13 +10512,13 @@
       </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 283
+          <t>"place = locality", 290
 "building = farm_auxiliary", 26
 "man_made = mineshaft", 18
 "resource = silver", 21
 "historic = mine", 40
-"place = isolated_dwelling", 59
-"historic = shieling", 11</t>
+"place = isolated_dwelling", 65
+"historic = shieling", 13</t>
         </is>
       </c>
       <c r="M168" s="12" t="inlineStr">
@@ -10558,7 +10554,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G169" s="12" t="n">
         <v>444</v>
@@ -10676,7 +10672,7 @@
       </c>
       <c r="K171" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 121
+          <t>"place = locality", 130
 "place = farm", 23</t>
         </is>
       </c>
@@ -10719,7 +10715,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="G172" s="12" t="n">
         <v>2408</v>
@@ -10741,9 +10737,9 @@
       </c>
       <c r="K172" s="1" t="inlineStr">
         <is>
-          <t>"landuse = meadow", 24
+          <t>"landuse = meadow", 28
 "type = multipolygon", 4
-"place = locality", 33
+"place = locality", 55
 "natural = wetland", 2
 "wetland = bog", 2</t>
         </is>
@@ -10781,7 +10777,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8387</v>
+        <v>8388</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>4914</v>
@@ -10804,8 +10800,9 @@
       <c r="K173" s="1" t="inlineStr">
         <is>
           <t>"landuse = farmland", 48
+"place = farm", 8
 "type = multipolygon", 22
-"place = locality", 210</t>
+"place = locality", 214</t>
         </is>
       </c>
       <c r="M173" s="12" t="inlineStr">
@@ -10863,7 +10860,7 @@
       </c>
       <c r="K174" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 14</t>
+          <t>"place = locality", 15</t>
         </is>
       </c>
       <c r="M174" s="17" t="inlineStr">
@@ -10904,7 +10901,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3905</v>
+        <v>3920</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>3166</v>
@@ -10926,11 +10923,11 @@
       </c>
       <c r="K175" s="1" t="inlineStr">
         <is>
-          <t>"historic = shieling", 178
+          <t>"place = isolated_dwelling", 54
+"historic = shieling", 197
 "landuse = meadow", 26
-"place = locality", 190
-"building = cabin", 11
-"place = isolated_dwelling", 43
+"place = locality", 206
+"building = cabin", 12
 "place = farm", 13</t>
         </is>
       </c>
@@ -11209,7 +11206,7 @@
       </c>
       <c r="K180" s="1" t="inlineStr">
         <is>
-          <t>"natural = stone", 56
+          <t>"natural = stone", 61
 "place = locality", 4
 "natural = rock", 2</t>
         </is>
@@ -11248,7 +11245,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="G181" s="12" t="n">
         <v>2354</v>
@@ -11270,8 +11267,8 @@
       </c>
       <c r="K181" s="1" t="inlineStr">
         <is>
-          <t>"natural = scree", 84
-"place = locality", 20</t>
+          <t>"natural = scree", 89
+"place = locality", 25</t>
         </is>
       </c>
       <c r="L181" s="17" t="inlineStr">
@@ -11327,7 +11324,11 @@
           <t>Sand-/grusområde i elvemunning, elvedelta både mot innsjø/vann og saltvann</t>
         </is>
       </c>
-      <c r="K182" s="1" t="inlineStr"/>
+      <c r="K182" s="1" t="inlineStr">
+        <is>
+          <t>"place = quarter", 2</t>
+        </is>
+      </c>
       <c r="M182" s="12" t="inlineStr">
         <is>
           <t>place=locality</t>
@@ -11549,7 +11550,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G187" s="12" t="n">
         <v>273</v>
@@ -11574,7 +11575,7 @@
           <t>"historic = mine", 7
 "resource = silver", 3
 "place = locality", 2
-"landuse = quarry", 4</t>
+"landuse = quarry", 5</t>
         </is>
       </c>
       <c r="L187" s="17" t="inlineStr">
@@ -11610,7 +11611,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G188" s="12" t="n">
         <v>127</v>
@@ -11632,8 +11633,8 @@
       </c>
       <c r="K188" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 3
-"landuse = quarry", 2
+          <t>"place = locality", 4
+"landuse = quarry", 3
 "place = isolated_dwelling", 2</t>
         </is>
       </c>
@@ -11721,7 +11722,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>8348</v>
+        <v>8350</v>
       </c>
       <c r="G190" s="12" t="n">
         <v>7616</v>
@@ -11745,7 +11746,7 @@
         <is>
           <t>"natural = wood", 20
 "type = multipolygon", 6
-"place = locality", 103
+"place = locality", 112
 "place = isolated_dwelling", 4
 "place = farm", 11</t>
         </is>
@@ -11841,7 +11842,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>53907</v>
+        <v>53925</v>
       </c>
       <c r="G192" s="12" t="n">
         <v>50738</v>
@@ -11863,10 +11864,10 @@
       </c>
       <c r="K192" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 666
-"natural = wetland", 1009
-"wetland = bog", 449
-"type = multipolygon", 157</t>
+          <t>"place = locality", 674
+"natural = wetland", 1105
+"wetland = bog", 518
+"type = multipolygon", 180</t>
         </is>
       </c>
       <c r="L192" s="17" t="inlineStr">
@@ -12324,8 +12325,9 @@
       </c>
       <c r="K201" s="1" t="inlineStr">
         <is>
-          <t>"historic = boundary_stone", 16
-"man_made = cairn", 16</t>
+          <t>"historic = boundary_stone", 22
+"man_made = cairn", 22
+"place = locality", 6</t>
         </is>
       </c>
       <c r="L201" s="17" t="inlineStr">
@@ -12580,7 +12582,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G207" s="12" t="n">
         <v>233</v>
@@ -12690,7 +12692,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="G209" s="12" t="n">
         <v>302</v>
@@ -12961,7 +12963,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="G214" s="12" t="n">
         <v>1901</v>
@@ -13294,7 +13296,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>14147</v>
+        <v>14146</v>
       </c>
       <c r="G220" s="12" t="n">
         <v>13989</v>
@@ -13547,7 +13549,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4811</v>
+        <v>4812</v>
       </c>
       <c r="G224" s="12" t="n">
         <v>4494</v>
@@ -13627,7 +13629,7 @@
       </c>
       <c r="K225" s="1" t="inlineStr">
         <is>
-          <t>"natural = bay", 1784</t>
+          <t>"natural = bay", 1785</t>
         </is>
       </c>
       <c r="L225" s="17" t="inlineStr">
@@ -13726,7 +13728,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>19894</v>
+        <v>19895</v>
       </c>
       <c r="G227" s="12" t="n">
         <v>20058</v>
@@ -13748,7 +13750,7 @@
       </c>
       <c r="K227" s="1" t="inlineStr">
         <is>
-          <t>"place = islet", 1357
+          <t>"place = islet", 1358
 "natural = coastline", 1194
 "type = multipolygon", 124</t>
         </is>
@@ -13786,7 +13788,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G228" s="12" t="n">
         <v>495</v>
@@ -13845,7 +13847,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>23909</v>
+        <v>23907</v>
       </c>
       <c r="G229" s="12" t="n">
         <v>24024</v>
@@ -13867,8 +13869,8 @@
       </c>
       <c r="K229" s="1" t="inlineStr">
         <is>
-          <t>"natural = cape", 1109
-"place = locality", 54</t>
+          <t>"natural = cape", 1114
+"place = locality", 55</t>
         </is>
       </c>
       <c r="L229" s="17" t="inlineStr">
@@ -13991,7 +13993,7 @@
 "place = isolated_dwelling", 2
 "layer = 2", 7
 "surface = sand", 13
-"place = hamlet", 2</t>
+"place = hamlet", 4</t>
         </is>
       </c>
       <c r="L231" s="17" t="inlineStr">
@@ -15044,7 +15046,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>8356</v>
+        <v>8364</v>
       </c>
       <c r="G258" s="12" t="n">
         <v>7739</v>
@@ -15066,7 +15068,7 @@
       </c>
       <c r="K258" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 222</t>
+          <t>"place = locality", 237</t>
         </is>
       </c>
       <c r="L258" s="2" t="n"/>
@@ -15103,7 +15105,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="G259" s="12" t="n">
         <v>4173</v>
@@ -15127,8 +15129,9 @@
         <is>
           <t>"barrier = fence", 2
 "landuse = military", 2
+"place = locality", 21
 "place = quarter", 3
-"place = locality", 13</t>
+"place = neighbourhood", 2</t>
         </is>
       </c>
       <c r="M259" s="12" t="inlineStr">
@@ -15164,7 +15167,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>16027</v>
+        <v>16034</v>
       </c>
       <c r="G260" s="12" t="n">
         <v>15244</v>
@@ -15187,8 +15190,8 @@
       <c r="K260" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 61
-"place = locality", 433
-"natural = hill", 541</t>
+"place = locality", 468
+"natural = hill", 577</t>
         </is>
       </c>
       <c r="L260" s="2" t="inlineStr">
@@ -15234,7 +15237,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22915</v>
+        <v>22923</v>
       </c>
       <c r="G261" s="12" t="n">
         <v>22178</v>
@@ -15257,9 +15260,9 @@
       <c r="K261" s="1" t="inlineStr">
         <is>
           <t>"man_made = survey_point", 18
-"natural = peak", 300
-"place = locality", 398
-"natural = hill", 283</t>
+"natural = peak", 308
+"place = locality", 407
+"natural = hill", 292</t>
         </is>
       </c>
       <c r="L261" s="17" t="inlineStr">
@@ -15327,8 +15330,8 @@
       </c>
       <c r="K262" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1472
-"place = locality", 1485</t>
+          <t>"natural = hill", 1473
+"place = locality", 1486</t>
         </is>
       </c>
       <c r="L262" s="17" t="inlineStr">
@@ -15374,7 +15377,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>10331</v>
+        <v>10329</v>
       </c>
       <c r="G263" s="12" t="n">
         <v>9146</v>
@@ -15396,8 +15399,8 @@
       </c>
       <c r="K263" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 1344
-"place = locality", 966</t>
+          <t>"natural = hill", 1350
+"place = locality", 972</t>
         </is>
       </c>
       <c r="L263" s="17" t="inlineStr">
@@ -15438,7 +15441,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>59995</v>
+        <v>60002</v>
       </c>
       <c r="G264" s="12" t="n">
         <v>57885</v>
@@ -15460,9 +15463,9 @@
       </c>
       <c r="K264" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 3745
-"place = locality", 2326
-"natural = peak", 567
+          <t>"natural = hill", 3786
+"place = locality", 2369
+"natural = peak", 569
 "natural = ridge", 297</t>
         </is>
       </c>
@@ -15514,7 +15517,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>7209</v>
+        <v>7211</v>
       </c>
       <c r="G265" s="12" t="n">
         <v>6752</v>
@@ -15536,9 +15539,9 @@
       </c>
       <c r="K265" s="1" t="inlineStr">
         <is>
-          <t>"natural = hill", 68
-"natural = ridge", 250
-"place = locality", 198</t>
+          <t>"natural = hill", 70
+"natural = ridge", 265
+"place = locality", 207</t>
         </is>
       </c>
       <c r="L265" s="17" t="inlineStr">
@@ -15579,7 +15582,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50468</v>
+        <v>50481</v>
       </c>
       <c r="G266" s="12" t="n">
         <v>48481</v>
@@ -15602,8 +15605,8 @@
       <c r="K266" s="1" t="inlineStr">
         <is>
           <t>"natural = peak", 192
-"natural = hill", 2052
-"place = locality", 1679</t>
+"natural = hill", 2105
+"place = locality", 1732</t>
         </is>
       </c>
       <c r="L266" s="17" t="inlineStr">
@@ -15666,9 +15669,9 @@
       </c>
       <c r="K267" s="1" t="inlineStr">
         <is>
-          <t>"natural = peak", 43
-"natural = hill", 40
-"place = locality", 39</t>
+          <t>"natural = peak", 44
+"natural = hill", 41
+"place = locality", 40</t>
         </is>
       </c>
       <c r="L267" s="17" t="inlineStr">
@@ -15912,7 +15915,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>41183</v>
+        <v>41185</v>
       </c>
       <c r="G272" s="12" t="n">
         <v>38753</v>
@@ -15934,8 +15937,8 @@
       </c>
       <c r="K272" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 1243
-"natural = valley", 1585</t>
+          <t>"place = locality", 1268
+"natural = valley", 1695</t>
         </is>
       </c>
       <c r="L272" s="17" t="inlineStr">
@@ -15998,8 +16001,8 @@
       </c>
       <c r="K273" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 135
-"place = locality", 140</t>
+          <t>"natural = valley", 143
+"place = locality", 148</t>
         </is>
       </c>
       <c r="L273" s="17" t="inlineStr">
@@ -16040,7 +16043,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>11643</v>
+        <v>11649</v>
       </c>
       <c r="G274" s="12" t="n">
         <v>11649</v>
@@ -16062,8 +16065,9 @@
       </c>
       <c r="K274" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 166
-"place = locality", 152
+          <t>"natural = valley", 175
+"place = locality", 160
+"FIXME = consider natural=saddle", 8
 "natural = saddle", 11</t>
         </is>
       </c>
@@ -16127,8 +16131,8 @@
       </c>
       <c r="K275" s="1" t="inlineStr">
         <is>
-          <t>"natural = gorge", 89
-"place = locality", 23</t>
+          <t>"natural = gorge", 97
+"place = locality", 30</t>
         </is>
       </c>
       <c r="L275" s="17" t="inlineStr">
@@ -16164,7 +16168,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>3452</v>
+        <v>3459</v>
       </c>
       <c r="G276" s="12" t="n">
         <v>2948</v>
@@ -16186,8 +16190,8 @@
       </c>
       <c r="K276" s="1" t="inlineStr">
         <is>
-          <t>"natural = valley", 65
-"place = locality", 54
+          <t>"natural = valley", 67
+"place = locality", 56
 "natural = wetland", 3
 "wetland = bog", 2</t>
         </is>
@@ -16332,7 +16336,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>13506</v>
+        <v>13528</v>
       </c>
       <c r="G279" s="12" t="n">
         <v>11974</v>
@@ -16354,8 +16358,8 @@
       </c>
       <c r="K279" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 355
-"place = locality", 365</t>
+          <t>"natural = slope", 367
+"place = locality", 377</t>
         </is>
       </c>
       <c r="L279" s="17" t="inlineStr">
@@ -16396,7 +16400,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>35011</v>
+        <v>35013</v>
       </c>
       <c r="G280" s="12" t="n">
         <v>32819</v>
@@ -16418,8 +16422,8 @@
       </c>
       <c r="K280" s="1" t="inlineStr">
         <is>
-          <t>"natural = slope", 946
-"place = locality", 959</t>
+          <t>"natural = slope", 992
+"place = locality", 1004</t>
         </is>
       </c>
       <c r="L280" s="17" t="inlineStr">
@@ -16573,7 +16577,7 @@
       </c>
       <c r="K283" s="1" t="inlineStr">
         <is>
-          <t>"natural = cliff", 163</t>
+          <t>"natural = cliff", 164</t>
         </is>
       </c>
       <c r="L283" s="17" t="inlineStr">
@@ -16632,7 +16636,7 @@
       </c>
       <c r="K284" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 9</t>
+          <t>"place = locality", 11</t>
         </is>
       </c>
       <c r="L284" s="2" t="n"/>
@@ -16669,7 +16673,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="G285" s="12" t="n">
         <v>2244</v>
@@ -16691,7 +16695,7 @@
       </c>
       <c r="K285" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 140</t>
+          <t>"place = locality", 160</t>
         </is>
       </c>
       <c r="M285" s="12" t="inlineStr">
@@ -16749,7 +16753,7 @@
       </c>
       <c r="K286" s="1" t="inlineStr">
         <is>
-          <t>"place = locality", 274</t>
+          <t>"place = locality", 280</t>
         </is>
       </c>
       <c r="M286" s="12" t="inlineStr">
